--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D036F680-C0C4-DA4F-9D26-380B62ADE814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF2B7AD-E31F-1F49-9214-D292597EC288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="500" windowWidth="27600" windowHeight="16900" activeTab="1" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -458,6 +458,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="60.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF2B7AD-E31F-1F49-9214-D292597EC288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CFAB5F-DA33-E842-AF05-6E465F24AA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="500" windowWidth="27600" windowHeight="16900" activeTab="1" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
+    <workbookView xWindow="820" yWindow="500" windowWidth="27600" windowHeight="16900" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
   <sheets>
     <sheet name="curriculo" sheetId="2" r:id="rId1"/>
     <sheet name="qualificacao-academica" sheetId="1" r:id="rId2"/>
+    <sheet name="artigos-em-periodicos" sheetId="4" r:id="rId3"/>
+    <sheet name="aplicativos-com-registro" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,8 +38,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={210E2058-D31F-3B49-B022-D4620DD7611C}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{210E2058-D31F-3B49-B022-D4620DD7611C}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    https://citation.crosscite.org</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Doutorado</t>
   </si>
@@ -73,6 +93,60 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1A9_MQZh2FRnfdDCk9ArUYvMdoOnHXwec</t>
+  </si>
+  <si>
+    <t>MYO</t>
+  </si>
+  <si>
+    <t>DiagMTC</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_v3KtjM0xT8pRy52EZEAXKRt8pOtHp-o</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aK5gFRb4R4vk2BBPu7hTjgJhSQ0gu8bp</t>
+  </si>
+  <si>
+    <t>Audiometer</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_yJDV83QFfS6btgAnFx1voFNBwFodMjg</t>
+  </si>
+  <si>
+    <t>Pessoas com Amputação</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_yHXBIbbuNwrlfcqZXlnIuFQQ_oayinb</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bUQ5stRzSU6sIMsWPMVK4eSGqxErdBJw</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WUtJjFKiXdxP7-10Sl60pVQnov7sumtr</t>
+  </si>
+  <si>
+    <t>Ferreira, Arthur de Sá, Marcio Nogueira de Souza, and José Barbosa Filho. 2008. “Avaliação de Um Modelo de Parâmetros Distribuídos Aplicado à Estimação Da Geometria Arterial Na Hipertensão.” Revista Brasileira de Engenharia Biomédica. Editora Cubo. https://doi.org/10.4322/rbeb.2012.057.</t>
+  </si>
+  <si>
+    <t>Ferreira, A S, M A R Santos, J Barbosa Filho, I Cordovil, and M N Souza. 2003. “Determination of Radial Artery Compliance Can Increase the Diagnostic Power of Pulse Wave Velocity Measurement.” Physiological Measurement. IOP Publishing. https://doi.org/10.1088/0967-3334/25/1/004.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Wg4BIOJQJOQPFnZlLz0hxpX-1GNpQQzs</t>
+  </si>
+  <si>
+    <t>DOI</t>
+  </si>
+  <si>
+    <t>10.1088/0967-3334/25/1/004</t>
+  </si>
+  <si>
+    <t>10.4322/rbeb.2012.057</t>
+  </si>
+  <si>
+    <t>10.3736/jcim20081103</t>
+  </si>
+  <si>
+    <t>Ferreira, AS. 2008. “Statistical Validation of Strategies for Zang-Fu Single Pattern differentiation.” Journal of Chinese Integrative Medicine. Journal of Chinese Integrative Medicine Press. https://doi.org/10.3736/jcim20081103.</t>
   </si>
 </sst>
 </file>
@@ -133,11 +207,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -154,6 +249,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Arthur de Sá Ferreira" id="{DF99B094-8537-A74A-821D-4A456C6826F4}" userId="S::arthurde@unisuamdoc.com.br::b408e074-6dbd-4934-8ca7-fa5ae409e255" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,6 +552,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2022-11-04T12:25:39.86" personId="{DF99B094-8537-A74A-821D-4A456C6826F4}" id="{210E2058-D31F-3B49-B022-D4620DD7611C}">
+    <text>https://citation.crosscite.org</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AFE2F4-32B3-5A4F-B0D3-5766AC05F50D}">
   <dimension ref="A1:B2"/>
@@ -459,22 +568,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="60.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="60.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -490,51 +601,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D1E7F6-9CC4-3F47-94C6-0D2C226162C7}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -547,4 +659,137 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43" style="6" customWidth="1"/>
+    <col min="2" max="2" width="64.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{B79F2BA8-3E3E-3D4D-9EDE-43EBA11C9407}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{1BC164A6-E83A-D14F-970A-5B899B7DCB55}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{A12E654D-D2B2-4F48-BC4F-9D3A1B9A7B5F}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D49A42-744A-EE4A-B294-D2CA066FEF3F}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{9AD72881-6A9A-484B-B50E-3A319D3A3009}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{0D5DFB21-CDB8-9246-84F1-F449719170FE}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{1242E38A-BBEE-CE4E-B8DA-41D77806E8FD}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{50E8287C-B0FB-054A-A8E3-FBAD7129557B}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CFAB5F-DA33-E842-AF05-6E465F24AA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4575B054-A162-1149-9A1D-1D7A6043F655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="500" windowWidth="27600" windowHeight="16900" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Doutorado</t>
   </si>
@@ -125,12 +125,6 @@
     <t>https://drive.google.com/file/d/1WUtJjFKiXdxP7-10Sl60pVQnov7sumtr</t>
   </si>
   <si>
-    <t>Ferreira, Arthur de Sá, Marcio Nogueira de Souza, and José Barbosa Filho. 2008. “Avaliação de Um Modelo de Parâmetros Distribuídos Aplicado à Estimação Da Geometria Arterial Na Hipertensão.” Revista Brasileira de Engenharia Biomédica. Editora Cubo. https://doi.org/10.4322/rbeb.2012.057.</t>
-  </si>
-  <si>
-    <t>Ferreira, A S, M A R Santos, J Barbosa Filho, I Cordovil, and M N Souza. 2003. “Determination of Radial Artery Compliance Can Increase the Diagnostic Power of Pulse Wave Velocity Measurement.” Physiological Measurement. IOP Publishing. https://doi.org/10.1088/0967-3334/25/1/004.</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1Wg4BIOJQJOQPFnZlLz0hxpX-1GNpQQzs</t>
   </si>
   <si>
@@ -146,7 +140,58 @@
     <t>10.3736/jcim20081103</t>
   </si>
   <si>
-    <t>Ferreira, AS. 2008. “Statistical Validation of Strategies for Zang-Fu Single Pattern differentiation.” Journal of Chinese Integrative Medicine. Journal of Chinese Integrative Medicine Press. https://doi.org/10.3736/jcim20081103.</t>
+    <t>https://drive.google.com/file/d/1_XuPeF-KsJlOgbiARguBd_4G12brjgDZ</t>
+  </si>
+  <si>
+    <t>10.1016/j.bspc.2008.07.001</t>
+  </si>
+  <si>
+    <t>Ferreira, A. S., Santos, M. A. R., Filho, J. B., Cordovil, I., &amp; Souza, M. N. (2003). Determination of radial artery compliance can increase the diagnostic power of pulse wave velocity measurement. In Physiological Measurement (Vol. 25, Issue 1, pp. 37–50). IOP Publishing. https://doi.org/10.1088/0967-3334/25/1/004</t>
+  </si>
+  <si>
+    <t>Ferreira, A. de S., Souza, M. N. de, &amp; Filho, J. B. (2008). Avaliação de um modelo de parâmetros distribuídos aplicado à estimação da geometria arterial na hipertensão. In Revista Brasileira de Engenharia Biomédica (Vol. 24, Issue 3, pp. 193–200). Editora Cubo. https://doi.org/10.4322/rbeb.2012.057</t>
+  </si>
+  <si>
+    <t>Ferreira, AS. (2008). Statistical validation of strategies for Zang-Fu single patterndifferentiation. In Journal of Chinese Integrative Medicine (Vol. 6, Issue 11, pp. 1109–1116). Journal of Chinese Integrative Medicine Press. https://doi.org/10.3736/jcim20081103</t>
+  </si>
+  <si>
+    <t>de Sá Ferreira, A., Filho, J. B., Cordovil, I., &amp; de Souza, M. N. (2009). Three-section transmission-line arterial model for noninvasive assessment of vascular remodeling in primary hypertension. In Biomedical Signal Processing and Control (Vol. 4, Issue 1, pp. 2–6). Elsevier BV. https://doi.org/10.1016/j.bspc.2008.07.001</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_WtDQiVIUUyrDY43QbIdXFT8QatxyWv3</t>
+  </si>
+  <si>
+    <t>10.3736/jcim20091011</t>
+  </si>
+  <si>
+    <t>Ferreira, A. (2009). Prophylactic effects of short-term acupuncture on Zusanli (ST36) in Wistar rats with lipopolysaccharide-induced acute lung injury. In Journal of Chinese Integrative Medicine (Vol. 7, Issue 10, pp. 969–975). Journal of Chinese Integrative Medicine Press. https://doi.org/10.3736/jcim20091011</t>
+  </si>
+  <si>
+    <t>10.1186/1749-8546-4-24</t>
+  </si>
+  <si>
+    <t>Ferreira, A. (2009). Diagnostic accuracy of pattern differentiation algorithm based on Chinese medicine theory: a stochastic simulation study. In Chinese Medicine (Vol. 4, Issue 1, p. 24). Springer Science and Business Media LLC. https://doi.org/10.1186/1749-8546-4-24</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_X-sChHNUQ91cmgbL3kxh8DzVdFlOT81</t>
+  </si>
+  <si>
+    <t>10.1590/S1809-29502009000400014</t>
+  </si>
+  <si>
+    <t>Silva, J. G., Antonioli, R. de S., Orsini, M., Santos Júnior, M. A. J. dos, &amp; Ferreira, A. de S. (2009). Mobilização do osso pisiforme no tratamento da neuropraxia do nervo ulnar no canal de Guyon: relato de caso. In Fisioterapia e Pesquisa (Vol. 16, Issue 4, pp. 363–367). FapUNIFESP (SciELO). https://doi.org/10.1590/s1809-29502009000400014</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_aYUw_jc3gQmywAV3nja2kX93iTGWEC6</t>
+  </si>
+  <si>
+    <t>10.1590/S0103-51502010000200003</t>
+  </si>
+  <si>
+    <t>Ferreira, A. de S., Gave, N. de S., Abrahão, F., &amp; Silva, J. G. (2010). Influência da morfologia de pés e joelhos no equilíbrio durante apoio bipodal. In Fisioterapia em Movimento (Vol. 23, Issue 2, pp. 193–200). FapUNIFESP (SciELO). https://doi.org/10.1590/s0103-51502010000200003</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_k08Fhb9JMHguJ7tPzvZYgY13cIlqNMa</t>
   </si>
 </sst>
 </file>
@@ -207,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -229,9 +274,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -564,7 +606,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AFE2F4-32B3-5A4F-B0D3-5766AC05F50D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -601,7 +648,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D1E7F6-9CC4-3F47-94C6-0D2C226162C7}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -663,9 +715,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -683,40 +740,95 @@
         <v>6</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>26</v>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -724,9 +836,14 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{B79F2BA8-3E3E-3D4D-9EDE-43EBA11C9407}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{1BC164A6-E83A-D14F-970A-5B899B7DCB55}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{A12E654D-D2B2-4F48-BC4F-9D3A1B9A7B5F}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{B09D0E03-4C3E-CC4E-947F-D5B118B6EF70}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{239DF5AB-3DC7-274C-A694-DEEEEF0F9DAA}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{2092A95E-CA37-4046-AC51-93D176F99E84}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{A6475C04-AFB4-1341-993A-6692407EE31F}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{ABE64E55-AB80-8A44-9ADF-D090A9FD9083}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId4"/>
+  <legacyDrawing r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -734,7 +851,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D49A42-744A-EE4A-B294-D2CA066FEF3F}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4575B054-A162-1149-9A1D-1D7A6043F655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703D0A6C-F8AC-BC45-90A1-C8148712CF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="500" windowWidth="27600" windowHeight="16900" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>Doutorado</t>
   </si>
@@ -192,6 +192,69 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1_k08Fhb9JMHguJ7tPzvZYgY13cIlqNMa</t>
+  </si>
+  <si>
+    <t>10.1007/s11655-011-0892-y</t>
+  </si>
+  <si>
+    <t>Ferreira, A. S., &amp; Lopes, A. J. (2011). Chinese medicine pattern differentiation and its implications for clinical practice. In Chinese Journal of Integrative Medicine (Vol. 17, Issue 11, pp. 818–823). Springer Science and Business Media LLC. https://doi.org/10.1007/s11655-011-0892-y</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Zk4qAccS6sc42PTizJ29ddRKetYKraYY</t>
+  </si>
+  <si>
+    <t>10.1016/j.bspc.2010.11.003</t>
+  </si>
+  <si>
+    <t>Ferreira, A. de S., Filho, J. B., &amp; Souza, M. N. de. (2011). Model for post-occlusive reactive hyperemia as measured noninvasively with pressure pulse waveform. In Biomedical Signal Processing and Control (Vol. 6, Issue 4, pp. 410–413). Elsevier BV. https://doi.org/10.1016/j.bspc.2010.11.003</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZuwDW0SLJ5Mo2VpuYtpSuhWaVPI1rWp8</t>
+  </si>
+  <si>
+    <t>10.1590/S0103-51502011000400006</t>
+  </si>
+  <si>
+    <t>Ferreira, A. de S., Oliveira, J. F. de, Cordovil, I., &amp; Barbosa Filho, J. (2011). Quadriceps short-term resistance exercise in subjects with resistant hypertension. In Fisioterapia em Movimento (Vol. 24, Issue 4, pp. 629–636). FapUNIFESP (SciELO). https://doi.org/10.1590/s0103-51502011000400006</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Zt6ibjcYtr_8Y3-ciCs-mT6J_hnsYx9v</t>
+  </si>
+  <si>
+    <t>10.1186/1749-8546-6-1</t>
+  </si>
+  <si>
+    <t>Sá Ferreira, A. (2011). Misdiagnosis and undiagnosis due to pattern similarity in Chinese medicine: a stochastic simulation study using pattern differentiation algorithm. In Chinese Medicine (Vol. 6, Issue 1, p. 1). Springer Science and Business Media LLC. https://doi.org/10.1186/1749-8546-6-1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_65zXjr636zKZlD8-nhQya3NKt1olNI-</t>
+  </si>
+  <si>
+    <t>10.1186/1749-8546-6-23</t>
+  </si>
+  <si>
+    <t>Luiz, A. B., Cordovil, I., Filho, J. B., &amp; Ferreira, A. S. (2011). Zangfu zheng (patterns) are associated with clinical manifestations of zang shang (target-organ damage) in arterial hypertension. In Chinese Medicine (Vol. 6, Issue 1). Springer Science and Business Media LLC. https://doi.org/10.1186/1749-8546-6-23</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Zly3UFSy0bAT2ssIyrBJA4BN_nByM5XA</t>
+  </si>
+  <si>
+    <t>10.1590/S1808-86942011000200009</t>
+  </si>
+  <si>
+    <t>Silva, A. L. dos S., Marinho, M. R. C., Gouveia, F. M. de V., Silva, J. G., Ferreira, A. de S., &amp; Cal, R. (2011). Benign Paroxysmal Positional Vertigo: comparison of two recent international guidelines. In Brazilian Journal of Otorhinolaryngology (Vol. 77, Issue 2, pp. 191–200). FapUNIFESP (SciELO). https://doi.org/10.1590/s1808-86942011000200009</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZzIugcW-uSHKh598B3vqJpUpbNToEwTi</t>
+  </si>
+  <si>
+    <t>10.1590/S0103-51502011000300007</t>
+  </si>
+  <si>
+    <t>Povoa, L. C., Vanuzzi, F. K., Ferreira, A. P. A., &amp; Ferreira, A. de S. (2011). Intervenção osteopática em idosos e o impacto na qualidade de vida. In Fisioterapia em Movimento (Vol. 24, Issue 3, pp. 429–436). FapUNIFESP (SciELO). https://doi.org/10.1590/s0103-51502011000300007</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_CcJHcVET-vdrudyzqJYtYcH79w7GyXD</t>
   </si>
 </sst>
 </file>
@@ -715,13 +778,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -831,6 +894,83 @@
         <v>42</v>
       </c>
     </row>
+    <row r="10" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{B79F2BA8-3E3E-3D4D-9EDE-43EBA11C9407}"/>
@@ -841,9 +981,16 @@
     <hyperlink ref="B7" r:id="rId6" xr:uid="{2092A95E-CA37-4046-AC51-93D176F99E84}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{A6475C04-AFB4-1341-993A-6692407EE31F}"/>
     <hyperlink ref="B9" r:id="rId8" xr:uid="{ABE64E55-AB80-8A44-9ADF-D090A9FD9083}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{828F391A-85FD-2B4A-A8DC-6A97A20C0F49}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{F075FC0D-8C16-1E42-A74E-A5206D44FFF4}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{733E0BA0-1597-F443-AC10-2297BF3494AE}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{E7CDECD6-C441-A84A-8CD5-822540F21D6F}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{D9034E25-AD51-E94B-81C8-D6268076902A}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{A75C513A-C4CD-544C-B8DF-C8622168D8FF}"/>
+    <hyperlink ref="B15" r:id="rId15" xr:uid="{C25C1D58-38B6-1C4D-9141-AEE65D037BEC}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId9"/>
+  <legacyDrawing r:id="rId16"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703D0A6C-F8AC-BC45-90A1-C8148712CF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F392A1-FDAF-664C-BB3E-DBCA7D56EC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="500" windowWidth="27600" windowHeight="16900" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
   <si>
     <t>Doutorado</t>
   </si>
@@ -83,9 +83,6 @@
     <t>https://drive.google.com/file/d/1Abq1Z6s4pyJGbShCt-dczAldbNLQtfwL</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1A1xrCFgmh4przT4iyZJZqWDxdoy9glFf</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1A570DvYR4Gw2LeVKaAchVu2B4frvtJ7l</t>
   </si>
   <si>
@@ -255,6 +252,81 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1_CcJHcVET-vdrudyzqJYtYcH79w7GyXD</t>
+  </si>
+  <si>
+    <t>10.1016/j.bspc.2012.03.001</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XFVblzigjcAJrkz4Cry6uAhqj97v05e4</t>
+  </si>
+  <si>
+    <t>Ferreira, A. de S., Filho, J. B., Cordovil, I., &amp; Souza, M. N. de. (2012). Noninvasive pressure pulse waveform analysis of flow-mediated vasodilation evoked by post-occlusive reactive hyperemia maneuver. In Biomedical Signal Processing and Control (Vol. 7, Issue 6, pp. 616–621). Elsevier BV. https://doi.org/10.1016/j.bspc.2012.03.001</t>
+  </si>
+  <si>
+    <t>10.1007/s11655-012-1245-1</t>
+  </si>
+  <si>
+    <t>Fragoso, A. P. de S., &amp; Ferreira, A. de S. (2012). Statistical distribution of acupoint prescriptions for sensory-motor impairments in post-stroke subjects. In Chinese Journal of Integrative Medicine. Springer Science and Business Media LLC. https://doi.org/10.1007/s11655-012-1245-1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1X5XlRFHmsMx8GV11SsNsiXmQfeVggU3e</t>
+  </si>
+  <si>
+    <t>10.1186/1749-8546-7-7</t>
+  </si>
+  <si>
+    <t>Fragoso, A. P. S., &amp; Ferreira, A. S. (2012). Immediate effects of acupuncture on biceps brachii muscle function in healthy and post-stroke subjects. In Chinese Medicine (Vol. 7, Issue 1, p. 7). Springer Science and Business Media LLC. https://doi.org/10.1186/1749-8546-7-7</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WxQa40PS7YxkFKfVkBNCFYPuaf0q5CJG</t>
+  </si>
+  <si>
+    <t>10.3736/jcim20120309</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XRE5bRlt3OWwL4CaNt7YIxieRgtiVnR8</t>
+  </si>
+  <si>
+    <t>10.1134/S1054660X12090083</t>
+  </si>
+  <si>
+    <t>Lima, J. G. M., Oliveira Filho, G. R., Lima, M. T. B. R. M., Ferreira, A. S., &amp; Silva, J. G. (2012). Influence of low intensity laser therapy (AsGa) on the cicatrization process of mechanic tendon injury in wistar rats. In Laser Physics (Vol. 22, Issue 9, pp. 1445–1448). Pleiades Publishing Ltd. https://doi.org/10.1134/s1054660x12090083</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1X0jkL7cOYFDwGMNYO8tXHgXNzquzHBA2</t>
+  </si>
+  <si>
+    <t>10.4081/monaldi.2012.145</t>
+  </si>
+  <si>
+    <t>Lopes, A. J., Mafort, T. T., De SÃ¡ Ferreira, A., Santos de Castro, M. C., De CÃ¡ssia Firmida, M., &amp; De Andrade Marques, E. (2015). Is the type of chronic pulmonary infection a determinant of lung function outcomes in adult patients with cystic fibrosis? In Monaldi Archives for Chest Disease (Vol. 77, Issues 3–4). PAGEPress Publications. https://doi.org/10.4081/monaldi.2012.145</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1X-xMsK5mf8uCZC5RZNux314w2fMFAepX</t>
+  </si>
+  <si>
+    <t>10.1016/j.rppneu.2012.04.006</t>
+  </si>
+  <si>
+    <t>Lopes, A. J., Costa, W., Thomaz Mafort, T., de Sá Ferreira, A., Silveira de Menezes, S. L., &amp; Silva Guimarães, F. (2012). Silicose em jateadores de areia de estaleiro versus silicose em escultores de pedra no Brasil: uma comparação dos achados de imagem, função pulmonar e teste de exercício cardiopulmonar. In Revista Portuguesa de Pneumologia (Vol. 18, Issue 6, pp. 260–266). Elsevier BV. https://doi.org/10.1016/j.rppneu.2012.04.006</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XLLd--S1nTpqpbXPuKEgA_naml45IwFz</t>
+  </si>
+  <si>
+    <t>10.1590/S1809-29502012000400016</t>
+  </si>
+  <si>
+    <t>Pereira, R. B., Orsini, M., Ferreira, A. de S., Silva, J. G., Corrêa, C. L., Freitas, M. R. D., Coelho, V. M., Goulart, M. C., Kagohara, N., Souza, G. G. L., &amp; Menezes, S. L. de. (2012). Efeitos do uso de órteses na Doença de Charcot-Marie-Tooth: atualização da literatura. In Fisioterapia e Pesquisa (Vol. 19, Issue 4, pp. 388–393). FapUNIFESP (SciELO). https://doi.org/10.1590/s1809-29502012000400016</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XDNES7t1-1xnQWwqVTJIYi1ZTicP3oEJ</t>
+  </si>
+  <si>
+    <t>Fragoso, A. (2012). Evaluation of the immediate effects of manual acupuncture on brachial bicep muscle function in healthy individuals and poststroke patients: a study protocol of a parallel-group randomized clinical trial. In Journal of Chinese Integrative Medicine (Vol. 10, Issue 3, pp. 303–309). Journal of Chinese Integrative Medicine Press. https://doi.org/10.3736/jcim20120309</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DZtO12Cuy3tDu1TuF7ELzkj0CubpnQwa</t>
   </si>
 </sst>
 </file>
@@ -363,7 +435,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -651,7 +723,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -738,7 +810,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -746,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -754,7 +826,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -762,15 +834,15 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{166F06BC-2DFD-194A-AC20-328FFB51718F}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{93D33320-682A-A747-9092-70684B45FDD3}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{B4D7E776-B178-8643-97AA-FFB87F0C5856}"/>
-    <hyperlink ref="B2" r:id="rId4" xr:uid="{2D6EE47E-AC7F-934F-83A1-119C9DF840BA}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{B4D7E776-B178-8643-97AA-FFB87F0C5856}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{2D6EE47E-AC7F-934F-83A1-119C9DF840BA}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{27672AEF-2742-124F-BCEC-64172CFB42FC}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -778,13 +850,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -803,172 +875,260 @@
         <v>6</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="C8" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="C9" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="C11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="C12" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="C13" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="C14" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -988,9 +1148,17 @@
     <hyperlink ref="B14" r:id="rId13" xr:uid="{D9034E25-AD51-E94B-81C8-D6268076902A}"/>
     <hyperlink ref="B16" r:id="rId14" xr:uid="{A75C513A-C4CD-544C-B8DF-C8622168D8FF}"/>
     <hyperlink ref="B15" r:id="rId15" xr:uid="{C25C1D58-38B6-1C4D-9141-AEE65D037BEC}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{53359184-A500-F345-B5CF-370809749490}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{C75595BB-FEAE-C44D-A5E9-E2102FAB131B}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{8DFE39CF-A274-B04E-9C05-373375104A8E}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{6BCB21CD-9D72-BD40-A947-177E66616DC6}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{516AB946-3702-DD4C-85A6-E83B41D3614B}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{F9773DA7-7F7D-FD48-A4D3-0C1B14512E59}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{8975CDAF-CB42-CD40-BCF2-5BE5C6BB14FB}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{071D8237-C384-A440-9480-BAD41B8569A3}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId16"/>
+  <legacyDrawing r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -1022,34 +1190,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F392A1-FDAF-664C-BB3E-DBCA7D56EC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919C5E54-AFC7-1E48-B463-4078504EA844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="500" windowWidth="27600" windowHeight="16900" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="120">
   <si>
     <t>Doutorado</t>
   </si>
@@ -209,9 +209,6 @@
     <t>https://drive.google.com/file/d/1ZuwDW0SLJ5Mo2VpuYtpSuhWaVPI1rWp8</t>
   </si>
   <si>
-    <t>10.1590/S0103-51502011000400006</t>
-  </si>
-  <si>
     <t>Ferreira, A. de S., Oliveira, J. F. de, Cordovil, I., &amp; Barbosa Filho, J. (2011). Quadriceps short-term resistance exercise in subjects with resistant hypertension. In Fisioterapia em Movimento (Vol. 24, Issue 4, pp. 629–636). FapUNIFESP (SciELO). https://doi.org/10.1590/s0103-51502011000400006</t>
   </si>
   <si>
@@ -327,6 +324,99 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1DZtO12Cuy3tDu1TuF7ELzkj0CubpnQwa</t>
+  </si>
+  <si>
+    <t>de Almeida, V. P., Guimarães, F. S., Moço, V. J. R., de Sá Ferreira, A., de Menezes, S. L. S., &amp; Lopes, A. J. (2013). Is there an association between postural balance and pulmonary function in adults with asthma? In Clinics (Vol. 68, Issue 11, pp. 1421–1427). Elsevier BV. https://doi.org/10.6061/clinics/2013(11)07</t>
+  </si>
+  <si>
+    <t>10.6061/clinics/2013(11)07</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Z4grGkUz_cbnxgK-BfGAi0F-JOAq6Tru</t>
+  </si>
+  <si>
+    <t>Baracat, P. J. F., &amp; de Sá Ferreira, A. (2013). Postural tasks are associated with center of pressure spatial patterns of three-dimensional statokinesigrams in young and elderly healthy subjects. In Human Movement Science (Vol. 32, Issue 6, pp. 1325–1338). Elsevier BV. https://doi.org/10.1016/j.humov.2013.06.005</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ysrtc0ykjgZuKDfsAjJU_IRrucgsvCHJ</t>
+  </si>
+  <si>
+    <t>10.1016/j.humov.2013.06.005</t>
+  </si>
+  <si>
+    <t>10.1590/S1809-29502013000300016</t>
+  </si>
+  <si>
+    <t>Costa, M. S. da S., Ferreira, A. de S., &amp; Felicio, L. R. (2013). Equilíbrio estático e dinâmico em bailarinos: revisão da literatura. In Fisioterapia e Pesquisa (Vol. 20, Issue 3, pp. 299–305). FapUNIFESP (SciELO). https://doi.org/10.1590/s1809-29502013000300016</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Z1RUuH-t4yacg8c0lY9pA6U38Crr-qsh</t>
+  </si>
+  <si>
+    <t>10.1007/s11655-013-1412-z</t>
+  </si>
+  <si>
+    <t>de Sá Ferreira, A., &amp; Lopes, A. J. (2013). Pulse waveform analysis as a bridge between pulse examination in Chinese medicine and cardiology. In Chinese Journal of Integrative Medicine (Vol. 19, Issue 4, pp. 307–314). Springer Science and Business Media LLC. https://doi.org/10.1007/s11655-013-1412-z</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_U7waCYw2DVCvY64hgsfTN8bv13Ew-6q</t>
+  </si>
+  <si>
+    <t>10.1186/1749-8546-8-24</t>
+  </si>
+  <si>
+    <t>Ferreira, A. S., &amp; Luiz, A. B. (2013). Role of dermatomes in the determination of therapeutic characteristics of channel acupoints: a similarity-based analysis of data compiled from literature. In Chinese Medicine (Vol. 8, Issue 1, p. 24). Springer Science and Business Media LLC. https://doi.org/10.1186/1749-8546-8-24</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YsNN25ajiPn1h-U5FPldPq5jFCxw-uw4</t>
+  </si>
+  <si>
+    <t>10.1590/S0103-51502013000300009</t>
+  </si>
+  <si>
+    <t>Ferreira, A. de S., Guimarães, F. S., Magalhães, M. A. R., &amp; Silva, R. C. S. e. (2013). Accuracy and learning curves of inexperienced observers for manual segmentation of electromyograms. In Fisioterapia em Movimento (Vol. 26, Issue 3, pp. 559–567). FapUNIFESP (SciELO). https://doi.org/10.1590/s0103-51502013000300009</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YrkX0jEeX6tjZNJ2N7_x5t83HVLnwEcd</t>
+  </si>
+  <si>
+    <t>10.1016/j.bspc.2012.10.004</t>
+  </si>
+  <si>
+    <t>Ferreira, A. de S. (2013). Resonance phenomenon during wrist pulse-taking: A stochastic simulation, model-based study of the ‘pressing with one finger’ technique. In Biomedical Signal Processing and Control (Vol. 8, Issue 3, pp. 229–236). Elsevier BV. https://doi.org/10.1016/j.bspc.2012.10.004</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_PNcaRClIyKu7KojdXbblYntOPXIaOkx</t>
+  </si>
+  <si>
+    <t>10.1007/s11655-013-1451-5</t>
+  </si>
+  <si>
+    <t>de Sá Ferreira, A. (2013). Evidence-based practice of Chinese medicine in physical rehabilitation science. In Chinese Journal of Integrative Medicine (Vol. 19, Issue 10, pp. 723–729). Springer Science and Business Media LLC. https://doi.org/10.1007/s11655-013-1451-5</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Yt9a4EoOv3T7qvX4I3r-V-dvX7n0YFtl</t>
+  </si>
+  <si>
+    <t>10.1038/hr.2013.15</t>
+  </si>
+  <si>
+    <t>Ferreira, A. de S. (2013). Integrative medicine for hypertension: the earlier the better for treating who and what are not yet ill. In Hypertension Research (Vol. 36, Issue 7, pp. 583–585). Springer Science and Business Media LLC. https://doi.org/10.1038/hr.2013.15</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_CqFEFnSgJtoK4ls-Mgdy1ujIjTH4Qoo</t>
+  </si>
+  <si>
+    <t>10.3736/jintegrmed2013013</t>
+  </si>
+  <si>
+    <t>de Sá Ferreira, A. (2013). Promoting integrative medicine by computerization of traditional Chinese medicine for scientific research and clinical practice: The SuiteTCM Project. In Journal of Integrative Medicine (Vol. 11, Issue 2, pp. 135–139). Elsevier BV. https://doi.org/10.3736/jintegrmed2013013</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YcccIlrwzVbMbw_8tI4AWkhAASoDdhnk</t>
+  </si>
+  <si>
+    <t>10.1590/s0103-51502011000400006</t>
   </si>
 </sst>
 </file>
@@ -387,7 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -408,6 +498,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -818,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -850,13 +943,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -874,7 +967,7 @@
       <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -885,7 +978,7 @@
       <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -896,7 +989,7 @@
       <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -907,7 +1000,7 @@
       <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -990,145 +1083,255 @@
     </row>
     <row r="12" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="C12" s="6" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="C13" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="C14" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="C18" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="C19" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="C21" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="C22" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="C23" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="C24" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1156,9 +1359,19 @@
     <hyperlink ref="B22" r:id="rId21" xr:uid="{F9773DA7-7F7D-FD48-A4D3-0C1B14512E59}"/>
     <hyperlink ref="B23" r:id="rId22" xr:uid="{8975CDAF-CB42-CD40-BCF2-5BE5C6BB14FB}"/>
     <hyperlink ref="B24" r:id="rId23" xr:uid="{071D8237-C384-A440-9480-BAD41B8569A3}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{BC9791F7-2847-8148-A9A0-AFC1934E923B}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{B42E5E59-A99E-D645-922B-462EA905C7EB}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{88ABA76F-795F-6C45-AEE2-8ADF2E952AA9}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{9A9091F4-9B24-354E-A0D6-0663442917BF}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{84158B3B-74D7-DD4D-8FED-B523C8DB94EF}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{BD038DB7-23DC-2A47-9941-9D09F62697EB}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{678A2815-1E03-6649-8088-46ECA75169F4}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{CD5B782C-C4EF-E646-85D5-CCC7D2A820BB}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{5DDF7C99-F48A-F249-9B02-2BB173193F97}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{56AF04F0-B1E1-964D-8E49-D6C4E0505570}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId24"/>
+  <legacyDrawing r:id="rId34"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919C5E54-AFC7-1E48-B463-4078504EA844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB10FE4-41C8-2142-A54B-AC75D69C628C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="500" windowWidth="27600" windowHeight="16900" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="159">
   <si>
     <t>Doutorado</t>
   </si>
@@ -417,6 +417,123 @@
   </si>
   <si>
     <t>10.1590/s0103-51502011000400006</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbiomech.2014.07.010</t>
+  </si>
+  <si>
+    <t>de Sá Ferreira, A., &amp; Junqueira Ferraz Baracat, P. (2014). Test–retest reliability for assessment of postural stability using center of pressure spatial patterns of three-dimensional statokinesigrams in young health participants. In Journal of Biomechanics (Vol. 47, Issue 12, pp. 2919–2924). Elsevier BV. https://doi.org/10.1016/j.jbiomech.2014.07.010</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ROL8Kc_KD9pRNhisRSZATQjjX-_UYcZ3</t>
+  </si>
+  <si>
+    <t>10.4330/wjc.v6.i5.295</t>
+  </si>
+  <si>
+    <t>Ferreira, A. de S., &amp; Moura, N. G. R. de. (2014). Asserted and neglected issues linking evidence-based and Chinese medicines for cardiac rehabilitation. In World Journal of Cardiology (Vol. 6, Issue 5, p. 295). Baishideng Publishing Group Inc. https://doi.org/10.4330/wjc.v6.i5.295</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RHFy9AIL5jrlyVpjVklrevaLOIL4CF-R</t>
+  </si>
+  <si>
+    <t>10.12968/ijtr.2014.21.4.183</t>
+  </si>
+  <si>
+    <t>Ng, S. S., Fong, S. S., Lam, S. S., Lai, C. W., Chow, L. P., &amp; de Sá Ferreira, A. (2014). Acupressure and task-related training after stroke: A case study. In International Journal of Therapy and Rehabilitation (Vol. 21, Issue 4, pp. 183–189). Mark Allen Group. https://doi.org/10.12968/ijtr.2014.21.4.183</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RmqfGxpbrksXbae_DEqShsdcBBjmU2Cv</t>
+  </si>
+  <si>
+    <t>10.1590/0103-5150.027.004.ED01</t>
+  </si>
+  <si>
+    <t>Concordar ou discordar: (eis) a questão da diversidade. (2014). In Fisioterapia em Movimento (Vol. 27, Issue 4, pp. 491–492). FapUNIFESP (SciELO). https://doi.org/10.1590/0103-5150.027.004.ed01</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RQg9aPV6s-TUpXzJ9aE88xsWScW7TzP0</t>
+  </si>
+  <si>
+    <t>10.3109/09593985.2013.820246</t>
+  </si>
+  <si>
+    <t>Lima, T. R. L., Guimarães, F. S., Sá Ferreira, A., Penafortes, J. T. S., Almeida, V. P., &amp; Lopes, A. J. (2013). Correlation between posture, balance control, and peripheral muscle function in adults with cystic fibrosis. In Physiotherapy Theory and Practice (Vol. 30, Issue 2, pp. 79–84). Informa UK Limited. https://doi.org/10.3109/09593985.2013.820246</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Q7LZybwN8UF8WEU2mfzeL6OpUFL_uVh3</t>
+  </si>
+  <si>
+    <t>10.1589/jpts.27.719</t>
+  </si>
+  <si>
+    <t>Lopes, A. J., Guedes da Silva, D. P., Ferreira, A. de S., Kasuki, L., Gadelha, M. R., &amp; Guimarães, F. S. (2015). What is the effect of peripheral muscle fatigue, pulmonary function, and body composition on functional exercise capacity in acromegalic patients? In Journal of Physical Therapy Science (Vol. 27, Issue 3, pp. 719–724). Society of Physical Therapy Science. https://doi.org/10.1589/jpts.27.719</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RCCpjiWpyJurmCbNs_2_vUYz8oj7_FjB</t>
+  </si>
+  <si>
+    <t>10.5007/1980-0037.2014v16n3p287</t>
+  </si>
+  <si>
+    <t>Mainenti, M. R. M., Rodrigues, E. D. C., Ferreira, A. D. S., Sousa, R. C. M. de, &amp; Silva, D. T. R. da. (2014). Alinhamento articular de membros inferiores e controle postural em idosas. In Revista Brasileira de Cineantropometria e Desempenho Humano (Vol. 16, Issue 3, p. 287). FapUNIFESP (SciELO). https://doi.org/10.5007/1980-0037.2014v16n3p287</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Rw58daEuCikkqUKNmdlMnJzL59NORlUF</t>
+  </si>
+  <si>
+    <t>10.19177/cntc.v2e3201339-47</t>
+  </si>
+  <si>
+    <t>Oliveira, P. C., Silva, M. C. S., Silva, M. C. S., &amp; Ferreira, A. D. S. (2013). Tratamento da fibromialgia por acupuntura baseado na diferenciação de padrões: Revisão sistemática. In Cadernos de Naturologia e Terapias Complementares (Vol. 2, Issue 3, p. 39). Universidade do Sul de Santa Catarina - UNISUL. https://doi.org/10.19177/cntc.v2e3201339-47</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RWkbQ4wfYKcUlCLtrOS-cHddDtKDc-rY</t>
+  </si>
+  <si>
+    <t>10.1590/1809-2950/515210114</t>
+  </si>
+  <si>
+    <t>Pereira, R. B., Felício, L. R., Ferreira, A. de S., Menezes, S. L. de, Freitas, M. R. G. de, &amp; Orsini, M. (2014). Immediate effects of using ankle-foot orthoses in the kinematics of gait and in the balance reactions in Charcot-Marie-Tooth disease. In Fisioterapia e Pesquisa (Vol. 21, Issue 1, pp. 87–93). FapUNIFESP (SciELO). https://doi.org/10.1590/1809-2950/515210114</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1R2QiU5LUCw9IsmwTCpEl9FmwBgu-nmbI</t>
+  </si>
+  <si>
+    <t>10.1080/00222895.2014.916651</t>
+  </si>
+  <si>
+    <t>Portela, F. M., &amp; Ferreira, A. S. (2014). Kinematic Mapping Reveals Different Spatial Distributions of Center of Pressure High-Speed Regions Under Somatosensory Loss. In Journal of Motor Behavior (Vol. 46, Issue 5, pp. 369–379). Informa UK Limited. https://doi.org/10.1080/00222895.2014.916651</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RxnFBLO1TBemPpXGVNpcAhRFDubV6Jk3</t>
+  </si>
+  <si>
+    <t>10.1515/humo-2015-0016</t>
+  </si>
+  <si>
+    <t>Portela, F. M., Rodrigues, E. C., &amp; Sá Ferreira, A. de. (2014). A Critical Review of Position- and Velocity-Based Concepts of Postural Control During Upright Stance. In Human Movement (Vol. 15, Issue 4). Termedia Sp. z.o.o. https://doi.org/10.1515/humo-2015-0016</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Rjwvyd26tId4NHCu3bnuTX10KNGVh5k8</t>
+  </si>
+  <si>
+    <t>10.1038/hr.2014.59</t>
+  </si>
+  <si>
+    <t>Ramos, R. A., Guimarães, F. S., Cordovil, I., &amp; de Sa Ferreira, A. (2014). The six-minute walk distance is a marker of hemodynamic-related functional capacity in hypertension: a case–control study. In Hypertension Research (Vol. 37, Issue 8, pp. 746–752). Springer Science and Business Media LLC. https://doi.org/10.1038/hr.2014.59</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RosoBtqqao9qhTRFNZWSMpbJb8q5dy_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1155/2014/809741 </t>
+  </si>
+  <si>
+    <t>Xiong, X., Borrelli, F., de Sá Ferreira, A., Ashfaq, T., &amp; Feng, B. (2014). Herbal Medicines for Cardiovascular Diseases. In Evidence-Based Complementary and Alternative Medicine (Vol. 2014, pp. 1–2). Hindawi Limited. https://doi.org/10.1155/2014/809741</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RFl-_idlsKraYnpa-P0LRizh9jdYeQo7</t>
   </si>
 </sst>
 </file>
@@ -528,7 +645,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -816,7 +933,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -943,13 +1060,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1332,6 +1449,149 @@
       </c>
       <c r="C34" s="6" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1369,9 +1629,22 @@
     <hyperlink ref="B32" r:id="rId31" xr:uid="{CD5B782C-C4EF-E646-85D5-CCC7D2A820BB}"/>
     <hyperlink ref="B33" r:id="rId32" xr:uid="{5DDF7C99-F48A-F249-9B02-2BB173193F97}"/>
     <hyperlink ref="B34" r:id="rId33" xr:uid="{56AF04F0-B1E1-964D-8E49-D6C4E0505570}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{931BBACF-3D25-2848-93A6-B6FB8EFBBFC4}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{BE224527-403B-D548-B291-98930EFC8387}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{15A35CDE-FF87-8240-9C64-79C0CC1F2B0A}"/>
+    <hyperlink ref="B38" r:id="rId37" xr:uid="{CEE7F6FE-F793-464A-B253-A7F4FE1F6D64}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{D82E61D4-0968-2E4D-9341-103173A60096}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{7834FA35-30A7-1649-BF0D-C87668C1A4C9}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{0F67589F-FD86-5A44-92E1-829AD619E227}"/>
+    <hyperlink ref="B42" r:id="rId41" xr:uid="{4D681804-1C20-534F-9988-7BFF3591C797}"/>
+    <hyperlink ref="B43" r:id="rId42" xr:uid="{CE80C71A-29E1-7B4A-97D8-BFED3CE8CBCB}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{DD372FC9-E2C9-494A-A992-41B449FCBF60}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{6BDBC740-454D-E643-B675-C7A39ACF3EE9}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{1CB10A6F-0220-FF4D-9CB0-8DF389D10A1C}"/>
+    <hyperlink ref="B47" r:id="rId46" xr:uid="{283AF92B-31DB-434B-BCDD-EF8795B26552}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId34"/>
+  <legacyDrawing r:id="rId47"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB10FE4-41C8-2142-A54B-AC75D69C628C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD8A01E-1124-6949-86E2-54F75DED0232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="500" windowWidth="27600" windowHeight="16900" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="183">
   <si>
     <t>Doutorado</t>
   </si>
@@ -534,6 +534,78 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1RFl-_idlsKraYnpa-P0LRizh9jdYeQo7</t>
+  </si>
+  <si>
+    <t>10.1016/S2095-4964(15)60151-0</t>
+  </si>
+  <si>
+    <t>de Sá Ferreira, A., &amp; Pacheco, A. G. (2015). SimTCM: A human patient simulator with application to diagnostic accuracy studies of Chinese medicine. In Journal of Integrative Medicine (Vol. 13, Issue 1, pp. 9–19). Elsevier BV. https://doi.org/10.1016/s2095-4964(15)60151-0</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YEv-Fvcha40g2Z3IzOjzS7jeSQ1Vag4E</t>
+  </si>
+  <si>
+    <t>10.1111/jch.12549</t>
+  </si>
+  <si>
+    <t>de Sá Ferreira, A. (2015). Plasma Homocysteine and Arterial Stiffness: Risk Factors or Risk Markers for Cardiovascular Diseases? In The Journal of Clinical Hypertension (Vol. 17, Issue 8, pp. 601–602). Wiley. https://doi.org/10.1111/jch.12549</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YMIAs54NAezox9wHKJNxkSRvY_xgzJ8f</t>
+  </si>
+  <si>
+    <t>10.1111/jch.12611</t>
+  </si>
+  <si>
+    <t>Ferreira, A. S. (2015). Immunity, Inflammation, and Prehypertension: In What Order? In The Journal of Clinical Hypertension (Vol. 17, Issue 10, pp. 775–776). Wiley. https://doi.org/10.1111/jch.12611</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YBHLOmxaD_CijSDQSqFKKIxtOZ0xBi6r</t>
+  </si>
+  <si>
+    <t>10.1590/0103-5150.028.001.AO05</t>
+  </si>
+  <si>
+    <t>Gonçalves, B. L., Guimarães, F. S., Souza, M. L. L. de, Ferreira, A. de S., &amp; Mainenti, M. R. M. (2015). Association among body composition, muscle performance and functional autonomy in older adults. In Fisioterapia em Movimento (Vol. 28, Issue 1, pp. 49–59). FapUNIFESP (SciELO). https://doi.org/10.1590/0103-5150.028.001.ao05</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YbFmfcOTvFR37llh9pd0HjcPUnG1wKeY</t>
+  </si>
+  <si>
+    <t>10.2174/1871527315666151111120403</t>
+  </si>
+  <si>
+    <t>Monteiro-Junior, R., Ferreira, A., Puell, V., Lattari, E., Machado, S., Otero Vaghetti, C., &amp; da Silva, E. (2015). Wii Balance Board: Reliability and Clinical Use in Assessment of Balance in Healthy Elderly Women. In CNS &amp;amp; Neurological Disorders - Drug Targets (Vol. 14, Issue 9, pp. 1165–1170). Bentham Science Publishers Ltd. https://doi.org/10.2174/1871527315666151111120403</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YLzsmHo5zVNn6u1N5Q2KI-iQ7iFH8o9D</t>
+  </si>
+  <si>
+    <t>10.1155/2015/469675</t>
+  </si>
+  <si>
+    <t>Oliveira, I. J. de A. S., &amp; de Sá Ferreira, A. (2015). Effects of Diagnostic Errors in Pattern Differentiation and Acupuncture Prescription: A Single-Blinded, Interrater Agreement Study. In Evidence-Based Complementary and Alternative Medicine (Vol. 2015, pp. 1–11). Hindawi Limited. https://doi.org/10.1155/2015/469675</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YXQq_tAn5QeKMpk4yeq1sHe0U3LBlfGB</t>
+  </si>
+  <si>
+    <t>10.1016/j.jns.2015.08.935</t>
+  </si>
+  <si>
+    <t>Orsini, M., Reis, C. H. M., Ferreira, A. S., Quintanilha, G., Souza, J. A., Leite, M. A. A., Guedes, V., Xavier, M., Ferreira, A. C. A. F., Freitas, M. R. G., &amp; Nascimento, O. J. M. (2015). Postural balance in Machado-Joseph disease. In Journal of the Neurological Sciences (Vol. 357, p. e266). Elsevier BV. https://doi.org/10.1016/j.jns.2015.08.935</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Y_PER-2Q2MpHRFSr8XAHnhAsYay0rZJL</t>
+  </si>
+  <si>
+    <t>10.4081/ni.2015.5452</t>
+  </si>
+  <si>
+    <t>Orsini, M., De Souza, J. A., Leite, M. A. A., Teixeira, S., De Sá Ferreira, A., Bastos, V. H., De Freitas, M. R. G., &amp; Oliveira, A. B. (2015). Previous acute polio and post-polio syndrome: recognizing the pathophysiology for the establishment of rehabilitation programs. In Neurology International (Vol. 7, Issue 1). MDPI AG. https://doi.org/10.4081/ni.2015.5452</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YFCgUAzPDHj7PRb5QS-8kP4JPAvoNMjO</t>
   </si>
 </sst>
 </file>
@@ -1060,13 +1132,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomRight" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1592,6 +1664,94 @@
       </c>
       <c r="C47" s="6" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1642,9 +1802,17 @@
     <hyperlink ref="B45" r:id="rId44" xr:uid="{6BDBC740-454D-E643-B675-C7A39ACF3EE9}"/>
     <hyperlink ref="B46" r:id="rId45" xr:uid="{1CB10A6F-0220-FF4D-9CB0-8DF389D10A1C}"/>
     <hyperlink ref="B47" r:id="rId46" xr:uid="{283AF92B-31DB-434B-BCDD-EF8795B26552}"/>
+    <hyperlink ref="B48" r:id="rId47" xr:uid="{611E1ECD-AFCF-4B48-BA5D-C2BF16D0FFB3}"/>
+    <hyperlink ref="B49" r:id="rId48" xr:uid="{9AD529EB-6D64-2A41-9458-EACF660D8470}"/>
+    <hyperlink ref="B50" r:id="rId49" xr:uid="{7B0A5145-756B-554C-A5EA-3AC6BF009DF8}"/>
+    <hyperlink ref="B51" r:id="rId50" xr:uid="{9410AAB9-9D80-244B-9D65-8AE548D5921E}"/>
+    <hyperlink ref="B52" r:id="rId51" xr:uid="{7811D0DA-ECAA-EC49-B06C-25979D4F8393}"/>
+    <hyperlink ref="B53" r:id="rId52" xr:uid="{7DAFEA67-E2CC-0A4D-86EE-6EB6EC8005FF}"/>
+    <hyperlink ref="B54" r:id="rId53" xr:uid="{23B1C06A-784A-9344-9843-3E9F894DEC72}"/>
+    <hyperlink ref="B55" r:id="rId54" xr:uid="{D52D8D34-B289-3945-B0A9-024E4A788FAF}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId47"/>
+  <legacyDrawing r:id="rId55"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD8A01E-1124-6949-86E2-54F75DED0232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C960E1BE-D3BA-E743-9CD2-7A122E421D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="500" windowWidth="27600" windowHeight="16900" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="27600" windowHeight="16900" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
   <sheets>
     <sheet name="curriculo" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="207">
   <si>
     <t>Doutorado</t>
   </si>
@@ -606,6 +606,78 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1YFCgUAzPDHj7PRb5QS-8kP4JPAvoNMjO</t>
+  </si>
+  <si>
+    <t>10.1590/bjpt-rbf.2014.0142</t>
+  </si>
+  <si>
+    <t>Costa, M. S. S., Ferreira, A. S., Orsini, M., Silva, E. B., &amp; Felicio, L. R. (2016). Characteristics and prevalence of musculoskeletal injury in professional and non-professional ballet dancers. In Brazilian Journal of Physical Therapy (Vol. 20, Issue 2, pp. 166–175). FapUNIFESP (SciELO). https://doi.org/10.1590/bjpt-rbf.2014.0142</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WDSJXvTF-x8TGTJVUDAy2nBRAp_tef8t</t>
+  </si>
+  <si>
+    <t>10.5492/wjccm.v5.i4.219</t>
+  </si>
+  <si>
+    <t>Ferreira, N. A., Lopes, A. J., Ferreira, A. S., Ntoumenopoulos, G., Dias, J., &amp; Guimaraes, F. S. (2016). Determination of functional prognosis in hospitalized patients following an intensive care admission. In World Journal of Critical Care Medicine (Vol. 5, Issue 4, p. 219). Baishideng Publishing Group Inc. https://doi.org/10.5492/wjccm.v5.i4.219</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XVuzPSHP5Z-N5OglyqPZcrcgfPj529q7</t>
+  </si>
+  <si>
+    <t>10.1016/j.humov.2016.07.005</t>
+  </si>
+  <si>
+    <t>Lopes, A. J., Ferreira, A. S., Walchan, E. M., Soares, M. S., Bunn, P. S., &amp; Guimarães, F. S. (2016). Explanatory models of muscle performance in acromegaly patients evaluated by knee isokinetic dynamometry: Implications for rehabilitation. In Human Movement Science (Vol. 49, pp. 160–169). Elsevier BV. https://doi.org/10.1016/j.humov.2016.07.005</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WTBmlnDapW0vl8QBO1SOV186l1GRKZ8K</t>
+  </si>
+  <si>
+    <t>10.1589/jpts.28.569</t>
+  </si>
+  <si>
+    <t>Lopes, A. J., Ferreira, A. de S., Lima, T. R. L., Menezes, S. L. S., &amp; Guimarães, F. S. (2016). An explanatory model of functional exercise capacity in patients with systemic sclerosis: considerations for rehabilitation programs. In Journal of Physical Therapy Science (Vol. 28, Issue 2, pp. 569–575). Society of Physical Therapy Science. https://doi.org/10.1589/jpts.28.569</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WB5ZAKAeVQ0ZtyUvb_rh2j0Q2XujxM4Q</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2016.02.005</t>
+  </si>
+  <si>
+    <t>Marinho, C. de L., Maioli, M. C. P., Soares, A. R., Bedirian, R., Melo, P. L. de, Guimarães, F. S., Ferreira, A. de S., &amp; Lopes, A. J. (2016). Predictive models of six-minute walking distance in adults with sickle cell anemia: Implications for rehabilitation. In Journal of Bodywork and Movement Therapies (Vol. 20, Issue 4, pp. 824–831). Elsevier BV. https://doi.org/10.1016/j.jbmt.2016.02.005</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WP_B5mLY5mxIniMAncdhAhxQ4AgarRhZ</t>
+  </si>
+  <si>
+    <t>10.1016/j.jams.2015.06.012</t>
+  </si>
+  <si>
+    <t>Gomes Ribeiro Moura, N., &amp; Sá Ferreira, A. (2016). Pulse Waveform Analysis of Chinese Pulse Images and Its Association with Disability in Hypertension. In Journal of Acupuncture and Meridian Studies (Vol. 9, Issue 2, pp. 93–98). Medical Association of Pharmacopuncture Institute. https://doi.org/10.1016/j.jams.2015.06.012</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WFqJd3dcx0jxEFkx_b4BK0aE2wWrrh0V</t>
+  </si>
+  <si>
+    <t>10.1016/S2095-4964(16)60233-9</t>
+  </si>
+  <si>
+    <t>Ribeiro de Moura, N. G., Cordovil, I., &amp; de Sá Ferreira, A. (2016). Traditional Chinese medicine wrist pulse-taking is associated with pulse waveform analysis and hemodynamics in hypertension. In Journal of Integrative Medicine (Vol. 14, Issue 2, pp. 100–113). Elsevier BV. https://doi.org/10.1016/s2095-4964(16)60233-9</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XYW1XON97KP3-DxSJfe6U85PZTk3VSZi</t>
+  </si>
+  <si>
+    <t>10.1016/s1109-9666(16)30013-6</t>
+  </si>
+  <si>
+    <t>Papathanasiou, J., Troev, T., Ferreira, A. S., Tsekoura, D., Elkova, H., Kyriopoulos, E., &amp; Ilieva, E. (2016). Advanced Role and Field of Competence of the Physical and Rehabilitation Medicine Specialist in Contemporary Cardiac Rehabilitation. In Hellenic Journal of Cardiology (Vol. 57, Issue 1, pp. 16–22). Elsevier BV. https://doi.org/10.1016/s1109-9666(16)30013-6</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Xe_DZtt4fDS-3D5iRhX_pcdcG6KkLW_-</t>
   </si>
 </sst>
 </file>
@@ -1132,13 +1204,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A56" sqref="A56"/>
+      <selection pane="bottomRight" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1752,6 +1824,94 @@
       </c>
       <c r="C55" s="6" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1810,9 +1970,17 @@
     <hyperlink ref="B53" r:id="rId52" xr:uid="{7DAFEA67-E2CC-0A4D-86EE-6EB6EC8005FF}"/>
     <hyperlink ref="B54" r:id="rId53" xr:uid="{23B1C06A-784A-9344-9843-3E9F894DEC72}"/>
     <hyperlink ref="B55" r:id="rId54" xr:uid="{D52D8D34-B289-3945-B0A9-024E4A788FAF}"/>
+    <hyperlink ref="B56" r:id="rId55" xr:uid="{9DFAF0A7-73A9-7640-8118-5B6540D6BF17}"/>
+    <hyperlink ref="B57" r:id="rId56" xr:uid="{47378E8A-1A68-7D44-B42C-7A8E5B32638C}"/>
+    <hyperlink ref="B58" r:id="rId57" xr:uid="{2C7BB2DC-13AF-274D-9F46-42F9515C62F4}"/>
+    <hyperlink ref="B59" r:id="rId58" xr:uid="{6EE25FA5-6F0C-DB44-9D3C-9A02AE83759A}"/>
+    <hyperlink ref="B60" r:id="rId59" xr:uid="{DE92B86F-E8E4-BF4F-AFC6-60D6F5F852D5}"/>
+    <hyperlink ref="B61" r:id="rId60" xr:uid="{033BD293-121A-294B-8472-459A8117FC12}"/>
+    <hyperlink ref="B62" r:id="rId61" xr:uid="{DC7E7125-71D7-D844-8F25-D6ABC209B263}"/>
+    <hyperlink ref="B63" r:id="rId62" xr:uid="{B1E5E19E-76A8-7F43-9181-1F48D862CC6F}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId55"/>
+  <legacyDrawing r:id="rId63"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C960E1BE-D3BA-E743-9CD2-7A122E421D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6A966C-FBEF-F642-BED0-5464C99C3192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27600" windowHeight="16900" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="234">
   <si>
     <t>Doutorado</t>
   </si>
@@ -678,6 +678,87 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1Xe_DZtt4fDS-3D5iRhX_pcdcG6KkLW_-</t>
+  </si>
+  <si>
+    <t>10.1590/0004-282X20170022</t>
+  </si>
+  <si>
+    <t>Facchinetti, L. D., Araújo, A. Q., Silva, M. T., Leite, A. C. C., Azevedo, M. F., Chequer, G. L., Oliveira, R. V., Ferreira, A. S., &amp; Lima, M. A. (2017). Home-based exercise program in TSP/HAM individuals: a feasibility and effectiveness study. In Arquivos de Neuro-Psiquiatria (Vol. 75, Issue 4, pp. 221–227). FapUNIFESP (SciELO). https://doi.org/10.1590/0004-282x20170022</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VfWhLZSdHCFC3NYoF_6Tb7cg2sverzsx</t>
+  </si>
+  <si>
+    <t>10.3233/BMR-150356</t>
+  </si>
+  <si>
+    <t>Ferreira, A. P. A., Póvoa, L. C., Zanier, J. F. C., Machado, D. C., &amp; Ferreira, A. S. (2017). Sensitivity for palpating lumbopelvic soft- tissues and bony landmarks and its associated factors: A single-blinded diagnostic accuracy study. In Journal of Back and Musculoskeletal Rehabilitation (Vol. 30, Issue 4, pp. 735–744). IOS Press. https://doi.org/10.3233/bmr-150356</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VTaHOujOwlvm2OGCq8HeEX3zk0SW8Epv</t>
+  </si>
+  <si>
+    <t>10.1016/j.jmpt.2016.10.011</t>
+  </si>
+  <si>
+    <t>Ferreira, A. P. A., Póvoa, L. C., Zanier, J. F. C., &amp; Ferreira, A. S. (2017). Locating the Seventh Cervical Spinous Process: Accuracy of the Thorax-Rib Static Method and the Effects of Clinical Data on Its Performance. In Journal of Manipulative and Physiological Therapeutics (Vol. 40, Issue 2, pp. 98–105). Elsevier BV. https://doi.org/10.1016/j.jmpt.2016.10.011</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VKn32reE_OPKnFdjvze5qL-Cqxeb2kOn</t>
+  </si>
+  <si>
+    <t>10.1016/j.jmpt.2016.10.012</t>
+  </si>
+  <si>
+    <t>Ferreira, A. P. A., Póvoa, L. C., Zanier, J. F. C., &amp; Ferreira, A. S. (2017). Locating the Seventh Cervical Spinous Process: Development and Validation of a Multivariate Model Using Palpation and Personal Information. In Journal of Manipulative and Physiological Therapeutics (Vol. 40, Issue 2, pp. 89–97). Elsevier BV. https://doi.org/10.1016/j.jmpt.2016.10.012</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VKOOzsbqdXuG0wuHFHMdb9huTH7tgwK-</t>
+  </si>
+  <si>
+    <t>10.1016/j.clinbiomech.2017.05.011</t>
+  </si>
+  <si>
+    <t>Justo, A. C., Guimarães, F. S., Ferreira, A. S., Soares, M. S., Bunn, P. S., &amp; Lopes, A. J. (2017). Muscle function in women with systemic sclerosis: Association with fatigue and general physical function. In Clinical Biomechanics (Vol. 47, pp. 33–39). Elsevier BV. https://doi.org/10.1016/j.clinbiomech.2017.05.011</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VohrLNyvXhcYRkjLY9RNxLDh682-blne</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2017.03.018</t>
+  </si>
+  <si>
+    <t>Lopes, A. J., Justo, A. C., Ferreira, A. S., &amp; Guimaraes, F. S. (2017). Systemic sclerosis: Association between physical function, handgrip strength and pulmonary function. In Journal of Bodywork and Movement Therapies (Vol. 21, Issue 4, pp. 972–977). Elsevier BV. https://doi.org/10.1016/j.jbmt.2017.03.018</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1W0K52V0aUMhG2j4YDawCSU9Xp-LFVEvi</t>
+  </si>
+  <si>
+    <t>10.1097/TGR.0000000000000134</t>
+  </si>
+  <si>
+    <t>Marques, N. L. X. R., de Sá Ferreira, A., da Silva, D. P. G., de Menezes, S. L. S., Guimarães, F. S., &amp; Dias, C. M. (2017). Performance of National and Foreign Models for Predicting the 6-Minute Walk Distance for Assessment of Functional Exercise Capacity of Brazilian Elderly Women. In Topics in Geriatric Rehabilitation (Vol. 33, Issue 1, pp. 68–75). Ovid Technologies (Wolters Kluwer Health). https://doi.org/10.1097/tgr.0000000000000134</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VbLA3oo5u5Cpdr2am6UXs4oKzhDFqtqQ</t>
+  </si>
+  <si>
+    <t>10.12678/1089-313X.21.4.151</t>
+  </si>
+  <si>
+    <t>de Mello, M. C., de Sá Ferreira, A., &amp; Ramiro Felicio, L. (2017). Postural Control During Different Unipodal Positions in Professional Ballet Dancers. In Journal of Dance Medicine &amp;amp; Science (Vol. 21, Issue 4, pp. 151–155). J. Michael Ryan Publishing. https://doi.org/10.12678/1089-313x.21.4.151</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VKnvYca_GtUnLsTN8E8GNVOZ4nHks2tP</t>
+  </si>
+  <si>
+    <t>10.1111/sms.12847</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VNC-z7RX7DLyXSlHiiYXT939U45lVI-x</t>
+  </si>
+  <si>
+    <t>Santos, P. B. R., Vigário, P. S., Mainenti, M. R. M., Ferreira, A. S., &amp; Lemos, T. (2017). Seated limits-of-stability of athletes with disabilities with regard to competitive levels and sport classification. In Scandinavian Journal of Medicine &amp;amp; Science in Sports (Vol. 27, Issue 12, pp. 2019–2026). Wiley. https://doi.org/10.1111/sms.12847</t>
   </si>
 </sst>
 </file>
@@ -1204,13 +1285,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A64" sqref="A64"/>
+      <selection pane="bottomRight" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1912,6 +1993,105 @@
       </c>
       <c r="C63" s="6" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -1978,9 +2158,18 @@
     <hyperlink ref="B61" r:id="rId60" xr:uid="{033BD293-121A-294B-8472-459A8117FC12}"/>
     <hyperlink ref="B62" r:id="rId61" xr:uid="{DC7E7125-71D7-D844-8F25-D6ABC209B263}"/>
     <hyperlink ref="B63" r:id="rId62" xr:uid="{B1E5E19E-76A8-7F43-9181-1F48D862CC6F}"/>
+    <hyperlink ref="B64" r:id="rId63" xr:uid="{303E647E-DED6-494D-8787-F447CCBB29FF}"/>
+    <hyperlink ref="B65" r:id="rId64" xr:uid="{DB73BFE9-7344-7D4F-9D80-C9E32EBEB036}"/>
+    <hyperlink ref="B66" r:id="rId65" xr:uid="{4CD282DC-1830-7144-A94A-3B6D51ACCE17}"/>
+    <hyperlink ref="B67" r:id="rId66" xr:uid="{E09B8C1B-C1FD-F341-A855-538C3F4613A6}"/>
+    <hyperlink ref="B68" r:id="rId67" xr:uid="{FAE28898-21C9-824F-9778-1B27BEC03FB8}"/>
+    <hyperlink ref="B69" r:id="rId68" xr:uid="{9E3BF8E7-3E3B-6A44-A1E1-0039910472A2}"/>
+    <hyperlink ref="B70" r:id="rId69" xr:uid="{822FBBE1-DFF2-6D43-B27E-B85D40270E1F}"/>
+    <hyperlink ref="B71" r:id="rId70" xr:uid="{DF6F1B04-F3BC-5E4E-9CD0-899C8EFD736D}"/>
+    <hyperlink ref="B72" r:id="rId71" xr:uid="{C1832584-1B0F-8245-B690-62188EEF00C1}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId63"/>
+  <legacyDrawing r:id="rId72"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6A966C-FBEF-F642-BED0-5464C99C3192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8DAE2B-9510-144D-8309-E8BB7098D6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27600" windowHeight="16900" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="267">
   <si>
     <t>Doutorado</t>
   </si>
@@ -759,6 +759,105 @@
   </si>
   <si>
     <t>Santos, P. B. R., Vigário, P. S., Mainenti, M. R. M., Ferreira, A. S., &amp; Lemos, T. (2017). Seated limits-of-stability of athletes with disabilities with regard to competitive levels and sport classification. In Scandinavian Journal of Medicine &amp;amp; Science in Sports (Vol. 27, Issue 12, pp. 2019–2026). Wiley. https://doi.org/10.1111/sms.12847</t>
+  </si>
+  <si>
+    <t>10.1016/j.ctcp.2017.12.002</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1R-MKmmmEG-r17VFi8OzpsfmPCUqAqDSv</t>
+  </si>
+  <si>
+    <t>Alvim, D. T., &amp; Ferreira, A. S. (2018). Inter-expert agreement and similarity analysis of traditional diagnoses and acupuncture prescriptions in textbook- and pragmatic-based practices. In Complementary Therapies in Clinical Practice (Vol. 30, pp. 38–43). Elsevier BV. https://doi.org/10.1016/j.ctcp.2017.12.002</t>
+  </si>
+  <si>
+    <t>10.1016/j.jams.2018.07.006</t>
+  </si>
+  <si>
+    <t>Alvim, D. T., &amp; Ferreira, A. S. (2018). Pragmatic Combinations of Acupuncture Points for Lateral Epicondylalgia are Unreliable in the Physiotherapy Setting. In Journal of Acupuncture and Meridian Studies (Vol. 11, Issue 6, pp. 367–374). Medical Association of Pharmacopuncture Institute. https://doi.org/10.1016/j.jams.2018.07.006</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QnLf0w0QGvclG90iQCj05IOFrOzQzh-k</t>
+  </si>
+  <si>
+    <t>10.1007/s00586-017-5444-5</t>
+  </si>
+  <si>
+    <t>Damasceno, G. M., Ferreira, A. S., Nogueira, L. A. C., Reis, F. J. J., Andrade, I. C. S., &amp; Meziat-Filho, N. (2018). Text neck and neck pain in 18–21-year-old young adults. In European Spine Journal (Vol. 27, Issue 6, pp. 1249–1254). Springer Science and Business Media LLC. https://doi.org/10.1007/s00586-017-5444-5</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Q7tLxjb1WNWgScaBLsOgwFeUXKbDnuZQ</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2018.01.007</t>
+  </si>
+  <si>
+    <t>Damasceno, G. M., Ferreira, A. S., Nogueira, L. A. C., Reis, F. J. J., Lara, R. W., &amp; Meziat-Filho, N. (2018). Reliability of two pragmatic tools for assessing text neck. In Journal of Bodywork and Movement Therapies (Vol. 22, Issue 4, pp. 963–967). Elsevier BV. https://doi.org/10.1016/j.jbmt.2018.01.007</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Q_k1b2cHcuPbMJ3KIcmFbUZ6vzttZ9Ib</t>
+  </si>
+  <si>
+    <t>10.1519/JSC.0000000000002317</t>
+  </si>
+  <si>
+    <t>Fonseca, G. F., Farinatti, P. T. V., Midgley, A. W., Ferreira, A., de Paula, T., Monteiro, W. D., &amp; Cunha, F. A. (2018). Continuous and Accumulated Bouts of Cycling Matched by Intensity and Energy Expenditure Elicit Similar Acute Blood Pressure Reductions in Prehypertensive Men. In Journal of Strength and Conditioning Research (Vol. 32, Issue 3, pp. 857–866). Ovid Technologies (Wolters Kluwer Health). https://doi.org/10.1519/jsc.0000000000002317</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Qm_nvWgs4cR0Doq_BNE4xCbAyocHKHUM</t>
+  </si>
+  <si>
+    <t>10.1016/j.gaitpost.2018.01.021</t>
+  </si>
+  <si>
+    <t>Lima, M., Ferreira, A. S., Reis, F. J. J., Paes, V., &amp; Meziat-Filho, N. (2018). Chronic low back pain and back muscle activity during functional tasks. In Gait &amp;amp; Posture (Vol. 61, pp. 250–256). Elsevier BV. https://doi.org/10.1016/j.gaitpost.2018.01.021</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QVdjYqkfbMM6XzNFFBPnG_r2R-nBlGcd</t>
+  </si>
+  <si>
+    <t>10.33549/physiolres.933867</t>
+  </si>
+  <si>
+    <t>LOPES, A. J., VIGÁRIO, P. S., HORA, A. L., DEUS, C. A. L., SOARES, M. S., GUIMARÃES, F. S., &amp; FERREIRA, A. S. (2018). Ventilation Distribution, Pulmonary Diffusion and Peripheral Muscle Endurance as Determinants of Exercise Intolerance in Elderly Patients With Chronic Obstructive Pulmonary Disease. In Physiological Research (pp. 863–874). Institute of Physiology of the Czech Academy of Sciences. https://doi.org/10.33549/physiolres.933867</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QrRWjeuAvYERCUFC6piEd9OjUiEnKnOK</t>
+  </si>
+  <si>
+    <t>10.1016/j.spinee.2017.11.022</t>
+  </si>
+  <si>
+    <t>Meziat-Filho, N., Ferreira, A. S., Nogueira, L. A. C., &amp; Reis, F. J. J. (2018). “Text-neck”: an epidemic of the modern era of cell phones? In The Spine Journal (Vol. 18, Issue 4, pp. 714–715). Elsevier BV. https://doi.org/10.1016/j.spinee.2017.11.022</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QrwNoM2MNckP1MpsV0Lwk0b0FZoXd0O6</t>
+  </si>
+  <si>
+    <t>10.1016/j.bspc.2018.02.002</t>
+  </si>
+  <si>
+    <t>Saraiva, N. A. O., Guimarães, F. S., Lopes, A. J., Papathanasiou, J., &amp; Ferreira, A. S. (2018). Feasibility of whole-body gait kinematics to assess the validity of the six-minute walk test over a 10-m walkway in the elderly. In Biomedical Signal Processing and Control (Vol. 42, pp. 202–209). Elsevier BV. https://doi.org/10.1016/j.bspc.2018.02.002</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QxOksZonQaCoHHhPGz_msSygXQ89qBaq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1080/08990220.2018.1481829 </t>
+  </si>
+  <si>
+    <t>Silva, P. O., Ferreira, A. S., Lima, C. M. de A., Guimarães, F. S., &amp; Lopes, A. J. (2018). Balance control is impaired in adults with sickle cell anaemia. In Somatosensory &amp;amp; Motor Research (Vol. 35, Issue 2, pp. 109–118). Informa UK Limited. https://doi.org/10.1080/08990220.2018.1481829</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QUSeiuwvf-8NcVi2uRya1q2WrJFY3axA</t>
+  </si>
+  <si>
+    <t>10.1097/TGR.0000000000000203</t>
+  </si>
+  <si>
+    <t>da Silva, D. C. L., Lemos, T., de Sá Ferreira, A., Horsczaruk, C. H. R., Pedron, C. A., de Carvalho Rodrigues, E., &amp; de Oliveira, L. A. S. (2018). Effects of Acute Transcranial Direct Current Stimulation on Gait Kinematics of Individuals With Parkinson Disease. In Topics in Geriatric Rehabilitation (Vol. 34, Issue 4, pp. 262–268). Ovid Technologies (Wolters Kluwer Health). https://doi.org/10.1097/tgr.0000000000000203</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QV0eLlJF2oqyzwAdkTmPas1E5RZuAn3l</t>
   </si>
 </sst>
 </file>
@@ -1285,13 +1384,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A73" sqref="A73"/>
+      <selection pane="bottomRight" activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2092,6 +2191,127 @@
       </c>
       <c r="C72" s="6" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2167,9 +2387,20 @@
     <hyperlink ref="B70" r:id="rId69" xr:uid="{822FBBE1-DFF2-6D43-B27E-B85D40270E1F}"/>
     <hyperlink ref="B71" r:id="rId70" xr:uid="{DF6F1B04-F3BC-5E4E-9CD0-899C8EFD736D}"/>
     <hyperlink ref="B72" r:id="rId71" xr:uid="{C1832584-1B0F-8245-B690-62188EEF00C1}"/>
+    <hyperlink ref="B73" r:id="rId72" xr:uid="{9965D2D0-1F02-414F-ACB1-7946DEA7806C}"/>
+    <hyperlink ref="B74" r:id="rId73" xr:uid="{209ACE43-022F-B04F-8AB8-7D0DB4248D6B}"/>
+    <hyperlink ref="B75" r:id="rId74" xr:uid="{8B6601DB-4544-CB4F-B567-1B6562FFFB60}"/>
+    <hyperlink ref="B76" r:id="rId75" xr:uid="{0F1C111B-6D8B-1742-A06F-26F370727148}"/>
+    <hyperlink ref="B77" r:id="rId76" xr:uid="{2208776B-00C7-8F4E-9ECD-96068502754D}"/>
+    <hyperlink ref="B78" r:id="rId77" xr:uid="{F69912D8-D931-9C44-8CE3-85ACC1B9E0A8}"/>
+    <hyperlink ref="B79" r:id="rId78" xr:uid="{F690AED2-EC91-5C48-AF2A-9AF02893572D}"/>
+    <hyperlink ref="B80" r:id="rId79" xr:uid="{81707B66-CDDC-1140-B016-F03324D51310}"/>
+    <hyperlink ref="B81" r:id="rId80" xr:uid="{965685DF-8BA5-6F46-8EA0-824420DCE2E5}"/>
+    <hyperlink ref="B82" r:id="rId81" xr:uid="{8569BBB5-F4F9-C543-B27D-08233BD58594}"/>
+    <hyperlink ref="B83" r:id="rId82" xr:uid="{22F14B03-864F-AD40-9EA3-5F662B4E73C2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId72"/>
+  <legacyDrawing r:id="rId83"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8DAE2B-9510-144D-8309-E8BB7098D6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028E8861-382F-0044-B68F-194BE293C4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27600" windowHeight="16900" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="297">
   <si>
     <t>Doutorado</t>
   </si>
@@ -858,6 +858,96 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1QV0eLlJF2oqyzwAdkTmPas1E5RZuAn3l</t>
+  </si>
+  <si>
+    <t>10.23736/s1973-9087.19.05687-9</t>
+  </si>
+  <si>
+    <t>Almeida, V. P., Ferreira, A. S., Guimarães, F. S., Papathanasiou, J., &amp; Lopes, A. J. (2020). Predictive models for the six-minute walk test considering the walking course and physical activity level. In European Journal of Physical and Rehabilitation Medicine (Vol. 55, Issue 6). Edizioni Minerva Medica. https://doi.org/10.23736/s1973-9087.19.05687-9</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Wovfw89ThaU-JF0FQrgIhta3oAaae81B</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2018.05.005</t>
+  </si>
+  <si>
+    <t>Almeida, V. P., Ferreira, A. S., Guimarães, F. S., Papathanasiou, J., &amp; Lopes, A. J. (2019). The impact of physical activity level, degree of dyspnoea and pulmonary function on the performance of healthy young adults during exercise. In Journal of Bodywork and Movement Therapies (Vol. 23, Issue 3, pp. 494–501). Elsevier BV. https://doi.org/10.1016/j.jbmt.2018.05.005</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WiXzpp01oJwf_FT7mvt--1eAGB10462g</t>
+  </si>
+  <si>
+    <t>10.1002/ejp.1441</t>
+  </si>
+  <si>
+    <t>Fernandez, J., Ferreira, A. de S., Castro, J., Correia, L. C. L., &amp; Meziat‐Filho, N. (2019). Comment on the paper “Cognitive functional therapy in patients with non specific chronic low back pain”, by Vibe Fersum et al. In European Journal of Pain (Vol. 23, Issue 8, pp. 1574–1575). Wiley. https://doi.org/10.1002/ejp.1441</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Wqh6a0IWjmUTnfcd5xixhFb8jro7wzIf</t>
+  </si>
+  <si>
+    <t>10.1111/jch.13430</t>
+  </si>
+  <si>
+    <t>Ferreira, A. S., &amp; Cunha, F. A. (2018). The circadian blood pressure variability: There is a signal in the noise. In The Journal of Clinical Hypertension (Vol. 21, Issue 1, pp. 46–47). Wiley. https://doi.org/10.1111/jch.13430</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Wtnh3RrSgCJxwYm2SomQmy8Qc6jXXOCB</t>
+  </si>
+  <si>
+    <t>Gomes, B. S. Q., Coelho, V. K., Terra, B. S., Bunn, P. S., Saragiotto, B. T., Ferreira, A. S., &amp; Nogueira, L. A. C. (2019). Patients with Subacromial Pain Syndrome Present no Reduction of Shoulder Proprioception: A Matched Case‐Control Study. In PM&amp;amp;R (Vol. 11, Issue 9, pp. 972–978). Wiley. https://doi.org/10.1002/pmrj.12055</t>
+  </si>
+  <si>
+    <t>10.1002/pmrj.12055</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WnkCc-bX6D8xoaD7PVBym1T3MkyH2Oie</t>
+  </si>
+  <si>
+    <t>10.14336/AD.2018.1226</t>
+  </si>
+  <si>
+    <t>Lima, T. R. L., Almeida, V. P., Ferreira, A. S., Guimarães, F. S., &amp; Lopes, A. J. (2019). Handgrip Strength and Pulmonary Disease in the Elderly: What is the Link? In Aging and disease (Vol. 10, Issue 5, p. 1109). Aging and Disease. https://doi.org/10.14336/ad.2018.1226</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WtATaIukZPC3bEW4diKm4RBJX5Zf8OEx</t>
+  </si>
+  <si>
+    <t>10.20945/2359-3997000000127</t>
+  </si>
+  <si>
+    <t>Michalski, A. da C., Ferreira, A. de S., Kasuki, L., Gadelha, M. R., Lopes, A. J., &amp; Guimarães, F. S. (2019). Clinical and functional variables can predict general fatigue in patients with acromegaly: an explanatory model approach. In Archives of Endocrinology and Metabolism. Archives of Endocrinology and Metabolism. https://doi.org/10.20945/2359-3997000000127</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VBVqz80U_-PWhyQL4HqvvaUy9MVJQwuS</t>
+  </si>
+  <si>
+    <t>10.1016/j.bspc.2019.04.009</t>
+  </si>
+  <si>
+    <t>Porto, C., Lemos, T., &amp; Ferreira, A. S. (2019). Analysis of the postural stabilization in the upright stance using optimization properties. In Biomedical Signal Processing and Control (Vol. 52, pp. 171–178). Elsevier BV. https://doi.org/10.1016/j.bspc.2019.04.009</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Wj59JkbjZ1L2wzLEl_JWAZO8uAKmMjZM</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2018.01.010</t>
+  </si>
+  <si>
+    <t>Ramos, R. de A., Guimarães, F. S., Dionyssiotis, Y., Tsekoura, D., Papathanasiou, J., &amp; Ferreira, A. de S. (2019). Development of a multivariate model of the six-minute walked distance to predict functional exercise capacity in hypertension. In Journal of Bodywork and Movement Therapies (Vol. 23, Issue 1, pp. 32–38). Elsevier BV. https://doi.org/10.1016/j.jbmt.2018.01.010</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WniMTxmxknV6eT-OBwcDnNUHmAqiMKbZ</t>
+  </si>
+  <si>
+    <t>10.1016/j.jmpt.2018.11.014</t>
+  </si>
+  <si>
+    <t>Vieira, É. C. N., Meziat-Filho, N. A. M., &amp; Ferreira, A. S. (2019). Photogrammetric Variables Used by Physical Therapists to Detect Neck Pain and to Refer for Physiotherapeutic Intervention: A Cross-Sectional Study. In Journal of Manipulative and Physiological Therapeutics (Vol. 42, Issue 4, pp. 254–266). Elsevier BV. https://doi.org/10.1016/j.jmpt.2018.11.014</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VJxmSoSJrPnVqEcEOnyUx-MAeCUO9Gzk</t>
   </si>
 </sst>
 </file>
@@ -1384,13 +1474,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A84" sqref="A84"/>
+      <selection pane="bottomRight" activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2312,6 +2402,116 @@
       </c>
       <c r="C83" s="6" t="s">
         <v>264</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -2398,9 +2598,19 @@
     <hyperlink ref="B81" r:id="rId80" xr:uid="{965685DF-8BA5-6F46-8EA0-824420DCE2E5}"/>
     <hyperlink ref="B82" r:id="rId81" xr:uid="{8569BBB5-F4F9-C543-B27D-08233BD58594}"/>
     <hyperlink ref="B83" r:id="rId82" xr:uid="{22F14B03-864F-AD40-9EA3-5F662B4E73C2}"/>
+    <hyperlink ref="B84" r:id="rId83" xr:uid="{9AFF3044-5E62-9844-8970-EBAA426EBB68}"/>
+    <hyperlink ref="B85" r:id="rId84" xr:uid="{7773F181-2E31-5547-B72D-A08E5CCD661E}"/>
+    <hyperlink ref="B86" r:id="rId85" xr:uid="{EC9B85EE-E8FD-CB45-A984-5358E9D20888}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{60E7D18E-BF52-AA40-985D-A0E21A01BD76}"/>
+    <hyperlink ref="B88" r:id="rId87" xr:uid="{71943C0E-24B6-9B46-9261-E1FEBE5CB2F8}"/>
+    <hyperlink ref="B89" r:id="rId88" xr:uid="{2D260DDD-A9BD-5748-A139-A43895586195}"/>
+    <hyperlink ref="B90" r:id="rId89" xr:uid="{75AC30E0-144B-9943-BBCB-3C6E7B2540CA}"/>
+    <hyperlink ref="B91" r:id="rId90" xr:uid="{25A95AF5-AEB2-2245-866B-0791B62856E2}"/>
+    <hyperlink ref="B92" r:id="rId91" xr:uid="{E6581C0C-D3EE-544D-8EC7-68089D171EA8}"/>
+    <hyperlink ref="B93" r:id="rId92" xr:uid="{53CD780C-45CD-1E43-BE82-ED3C45086641}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId83"/>
+  <legacyDrawing r:id="rId93"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028E8861-382F-0044-B68F-194BE293C4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4BFA55-8BFB-204A-B1DB-45A0321112A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27600" windowHeight="16900" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="339">
   <si>
     <t>Doutorado</t>
   </si>
@@ -948,6 +948,132 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1VJxmSoSJrPnVqEcEOnyUx-MAeCUO9Gzk</t>
+  </si>
+  <si>
+    <t>10.5812/asjsm.101400</t>
+  </si>
+  <si>
+    <t>de Andrade Junior, A. B., Ferreira, A. de S., Assis, A. C. B., Nascimento, L. P. A. da S., Ribeiro, C. F., Papathanasiou, J. V., &amp; Lopes, A. J. (2020). Cardiac Autonomic Control in Women with Rheumatoid Arthritis During the Glittre Activities of Daily Living Test. In Asian Journal of Sports Medicine (Vol. 11, Issue 2). Kowsar Medical Institute. https://doi.org/10.5812/asjsm.101400</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Z5IDH1s6k4uz4zUcR5L1eb6UQs1tLyl7</t>
+  </si>
+  <si>
+    <t>10.1016/j.humov.2020.102588</t>
+  </si>
+  <si>
+    <t>Sant’Anna do Carmo Aprigio, P., Ramathur Telles de Jesus, I., Porto, C., Lemos, T., &amp; de Sá Ferreira, A. (2020). Lower limb muscle fatigability is not associated with changes in movement strategies for balance control in the upright stance. In Human Movement Science (Vol. 70, p. 102588). Elsevier BV. https://doi.org/10.1016/j.humov.2020.102588</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XjppHQkrROO2EzLBLdruvpd6hg-uT9Ur</t>
+  </si>
+  <si>
+    <t>10.1111/papr.12872</t>
+  </si>
+  <si>
+    <t>Corrêa, L. A., Bittencourt, J. V., Ferreira, A. de S., Reis, F. J. J. dos, Almeida, R. S., &amp; Nogueira, L. A. C. (2020). The Reliability and Concurrent Validity of PainMAP Software for Automated Quantification of Pain Drawings on Body Charts of Patients With Low Back Pain. In Pain Practice (Vol. 20, Issue 5, pp. 462–470). Wiley. https://doi.org/10.1111/papr.12872</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XgYhQsYd4DG2uArMid7fUzqYMCdJDStC</t>
+  </si>
+  <si>
+    <t>10.21037/lcm.2020.02.01</t>
+  </si>
+  <si>
+    <t>Ferreira, A. S., &amp; Maior, A. S. (2020). Two decades of research in soccer and acupuncture: to what point should we stick? In Longhua Chinese Medicine (Vol. 3, pp. 2–2). AME Publishing Company. https://doi.org/10.21037/lcm.2020.02.01</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZZ_HxysXVnhy6e3WXsK4XWl3L6d2R3vm</t>
+  </si>
+  <si>
+    <t>10.1080/09593985.2018.1512178</t>
+  </si>
+  <si>
+    <t>Galvão, T. S., PT, Magalhães Júnior, E. S., PT, MSc, Orsini Neves, M. A., PhD, MD, &amp; de Sá Ferreira, A., PhD, PT. (2018). Lower-limb muscle strength, static and dynamic postural stabilities, risk of falling and fear of falling in polio survivors and healthy subjects. In Physiotherapy Theory and Practice (Vol. 36, Issue 8, pp. 899–906). Informa UK Limited. https://doi.org/10.1080/09593985.2018.1512178</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Y2OfZwll71A_4hKKqIFVuKpjb-27UXmW</t>
+  </si>
+  <si>
+    <t>10.1097/BRS.0000000000003487</t>
+  </si>
+  <si>
+    <t>Gomes, A. S., de Sá Ferreira, A., Reis, F. J. J., de Jesus-Moraleida, F. R., Nogueira, L. A. C., &amp; Meziat-Filho, N. (2020). Association Between Low Back Pain and Biomedical Beliefs in Academics of Physiotherapy. In Spine (Vol. 45, Issue 19, pp. 1354–1359). Ovid Technologies (Wolters Kluwer Health). https://doi.org/10.1097/brs.0000000000003487</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XjNXGHXXzlx0DQ78FlETaW6UJs3FU0FV</t>
+  </si>
+  <si>
+    <t>10.5812/asjsm.103030</t>
+  </si>
+  <si>
+    <t>Jeronymo, B. F., Silva, P. R. de O., Mainenti, M., Felicio, L. R., Ferreira, A. de S., Carvalho, T. L. de, &amp; Vigário, P. (2020). The Relationship Between Postural Stability, Anthropometry Measurements, Body Composition, and Sport Experience in Judokas with Visual Impairment. In Asian Journal of Sports Medicine (Vol. 11, Issue 3). Briefland. https://doi.org/10.5812/asjsm.103030</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZXfZ6046mjw1zs5fqAEZJmBLJTTjiew5</t>
+  </si>
+  <si>
+    <t>10.2478/bhk-2020-0008</t>
+  </si>
+  <si>
+    <t>Maior, A. S., Tannure, M., Eiras, F., &amp; de Sá Ferreira, A. (2020). Effects of intermittent negative pressure and active recovery therapies in the post-match period in elite soccer players: A randomized, parallel arm, comparative study. In Biomedical Human Kinetics (Vol. 12, Issue 1, pp. 59–68). Walter de Gruyter GmbH. https://doi.org/10.2478/bhk-2020-0008</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZO5QilVTwV9vcjoFOABrOm_WS38Pr0Gi</t>
+  </si>
+  <si>
+    <t>10.1016/j.archger.2019.103975</t>
+  </si>
+  <si>
+    <t>Menezes, M., de Mello Meziat-Filho, N. A., Araújo, C. S., Lemos, T., &amp; Ferreira, A. S. (2020). Agreement and predictive power of six fall risk assessment methods in community-dwelling older adults. In Archives of Gerontology and Geriatrics (Vol. 87, p. 103975). Elsevier BV. https://doi.org/10.1016/j.archger.2019.103975</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Y8P2oCgc681qr0kM9KEk9A8q3murGiwP</t>
+  </si>
+  <si>
+    <t>10.1016/j.archger.2020.104228</t>
+  </si>
+  <si>
+    <t>Menezes, M., Meziat-Filho, N. A. M., Lemos, T., &amp; Ferreira, A. S. (2020). ‘Believe the positive’ aggregation of fall risk assessment methods reduces the detection of risk of falling in older adults. In Archives of Gerontology and Geriatrics (Vol. 91, p. 104228). Elsevier BV. https://doi.org/10.1016/j.archger.2020.104228</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZOe6pGWA0d4fyH5pdZomD7S3LvUBUvp9</t>
+  </si>
+  <si>
+    <t>10.23736/s1973-9087.20.06013-X</t>
+  </si>
+  <si>
+    <t>PAPATHANASIOU, J. V., PETROV, I., TOKMAKOVA, M. P., DIMITROVA, D. D., SPASOV, L., DZHAFER, N. S., TSEKOURA, D., DIONYSSIOTIS, Y., FERREIRA, A. S., LOPES, A. J., ROSULESCU, E., &amp; FOTI, C. (2020). Group-based cardiac rehabilitation interventions. A challenge for physical and rehabilitation medicine physicians: a randomized controlled trial. In European Journal of Physical and Rehabilitation Medicine (Vol. 56, Issue 4). Edizioni Minerva Medica. https://doi.org/10.23736/s1973-9087.20.06013-x</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Z6ydB-3VtQzoZgB7NK_lHkB4KnjcmZCd</t>
+  </si>
+  <si>
+    <t>10.1016/j.hjc.2019.10.015</t>
+  </si>
+  <si>
+    <t>Papathanasiou, J., Dimitrova, D., Dzhafer, N., Kanalev, K., Dionyssiotis, Y., Ferreira, A. S., Guimarães, F. S., Lopes, A. J., &amp; Tsekoura, D. (2020). Are group-based high-intensity aerobic interval training modalities the future of the cardiac rehabilitation? In Hellenic Journal of Cardiology (Vol. 61, Issue 2, pp. 141–144). Elsevier BV. https://doi.org/10.1016/j.hjc.2019.10.015</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Y0rb60pJe7OPHqWOTGKO8tU1Ox190jDW</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbiomech.2020.109686</t>
+  </si>
+  <si>
+    <t>Porto, C., Lemos, T., &amp; Sá Ferreira, A. (2020). Reliability and robustness of optimization properties for stabilization of the upright stance as determined using posturography. In Journal of Biomechanics (Vol. 103, p. 109686). Elsevier BV. https://doi.org/10.1016/j.jbiomech.2020.109686</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZjJBT7sQMqofGBhwvpkj3uIWElYI--dx</t>
+  </si>
+  <si>
+    <t>10.1016/j.jams.2019.12.002</t>
+  </si>
+  <si>
+    <t>Sam-Kit Tin, T., Daniel Weng, C.-H., Vigário, P. dos S., &amp; Ferreira, A. de S. (2020). Effects of A Short-term Cardio Tai Chi Program on Cardiorespiratory Fitness and Hemodynamic Parameters in Sedentary Adults: A Pilot Study. In Journal of Acupuncture and Meridian Studies (Vol. 13, Issue 1, pp. 12–18). Medical Association of Pharmacopuncture Institute. https://doi.org/10.1016/j.jams.2019.12.002</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZWW7eIq3A6nbeln1tJjVMKu_hpGMaH_S</t>
   </si>
 </sst>
 </file>
@@ -1474,13 +1600,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A93" sqref="A93"/>
+      <selection pane="bottomRight" activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2512,6 +2638,160 @@
       </c>
       <c r="C93" s="6" t="s">
         <v>294</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A97" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+      <c r="A104" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A106" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A107" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -2608,9 +2888,23 @@
     <hyperlink ref="B91" r:id="rId90" xr:uid="{25A95AF5-AEB2-2245-866B-0791B62856E2}"/>
     <hyperlink ref="B92" r:id="rId91" xr:uid="{E6581C0C-D3EE-544D-8EC7-68089D171EA8}"/>
     <hyperlink ref="B93" r:id="rId92" xr:uid="{53CD780C-45CD-1E43-BE82-ED3C45086641}"/>
+    <hyperlink ref="B94" r:id="rId93" xr:uid="{B133A311-05CC-974D-A860-E935B081C2FF}"/>
+    <hyperlink ref="B95" r:id="rId94" xr:uid="{10549033-6CA3-0247-BC0F-3DD4002E34D8}"/>
+    <hyperlink ref="B96" r:id="rId95" xr:uid="{9F645F73-6100-A74A-BC44-2ADDC943D3A7}"/>
+    <hyperlink ref="B97" r:id="rId96" xr:uid="{FA529BC8-E219-A24A-B673-08CA3FE2E75A}"/>
+    <hyperlink ref="B98" r:id="rId97" xr:uid="{ABF05830-D71B-7244-94AD-F8251A84FC3E}"/>
+    <hyperlink ref="B99" r:id="rId98" xr:uid="{1AED96E4-CA57-D649-87CC-B1BEC558EE73}"/>
+    <hyperlink ref="B100" r:id="rId99" xr:uid="{3C744DF8-6E2D-4C44-9ADB-BDBD35002650}"/>
+    <hyperlink ref="B101" r:id="rId100" xr:uid="{13B3C11A-1CD8-0440-8DF7-D68E5C09D8F5}"/>
+    <hyperlink ref="B102" r:id="rId101" xr:uid="{C54AF6C3-8B24-6541-A200-63C54D408DBF}"/>
+    <hyperlink ref="B103" r:id="rId102" xr:uid="{B994653E-7072-6E40-8554-7668AC47F7B2}"/>
+    <hyperlink ref="B104" r:id="rId103" xr:uid="{F3DAD8D6-EE7E-E548-9F3D-B6A3B3F2A833}"/>
+    <hyperlink ref="B105" r:id="rId104" xr:uid="{EF93AE0F-159B-A947-82B7-5574B9AF29DC}"/>
+    <hyperlink ref="B106" r:id="rId105" xr:uid="{D904C39F-0308-0641-91F5-F78A488C4C1A}"/>
+    <hyperlink ref="B107" r:id="rId106" xr:uid="{15D531E6-A54F-6841-9DA6-573BE475075B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId93"/>
+  <legacyDrawing r:id="rId107"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4BFA55-8BFB-204A-B1DB-45A0321112A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC36978-225B-7642-8A80-733730710C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27600" windowHeight="16900" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="468">
   <si>
     <t>Doutorado</t>
   </si>
@@ -1074,6 +1074,393 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1ZWW7eIq3A6nbeln1tJjVMKu_hpGMaH_S</t>
+  </si>
+  <si>
+    <t>10.1590/S1980-65742021003221</t>
+  </si>
+  <si>
+    <t>Castro, P., Ferreira, A. de S., Lopes, A. J., Paula, T. de, Costa, R. M. R., Cunha, F. A., &amp; Vigário, P. dos S. (2021). Validity of the Polar V800 heart rate monitor for assessing cardiac autonomic control in individuals with spinal cord injury. In Motriz: Revista de Educação Física (Vol. 27). FapUNIFESP (SciELO). https://doi.org/10.1590/s1980-65742021003221</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TvI68GJRnT911JvUpG3qeKrY6XKf3tZD</t>
+  </si>
+  <si>
+    <t>10.1097/BRS.0000000000003854</t>
+  </si>
+  <si>
+    <t>Correia, I. M. T., Ferreira, A. de S., Fernandez, J., Reis, F. J. J., Nogueira, L. A. C., &amp; Meziat-Filho, N. (2020). Association Between Text Neck and Neck Pain in Adults. In Spine (Vol. 46, Issue 9, pp. 571–578). Ovid Technologies (Wolters Kluwer Health). https://doi.org/10.1097/brs.0000000000003854</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1W8pCFzXMzmIrwhDSYpjpnDTa3Usw1lF6</t>
+  </si>
+  <si>
+    <t>10.5812/asjsm.108537</t>
+  </si>
+  <si>
+    <t>Deucher, R. A. de O., Ferreira, A. de S., Nascimento, L. P. A. da S., Cal, M. S. da, Papathanasiou, J. V., &amp; Lopes, A. J. (2021). Heart Rate Variability in Adults with Sickle Cell Anemia During a Multitasking Field Test. In Asian Journal of Sports Medicine (Vol. 12, Issue 3). Briefland. https://doi.org/10.5812/asjsm.108537</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1UBtZ7qI63ckjNfeeYVhgTOiAAXSdl9b4</t>
+  </si>
+  <si>
+    <t>10.5935/0103-507X.20210060</t>
+  </si>
+  <si>
+    <t>Ferreira, N. de A., Ferreira, A. de S., &amp; Guimarães, F. S. (2021). Cough peak flow to predict extubation outcome: a systematic review and meta-analysis. In Revista Brasileira de Terapia Intensiva (Vol. 33, Issue 3). GN1 Genesis Network. https://doi.org/10.5935/0103-507x.20210060</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1UnvxmO6J20zDKQqKWelrOIQ63YhCuOsH</t>
+  </si>
+  <si>
+    <t>10.1007/s00180-021-01080-9</t>
+  </si>
+  <si>
+    <t>Ferreira, A. D. S., Meziat-Filho, N., &amp; Ferreira, A. P. A. (2021). Double threshold receiver operating characteristic plot for three-modal continuous predictors. In Computational Statistics (Vol. 36, Issue 3, pp. 2231–2245). Springer Science and Business Media LLC. https://doi.org/10.1007/s00180-021-01080-9</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1UTEvxoRYR_vhKeZnhVco3yM6XSNHcL05</t>
+  </si>
+  <si>
+    <t>10.1016/j.jmpt.2020.07.012</t>
+  </si>
+  <si>
+    <t>Maddaluno, M. L. M., Ferreira, A. P. A., Tavares, A. C. L. C., Meziat-Filho, N., &amp; Ferreira, A. S. (2021). Craniocervical Posture Assessed With Photogrammetry and the Accuracy of Palpation Methods for Locating the Seventh Cervical Spinous Process: A Cross-sectional Study. In Journal of Manipulative and Physiological Therapeutics (Vol. 44, Issue 3, pp. 196–204). Elsevier BV. https://doi.org/10.1016/j.jmpt.2020.07.012</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1W57Gud_-Y8MbTeHpTdCBmcMfQ1dmRsMi</t>
+  </si>
+  <si>
+    <t>10.15602/1983-9480/cm.v23n48p99-109</t>
+  </si>
+  <si>
+    <t>Oliveira, C. L., &amp; Ferreira, A. S. (2022). Reabilitação de pessoas com amputação de membros inferiores: uma revisão sistematizada. In Ciência em Movimento (Vol. 23, Issue 48, pp. 99–109). Instituto Porto Alegre da Igreja Metodista. https://doi.org/10.15602/1983-9480/cm.v23n48p99-109</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1UMsQgLdp12pcs9Sk4iTdJnuBB02UQ8AK</t>
+  </si>
+  <si>
+    <t>10.1590/1414-431X202010040</t>
+  </si>
+  <si>
+    <t>Palugan, M. J. A., Assis, A. C. B., Bessa, E. J. C., Ferreira, A. S., &amp; Lopes, A. J. (2021). Predictors of functional capacity as measured by the Glittre activities of daily living test in women with rheumatoid arthritis. In Brazilian Journal of Medical and Biological Research (Vol. 54, Issue 5). FapUNIFESP (SciELO). https://doi.org/10.1590/1414-431x202010040</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1U_jAT47fCxJc93f-TLWMCPN0GMKXtcPh</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2021.06.020</t>
+  </si>
+  <si>
+    <t>na Junior, P. M., de Sá Ferreira, A., Telles, G., Lemos, T., &amp; Calazans Nogueira, L. A. (2021). Concurrent validation of the centre of pressure displacement analyzed by baropodometry in patients with chronic non-specific low back pain during functional tasks. In Journal of Bodywork and Movement Therapies (Vol. 28, pp. 489–495). Elsevier BV. https://doi.org/10.1016/j.jbmt.2021.06.020</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1U8d3WedLg4FjhwiP1AoyxQ0EdCgw947x</t>
+  </si>
+  <si>
+    <t>10.3390/healthcare9111560</t>
+  </si>
+  <si>
+    <t>Reddy, R. S., Gautam, A. P., Tedla, J. S., Ferreira, A. S., Reis, L. F. F., Bairapareddy, K. C., Kakaraparthi, V. N., &amp; Gular, K. (2021). The Aftermath of the COVID-19 Crisis in Saudi Arabia: Respiratory Rehabilitation Recommendations by Physical Therapists. In Healthcare (Vol. 9, Issue 11, p. 1560). MDPI AG. https://doi.org/10.3390/healthcare9111560</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ug3Dmr97xFvgjJ8_YrQsCesxPSn1zWDv</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2020.12.040</t>
+  </si>
+  <si>
+    <t>eddy, R. S., Meziat-Filho, N., Ferreira, A. S., Tedla, J. S., Kandakurti, P. K., &amp; Kakaraparthi, V. N. (2021). Comparison of neck extensor muscle endurance and cervical proprioception between asymptomatic individuals and patients with chronic neck pain. In Journal of Bodywork and Movement Therapies (Vol. 26, pp. 180–186). Elsevier BV. https://doi.org/10.1016/j.jbmt.2020.12.040</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1U8i_87kNtII3ylhFFLdlhhHgnhp3MEkF</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2020.10.024</t>
+  </si>
+  <si>
+    <t>Queiroz dos Santos, A. N., Lemos, T., Duarte Carvalho, P. H., Ferreira, A. S., &amp; Silva, J. G. (2021). Immediate effects of myofascial release maneuver applied in different lower limb muscle chains on postural sway. In Journal of Bodywork and Movement Therapies (Vol. 25, pp. 151–156). Elsevier BV. https://doi.org/10.1016/j.jbmt.2020.10.024</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1UxAwsir5GNtEPZ2FPibOgFGOMQO5x9WG</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2021.01.005</t>
+  </si>
+  <si>
+    <t>Saraiva, N. A. O., Ferreira, A. S., Papathanasiou, J. V., Guimarães, F. S., &amp; Lopes, A. J. (2021). Kinematic evaluation of patients with chronic obstructive pulmonary disease during the 6-min walk test. In Journal of Bodywork and Movement Therapies (Vol. 27, pp. 134–140). Elsevier BV. https://doi.org/10.1016/j.jbmt.2021.01.005</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1U_BEQnSWzLhP2jwB5_s7tbl9_4JOt_7H</t>
+  </si>
+  <si>
+    <t>10.1016/j.imr.2020.100687</t>
+  </si>
+  <si>
+    <t>Souza, M. F., &amp; Ferreira, A. S. (2021). Education of traditional medicine for people with visual impairments in Brazil: Challenges and strategies. In Integrative Medicine Research (Vol. 10, Issue 2, p. 100687). Elsevier BV. https://doi.org/10.1016/j.imr.2020.100687</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1UkS1xOtHxiyDbWqWlZ9tLfaoHF-_z967</t>
+  </si>
+  <si>
+    <t>10.1016/j.sleep.2021.06.039</t>
+  </si>
+  <si>
+    <t>arella, N. C., Almeida, R. S., Nogueira, L. A. C., &amp; Ferreira, A. S. (2021). Cross-cultural adaptation of the Richards-Campbell Sleep Questionnaire for intensive care unit inpatients in Brazil: internal consistency, test-retest reliability, and measurement error. In Sleep Medicine (Vol. 85, pp. 38–44). Elsevier BV. https://doi.org/10.1016/j.sleep.2021.06.039</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1UgZifLx5VTnCGUssUVWH4OCnNFG7K0nj</t>
+  </si>
+  <si>
+    <t>10.21091/mppa.2021.4029</t>
+  </si>
+  <si>
+    <t>Vilela, A. C., Nogueira, L. A. C., Ferreira, A. de S., Kochem, F. B., &amp; de Almeida, R. S. (2021). Musculoskeletal Pain and Musical Performance in First and Second Violinists of Professional Youth Chamber Orchestras: A Comparative Study. In Medical Problems of Performing Artists (Vol. 36, Issue 4, pp. 263–268). Science and Medicine, Inc. https://doi.org/10.21091/mppa.2021.4029</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1U5sHD0l9LXRXuVqn42CulY25y1mfvlya</t>
+  </si>
+  <si>
+    <t>10.1186/s40945-022-00129-2</t>
+  </si>
+  <si>
+    <t>Bittencourt, J. V., Bezerra, M. C., Pina, M. R., Reis, F. J. J., de Sá Ferreira, A., &amp; Nogueira, L. A. C. (2022). Use of the painDETECT to discriminate musculoskeletal pain phenotypes. In Archives of Physiotherapy (Vol. 12, Issue 1). Springer Science and Business Media LLC. https://doi.org/10.1186/s40945-022-00129-2</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TaWUag0KJVJl7ycQ1bOhm37UuULm6fJW</t>
+  </si>
+  <si>
+    <t>10.7888/juoeh.44.25</t>
+  </si>
+  <si>
+    <t>CASAGRANDE, C. M. Z., &amp; FERREIRA, A. de S. (2022). Challenges and Perspectives for Research on Work Ability in Professional Drivers: A Scoping Review. In Journal of UOEH (Vol. 44, Issue 1, pp. 25–34). The University of Occupational and Environmental Health, Japan. https://doi.org/10.7888/juoeh.44.25</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SQZtOlTPDpgb5htQZPaFHFjfTJBLoa9q</t>
+  </si>
+  <si>
+    <t>10.1097/j.pain.0000000000002644</t>
+  </si>
+  <si>
+    <t>Castro, J., Correia, L., Donato, B. de S., Arruda, B., Agulhari, F., Pellegrini, M. J., Belache, F. T. C., de Souza, C. P., Fernandez, J., Nogueira, L. A. C., Reis, F. J. J., Ferreira, A. de S., &amp; Meziat-Filho, N. (2022). Cognitive functional therapy compared with core exercise and manual therapy in patients with chronic low back pain: randomised controlled trial. In Pain (Vol. 163, Issue 12, pp. 2430–2437). Ovid Technologies (Wolters Kluwer Health). https://doi.org/10.1097/j.pain.0000000000002644</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SdRec4PGatoU_XMZrakAmf2HyB9XmTSh</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2022.100413</t>
+  </si>
+  <si>
+    <t>Corrêa, L. A., Mathieson, S., Meziat-Filho, N. A. de M., Reis, F. J., Ferreira, A. de S., &amp; Nogueira, L. A. C. (2022). Which psychosocial factors are related to severe pain and functional limitation in patients with low back pain? In Brazilian Journal of Physical Therapy (Vol. 26, Issue 3, p. 100413). Elsevier BV. https://doi.org/10.1016/j.bjpt.2022.100413</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TuYctM9Lr9eF9MBjRpm1wvzc8WNXAC1U</t>
+  </si>
+  <si>
+    <t>10.21037/lcm-22-8</t>
+  </si>
+  <si>
+    <t>Costa, S., &amp; Ferreira, A. de S. (2022). Acupuncture for neck pain: current evidence and challenges. In Longhua Chinese Medicine (Vol. 5, pp. 32–32). AME Publishing Company. https://doi.org/10.21037/lcm-22-8</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dDQZwt5JuY10L_znqoCzkNorZmp2Lea7</t>
+  </si>
+  <si>
+    <t>10.1016/j.ijosm.2022.04.004</t>
+  </si>
+  <si>
+    <t>Certain Curi, A. C., Antunes Ferreira, A. P., Calazans Nogueira, L. A., Meziat Filho, N. A. M., &amp; Sá Ferreira, A. (2022). Osteopathy and physiotherapy compared to physiotherapy alone on fatigue in long COVID: Study protocol for a pragmatic randomized controlled superiority trial. In International Journal of Osteopathic Medicine (Vol. 44, pp. 22–28). Elsevier BV. https://doi.org/10.1016/j.ijosm.2022.04.004</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Tm22fg31jS7CbiPEGGisI3143c54N5mB</t>
+  </si>
+  <si>
+    <t>10.1016/j.jmpt.2022.07.005</t>
+  </si>
+  <si>
+    <t>Ferreira, A. P. A., Zanier, J. F. C., Santos, E. B. G., &amp; Ferreira, A. S. (2022). Accuracy of Palpation Procedures for Locating the C1 Transverse Process and Masseter Muscle as Confirmed by Computed Tomography Images. In Journal of Manipulative and Physiological Therapeutics (Vol. 45, Issue 5, pp. 337–345). Elsevier BV. https://doi.org/10.1016/j.jmpt.2022.07.005</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SvfPsrCR0fg0NmpN0VyEsDf_i6DzDqsn</t>
+  </si>
+  <si>
+    <t>10.1016/j.clinbiomech.2022.105711</t>
+  </si>
+  <si>
+    <t>Galvão, A. F., Lemos, T., Martins, C. P., Horsczaruk, C. H. R., Oliveira, L. A. S., &amp; Ferreira, A. de S. (2022). Body sway and movement strategies for control of postural stability in people with spinocerebellar ataxia type 3: A cross-sectional study. In Clinical Biomechanics (Vol. 97, p. 105711). Elsevier BV. https://doi.org/10.1016/j.clinbiomech.2022.105711</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1S0lwZIUlOiwkNGVcx1g5Wzv_ecaZsFyF</t>
+  </si>
+  <si>
+    <t>10.1080/00140139.2021.2001577</t>
+  </si>
+  <si>
+    <t>Leivas, E. G., Bittencourt, J. V., Ferreira, A. S., &amp; Nogueira, L. A. C. (2021). Is it possible to discriminate workers with a higher prevalence of low back pain considering daily exposure time in a work-related lumbar posture? A diagnostic accuracy study. In Ergonomics (Vol. 65, Issue 6, pp. 877–885). Informa UK Limited. https://doi.org/10.1080/00140139.2021.2001577</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Sf6Y47ouIGtgz18vvzLOHoXp_4V_BgvZ</t>
+  </si>
+  <si>
+    <t>10.15202/19811896.2022v30n57p209</t>
+  </si>
+  <si>
+    <t>Nascimento, W. R. do, Vianna, M. A., Miranda, M. G. D., &amp; Ferreira, A. D. S. (2022). PARTICIPAÇÃO ORGANIZACIONAL E COMUNITÁRIA EM DIREÇÃO AO DESENVOLVIMENTO SUSTENTÁVEL LOCAL. In Revista Augustus (Vol. 30, Issue 57, pp. 209–223). Sociedade Unificada de Ensino Augusto Motta -UNISUAM. https://doi.org/10.15202/19811896.2022v30n57p209</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Sa7S4msvPE2tFuIB4-OS6bgr9B4JTrJi</t>
+  </si>
+  <si>
+    <t>10.1590/s1980-657420220010821</t>
+  </si>
+  <si>
+    <t>Nascimento, M. M., Silva, P. R. O., Felício, L. R., Mainenti, M. R. M., Miranda, H. L., Paz, G. A., Lemos, T., Ferreira, A. de S., &amp; Vigário, P. S. (2022). Postural control in football players with vision impairment: Effect of sports adaptation or visual input restriction? In Motriz: Revista de Educação Física (Vol. 28). FapUNIFESP (SciELO). https://doi.org/10.1590/s1980-657420220010821</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1S8g5MfvQNzNyBpOHE8p8reL-ru66j3xm</t>
+  </si>
+  <si>
+    <t>10.1080/10749357.2022.2130620</t>
+  </si>
+  <si>
+    <t>Oliveira, F. A. F., Martins, C. P., de Oliveira, L. A. S., Rodrigues, E. C., Ferreira, A. S., &amp; Lemos, T. (2022). Poststroke consequences upon optimization properties of postural sway during upright stance: a cross-sectional study. In Topics in Stroke Rehabilitation (pp. 1–9). Informa UK Limited. https://doi.org/10.1080/10749357.2022.2130620</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SKTFwwtW_T4BmOW5wX-M0vRK2TzfRWy5</t>
+  </si>
+  <si>
+    <t>10.23736/S1973-9087.21.06894-5</t>
+  </si>
+  <si>
+    <t>PAPATHANASIOU, J. V., PETROV, I., TSEKOURA, D., DIONYSSIOTIS, Y., FERREIRA, A. S., LOPES, A. J., LJOKA, C., &amp; FOTI, C. (2022). Does group-based high-intensity aerobic interval training improve the inflammatory status in patients with chronic heart failure? In European Journal of Physical and Rehabilitation Medicine (Vol. 58, Issue 2). Edizioni Minerva Medica. https://doi.org/10.23736/s1973-9087.21.06894-5</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SKJ9CjNsQSpef3lfHZKbsGw1QLPIakLb</t>
+  </si>
+  <si>
+    <t>10.1097/TGR.0000000000000343</t>
+  </si>
+  <si>
+    <t>Sá, R. de A., Ferreira, A. de S., Lemos, T., &amp; de Oliveira, L. A. S. (2022). Correlation Analysis of Lower-Limb Muscle Function With Clinical Status, Balance Tests, and Quality of Life in People With Parkinson Disease. In Topics in Geriatric Rehabilitation (Vol. 38, Issue 1, pp. 56–64). Ovid Technologies (Wolters Kluwer Health). https://doi.org/10.1097/tgr.0000000000000343</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SHe2yqsro_1SjyzQS8CoNRPJZzresvsc</t>
+  </si>
+  <si>
+    <t>10.3390/medicina58060823</t>
+  </si>
+  <si>
+    <t>Silva, C. A., Lopes, A. J., Papathanasiou, J., Reis, L. F. F., &amp; Ferreira, A. S. (2022). Association of Functional Characteristics and Physiotherapy with COVID-19 Mortality in Intensive Care Unit in Inpatients with Cardiovascular Diseases. In Medicina (Vol. 58, Issue 6, p. 823). MDPI AG. https://doi.org/10.3390/medicina58060823</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gvzGcTV2TPOhWztULsgA6nbhMV0Uzwq8</t>
+  </si>
+  <si>
+    <t>10.3390/healthcare10030495</t>
+  </si>
+  <si>
+    <t>Tedla, J. S., Gular, K., Reddy, R. S., de Sá Ferreira, A., Rodrigues, E. C., Kakaraparthi, V. N., Gyer, G., Sangadala, D. R., Qasheesh, M., Kovela, R. K., &amp; Nambi, G. (2022). Effectiveness of Constraint-Induced Movement Therapy (CIMT) on Balance and Functional Mobility in the Stroke Population: A Systematic Review and Meta-Analysis. In Healthcare (Vol. 10, Issue 3, p. 495). MDPI AG. https://doi.org/10.3390/healthcare10030495</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VAzDGfhA3iMsbOufSeiET-uZzI_5evk-</t>
+  </si>
+  <si>
+    <t>10.7717/peerj.13329</t>
+  </si>
+  <si>
+    <t>Tedla, J. S., Rodrigues, E., Ferreira, A. S., Vicente, J., Reddy, R. S., Gular, K., Sangadala, D. R., Kakaraparthi, V. N., Asiri, F., Midde, A. K., &amp; Dixit, S. (2022). Transcranial direct current stimulation combined with trunk-targeted, proprioceptive neuromuscular facilitation in subacute stroke: a randomized controlled trial. In PeerJ (Vol. 10, p. e13329). PeerJ. https://doi.org/10.7717/peerj.13329</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Td6dz4K1difSlUnnMetIje0L9x-7jAWC</t>
+  </si>
+  <si>
+    <t>10.1080/03091902.2022.2043947</t>
+  </si>
+  <si>
+    <t>Telles, G. F., Ferreira, A. de S., Junior, P. M. P., Lemos, T., Bittencourt, J. V., &amp; Nogueira, L. A. C. (2022). Concurrent validity of the inertial sensors for assessment of balance control during quiet standing in patients with chronic low back pain and asymptomatic individuals. In Journal of Medical Engineering &amp;amp; Technology (Vol. 46, Issue 5, pp. 354–362). Informa UK Limited. https://doi.org/10.1080/03091902.2022.2043947</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TQC2evcPGtPRQSnVbP0mNsyr0jDSegu_</t>
+  </si>
+  <si>
+    <t>10.1002/nau.24834</t>
+  </si>
+  <si>
+    <t>Volpato, M. P., Menezes, M., Prado, T. S., Piccini, A., Ferreira, A. S., &amp; Botelho, S. (2021). Electromyographic analysis of maximal voluntary contraction of female pelvic floor muscles: Intrarater and interrater reliability study. In Neurourology and Urodynamics (Vol. 41, Issue 1, pp. 383–390). Wiley. https://doi.org/10.1002/nau.24834</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TE8FQSPojTw2TB5CfT3H6B5McJYTL5MU</t>
+  </si>
+  <si>
+    <t>10.1016/j.liver.2021.100067</t>
+  </si>
+  <si>
+    <t>Willuweit, M. G. A., Lopes, A. J., &amp; Ferreira, A. S. (2022). Development of a multivariable prediction model of functional exercise capacity in liver transplant recipients. In Journal of Liver Transplantation (Vol. 6, p. 100067). Elsevier BV. https://doi.org/10.1016/j.liver.2021.100067</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1S1JbSHCz68zPss2KatxjkcmhwzJrLhvQ</t>
+  </si>
+  <si>
+    <t>10.1016/j.jcm.2022.07.003</t>
+  </si>
+  <si>
+    <t>Xavier, D. D., Graf, R. M., &amp; Ferreira, A. S. (2022). Short-Term Changes in Posture and Pain of the Neck and Lower Back of Women Undergoing Lipoabdominoplasty: A Case Series Report. In Journal of Chiropractic Medicine. Elsevier BV. https://doi.org/10.1016/j.jcm.2022.07.003</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TtwP-8FLJK5q6LvfHQah-ov4sgJ4Q9M4</t>
+  </si>
+  <si>
+    <t>10.25110/arqsaude.v27i1.2023.9145</t>
+  </si>
+  <si>
+    <t>Cunha, J. de A., Silva, M. M., Casagrande, C. M. Z., &amp; Ferreira, A. de S. (2023). AMBIENTE DE TRABALHO SEGURO E SUSTENTÁVEL: COMO A ERGONOMIA DE CONSCIENTIZAÇÃO E PARTICIPATIVA SE APLICA AOS SERVIDORES PÚBLICOS? In Arquivos de Ciências da Saúde da UNIPAR (Vol. 27, Issue 1). Universidade Paranaense. https://doi.org/10.25110/arqsaude.v27i1.2023.9145</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jCSVF5qLjQWr9T7IjkmHmPwi9SogGQER</t>
+  </si>
+  <si>
+    <t>10.1186/s12891-023-06160-z</t>
+  </si>
+  <si>
+    <t>Lunkes, L. C., Dias Neto, M. A., Barra, L. F., de Castro, L. R., Ferreira, A. S., &amp; Meziat-Filho, N. (2023). Education to keep the abdomen relaxed versus contracted during pilates in patients with chronic low back pain: study protocol for a randomised controlled trial. In BMC Musculoskeletal Disorders (Vol. 24, Issue 1). Springer Science and Business Media LLC. https://doi.org/10.1186/s12891-023-06160-z</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jAzYlyDGhcPEWAI9L7jhBytTKBBhynbr</t>
+  </si>
+  <si>
+    <t>10.1007/s00421-022-05061-8</t>
+  </si>
+  <si>
+    <t>Michalski, A. C., Ferreira, A. S., Midgley, A. W., Costa, V. A. B., Fonseca, G. F., da Silva, N. S. L., Borges, J., Billinger, S. A., &amp; Cunha, F. A. (2022). Mixed circuit training acutely reduces arterial stiffness in patients with chronic stroke: a crossover randomized controlled trial. In European Journal of Applied Physiology (Vol. 123, Issue 1, pp. 121–134). Springer Science and Business Media LLC. https://doi.org/10.1007/s00421-022-05061-8</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1j4QKuotDUMU9bJbUgkCvJIezGL5Q4qFJ</t>
+  </si>
+  <si>
+    <t>10.1016/j.jcm.2022.04.007</t>
+  </si>
+  <si>
+    <t>Paz, T. da S. R., Rodrigues, P. T. V., Silva, B. M., de Sá Ferreira, A., &amp; Nogueira, L. A. C. (2023). Mediation Analysis in Manual Therapy Research. In Journal of Chiropractic Medicine (Vol. 22, Issue 1, pp. 35–44). Elsevier BV. https://doi.org/10.1016/j.jcm.2022.04.007</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jCmhJiHYk-nKJSmevmowC3rFYnIkwkCT</t>
+  </si>
+  <si>
+    <t>10.1016/j.gerinurse.2022.11.016</t>
+  </si>
+  <si>
+    <t>Silva, S. de O., Barbosa, J. B., Lemos, T., Oliveira, L. A. S., &amp; Ferreira, A. de S. (2023). Agreement and predictive performance of fall risk assessment methods and factors associated with falls in hospitalized older adults: A longitudinal study. In Geriatric Nursing (Vol. 49, pp. 109–114). Elsevier BV. https://doi.org/10.1016/j.gerinurse.2022.11.016</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gxTZtIYXvEW3RULufwN_MbYtic4hseV0</t>
+  </si>
+  <si>
+    <t>10.1111/cpf.12812</t>
+  </si>
+  <si>
+    <t>Fonseca, G. F., Michalski, A. C., Ferreira, A. S., Costa, V. A. B., Massaferri, R., Farinatti, P., &amp; Cunha, F. A. (2023). Is postexercise hypotension a method‐dependent phenomenon in chronic stroke? A crossover randomized controlled trial. In Clinical Physiology and Functional Imaging. Wiley. https://doi.org/10.1111/cpf.12812</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jXpoVHYNjQK8bAWkV9EMoD7hgu4fULJ7</t>
   </si>
 </sst>
 </file>
@@ -1113,12 +1500,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1134,7 +1527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1158,6 +1551,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1600,13 +1999,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A108" sqref="A108"/>
+      <selection pane="bottomRight" activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2792,6 +3191,479 @@
       </c>
       <c r="C107" s="6" t="s">
         <v>336</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A111" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A113" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A114" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A115" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A116" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A117" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A118" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A119" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A120" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A122" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A123" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A124" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A125" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+      <c r="A126" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A127" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A128" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A129" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A130" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A131" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A132" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A133" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A134" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A135" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A136" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A137" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A138" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A139" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A140" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A141" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A142" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A143" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A144" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A145" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A146" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A147" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A148" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A149" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A150" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -2902,9 +3774,52 @@
     <hyperlink ref="B105" r:id="rId104" xr:uid="{EF93AE0F-159B-A947-82B7-5574B9AF29DC}"/>
     <hyperlink ref="B106" r:id="rId105" xr:uid="{D904C39F-0308-0641-91F5-F78A488C4C1A}"/>
     <hyperlink ref="B107" r:id="rId106" xr:uid="{15D531E6-A54F-6841-9DA6-573BE475075B}"/>
+    <hyperlink ref="B108" r:id="rId107" xr:uid="{7AA82C20-0C14-9F4E-B83C-D521E844080A}"/>
+    <hyperlink ref="B109" r:id="rId108" xr:uid="{F1A72634-46FA-024A-A71C-2B8DE192CDFF}"/>
+    <hyperlink ref="B110" r:id="rId109" xr:uid="{F2F60944-4966-8B4E-8252-7C6D3F0B9ABF}"/>
+    <hyperlink ref="B111" r:id="rId110" xr:uid="{AC4EAE60-0667-CB4D-81D8-1E39C821E7BF}"/>
+    <hyperlink ref="B112" r:id="rId111" xr:uid="{1FBF34BF-8DAC-F643-96D8-26A7B6570AA8}"/>
+    <hyperlink ref="B113" r:id="rId112" xr:uid="{65325FBC-67A7-934A-90C3-F33809409884}"/>
+    <hyperlink ref="B114" r:id="rId113" xr:uid="{11CF3361-9DA3-A54A-8509-AC79661A1B37}"/>
+    <hyperlink ref="B115" r:id="rId114" xr:uid="{F0123FA7-3177-8B4C-B396-34B949CBC2DC}"/>
+    <hyperlink ref="B116" r:id="rId115" xr:uid="{274F0B3E-3D9E-3140-9246-1749E3F80EAA}"/>
+    <hyperlink ref="B117" r:id="rId116" xr:uid="{9E7F9EDA-086B-2040-8C97-1EFBB3933394}"/>
+    <hyperlink ref="B118" r:id="rId117" xr:uid="{35A78072-0421-EA40-BE85-72C3D6BD0CC5}"/>
+    <hyperlink ref="B119" r:id="rId118" xr:uid="{4DD6171E-FDFA-9743-B30C-74DB457BC313}"/>
+    <hyperlink ref="B120" r:id="rId119" xr:uid="{A1DD36E2-8457-274C-9792-41D6ECA7B522}"/>
+    <hyperlink ref="B121" r:id="rId120" xr:uid="{91F8CBFE-83DC-A345-A1FC-8065A824D963}"/>
+    <hyperlink ref="B122" r:id="rId121" xr:uid="{68E66FD9-85FF-394C-B863-6D0D49B95403}"/>
+    <hyperlink ref="B123" r:id="rId122" xr:uid="{B9B94F5D-2A1B-2845-BA71-F1130EED4078}"/>
+    <hyperlink ref="B124" r:id="rId123" xr:uid="{302CD03C-7953-F34D-8B36-E0E96BF749B1}"/>
+    <hyperlink ref="B125" r:id="rId124" xr:uid="{95BFFD72-F84A-C241-8B4F-AC4B1040789A}"/>
+    <hyperlink ref="B126" r:id="rId125" xr:uid="{285AC380-9DE1-4542-A9AE-77F75D5E56CC}"/>
+    <hyperlink ref="B127" r:id="rId126" xr:uid="{1CDA8C8F-BF66-A446-A398-54BDD4FDE32C}"/>
+    <hyperlink ref="B128" r:id="rId127" xr:uid="{122B6A7E-A543-E84C-86E7-9D3C788FE325}"/>
+    <hyperlink ref="B129" r:id="rId128" xr:uid="{3B7983EF-C641-2F4B-B187-11A0B536F14E}"/>
+    <hyperlink ref="B130" r:id="rId129" xr:uid="{27C38204-63B9-F54D-9DB5-6A5E66E38EF0}"/>
+    <hyperlink ref="B131" r:id="rId130" xr:uid="{8F8A80DD-B142-FD46-B097-4EACA13FCDC7}"/>
+    <hyperlink ref="B132" r:id="rId131" xr:uid="{56EE73D6-8A46-6C43-8BB7-9923EA57AD3A}"/>
+    <hyperlink ref="B133" r:id="rId132" xr:uid="{E988A0A8-D646-DA4F-967A-6212F7EFEC7F}"/>
+    <hyperlink ref="B134" r:id="rId133" xr:uid="{9D7DB2F4-B7AF-4546-9742-C213E3DD0F1B}"/>
+    <hyperlink ref="B135" r:id="rId134" xr:uid="{DD61809A-14A3-BD4E-9CB2-1A86EEC6CB21}"/>
+    <hyperlink ref="B136" r:id="rId135" xr:uid="{DAEF01F0-8893-804B-A409-61DFA2C0FFF3}"/>
+    <hyperlink ref="B137" r:id="rId136" xr:uid="{1E111863-9ADA-B446-9838-2A4D9BCFD88A}"/>
+    <hyperlink ref="B138" r:id="rId137" xr:uid="{2B38DB71-8BD1-4442-B5AF-F6B3E2FC7260}"/>
+    <hyperlink ref="B139" r:id="rId138" xr:uid="{1F511714-B159-6949-AA5B-0ABF3AC10B21}"/>
+    <hyperlink ref="B140" r:id="rId139" xr:uid="{6F05C1DE-E609-5F49-8925-DED45C0CA298}"/>
+    <hyperlink ref="B141" r:id="rId140" xr:uid="{B42F2141-A47F-C546-80CF-6A6E21568B28}"/>
+    <hyperlink ref="B142" r:id="rId141" xr:uid="{0578345A-2B35-DB46-A252-75D624E5335A}"/>
+    <hyperlink ref="B143" r:id="rId142" xr:uid="{388231C5-C849-004F-9F48-34C271CF034D}"/>
+    <hyperlink ref="B144" r:id="rId143" xr:uid="{495D9EE1-8177-2045-B949-9EB2159F336C}"/>
+    <hyperlink ref="B145" r:id="rId144" xr:uid="{98312511-DDA4-2D4B-A18F-0B6277CCE160}"/>
+    <hyperlink ref="B147" r:id="rId145" xr:uid="{9080FF6E-E32B-E346-9769-672E744AD1D3}"/>
+    <hyperlink ref="B148" r:id="rId146" xr:uid="{F06E1BB0-4C0A-A84A-A70F-1043B59098D7}"/>
+    <hyperlink ref="B149" r:id="rId147" xr:uid="{010AA221-1F56-BB49-B837-372725EB4330}"/>
+    <hyperlink ref="B150" r:id="rId148" xr:uid="{1E55B930-A384-3D47-8670-2F9757ACB2DB}"/>
+    <hyperlink ref="B146" r:id="rId149" xr:uid="{F05CFACE-9B72-6F4B-BFAA-7E923DC83332}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId107"/>
+  <legacyDrawing r:id="rId150"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC36978-225B-7642-8A80-733730710C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500A9187-8E0F-4843-9DD7-428632B75792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="500" windowWidth="27600" windowHeight="16900" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="27600" windowHeight="16900" activeTab="3" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
   <sheets>
     <sheet name="curriculo" sheetId="2" r:id="rId1"/>
     <sheet name="qualificacao-academica" sheetId="1" r:id="rId2"/>
     <sheet name="artigos-em-periodicos" sheetId="4" r:id="rId3"/>
-    <sheet name="aplicativos-com-registro" sheetId="3" r:id="rId4"/>
+    <sheet name="capitulos" sheetId="5" r:id="rId4"/>
+    <sheet name="aplicativos-com-registro" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -56,8 +57,26 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B825695E-50C7-D542-A8C5-7120514BE701}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B825695E-50C7-D542-A8C5-7120514BE701}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    https://citation.crosscite.org</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="478">
   <si>
     <t>Doutorado</t>
   </si>
@@ -1461,6 +1480,36 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1jXpoVHYNjQK8bAWkV9EMoD7hgu4fULJ7</t>
+  </si>
+  <si>
+    <t>10.5772/27703</t>
+  </si>
+  <si>
+    <t>Sa Ferreira, A. de. (2012). Advances in Chinese Medicine Diagnosis: From Traditional Methods to Computational Models. In Recent Advances in Theories and Practice of Chinese Medicine. InTech. https://doi.org/10.5772/27703</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Nrqhq-yvOiL6l36FxEb3o9kz2ocjQKnk</t>
+  </si>
+  <si>
+    <t>10.1007/978-981-10-2290-6_7</t>
+  </si>
+  <si>
+    <t>Ferreira, A. S., &amp; Oliveira, I. J. A. S. (2016). Methods for Assessment of Interrater Reliability for Diagnosis and Intervention in Traditional Chinese Medicine Studies. In Evidence-based Research Methods for Chinese Medicine (pp. 89–111). Springer Singapore. https://doi.org/10.1007/978-981-10-2290-6_7</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NpdpfIz4hTgtebtQF74ftwH86BaWa52T</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dBbx4pn_JkydiCGgCpEyEAWZ1xUf4iPJ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dCqmO2UcE_wCna7-oIU_F-Fo-TaUVfit</t>
+  </si>
+  <si>
+    <t>Lopes, A. J.., Alegria, S. G., &amp; Ferreira, A. S. (2021). Teste de atividade diária Glittre. In Medidas de desempenho físico e funcional de pessoas idosas (pp. 61-67). Medbook RJ.</t>
+  </si>
+  <si>
+    <t>Ferreira, A. S..,Silva, P. O., &amp; Lopes, A. J. (2021). Teste de caminhada de seis minutos. In Medidas de desempenho físico e funcional de pessoas idosas (pp. 250-257). Medbook RJ.</t>
   </si>
 </sst>
 </file>
@@ -1886,6 +1935,14 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2022-11-04T12:25:39.86" personId="{DF99B094-8537-A74A-821D-4A456C6826F4}" id="{B825695E-50C7-D542-A8C5-7120514BE701}">
+    <text>https://citation.crosscite.org</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AFE2F4-32B3-5A4F-B0D3-5766AC05F50D}">
   <dimension ref="A1:B2"/>
@@ -2001,11 +2058,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
   <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B147" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A150" sqref="A150"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3824,6 +3881,86 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC58054-A5C0-CE48-966A-D48A8C7C29B4}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43" style="6" customWidth="1"/>
+    <col min="2" max="2" width="64.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>475</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{A00EC802-23BF-954B-A471-137E5FB799D0}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{CD2E113E-FC48-B54D-85C5-1929A41F75FB}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{0548F497-EAD4-794E-B050-A9FB79A11724}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{06F2D2AA-4155-FF45-9438-959247A730CF}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D49A42-744A-EE4A-B294-D2CA066FEF3F}">
   <dimension ref="A1:B5"/>
   <sheetViews>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500A9187-8E0F-4843-9DD7-428632B75792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87169CED-FD31-9145-917A-ED0FCF345511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="500" windowWidth="27600" windowHeight="16900" activeTab="3" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="27600" windowHeight="16900" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
   <sheets>
     <sheet name="curriculo" sheetId="2" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="481">
   <si>
     <t>Doutorado</t>
   </si>
@@ -1510,6 +1510,15 @@
   </si>
   <si>
     <t>Ferreira, A. S..,Silva, P. O., &amp; Lopes, A. J. (2021). Teste de caminhada de seis minutos. In Medidas de desempenho físico e funcional de pessoas idosas (pp. 250-257). Medbook RJ.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13JAoDyF3bz0tt6G2Ob4vp92M7fCtfXaB</t>
+  </si>
+  <si>
+    <t>10.5935/2595-0118.20230003-en</t>
+  </si>
+  <si>
+    <t>Bittencourt, J. V., Rio, J. P. M. do, Corrêa, L. A., Reis, F. J. J. dos, Ferreira, A. de S., &amp; Nogueira, L. A. C. (2023). Relationship between the Widespread Pain Index and the PainMAP software for pain sites measurement in patients with Widespread Pain. In Brazilian Journal Of Pain (Vol. 6, Issue 1). GN1 Sistemas e Publicacoes Ltd. https://doi.org/10.5935/2595-0118.20230003-en</t>
   </si>
 </sst>
 </file>
@@ -1947,7 +1956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AFE2F4-32B3-5A4F-B0D3-5766AC05F50D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2056,13 +2065,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C150"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B148" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3721,6 +3730,17 @@
       </c>
       <c r="C150" s="6" t="s">
         <v>462</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A151" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -3874,9 +3894,10 @@
     <hyperlink ref="B149" r:id="rId147" xr:uid="{010AA221-1F56-BB49-B837-372725EB4330}"/>
     <hyperlink ref="B150" r:id="rId148" xr:uid="{1E55B930-A384-3D47-8670-2F9757ACB2DB}"/>
     <hyperlink ref="B146" r:id="rId149" xr:uid="{F05CFACE-9B72-6F4B-BFAA-7E923DC83332}"/>
+    <hyperlink ref="B151" r:id="rId150" xr:uid="{A7254027-5889-4548-9B4B-9A026B12D462}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId150"/>
+  <legacyDrawing r:id="rId151"/>
 </worksheet>
 </file>
 
@@ -3884,7 +3905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC58054-A5C0-CE48-966A-D48A8C7C29B4}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87169CED-FD31-9145-917A-ED0FCF345511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1700EBB4-03B2-F24C-B0D4-0A7DC73F4A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27600" windowHeight="16900" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="484">
   <si>
     <t>Doutorado</t>
   </si>
@@ -1519,6 +1519,15 @@
   </si>
   <si>
     <t>Bittencourt, J. V., Rio, J. P. M. do, Corrêa, L. A., Reis, F. J. J. dos, Ferreira, A. de S., &amp; Nogueira, L. A. C. (2023). Relationship between the Widespread Pain Index and the PainMAP software for pain sites measurement in patients with Widespread Pain. In Brazilian Journal Of Pain (Vol. 6, Issue 1). GN1 Sistemas e Publicacoes Ltd. https://doi.org/10.5935/2595-0118.20230003-en</t>
+  </si>
+  <si>
+    <t>10.1016/j.brs.2023.03.001</t>
+  </si>
+  <si>
+    <t>Pinto, T. P., Inácio, J. C., de Aguiar Ferreira, E., de Sá Ferreira, A., Sudo, F. K., Tovar-Moll, F., &amp; Rodrigues, E. (2023). Prefrontal tDCS modulates autonomic responses in COVID-19 inpatients. In Brain Stimulation. Elsevier BV. https://doi.org/10.1016/j.brs.2023.03.001</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1f2oh3A4mRPKXhlmWbz5j4_ZN7LR5YCl8</t>
   </si>
 </sst>
 </file>
@@ -2065,13 +2074,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B148" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A151" sqref="A151"/>
+      <selection pane="bottomRight" activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3741,6 +3750,17 @@
       </c>
       <c r="C151" s="6" t="s">
         <v>479</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A152" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -3895,9 +3915,10 @@
     <hyperlink ref="B150" r:id="rId148" xr:uid="{1E55B930-A384-3D47-8670-2F9757ACB2DB}"/>
     <hyperlink ref="B146" r:id="rId149" xr:uid="{F05CFACE-9B72-6F4B-BFAA-7E923DC83332}"/>
     <hyperlink ref="B151" r:id="rId150" xr:uid="{A7254027-5889-4548-9B4B-9A026B12D462}"/>
+    <hyperlink ref="B152" r:id="rId151" xr:uid="{34266ABF-78A0-0249-BF51-8E8E9B5C7251}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId151"/>
+  <legacyDrawing r:id="rId152"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1700EBB4-03B2-F24C-B0D4-0A7DC73F4A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F963EBCE-C9A0-C34B-BBBD-A6F2C5203B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="500" windowWidth="27600" windowHeight="16900" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
   <sheets>
     <sheet name="curriculo" sheetId="2" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="490">
   <si>
     <t>Doutorado</t>
   </si>
@@ -1528,6 +1528,24 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1f2oh3A4mRPKXhlmWbz5j4_ZN7LR5YCl8</t>
+  </si>
+  <si>
+    <t>10.5935/0103-507X.20230203-en</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10BKSAAL7AvYtb4wF0TQir6lGIBC-Udqg</t>
+  </si>
+  <si>
+    <t>João Paulo Arruda de Oliveira, Andreia Cristina, Travassos Costa, Arthur de Sá Ferreira, Luis Felipe da Fonseca Reis , Factors associated with mortality in mechanically ventilated patients with severe acute respiratory syndrome due to COVID-19 evolution. Rev Bras Ter Intensiva. 2023;35(1):000-000</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10HgUCvvJtaa8ClFeWpiRzn04g99PIg1r</t>
+  </si>
+  <si>
+    <t>10.3390/healthcare11070954</t>
+  </si>
+  <si>
+    <t>Parisotto, G.; Reis, L.F.F.; Junior, M.S.; Papathanasiou, J.; Lopes, A.J.; Ferreira, A.S. Association of Multiple Cardiovascular Risk Factors with Musculoskeletal Function in Acute Coronary Syndrome Ward Inpatients. Healthcare 2023, 11, 954. https://doi.org/10.3390/healthcare11070954</t>
   </si>
 </sst>
 </file>
@@ -1965,7 +1983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AFE2F4-32B3-5A4F-B0D3-5766AC05F50D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2074,13 +2092,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C152"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B148" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B151" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A152" sqref="A152"/>
+      <selection pane="bottomRight" activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3742,25 +3760,47 @@
       </c>
     </row>
     <row r="151" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A151" s="6" t="s">
+      <c r="A151" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B151" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="C151" s="6" t="s">
+      <c r="C151" s="9" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A152" s="6" t="s">
+      <c r="A152" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="C152" s="9" t="s">
         <v>481</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A153" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A154" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -3916,9 +3956,11 @@
     <hyperlink ref="B146" r:id="rId149" xr:uid="{F05CFACE-9B72-6F4B-BFAA-7E923DC83332}"/>
     <hyperlink ref="B151" r:id="rId150" xr:uid="{A7254027-5889-4548-9B4B-9A026B12D462}"/>
     <hyperlink ref="B152" r:id="rId151" xr:uid="{34266ABF-78A0-0249-BF51-8E8E9B5C7251}"/>
+    <hyperlink ref="B153" r:id="rId152" xr:uid="{BFB314DB-A998-3646-B9D1-5669ECA7EC9E}"/>
+    <hyperlink ref="B154" r:id="rId153" xr:uid="{0CCC0DF9-29BA-C146-B5E0-FB0FE661B9E4}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId152"/>
+  <legacyDrawing r:id="rId154"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F963EBCE-C9A0-C34B-BBBD-A6F2C5203B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC885211-45CD-B642-A618-C61C6EB91240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="capitulos" sheetId="5" r:id="rId4"/>
     <sheet name="aplicativos-com-registro" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="499">
   <si>
     <t>Doutorado</t>
   </si>
@@ -1546,6 +1546,33 @@
   </si>
   <si>
     <t>Parisotto, G.; Reis, L.F.F.; Junior, M.S.; Papathanasiou, J.; Lopes, A.J.; Ferreira, A.S. Association of Multiple Cardiovascular Risk Factors with Musculoskeletal Function in Acute Coronary Syndrome Ward Inpatients. Healthcare 2023, 11, 954. https://doi.org/10.3390/healthcare11070954</t>
+  </si>
+  <si>
+    <t>10.1590/S1807-59322011000900001</t>
+  </si>
+  <si>
+    <t>Mainenti, M. R. M., Rodrigues, É. de C., Oliveira, J. F. de ., Ferreira, A. de S., Dias, C. M., &amp; Silva, A. L. dos S.. (2011). Adiposity and postural balance control: correlations between bioelectrical impedance and stabilometric signals in elderly Brazilian women. Clinics, 66(Clinics, 2011 66(9)), 1513–1518. https://doi.org/10.1590/S1807-59322011000900001</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_0pu3oqDMA9Je61BTgpYM0AAfkF7DTlZ</t>
+  </si>
+  <si>
+    <t>10.19177/cntc.v1e1201271-84</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1X0G5mGM53W673bu7jU-eD0Ky-0qDHPSA</t>
+  </si>
+  <si>
+    <t>Luiz, A.B., Babinski, M.A., &amp; Ferreira, A.D. (2012). Neurobiologia da analgesia induzidapor acupuntura manual e eletroacupuntura: revisão de literatura. Cadernos de Naturologia e Terapias Complementares, 1, 71-84.</t>
+  </si>
+  <si>
+    <t>10.1002/pri.2005</t>
+  </si>
+  <si>
+    <t>Deucher, R. A. de O., Reis, L. F. da F., Papathanasiou, J. V., Azevedo, B. L. P. A., Oliveira, J. G. M., da Silva, M. M., de Sales, R. C., dos Santos, B. P., Ferreira, A. de S., &amp; Lopes, A. J. (2023). Estimating cardiopulmonary fitness with a new sampling technology in patients with rheumatoid arthritis‐associated interstitial lung disease. In Physiotherapy Research International. Wiley. https://doi.org/10.1002/pri.2005</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13-bZ06Gr4CrfvPgYwq0VAKnD62IXexQf</t>
   </si>
 </sst>
 </file>
@@ -1649,7 +1676,18 @@
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2092,13 +2130,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:C157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B151" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B153" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A154" sqref="A154"/>
+      <selection pane="bottomRight" activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2263,1522 +2301,1522 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+    <row r="17" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+    <row r="18" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+    <row r="21" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B21" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+    <row r="22" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B22" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+    <row r="23" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B31" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+    <row r="32" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B32" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+    <row r="33" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B33" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+    <row r="34" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B34" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+    <row r="35" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B35" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+    <row r="36" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B36" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+    <row r="37" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B37" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+    <row r="38" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+    <row r="39" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B39" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+    <row r="40" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B40" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+    <row r="41" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B41" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+    <row r="42" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B42" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
+    <row r="43" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B43" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
+    <row r="44" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+    <row r="45" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B45" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+    <row r="46" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B46" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B51" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
+    <row r="52" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B52" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B55" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
+    <row r="56" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B56" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C56" s="6" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B70" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C70" s="6" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B77" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C77" s="6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="s">
+    <row r="78" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B78" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C78" s="6" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A78" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B82" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C82" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A81" s="6" t="s">
+    <row r="83" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B83" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C83" s="6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A82" s="6" t="s">
+    <row r="84" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B84" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C84" s="6" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A83" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A84" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B87" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C87" s="6" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A86" s="6" t="s">
+    <row r="88" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B88" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C88" s="6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A87" s="6" t="s">
+    <row r="89" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B89" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C89" s="6" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A88" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A89" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B93" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C93" s="6" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A92" s="6" t="s">
+    <row r="94" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B94" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C94" s="6" t="s">
         <v>291</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A93" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A94" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A97" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B98" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C98" s="6" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A97" s="6" t="s">
+    <row r="99" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B99" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C99" s="6" t="s">
         <v>306</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A98" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A99" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B103" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C103" s="6" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A102" s="6" t="s">
+    <row r="104" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A104" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B104" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C104" s="6" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A103" s="6" t="s">
+    <row r="105" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B105" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C105" s="6" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="204" x14ac:dyDescent="0.2">
-      <c r="A104" s="6" t="s">
+    <row r="106" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+      <c r="A106" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B106" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C106" s="6" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A105" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A106" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B109" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C109" s="6" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A108" s="6" t="s">
+    <row r="110" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B110" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C110" s="6" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A109" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A110" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A115" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A116" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B116" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C116" s="6" t="s">
         <v>357</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A115" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A116" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A120" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B121" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="C121" s="6" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A120" s="6" t="s">
+    <row r="122" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A122" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B122" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C122" s="6" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A121" s="6" t="s">
+    <row r="123" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A123" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B123" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="C123" s="6" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A122" s="6" t="s">
+    <row r="124" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A124" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B124" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="C124" s="6" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A123" s="6" t="s">
+    <row r="125" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A125" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B125" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="C123" s="6" t="s">
+      <c r="C125" s="6" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A124" s="6" t="s">
+    <row r="126" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A126" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B126" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="C126" s="6" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A125" s="6" t="s">
+    <row r="127" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A127" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B127" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="C127" s="6" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="204" x14ac:dyDescent="0.2">
-      <c r="A126" s="6" t="s">
+    <row r="128" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+      <c r="A128" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B128" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="C128" s="6" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A127" s="6" t="s">
+    <row r="129" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A129" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B129" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="C129" s="6" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A128" s="6" t="s">
+    <row r="130" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A130" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B130" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="C130" s="6" t="s">
         <v>399</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A129" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A130" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A135" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A136" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B136" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="C134" s="6" t="s">
+      <c r="C136" s="6" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A135" s="9" t="s">
+    <row r="137" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A137" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B137" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C135" s="9" t="s">
+      <c r="C137" s="9" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A136" s="6" t="s">
+    <row r="138" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A138" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B138" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="C138" s="6" t="s">
         <v>423</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A137" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A138" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A142" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A143" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B143" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="C143" s="6" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A142" s="6" t="s">
+    <row r="144" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A144" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B144" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="C142" s="6" t="s">
+      <c r="C144" s="6" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A143" s="6" t="s">
+    <row r="145" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A145" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B145" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="C143" s="6" t="s">
+      <c r="C145" s="6" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A144" s="9" t="s">
+    <row r="146" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A146" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B146" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="C146" s="9" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A145" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A146" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>465</v>
-      </c>
-    </row>
     <row r="147" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A147" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>453</v>
+      <c r="A147" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A149" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A150" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A151" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A152" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B152" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="C148" s="6" t="s">
+      <c r="C152" s="6" t="s">
         <v>456</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A149" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A150" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A151" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A152" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="C152" s="9" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -3803,7 +3841,43 @@
         <v>488</v>
       </c>
     </row>
+    <row r="155" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A155" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A156" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A157" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>462</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{B79F2BA8-3E3E-3D4D-9EDE-43EBA11C9407}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{1BC164A6-E83A-D14F-970A-5B899B7DCB55}"/>
@@ -3818,149 +3892,152 @@
     <hyperlink ref="B12" r:id="rId11" xr:uid="{733E0BA0-1597-F443-AC10-2297BF3494AE}"/>
     <hyperlink ref="B13" r:id="rId12" xr:uid="{E7CDECD6-C441-A84A-8CD5-822540F21D6F}"/>
     <hyperlink ref="B14" r:id="rId13" xr:uid="{D9034E25-AD51-E94B-81C8-D6268076902A}"/>
-    <hyperlink ref="B16" r:id="rId14" xr:uid="{A75C513A-C4CD-544C-B8DF-C8622168D8FF}"/>
-    <hyperlink ref="B15" r:id="rId15" xr:uid="{C25C1D58-38B6-1C4D-9141-AEE65D037BEC}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{53359184-A500-F345-B5CF-370809749490}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{C75595BB-FEAE-C44D-A5E9-E2102FAB131B}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{8DFE39CF-A274-B04E-9C05-373375104A8E}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{6BCB21CD-9D72-BD40-A947-177E66616DC6}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{516AB946-3702-DD4C-85A6-E83B41D3614B}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{F9773DA7-7F7D-FD48-A4D3-0C1B14512E59}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{8975CDAF-CB42-CD40-BCF2-5BE5C6BB14FB}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{071D8237-C384-A440-9480-BAD41B8569A3}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{BC9791F7-2847-8148-A9A0-AFC1934E923B}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{B42E5E59-A99E-D645-922B-462EA905C7EB}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{88ABA76F-795F-6C45-AEE2-8ADF2E952AA9}"/>
-    <hyperlink ref="B28" r:id="rId27" xr:uid="{9A9091F4-9B24-354E-A0D6-0663442917BF}"/>
-    <hyperlink ref="B29" r:id="rId28" xr:uid="{84158B3B-74D7-DD4D-8FED-B523C8DB94EF}"/>
-    <hyperlink ref="B30" r:id="rId29" xr:uid="{BD038DB7-23DC-2A47-9941-9D09F62697EB}"/>
-    <hyperlink ref="B31" r:id="rId30" xr:uid="{678A2815-1E03-6649-8088-46ECA75169F4}"/>
-    <hyperlink ref="B32" r:id="rId31" xr:uid="{CD5B782C-C4EF-E646-85D5-CCC7D2A820BB}"/>
-    <hyperlink ref="B33" r:id="rId32" xr:uid="{5DDF7C99-F48A-F249-9B02-2BB173193F97}"/>
-    <hyperlink ref="B34" r:id="rId33" xr:uid="{56AF04F0-B1E1-964D-8E49-D6C4E0505570}"/>
-    <hyperlink ref="B35" r:id="rId34" xr:uid="{931BBACF-3D25-2848-93A6-B6FB8EFBBFC4}"/>
-    <hyperlink ref="B36" r:id="rId35" xr:uid="{BE224527-403B-D548-B291-98930EFC8387}"/>
-    <hyperlink ref="B37" r:id="rId36" xr:uid="{15A35CDE-FF87-8240-9C64-79C0CC1F2B0A}"/>
-    <hyperlink ref="B38" r:id="rId37" xr:uid="{CEE7F6FE-F793-464A-B253-A7F4FE1F6D64}"/>
-    <hyperlink ref="B39" r:id="rId38" xr:uid="{D82E61D4-0968-2E4D-9341-103173A60096}"/>
-    <hyperlink ref="B40" r:id="rId39" xr:uid="{7834FA35-30A7-1649-BF0D-C87668C1A4C9}"/>
-    <hyperlink ref="B41" r:id="rId40" xr:uid="{0F67589F-FD86-5A44-92E1-829AD619E227}"/>
-    <hyperlink ref="B42" r:id="rId41" xr:uid="{4D681804-1C20-534F-9988-7BFF3591C797}"/>
-    <hyperlink ref="B43" r:id="rId42" xr:uid="{CE80C71A-29E1-7B4A-97D8-BFED3CE8CBCB}"/>
-    <hyperlink ref="B44" r:id="rId43" xr:uid="{DD372FC9-E2C9-494A-A992-41B449FCBF60}"/>
-    <hyperlink ref="B45" r:id="rId44" xr:uid="{6BDBC740-454D-E643-B675-C7A39ACF3EE9}"/>
-    <hyperlink ref="B46" r:id="rId45" xr:uid="{1CB10A6F-0220-FF4D-9CB0-8DF389D10A1C}"/>
-    <hyperlink ref="B47" r:id="rId46" xr:uid="{283AF92B-31DB-434B-BCDD-EF8795B26552}"/>
-    <hyperlink ref="B48" r:id="rId47" xr:uid="{611E1ECD-AFCF-4B48-BA5D-C2BF16D0FFB3}"/>
-    <hyperlink ref="B49" r:id="rId48" xr:uid="{9AD529EB-6D64-2A41-9458-EACF660D8470}"/>
-    <hyperlink ref="B50" r:id="rId49" xr:uid="{7B0A5145-756B-554C-A5EA-3AC6BF009DF8}"/>
-    <hyperlink ref="B51" r:id="rId50" xr:uid="{9410AAB9-9D80-244B-9D65-8AE548D5921E}"/>
-    <hyperlink ref="B52" r:id="rId51" xr:uid="{7811D0DA-ECAA-EC49-B06C-25979D4F8393}"/>
-    <hyperlink ref="B53" r:id="rId52" xr:uid="{7DAFEA67-E2CC-0A4D-86EE-6EB6EC8005FF}"/>
-    <hyperlink ref="B54" r:id="rId53" xr:uid="{23B1C06A-784A-9344-9843-3E9F894DEC72}"/>
-    <hyperlink ref="B55" r:id="rId54" xr:uid="{D52D8D34-B289-3945-B0A9-024E4A788FAF}"/>
-    <hyperlink ref="B56" r:id="rId55" xr:uid="{9DFAF0A7-73A9-7640-8118-5B6540D6BF17}"/>
-    <hyperlink ref="B57" r:id="rId56" xr:uid="{47378E8A-1A68-7D44-B42C-7A8E5B32638C}"/>
-    <hyperlink ref="B58" r:id="rId57" xr:uid="{2C7BB2DC-13AF-274D-9F46-42F9515C62F4}"/>
-    <hyperlink ref="B59" r:id="rId58" xr:uid="{6EE25FA5-6F0C-DB44-9D3C-9A02AE83759A}"/>
-    <hyperlink ref="B60" r:id="rId59" xr:uid="{DE92B86F-E8E4-BF4F-AFC6-60D6F5F852D5}"/>
-    <hyperlink ref="B61" r:id="rId60" xr:uid="{033BD293-121A-294B-8472-459A8117FC12}"/>
-    <hyperlink ref="B62" r:id="rId61" xr:uid="{DC7E7125-71D7-D844-8F25-D6ABC209B263}"/>
-    <hyperlink ref="B63" r:id="rId62" xr:uid="{B1E5E19E-76A8-7F43-9181-1F48D862CC6F}"/>
-    <hyperlink ref="B64" r:id="rId63" xr:uid="{303E647E-DED6-494D-8787-F447CCBB29FF}"/>
-    <hyperlink ref="B65" r:id="rId64" xr:uid="{DB73BFE9-7344-7D4F-9D80-C9E32EBEB036}"/>
-    <hyperlink ref="B66" r:id="rId65" xr:uid="{4CD282DC-1830-7144-A94A-3B6D51ACCE17}"/>
-    <hyperlink ref="B67" r:id="rId66" xr:uid="{E09B8C1B-C1FD-F341-A855-538C3F4613A6}"/>
-    <hyperlink ref="B68" r:id="rId67" xr:uid="{FAE28898-21C9-824F-9778-1B27BEC03FB8}"/>
-    <hyperlink ref="B69" r:id="rId68" xr:uid="{9E3BF8E7-3E3B-6A44-A1E1-0039910472A2}"/>
-    <hyperlink ref="B70" r:id="rId69" xr:uid="{822FBBE1-DFF2-6D43-B27E-B85D40270E1F}"/>
-    <hyperlink ref="B71" r:id="rId70" xr:uid="{DF6F1B04-F3BC-5E4E-9CD0-899C8EFD736D}"/>
-    <hyperlink ref="B72" r:id="rId71" xr:uid="{C1832584-1B0F-8245-B690-62188EEF00C1}"/>
-    <hyperlink ref="B73" r:id="rId72" xr:uid="{9965D2D0-1F02-414F-ACB1-7946DEA7806C}"/>
-    <hyperlink ref="B74" r:id="rId73" xr:uid="{209ACE43-022F-B04F-8AB8-7D0DB4248D6B}"/>
-    <hyperlink ref="B75" r:id="rId74" xr:uid="{8B6601DB-4544-CB4F-B567-1B6562FFFB60}"/>
-    <hyperlink ref="B76" r:id="rId75" xr:uid="{0F1C111B-6D8B-1742-A06F-26F370727148}"/>
-    <hyperlink ref="B77" r:id="rId76" xr:uid="{2208776B-00C7-8F4E-9ECD-96068502754D}"/>
-    <hyperlink ref="B78" r:id="rId77" xr:uid="{F69912D8-D931-9C44-8CE3-85ACC1B9E0A8}"/>
-    <hyperlink ref="B79" r:id="rId78" xr:uid="{F690AED2-EC91-5C48-AF2A-9AF02893572D}"/>
-    <hyperlink ref="B80" r:id="rId79" xr:uid="{81707B66-CDDC-1140-B016-F03324D51310}"/>
-    <hyperlink ref="B81" r:id="rId80" xr:uid="{965685DF-8BA5-6F46-8EA0-824420DCE2E5}"/>
-    <hyperlink ref="B82" r:id="rId81" xr:uid="{8569BBB5-F4F9-C543-B27D-08233BD58594}"/>
-    <hyperlink ref="B83" r:id="rId82" xr:uid="{22F14B03-864F-AD40-9EA3-5F662B4E73C2}"/>
-    <hyperlink ref="B84" r:id="rId83" xr:uid="{9AFF3044-5E62-9844-8970-EBAA426EBB68}"/>
-    <hyperlink ref="B85" r:id="rId84" xr:uid="{7773F181-2E31-5547-B72D-A08E5CCD661E}"/>
-    <hyperlink ref="B86" r:id="rId85" xr:uid="{EC9B85EE-E8FD-CB45-A984-5358E9D20888}"/>
-    <hyperlink ref="B87" r:id="rId86" xr:uid="{60E7D18E-BF52-AA40-985D-A0E21A01BD76}"/>
-    <hyperlink ref="B88" r:id="rId87" xr:uid="{71943C0E-24B6-9B46-9261-E1FEBE5CB2F8}"/>
-    <hyperlink ref="B89" r:id="rId88" xr:uid="{2D260DDD-A9BD-5748-A139-A43895586195}"/>
-    <hyperlink ref="B90" r:id="rId89" xr:uid="{75AC30E0-144B-9943-BBCB-3C6E7B2540CA}"/>
-    <hyperlink ref="B91" r:id="rId90" xr:uid="{25A95AF5-AEB2-2245-866B-0791B62856E2}"/>
-    <hyperlink ref="B92" r:id="rId91" xr:uid="{E6581C0C-D3EE-544D-8EC7-68089D171EA8}"/>
-    <hyperlink ref="B93" r:id="rId92" xr:uid="{53CD780C-45CD-1E43-BE82-ED3C45086641}"/>
-    <hyperlink ref="B94" r:id="rId93" xr:uid="{B133A311-05CC-974D-A860-E935B081C2FF}"/>
-    <hyperlink ref="B95" r:id="rId94" xr:uid="{10549033-6CA3-0247-BC0F-3DD4002E34D8}"/>
-    <hyperlink ref="B96" r:id="rId95" xr:uid="{9F645F73-6100-A74A-BC44-2ADDC943D3A7}"/>
-    <hyperlink ref="B97" r:id="rId96" xr:uid="{FA529BC8-E219-A24A-B673-08CA3FE2E75A}"/>
-    <hyperlink ref="B98" r:id="rId97" xr:uid="{ABF05830-D71B-7244-94AD-F8251A84FC3E}"/>
-    <hyperlink ref="B99" r:id="rId98" xr:uid="{1AED96E4-CA57-D649-87CC-B1BEC558EE73}"/>
-    <hyperlink ref="B100" r:id="rId99" xr:uid="{3C744DF8-6E2D-4C44-9ADB-BDBD35002650}"/>
-    <hyperlink ref="B101" r:id="rId100" xr:uid="{13B3C11A-1CD8-0440-8DF7-D68E5C09D8F5}"/>
-    <hyperlink ref="B102" r:id="rId101" xr:uid="{C54AF6C3-8B24-6541-A200-63C54D408DBF}"/>
-    <hyperlink ref="B103" r:id="rId102" xr:uid="{B994653E-7072-6E40-8554-7668AC47F7B2}"/>
-    <hyperlink ref="B104" r:id="rId103" xr:uid="{F3DAD8D6-EE7E-E548-9F3D-B6A3B3F2A833}"/>
-    <hyperlink ref="B105" r:id="rId104" xr:uid="{EF93AE0F-159B-A947-82B7-5574B9AF29DC}"/>
-    <hyperlink ref="B106" r:id="rId105" xr:uid="{D904C39F-0308-0641-91F5-F78A488C4C1A}"/>
-    <hyperlink ref="B107" r:id="rId106" xr:uid="{15D531E6-A54F-6841-9DA6-573BE475075B}"/>
-    <hyperlink ref="B108" r:id="rId107" xr:uid="{7AA82C20-0C14-9F4E-B83C-D521E844080A}"/>
-    <hyperlink ref="B109" r:id="rId108" xr:uid="{F1A72634-46FA-024A-A71C-2B8DE192CDFF}"/>
-    <hyperlink ref="B110" r:id="rId109" xr:uid="{F2F60944-4966-8B4E-8252-7C6D3F0B9ABF}"/>
-    <hyperlink ref="B111" r:id="rId110" xr:uid="{AC4EAE60-0667-CB4D-81D8-1E39C821E7BF}"/>
-    <hyperlink ref="B112" r:id="rId111" xr:uid="{1FBF34BF-8DAC-F643-96D8-26A7B6570AA8}"/>
-    <hyperlink ref="B113" r:id="rId112" xr:uid="{65325FBC-67A7-934A-90C3-F33809409884}"/>
-    <hyperlink ref="B114" r:id="rId113" xr:uid="{11CF3361-9DA3-A54A-8509-AC79661A1B37}"/>
-    <hyperlink ref="B115" r:id="rId114" xr:uid="{F0123FA7-3177-8B4C-B396-34B949CBC2DC}"/>
-    <hyperlink ref="B116" r:id="rId115" xr:uid="{274F0B3E-3D9E-3140-9246-1749E3F80EAA}"/>
-    <hyperlink ref="B117" r:id="rId116" xr:uid="{9E7F9EDA-086B-2040-8C97-1EFBB3933394}"/>
-    <hyperlink ref="B118" r:id="rId117" xr:uid="{35A78072-0421-EA40-BE85-72C3D6BD0CC5}"/>
-    <hyperlink ref="B119" r:id="rId118" xr:uid="{4DD6171E-FDFA-9743-B30C-74DB457BC313}"/>
-    <hyperlink ref="B120" r:id="rId119" xr:uid="{A1DD36E2-8457-274C-9792-41D6ECA7B522}"/>
-    <hyperlink ref="B121" r:id="rId120" xr:uid="{91F8CBFE-83DC-A345-A1FC-8065A824D963}"/>
-    <hyperlink ref="B122" r:id="rId121" xr:uid="{68E66FD9-85FF-394C-B863-6D0D49B95403}"/>
-    <hyperlink ref="B123" r:id="rId122" xr:uid="{B9B94F5D-2A1B-2845-BA71-F1130EED4078}"/>
-    <hyperlink ref="B124" r:id="rId123" xr:uid="{302CD03C-7953-F34D-8B36-E0E96BF749B1}"/>
-    <hyperlink ref="B125" r:id="rId124" xr:uid="{95BFFD72-F84A-C241-8B4F-AC4B1040789A}"/>
-    <hyperlink ref="B126" r:id="rId125" xr:uid="{285AC380-9DE1-4542-A9AE-77F75D5E56CC}"/>
-    <hyperlink ref="B127" r:id="rId126" xr:uid="{1CDA8C8F-BF66-A446-A398-54BDD4FDE32C}"/>
-    <hyperlink ref="B128" r:id="rId127" xr:uid="{122B6A7E-A543-E84C-86E7-9D3C788FE325}"/>
-    <hyperlink ref="B129" r:id="rId128" xr:uid="{3B7983EF-C641-2F4B-B187-11A0B536F14E}"/>
-    <hyperlink ref="B130" r:id="rId129" xr:uid="{27C38204-63B9-F54D-9DB5-6A5E66E38EF0}"/>
-    <hyperlink ref="B131" r:id="rId130" xr:uid="{8F8A80DD-B142-FD46-B097-4EACA13FCDC7}"/>
-    <hyperlink ref="B132" r:id="rId131" xr:uid="{56EE73D6-8A46-6C43-8BB7-9923EA57AD3A}"/>
-    <hyperlink ref="B133" r:id="rId132" xr:uid="{E988A0A8-D646-DA4F-967A-6212F7EFEC7F}"/>
-    <hyperlink ref="B134" r:id="rId133" xr:uid="{9D7DB2F4-B7AF-4546-9742-C213E3DD0F1B}"/>
-    <hyperlink ref="B135" r:id="rId134" xr:uid="{DD61809A-14A3-BD4E-9CB2-1A86EEC6CB21}"/>
-    <hyperlink ref="B136" r:id="rId135" xr:uid="{DAEF01F0-8893-804B-A409-61DFA2C0FFF3}"/>
-    <hyperlink ref="B137" r:id="rId136" xr:uid="{1E111863-9ADA-B446-9838-2A4D9BCFD88A}"/>
-    <hyperlink ref="B138" r:id="rId137" xr:uid="{2B38DB71-8BD1-4442-B5AF-F6B3E2FC7260}"/>
-    <hyperlink ref="B139" r:id="rId138" xr:uid="{1F511714-B159-6949-AA5B-0ABF3AC10B21}"/>
-    <hyperlink ref="B140" r:id="rId139" xr:uid="{6F05C1DE-E609-5F49-8925-DED45C0CA298}"/>
-    <hyperlink ref="B141" r:id="rId140" xr:uid="{B42F2141-A47F-C546-80CF-6A6E21568B28}"/>
-    <hyperlink ref="B142" r:id="rId141" xr:uid="{0578345A-2B35-DB46-A252-75D624E5335A}"/>
-    <hyperlink ref="B143" r:id="rId142" xr:uid="{388231C5-C849-004F-9F48-34C271CF034D}"/>
-    <hyperlink ref="B144" r:id="rId143" xr:uid="{495D9EE1-8177-2045-B949-9EB2159F336C}"/>
-    <hyperlink ref="B145" r:id="rId144" xr:uid="{98312511-DDA4-2D4B-A18F-0B6277CCE160}"/>
-    <hyperlink ref="B147" r:id="rId145" xr:uid="{9080FF6E-E32B-E346-9769-672E744AD1D3}"/>
-    <hyperlink ref="B148" r:id="rId146" xr:uid="{F06E1BB0-4C0A-A84A-A70F-1043B59098D7}"/>
-    <hyperlink ref="B149" r:id="rId147" xr:uid="{010AA221-1F56-BB49-B837-372725EB4330}"/>
-    <hyperlink ref="B150" r:id="rId148" xr:uid="{1E55B930-A384-3D47-8670-2F9757ACB2DB}"/>
-    <hyperlink ref="B146" r:id="rId149" xr:uid="{F05CFACE-9B72-6F4B-BFAA-7E923DC83332}"/>
-    <hyperlink ref="B151" r:id="rId150" xr:uid="{A7254027-5889-4548-9B4B-9A026B12D462}"/>
-    <hyperlink ref="B152" r:id="rId151" xr:uid="{34266ABF-78A0-0249-BF51-8E8E9B5C7251}"/>
+    <hyperlink ref="B17" r:id="rId14" xr:uid="{A75C513A-C4CD-544C-B8DF-C8622168D8FF}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{C25C1D58-38B6-1C4D-9141-AEE65D037BEC}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{53359184-A500-F345-B5CF-370809749490}"/>
+    <hyperlink ref="B19" r:id="rId17" xr:uid="{C75595BB-FEAE-C44D-A5E9-E2102FAB131B}"/>
+    <hyperlink ref="B20" r:id="rId18" xr:uid="{8DFE39CF-A274-B04E-9C05-373375104A8E}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{6BCB21CD-9D72-BD40-A947-177E66616DC6}"/>
+    <hyperlink ref="B22" r:id="rId20" xr:uid="{516AB946-3702-DD4C-85A6-E83B41D3614B}"/>
+    <hyperlink ref="B23" r:id="rId21" xr:uid="{F9773DA7-7F7D-FD48-A4D3-0C1B14512E59}"/>
+    <hyperlink ref="B24" r:id="rId22" xr:uid="{8975CDAF-CB42-CD40-BCF2-5BE5C6BB14FB}"/>
+    <hyperlink ref="B26" r:id="rId23" xr:uid="{071D8237-C384-A440-9480-BAD41B8569A3}"/>
+    <hyperlink ref="B27" r:id="rId24" xr:uid="{BC9791F7-2847-8148-A9A0-AFC1934E923B}"/>
+    <hyperlink ref="B28" r:id="rId25" xr:uid="{B42E5E59-A99E-D645-922B-462EA905C7EB}"/>
+    <hyperlink ref="B29" r:id="rId26" xr:uid="{88ABA76F-795F-6C45-AEE2-8ADF2E952AA9}"/>
+    <hyperlink ref="B30" r:id="rId27" xr:uid="{9A9091F4-9B24-354E-A0D6-0663442917BF}"/>
+    <hyperlink ref="B31" r:id="rId28" xr:uid="{84158B3B-74D7-DD4D-8FED-B523C8DB94EF}"/>
+    <hyperlink ref="B32" r:id="rId29" xr:uid="{BD038DB7-23DC-2A47-9941-9D09F62697EB}"/>
+    <hyperlink ref="B33" r:id="rId30" xr:uid="{678A2815-1E03-6649-8088-46ECA75169F4}"/>
+    <hyperlink ref="B34" r:id="rId31" xr:uid="{CD5B782C-C4EF-E646-85D5-CCC7D2A820BB}"/>
+    <hyperlink ref="B35" r:id="rId32" xr:uid="{5DDF7C99-F48A-F249-9B02-2BB173193F97}"/>
+    <hyperlink ref="B36" r:id="rId33" xr:uid="{56AF04F0-B1E1-964D-8E49-D6C4E0505570}"/>
+    <hyperlink ref="B37" r:id="rId34" xr:uid="{931BBACF-3D25-2848-93A6-B6FB8EFBBFC4}"/>
+    <hyperlink ref="B38" r:id="rId35" xr:uid="{BE224527-403B-D548-B291-98930EFC8387}"/>
+    <hyperlink ref="B39" r:id="rId36" xr:uid="{15A35CDE-FF87-8240-9C64-79C0CC1F2B0A}"/>
+    <hyperlink ref="B40" r:id="rId37" xr:uid="{CEE7F6FE-F793-464A-B253-A7F4FE1F6D64}"/>
+    <hyperlink ref="B41" r:id="rId38" xr:uid="{D82E61D4-0968-2E4D-9341-103173A60096}"/>
+    <hyperlink ref="B42" r:id="rId39" xr:uid="{7834FA35-30A7-1649-BF0D-C87668C1A4C9}"/>
+    <hyperlink ref="B43" r:id="rId40" xr:uid="{0F67589F-FD86-5A44-92E1-829AD619E227}"/>
+    <hyperlink ref="B44" r:id="rId41" xr:uid="{4D681804-1C20-534F-9988-7BFF3591C797}"/>
+    <hyperlink ref="B45" r:id="rId42" xr:uid="{CE80C71A-29E1-7B4A-97D8-BFED3CE8CBCB}"/>
+    <hyperlink ref="B46" r:id="rId43" xr:uid="{DD372FC9-E2C9-494A-A992-41B449FCBF60}"/>
+    <hyperlink ref="B47" r:id="rId44" xr:uid="{6BDBC740-454D-E643-B675-C7A39ACF3EE9}"/>
+    <hyperlink ref="B48" r:id="rId45" xr:uid="{1CB10A6F-0220-FF4D-9CB0-8DF389D10A1C}"/>
+    <hyperlink ref="B49" r:id="rId46" xr:uid="{283AF92B-31DB-434B-BCDD-EF8795B26552}"/>
+    <hyperlink ref="B50" r:id="rId47" xr:uid="{611E1ECD-AFCF-4B48-BA5D-C2BF16D0FFB3}"/>
+    <hyperlink ref="B51" r:id="rId48" xr:uid="{9AD529EB-6D64-2A41-9458-EACF660D8470}"/>
+    <hyperlink ref="B52" r:id="rId49" xr:uid="{7B0A5145-756B-554C-A5EA-3AC6BF009DF8}"/>
+    <hyperlink ref="B53" r:id="rId50" xr:uid="{9410AAB9-9D80-244B-9D65-8AE548D5921E}"/>
+    <hyperlink ref="B54" r:id="rId51" xr:uid="{7811D0DA-ECAA-EC49-B06C-25979D4F8393}"/>
+    <hyperlink ref="B55" r:id="rId52" xr:uid="{7DAFEA67-E2CC-0A4D-86EE-6EB6EC8005FF}"/>
+    <hyperlink ref="B56" r:id="rId53" xr:uid="{23B1C06A-784A-9344-9843-3E9F894DEC72}"/>
+    <hyperlink ref="B57" r:id="rId54" xr:uid="{D52D8D34-B289-3945-B0A9-024E4A788FAF}"/>
+    <hyperlink ref="B58" r:id="rId55" xr:uid="{9DFAF0A7-73A9-7640-8118-5B6540D6BF17}"/>
+    <hyperlink ref="B59" r:id="rId56" xr:uid="{47378E8A-1A68-7D44-B42C-7A8E5B32638C}"/>
+    <hyperlink ref="B60" r:id="rId57" xr:uid="{2C7BB2DC-13AF-274D-9F46-42F9515C62F4}"/>
+    <hyperlink ref="B61" r:id="rId58" xr:uid="{6EE25FA5-6F0C-DB44-9D3C-9A02AE83759A}"/>
+    <hyperlink ref="B62" r:id="rId59" xr:uid="{DE92B86F-E8E4-BF4F-AFC6-60D6F5F852D5}"/>
+    <hyperlink ref="B63" r:id="rId60" xr:uid="{033BD293-121A-294B-8472-459A8117FC12}"/>
+    <hyperlink ref="B64" r:id="rId61" xr:uid="{DC7E7125-71D7-D844-8F25-D6ABC209B263}"/>
+    <hyperlink ref="B65" r:id="rId62" xr:uid="{B1E5E19E-76A8-7F43-9181-1F48D862CC6F}"/>
+    <hyperlink ref="B66" r:id="rId63" xr:uid="{303E647E-DED6-494D-8787-F447CCBB29FF}"/>
+    <hyperlink ref="B67" r:id="rId64" xr:uid="{DB73BFE9-7344-7D4F-9D80-C9E32EBEB036}"/>
+    <hyperlink ref="B68" r:id="rId65" xr:uid="{4CD282DC-1830-7144-A94A-3B6D51ACCE17}"/>
+    <hyperlink ref="B69" r:id="rId66" xr:uid="{E09B8C1B-C1FD-F341-A855-538C3F4613A6}"/>
+    <hyperlink ref="B70" r:id="rId67" xr:uid="{FAE28898-21C9-824F-9778-1B27BEC03FB8}"/>
+    <hyperlink ref="B71" r:id="rId68" xr:uid="{9E3BF8E7-3E3B-6A44-A1E1-0039910472A2}"/>
+    <hyperlink ref="B72" r:id="rId69" xr:uid="{822FBBE1-DFF2-6D43-B27E-B85D40270E1F}"/>
+    <hyperlink ref="B73" r:id="rId70" xr:uid="{DF6F1B04-F3BC-5E4E-9CD0-899C8EFD736D}"/>
+    <hyperlink ref="B74" r:id="rId71" xr:uid="{C1832584-1B0F-8245-B690-62188EEF00C1}"/>
+    <hyperlink ref="B75" r:id="rId72" xr:uid="{9965D2D0-1F02-414F-ACB1-7946DEA7806C}"/>
+    <hyperlink ref="B76" r:id="rId73" xr:uid="{209ACE43-022F-B04F-8AB8-7D0DB4248D6B}"/>
+    <hyperlink ref="B77" r:id="rId74" xr:uid="{8B6601DB-4544-CB4F-B567-1B6562FFFB60}"/>
+    <hyperlink ref="B78" r:id="rId75" xr:uid="{0F1C111B-6D8B-1742-A06F-26F370727148}"/>
+    <hyperlink ref="B79" r:id="rId76" xr:uid="{2208776B-00C7-8F4E-9ECD-96068502754D}"/>
+    <hyperlink ref="B80" r:id="rId77" xr:uid="{F69912D8-D931-9C44-8CE3-85ACC1B9E0A8}"/>
+    <hyperlink ref="B81" r:id="rId78" xr:uid="{F690AED2-EC91-5C48-AF2A-9AF02893572D}"/>
+    <hyperlink ref="B82" r:id="rId79" xr:uid="{81707B66-CDDC-1140-B016-F03324D51310}"/>
+    <hyperlink ref="B83" r:id="rId80" xr:uid="{965685DF-8BA5-6F46-8EA0-824420DCE2E5}"/>
+    <hyperlink ref="B84" r:id="rId81" xr:uid="{8569BBB5-F4F9-C543-B27D-08233BD58594}"/>
+    <hyperlink ref="B85" r:id="rId82" xr:uid="{22F14B03-864F-AD40-9EA3-5F662B4E73C2}"/>
+    <hyperlink ref="B86" r:id="rId83" xr:uid="{9AFF3044-5E62-9844-8970-EBAA426EBB68}"/>
+    <hyperlink ref="B87" r:id="rId84" xr:uid="{7773F181-2E31-5547-B72D-A08E5CCD661E}"/>
+    <hyperlink ref="B88" r:id="rId85" xr:uid="{EC9B85EE-E8FD-CB45-A984-5358E9D20888}"/>
+    <hyperlink ref="B89" r:id="rId86" xr:uid="{60E7D18E-BF52-AA40-985D-A0E21A01BD76}"/>
+    <hyperlink ref="B90" r:id="rId87" xr:uid="{71943C0E-24B6-9B46-9261-E1FEBE5CB2F8}"/>
+    <hyperlink ref="B91" r:id="rId88" xr:uid="{2D260DDD-A9BD-5748-A139-A43895586195}"/>
+    <hyperlink ref="B92" r:id="rId89" xr:uid="{75AC30E0-144B-9943-BBCB-3C6E7B2540CA}"/>
+    <hyperlink ref="B93" r:id="rId90" xr:uid="{25A95AF5-AEB2-2245-866B-0791B62856E2}"/>
+    <hyperlink ref="B94" r:id="rId91" xr:uid="{E6581C0C-D3EE-544D-8EC7-68089D171EA8}"/>
+    <hyperlink ref="B95" r:id="rId92" xr:uid="{53CD780C-45CD-1E43-BE82-ED3C45086641}"/>
+    <hyperlink ref="B96" r:id="rId93" xr:uid="{B133A311-05CC-974D-A860-E935B081C2FF}"/>
+    <hyperlink ref="B97" r:id="rId94" xr:uid="{10549033-6CA3-0247-BC0F-3DD4002E34D8}"/>
+    <hyperlink ref="B98" r:id="rId95" xr:uid="{9F645F73-6100-A74A-BC44-2ADDC943D3A7}"/>
+    <hyperlink ref="B99" r:id="rId96" xr:uid="{FA529BC8-E219-A24A-B673-08CA3FE2E75A}"/>
+    <hyperlink ref="B100" r:id="rId97" xr:uid="{ABF05830-D71B-7244-94AD-F8251A84FC3E}"/>
+    <hyperlink ref="B101" r:id="rId98" xr:uid="{1AED96E4-CA57-D649-87CC-B1BEC558EE73}"/>
+    <hyperlink ref="B102" r:id="rId99" xr:uid="{3C744DF8-6E2D-4C44-9ADB-BDBD35002650}"/>
+    <hyperlink ref="B103" r:id="rId100" xr:uid="{13B3C11A-1CD8-0440-8DF7-D68E5C09D8F5}"/>
+    <hyperlink ref="B104" r:id="rId101" xr:uid="{C54AF6C3-8B24-6541-A200-63C54D408DBF}"/>
+    <hyperlink ref="B105" r:id="rId102" xr:uid="{B994653E-7072-6E40-8554-7668AC47F7B2}"/>
+    <hyperlink ref="B106" r:id="rId103" xr:uid="{F3DAD8D6-EE7E-E548-9F3D-B6A3B3F2A833}"/>
+    <hyperlink ref="B107" r:id="rId104" xr:uid="{EF93AE0F-159B-A947-82B7-5574B9AF29DC}"/>
+    <hyperlink ref="B108" r:id="rId105" xr:uid="{D904C39F-0308-0641-91F5-F78A488C4C1A}"/>
+    <hyperlink ref="B109" r:id="rId106" xr:uid="{15D531E6-A54F-6841-9DA6-573BE475075B}"/>
+    <hyperlink ref="B110" r:id="rId107" xr:uid="{7AA82C20-0C14-9F4E-B83C-D521E844080A}"/>
+    <hyperlink ref="B111" r:id="rId108" xr:uid="{F1A72634-46FA-024A-A71C-2B8DE192CDFF}"/>
+    <hyperlink ref="B112" r:id="rId109" xr:uid="{F2F60944-4966-8B4E-8252-7C6D3F0B9ABF}"/>
+    <hyperlink ref="B113" r:id="rId110" xr:uid="{AC4EAE60-0667-CB4D-81D8-1E39C821E7BF}"/>
+    <hyperlink ref="B114" r:id="rId111" xr:uid="{1FBF34BF-8DAC-F643-96D8-26A7B6570AA8}"/>
+    <hyperlink ref="B115" r:id="rId112" xr:uid="{65325FBC-67A7-934A-90C3-F33809409884}"/>
+    <hyperlink ref="B116" r:id="rId113" xr:uid="{11CF3361-9DA3-A54A-8509-AC79661A1B37}"/>
+    <hyperlink ref="B117" r:id="rId114" xr:uid="{F0123FA7-3177-8B4C-B396-34B949CBC2DC}"/>
+    <hyperlink ref="B118" r:id="rId115" xr:uid="{274F0B3E-3D9E-3140-9246-1749E3F80EAA}"/>
+    <hyperlink ref="B119" r:id="rId116" xr:uid="{9E7F9EDA-086B-2040-8C97-1EFBB3933394}"/>
+    <hyperlink ref="B120" r:id="rId117" xr:uid="{35A78072-0421-EA40-BE85-72C3D6BD0CC5}"/>
+    <hyperlink ref="B121" r:id="rId118" xr:uid="{4DD6171E-FDFA-9743-B30C-74DB457BC313}"/>
+    <hyperlink ref="B122" r:id="rId119" xr:uid="{A1DD36E2-8457-274C-9792-41D6ECA7B522}"/>
+    <hyperlink ref="B123" r:id="rId120" xr:uid="{91F8CBFE-83DC-A345-A1FC-8065A824D963}"/>
+    <hyperlink ref="B124" r:id="rId121" xr:uid="{68E66FD9-85FF-394C-B863-6D0D49B95403}"/>
+    <hyperlink ref="B125" r:id="rId122" xr:uid="{B9B94F5D-2A1B-2845-BA71-F1130EED4078}"/>
+    <hyperlink ref="B126" r:id="rId123" xr:uid="{302CD03C-7953-F34D-8B36-E0E96BF749B1}"/>
+    <hyperlink ref="B127" r:id="rId124" xr:uid="{95BFFD72-F84A-C241-8B4F-AC4B1040789A}"/>
+    <hyperlink ref="B128" r:id="rId125" xr:uid="{285AC380-9DE1-4542-A9AE-77F75D5E56CC}"/>
+    <hyperlink ref="B129" r:id="rId126" xr:uid="{1CDA8C8F-BF66-A446-A398-54BDD4FDE32C}"/>
+    <hyperlink ref="B130" r:id="rId127" xr:uid="{122B6A7E-A543-E84C-86E7-9D3C788FE325}"/>
+    <hyperlink ref="B131" r:id="rId128" xr:uid="{3B7983EF-C641-2F4B-B187-11A0B536F14E}"/>
+    <hyperlink ref="B132" r:id="rId129" xr:uid="{27C38204-63B9-F54D-9DB5-6A5E66E38EF0}"/>
+    <hyperlink ref="B133" r:id="rId130" xr:uid="{8F8A80DD-B142-FD46-B097-4EACA13FCDC7}"/>
+    <hyperlink ref="B134" r:id="rId131" xr:uid="{56EE73D6-8A46-6C43-8BB7-9923EA57AD3A}"/>
+    <hyperlink ref="B135" r:id="rId132" xr:uid="{E988A0A8-D646-DA4F-967A-6212F7EFEC7F}"/>
+    <hyperlink ref="B136" r:id="rId133" xr:uid="{9D7DB2F4-B7AF-4546-9742-C213E3DD0F1B}"/>
+    <hyperlink ref="B137" r:id="rId134" xr:uid="{DD61809A-14A3-BD4E-9CB2-1A86EEC6CB21}"/>
+    <hyperlink ref="B138" r:id="rId135" xr:uid="{DAEF01F0-8893-804B-A409-61DFA2C0FFF3}"/>
+    <hyperlink ref="B139" r:id="rId136" xr:uid="{1E111863-9ADA-B446-9838-2A4D9BCFD88A}"/>
+    <hyperlink ref="B140" r:id="rId137" xr:uid="{2B38DB71-8BD1-4442-B5AF-F6B3E2FC7260}"/>
+    <hyperlink ref="B141" r:id="rId138" xr:uid="{1F511714-B159-6949-AA5B-0ABF3AC10B21}"/>
+    <hyperlink ref="B142" r:id="rId139" xr:uid="{6F05C1DE-E609-5F49-8925-DED45C0CA298}"/>
+    <hyperlink ref="B143" r:id="rId140" xr:uid="{B42F2141-A47F-C546-80CF-6A6E21568B28}"/>
+    <hyperlink ref="B144" r:id="rId141" xr:uid="{0578345A-2B35-DB46-A252-75D624E5335A}"/>
+    <hyperlink ref="B145" r:id="rId142" xr:uid="{388231C5-C849-004F-9F48-34C271CF034D}"/>
+    <hyperlink ref="B146" r:id="rId143" xr:uid="{495D9EE1-8177-2045-B949-9EB2159F336C}"/>
+    <hyperlink ref="B148" r:id="rId144" xr:uid="{98312511-DDA4-2D4B-A18F-0B6277CCE160}"/>
+    <hyperlink ref="B151" r:id="rId145" xr:uid="{9080FF6E-E32B-E346-9769-672E744AD1D3}"/>
+    <hyperlink ref="B152" r:id="rId146" xr:uid="{F06E1BB0-4C0A-A84A-A70F-1043B59098D7}"/>
+    <hyperlink ref="B155" r:id="rId147" xr:uid="{010AA221-1F56-BB49-B837-372725EB4330}"/>
+    <hyperlink ref="B157" r:id="rId148" xr:uid="{1E55B930-A384-3D47-8670-2F9757ACB2DB}"/>
+    <hyperlink ref="B150" r:id="rId149" xr:uid="{F05CFACE-9B72-6F4B-BFAA-7E923DC83332}"/>
+    <hyperlink ref="B147" r:id="rId150" xr:uid="{A7254027-5889-4548-9B4B-9A026B12D462}"/>
+    <hyperlink ref="B156" r:id="rId151" xr:uid="{34266ABF-78A0-0249-BF51-8E8E9B5C7251}"/>
     <hyperlink ref="B153" r:id="rId152" xr:uid="{BFB314DB-A998-3646-B9D1-5669ECA7EC9E}"/>
     <hyperlink ref="B154" r:id="rId153" xr:uid="{0CCC0DF9-29BA-C146-B5E0-FB0FE661B9E4}"/>
+    <hyperlink ref="B15" r:id="rId154" xr:uid="{2FF62FFA-848A-A645-AB49-FC1892DE3512}"/>
+    <hyperlink ref="B25" r:id="rId155" xr:uid="{1C220587-F46D-3349-8188-A608FFA78C9A}"/>
+    <hyperlink ref="B149" r:id="rId156" xr:uid="{B9B4CD15-627B-9A48-812C-4ED02D7E87C3}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId154"/>
+  <legacyDrawing r:id="rId157"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC885211-45CD-B642-A618-C61C6EB91240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C3EE57-6D4E-F049-B31D-E030E5D4C2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="502">
   <si>
     <t>Doutorado</t>
   </si>
@@ -1573,6 +1573,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/13-bZ06Gr4CrfvPgYwq0VAKnD62IXexQf</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2023.04.020</t>
+  </si>
+  <si>
+    <t>Michelle Costa, Pedro E.C. Saldanha, Arthur S. Ferreira, Lilian R. Felicio, Thiago Lemos, Posturography measures in specific ballet stance position discriminate ballet dancers with different occurrences of musculoskeletal injuries, Journal of Bodywork and Movement Therapies, 2023, https://doi.org/10.1016/j.jbmt.2023.04.020.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/130PiRcKuoRvQaI-m5JKOE4gipMEiC_sF</t>
   </si>
 </sst>
 </file>
@@ -1639,7 +1648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1669,6 +1678,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2130,13 +2142,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B153" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B154" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A157" sqref="A157"/>
+      <selection pane="bottomRight" activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2334,7 +2346,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>66</v>
       </c>
@@ -2367,7 +2379,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>87</v>
       </c>
@@ -2499,7 +2511,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>108</v>
       </c>
@@ -3764,113 +3776,124 @@
         <v>479</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A148" s="6" t="s">
+    <row r="148" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A148" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A149" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B149" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="C148" s="6" t="s">
+      <c r="C149" s="6" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A149" s="9" t="s">
+    <row r="150" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A150" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="B149" s="10" t="s">
+      <c r="B150" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="C149" s="9" t="s">
+      <c r="C150" s="9" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A150" s="9" t="s">
+    <row r="151" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A151" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="B150" s="10" t="s">
+      <c r="B151" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="C150" s="9" t="s">
+      <c r="C151" s="9" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A151" s="6" t="s">
+    <row r="152" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A152" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B152" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="C151" s="6" t="s">
+      <c r="C152" s="6" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A152" s="6" t="s">
+    <row r="153" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A153" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B153" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="C153" s="6" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A153" s="9" t="s">
+    <row r="154" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A154" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B154" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="C154" s="9" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A154" s="6" t="s">
+    <row r="155" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A155" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="B155" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="C154" s="6" t="s">
+      <c r="C155" s="6" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A155" s="6" t="s">
+    <row r="156" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A156" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B156" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C156" s="6" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A156" s="9" t="s">
+    <row r="157" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A157" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B157" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C157" s="6" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A157" s="6" t="s">
+    <row r="158" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A158" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B158" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C158" s="6" t="s">
         <v>462</v>
       </c>
     </row>
@@ -4022,22 +4045,23 @@
     <hyperlink ref="B144" r:id="rId141" xr:uid="{0578345A-2B35-DB46-A252-75D624E5335A}"/>
     <hyperlink ref="B145" r:id="rId142" xr:uid="{388231C5-C849-004F-9F48-34C271CF034D}"/>
     <hyperlink ref="B146" r:id="rId143" xr:uid="{495D9EE1-8177-2045-B949-9EB2159F336C}"/>
-    <hyperlink ref="B148" r:id="rId144" xr:uid="{98312511-DDA4-2D4B-A18F-0B6277CCE160}"/>
-    <hyperlink ref="B151" r:id="rId145" xr:uid="{9080FF6E-E32B-E346-9769-672E744AD1D3}"/>
-    <hyperlink ref="B152" r:id="rId146" xr:uid="{F06E1BB0-4C0A-A84A-A70F-1043B59098D7}"/>
-    <hyperlink ref="B155" r:id="rId147" xr:uid="{010AA221-1F56-BB49-B837-372725EB4330}"/>
-    <hyperlink ref="B157" r:id="rId148" xr:uid="{1E55B930-A384-3D47-8670-2F9757ACB2DB}"/>
-    <hyperlink ref="B150" r:id="rId149" xr:uid="{F05CFACE-9B72-6F4B-BFAA-7E923DC83332}"/>
+    <hyperlink ref="B149" r:id="rId144" xr:uid="{98312511-DDA4-2D4B-A18F-0B6277CCE160}"/>
+    <hyperlink ref="B152" r:id="rId145" xr:uid="{9080FF6E-E32B-E346-9769-672E744AD1D3}"/>
+    <hyperlink ref="B153" r:id="rId146" xr:uid="{F06E1BB0-4C0A-A84A-A70F-1043B59098D7}"/>
+    <hyperlink ref="B156" r:id="rId147" xr:uid="{010AA221-1F56-BB49-B837-372725EB4330}"/>
+    <hyperlink ref="B158" r:id="rId148" xr:uid="{1E55B930-A384-3D47-8670-2F9757ACB2DB}"/>
+    <hyperlink ref="B151" r:id="rId149" xr:uid="{F05CFACE-9B72-6F4B-BFAA-7E923DC83332}"/>
     <hyperlink ref="B147" r:id="rId150" xr:uid="{A7254027-5889-4548-9B4B-9A026B12D462}"/>
-    <hyperlink ref="B156" r:id="rId151" xr:uid="{34266ABF-78A0-0249-BF51-8E8E9B5C7251}"/>
-    <hyperlink ref="B153" r:id="rId152" xr:uid="{BFB314DB-A998-3646-B9D1-5669ECA7EC9E}"/>
-    <hyperlink ref="B154" r:id="rId153" xr:uid="{0CCC0DF9-29BA-C146-B5E0-FB0FE661B9E4}"/>
+    <hyperlink ref="B157" r:id="rId151" xr:uid="{34266ABF-78A0-0249-BF51-8E8E9B5C7251}"/>
+    <hyperlink ref="B154" r:id="rId152" xr:uid="{BFB314DB-A998-3646-B9D1-5669ECA7EC9E}"/>
+    <hyperlink ref="B155" r:id="rId153" xr:uid="{0CCC0DF9-29BA-C146-B5E0-FB0FE661B9E4}"/>
     <hyperlink ref="B15" r:id="rId154" xr:uid="{2FF62FFA-848A-A645-AB49-FC1892DE3512}"/>
     <hyperlink ref="B25" r:id="rId155" xr:uid="{1C220587-F46D-3349-8188-A608FFA78C9A}"/>
-    <hyperlink ref="B149" r:id="rId156" xr:uid="{B9B4CD15-627B-9A48-812C-4ED02D7E87C3}"/>
+    <hyperlink ref="B150" r:id="rId156" xr:uid="{B9B4CD15-627B-9A48-812C-4ED02D7E87C3}"/>
+    <hyperlink ref="B148" r:id="rId157" xr:uid="{590B5CF1-A8C0-034A-B17A-385DBDBD5428}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId157"/>
+  <legacyDrawing r:id="rId158"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C3EE57-6D4E-F049-B31D-E030E5D4C2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEE519C-71F1-AD4C-AA95-50CDFD673908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -1578,10 +1578,10 @@
     <t>10.1016/j.jbmt.2023.04.020</t>
   </si>
   <si>
-    <t>Michelle Costa, Pedro E.C. Saldanha, Arthur S. Ferreira, Lilian R. Felicio, Thiago Lemos, Posturography measures in specific ballet stance position discriminate ballet dancers with different occurrences of musculoskeletal injuries, Journal of Bodywork and Movement Therapies, 2023, https://doi.org/10.1016/j.jbmt.2023.04.020.</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/130PiRcKuoRvQaI-m5JKOE4gipMEiC_sF</t>
+  </si>
+  <si>
+    <t>Costa, M., Saldanha, P. E. C., Ferreira, A. S., Felicio, L. R., &amp; Lemos, T. (2023). Posturography measures in specific ballet stance position discriminate ballet dancers with different occurrences of musculoskeletal injuries. In Journal of Bodywork and Movement Therapies. Elsevier BV. https://doi.org/10.1016/j.jbmt.2023.04.020</t>
   </si>
 </sst>
 </file>
@@ -1648,7 +1648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1681,6 +1681,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3777,13 +3780,13 @@
       </c>
     </row>
     <row r="148" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A148" s="9" t="s">
+      <c r="A148" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="B148" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="B148" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="C148" s="9" t="s">
+      <c r="C148" s="12" t="s">
         <v>499</v>
       </c>
     </row>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEE519C-71F1-AD4C-AA95-50CDFD673908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8138B0CF-D8C2-6F44-A0D0-721402E5ECC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="27600" windowHeight="17140" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
   <sheets>
     <sheet name="curriculo" sheetId="2" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="505">
   <si>
     <t>Doutorado</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1Abq1Z6s4pyJGbShCt-dczAldbNLQtfwL</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1A570DvYR4Gw2LeVKaAchVu2B4frvtJ7l</t>
   </si>
   <si>
@@ -1582,6 +1579,18 @@
   </si>
   <si>
     <t>Costa, M., Saldanha, P. E. C., Ferreira, A. S., Felicio, L. R., &amp; Lemos, T. (2023). Posturography measures in specific ballet stance position discriminate ballet dancers with different occurrences of musculoskeletal injuries. In Journal of Bodywork and Movement Therapies. Elsevier BV. https://doi.org/10.1016/j.jbmt.2023.04.020</t>
+  </si>
+  <si>
+    <t>dos Santos Bento, A. P., Filho, N. M., Ferreira, A. de S., Cassetta, A. P., &amp; de Almeida, R. S. (2023). Sleep quality and polysomnographic changes in patients with chronic pain with and without central sensitization signs. In Brazilian Journal of Physical Therapy (p. 100504). Elsevier BV. https://doi.org/10.1016/j.bjpt.2023.100504</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2023.100504</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14SnDBYYTc-DY2ATCUyTje7A1k_74oZ-c</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zd3dQE-sXaWt409MgiWnXSNl4aawhe60</t>
   </si>
 </sst>
 </file>
@@ -1648,7 +1657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1681,9 +1690,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2036,7 +2042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AFE2F4-32B3-5A4F-B0D3-5766AC05F50D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2063,7 +2069,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -2105,7 +2111,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2113,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2121,7 +2127,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -2129,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2145,13 +2151,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C158"/>
+  <dimension ref="A1:C159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B154" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A158" sqref="A158"/>
+      <selection pane="bottomRight" activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2170,1734 +2176,1745 @@
         <v>6</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="C8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="C9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="C11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="C12" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="C13" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="C14" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>492</v>
-      </c>
       <c r="C15" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="C17" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="C19" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="C22" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="C23" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="C24" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="C26" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="C29" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="C30" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="C31" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="C32" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="C34" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="C35" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="C36" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="C37" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="C38" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="C39" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="C40" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="C41" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="C42" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="C43" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="C44" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>146</v>
-      </c>
       <c r="C45" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>149</v>
-      </c>
       <c r="C46" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>152</v>
-      </c>
       <c r="C47" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="C48" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="C49" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="C50" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="C51" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="C52" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="C53" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="C54" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="C55" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>179</v>
-      </c>
       <c r="C56" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="C57" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="C58" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="C59" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="C60" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>194</v>
-      </c>
       <c r="C61" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="C62" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>200</v>
-      </c>
       <c r="C63" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="C64" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="C65" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="C66" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>212</v>
-      </c>
       <c r="C67" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="C68" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="C69" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>221</v>
-      </c>
       <c r="C70" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>224</v>
-      </c>
       <c r="C71" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="C72" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="C73" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>239</v>
-      </c>
       <c r="C76" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>242</v>
-      </c>
       <c r="C77" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B78" s="7" t="s">
-        <v>245</v>
-      </c>
       <c r="C78" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B79" s="7" t="s">
-        <v>248</v>
-      </c>
       <c r="C79" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B80" s="7" t="s">
-        <v>251</v>
-      </c>
       <c r="C80" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B81" s="7" t="s">
-        <v>254</v>
-      </c>
       <c r="C81" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B82" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B82" s="7" t="s">
-        <v>257</v>
-      </c>
       <c r="C82" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B83" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="C83" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B84" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B84" s="7" t="s">
-        <v>263</v>
-      </c>
       <c r="C84" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B85" s="7" t="s">
-        <v>266</v>
-      </c>
       <c r="C85" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B86" s="7" t="s">
-        <v>269</v>
-      </c>
       <c r="C86" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B87" s="7" t="s">
-        <v>272</v>
-      </c>
       <c r="C87" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B88" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B88" s="7" t="s">
-        <v>275</v>
-      </c>
       <c r="C88" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B89" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B89" s="7" t="s">
-        <v>278</v>
-      </c>
       <c r="C89" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B91" s="7" t="s">
-        <v>284</v>
-      </c>
       <c r="C91" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B92" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="C92" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B93" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>290</v>
-      </c>
       <c r="C93" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B94" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="B94" s="7" t="s">
-        <v>293</v>
-      </c>
       <c r="C94" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B95" s="7" t="s">
-        <v>296</v>
-      </c>
       <c r="C95" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B96" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B96" s="7" t="s">
-        <v>299</v>
-      </c>
       <c r="C96" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B97" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="B97" s="7" t="s">
-        <v>302</v>
-      </c>
       <c r="C97" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B98" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B98" s="7" t="s">
-        <v>305</v>
-      </c>
       <c r="C98" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B99" s="7" t="s">
-        <v>308</v>
-      </c>
       <c r="C99" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B100" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B100" s="7" t="s">
-        <v>311</v>
-      </c>
       <c r="C100" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B101" s="7" t="s">
-        <v>314</v>
-      </c>
       <c r="C101" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B102" s="7" t="s">
-        <v>317</v>
-      </c>
       <c r="C102" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="B103" s="7" t="s">
-        <v>320</v>
-      </c>
       <c r="C103" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B104" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>323</v>
-      </c>
       <c r="C104" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B105" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="B105" s="7" t="s">
-        <v>326</v>
-      </c>
       <c r="C105" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="204" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B106" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B106" s="7" t="s">
-        <v>329</v>
-      </c>
       <c r="C106" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="B107" s="7" t="s">
-        <v>332</v>
-      </c>
       <c r="C107" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B108" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B108" s="7" t="s">
-        <v>335</v>
-      </c>
       <c r="C108" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B109" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="B109" s="7" t="s">
-        <v>338</v>
-      </c>
       <c r="C109" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B110" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B110" s="7" t="s">
-        <v>341</v>
-      </c>
       <c r="C110" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B111" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="B111" s="7" t="s">
-        <v>344</v>
-      </c>
       <c r="C111" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B112" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="B112" s="7" t="s">
-        <v>347</v>
-      </c>
       <c r="C112" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="B113" s="7" t="s">
-        <v>350</v>
-      </c>
       <c r="C113" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B114" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="B114" s="7" t="s">
-        <v>353</v>
-      </c>
       <c r="C114" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B115" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="B115" s="7" t="s">
-        <v>356</v>
-      </c>
       <c r="C115" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B116" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="B116" s="7" t="s">
-        <v>359</v>
-      </c>
       <c r="C116" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B117" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="B117" s="7" t="s">
-        <v>362</v>
-      </c>
       <c r="C117" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B118" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="B118" s="7" t="s">
-        <v>365</v>
-      </c>
       <c r="C118" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="B119" s="7" t="s">
-        <v>368</v>
-      </c>
       <c r="C119" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B120" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="B120" s="7" t="s">
-        <v>371</v>
-      </c>
       <c r="C120" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B121" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="B121" s="7" t="s">
-        <v>374</v>
-      </c>
       <c r="C121" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B122" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B122" s="7" t="s">
-        <v>377</v>
-      </c>
       <c r="C122" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B123" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="B123" s="7" t="s">
-        <v>380</v>
-      </c>
       <c r="C123" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B124" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="B124" s="7" t="s">
-        <v>383</v>
-      </c>
       <c r="C124" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B125" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="B125" s="7" t="s">
-        <v>386</v>
-      </c>
       <c r="C125" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B126" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="B126" s="7" t="s">
-        <v>389</v>
-      </c>
       <c r="C126" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B127" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="B127" s="7" t="s">
-        <v>392</v>
-      </c>
       <c r="C127" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="204" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B128" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="B128" s="7" t="s">
-        <v>395</v>
-      </c>
       <c r="C128" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B129" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="B129" s="7" t="s">
-        <v>398</v>
-      </c>
       <c r="C129" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B130" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="B130" s="7" t="s">
-        <v>401</v>
-      </c>
       <c r="C130" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B131" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="B131" s="7" t="s">
-        <v>404</v>
-      </c>
       <c r="C131" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B132" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="B132" s="7" t="s">
-        <v>407</v>
-      </c>
       <c r="C132" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B133" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="B133" s="7" t="s">
-        <v>410</v>
-      </c>
       <c r="C133" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B134" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="B134" s="7" t="s">
-        <v>413</v>
-      </c>
       <c r="C134" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B135" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="B135" s="7" t="s">
-        <v>416</v>
-      </c>
       <c r="C135" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B136" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="B136" s="7" t="s">
-        <v>419</v>
-      </c>
       <c r="C136" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B137" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B137" s="10" t="s">
-        <v>422</v>
-      </c>
       <c r="C137" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B138" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="B138" s="7" t="s">
-        <v>425</v>
-      </c>
       <c r="C138" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="B139" s="7" t="s">
-        <v>428</v>
-      </c>
       <c r="C139" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B140" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B140" s="7" t="s">
-        <v>431</v>
-      </c>
       <c r="C140" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B141" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="B141" s="7" t="s">
-        <v>434</v>
-      </c>
       <c r="C141" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B142" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="B142" s="7" t="s">
-        <v>437</v>
-      </c>
       <c r="C142" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B143" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="B143" s="7" t="s">
-        <v>440</v>
-      </c>
       <c r="C143" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="B144" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="B144" s="7" t="s">
-        <v>443</v>
-      </c>
       <c r="C144" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B145" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="B145" s="7" t="s">
-        <v>446</v>
-      </c>
       <c r="C145" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B146" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="B146" s="10" t="s">
-        <v>449</v>
-      </c>
       <c r="C146" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B147" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C147" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="C147" s="9" t="s">
-        <v>479</v>
-      </c>
     </row>
     <row r="148" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A148" s="12" t="s">
-        <v>501</v>
+      <c r="A148" s="6" t="s">
+        <v>500</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="C148" s="12" t="s">
         <v>499</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B149" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="B149" s="7" t="s">
-        <v>452</v>
-      </c>
       <c r="C149" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B150" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B150" s="10" t="s">
-        <v>498</v>
-      </c>
       <c r="C150" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B151" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="B151" s="10" t="s">
-        <v>467</v>
-      </c>
       <c r="C151" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="B152" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="B152" s="7" t="s">
-        <v>455</v>
-      </c>
       <c r="C152" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B153" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="B153" s="7" t="s">
-        <v>458</v>
-      </c>
       <c r="C153" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B155" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="C155" s="6" t="s">
         <v>487</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B156" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="B156" s="7" t="s">
-        <v>461</v>
-      </c>
       <c r="C156" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="B157" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="B157" s="11" t="s">
-        <v>483</v>
-      </c>
       <c r="C157" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="B158" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="B158" s="7" t="s">
-        <v>464</v>
-      </c>
       <c r="C158" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A159" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -4062,9 +4079,10 @@
     <hyperlink ref="B25" r:id="rId155" xr:uid="{1C220587-F46D-3349-8188-A608FFA78C9A}"/>
     <hyperlink ref="B150" r:id="rId156" xr:uid="{B9B4CD15-627B-9A48-812C-4ED02D7E87C3}"/>
     <hyperlink ref="B148" r:id="rId157" xr:uid="{590B5CF1-A8C0-034A-B17A-385DBDBD5428}"/>
+    <hyperlink ref="B159" r:id="rId158" xr:uid="{E2B8EED8-4993-9E4B-A074-D76848FEEE76}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId158"/>
+  <legacyDrawing r:id="rId159"/>
 </worksheet>
 </file>
 
@@ -4095,45 +4113,45 @@
         <v>6</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>470</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>473</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -4176,34 +4194,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8138B0CF-D8C2-6F44-A0D0-721402E5ECC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4F6056-728D-BA41-8B97-A23597146872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27600" windowHeight="17140" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -1657,7 +1657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1690,6 +1690,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2157,7 +2160,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A160" sqref="A160"/>
+      <selection pane="bottomRight" activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3907,13 +3910,13 @@
       </c>
     </row>
     <row r="159" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A159" s="9" t="s">
+      <c r="A159" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="B159" s="10" t="s">
+      <c r="B159" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="C159" s="9" t="s">
+      <c r="C159" s="12" t="s">
         <v>502</v>
       </c>
     </row>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4F6056-728D-BA41-8B97-A23597146872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B40F40-BE53-1844-AB6D-C0FFB404076F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="500" windowWidth="27600" windowHeight="17140" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
   <sheets>
     <sheet name="curriculo" sheetId="2" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="508">
   <si>
     <t>Doutorado</t>
   </si>
@@ -1591,6 +1591,16 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1zd3dQE-sXaWt409MgiWnXSNl4aawhe60</t>
+  </si>
+  <si>
+    <t>10.3390/healthcare11101386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omar, A.; Ferreira, A.d.S.; Hegazy, F.A.; Alaparthi, G.K. Cardiorespiratory Response to Six-Minute Step Test in Post COVID-19 Patients—A Cross Sectional Study. Healthcare 2023, 11, 1386. https://doi.org/10.3390/healthcare11101386
+</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16li8eriScbJCkJ_kjP8p4MCy8vvIJV47</t>
   </si>
 </sst>
 </file>
@@ -2045,7 +2055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AFE2F4-32B3-5A4F-B0D3-5766AC05F50D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2154,13 +2164,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B155" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B156" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A159" sqref="A159"/>
+      <selection pane="bottomRight" activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2358,7 +2368,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>65</v>
       </c>
@@ -2391,7 +2401,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>86</v>
       </c>
@@ -2523,7 +2533,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>107</v>
       </c>
@@ -3865,58 +3875,69 @@
         <v>483</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A155" s="6" t="s">
+    <row r="155" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A155" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A156" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B156" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C156" s="6" t="s">
         <v>487</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A156" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A158" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="B158" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C158" s="6" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A158" s="6" t="s">
+    <row r="159" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A159" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B159" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C159" s="6" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A159" s="12" t="s">
+    <row r="160" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A160" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B160" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="C159" s="12" t="s">
+      <c r="C160" s="6" t="s">
         <v>502</v>
       </c>
     </row>
@@ -4071,21 +4092,22 @@
     <hyperlink ref="B149" r:id="rId144" xr:uid="{98312511-DDA4-2D4B-A18F-0B6277CCE160}"/>
     <hyperlink ref="B152" r:id="rId145" xr:uid="{9080FF6E-E32B-E346-9769-672E744AD1D3}"/>
     <hyperlink ref="B153" r:id="rId146" xr:uid="{F06E1BB0-4C0A-A84A-A70F-1043B59098D7}"/>
-    <hyperlink ref="B156" r:id="rId147" xr:uid="{010AA221-1F56-BB49-B837-372725EB4330}"/>
-    <hyperlink ref="B158" r:id="rId148" xr:uid="{1E55B930-A384-3D47-8670-2F9757ACB2DB}"/>
+    <hyperlink ref="B157" r:id="rId147" xr:uid="{010AA221-1F56-BB49-B837-372725EB4330}"/>
+    <hyperlink ref="B159" r:id="rId148" xr:uid="{1E55B930-A384-3D47-8670-2F9757ACB2DB}"/>
     <hyperlink ref="B151" r:id="rId149" xr:uid="{F05CFACE-9B72-6F4B-BFAA-7E923DC83332}"/>
     <hyperlink ref="B147" r:id="rId150" xr:uid="{A7254027-5889-4548-9B4B-9A026B12D462}"/>
-    <hyperlink ref="B157" r:id="rId151" xr:uid="{34266ABF-78A0-0249-BF51-8E8E9B5C7251}"/>
+    <hyperlink ref="B158" r:id="rId151" xr:uid="{34266ABF-78A0-0249-BF51-8E8E9B5C7251}"/>
     <hyperlink ref="B154" r:id="rId152" xr:uid="{BFB314DB-A998-3646-B9D1-5669ECA7EC9E}"/>
-    <hyperlink ref="B155" r:id="rId153" xr:uid="{0CCC0DF9-29BA-C146-B5E0-FB0FE661B9E4}"/>
+    <hyperlink ref="B156" r:id="rId153" xr:uid="{0CCC0DF9-29BA-C146-B5E0-FB0FE661B9E4}"/>
     <hyperlink ref="B15" r:id="rId154" xr:uid="{2FF62FFA-848A-A645-AB49-FC1892DE3512}"/>
     <hyperlink ref="B25" r:id="rId155" xr:uid="{1C220587-F46D-3349-8188-A608FFA78C9A}"/>
     <hyperlink ref="B150" r:id="rId156" xr:uid="{B9B4CD15-627B-9A48-812C-4ED02D7E87C3}"/>
     <hyperlink ref="B148" r:id="rId157" xr:uid="{590B5CF1-A8C0-034A-B17A-385DBDBD5428}"/>
-    <hyperlink ref="B159" r:id="rId158" xr:uid="{E2B8EED8-4993-9E4B-A074-D76848FEEE76}"/>
+    <hyperlink ref="B160" r:id="rId158" xr:uid="{E2B8EED8-4993-9E4B-A074-D76848FEEE76}"/>
+    <hyperlink ref="B155" r:id="rId159" xr:uid="{5CE9128D-E20D-4D4A-9995-9B8805498EC4}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId159"/>
+  <legacyDrawing r:id="rId160"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B40F40-BE53-1844-AB6D-C0FFB404076F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F5723C-B7DC-584C-8D0C-689E9DD7AFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
   <sheets>
     <sheet name="curriculo" sheetId="2" r:id="rId1"/>
@@ -1640,7 +1640,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1650,6 +1650,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1667,7 +1673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1703,6 +1709,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2167,10 +2176,10 @@
   <dimension ref="A1:C160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B156" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B136" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A160" sqref="A160"/>
+      <selection pane="bottomRight" activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3865,24 +3874,24 @@
       </c>
     </row>
     <row r="154" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A154" s="9" t="s">
+      <c r="A154" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="C154" s="13" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A155" s="12" t="s">
+      <c r="A155" s="6" t="s">
         <v>506</v>
       </c>
       <c r="B155" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="C155" s="12" t="s">
+      <c r="C155" s="6" t="s">
         <v>505</v>
       </c>
     </row>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F5723C-B7DC-584C-8D0C-689E9DD7AFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A820E42A-DAD9-1A4B-BE63-8E2D2BCD7F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="511">
   <si>
     <t>Doutorado</t>
   </si>
@@ -1471,9 +1471,6 @@
   </si>
   <si>
     <t>10.1111/cpf.12812</t>
-  </si>
-  <si>
-    <t>Fonseca, G. F., Michalski, A. C., Ferreira, A. S., Costa, V. A. B., Massaferri, R., Farinatti, P., &amp; Cunha, F. A. (2023). Is postexercise hypotension a method‐dependent phenomenon in chronic stroke? A crossover randomized controlled trial. In Clinical Physiology and Functional Imaging. Wiley. https://doi.org/10.1111/cpf.12812</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1jXpoVHYNjQK8bAWkV9EMoD7hgu4fULJ7</t>
@@ -1601,6 +1598,18 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/16li8eriScbJCkJ_kjP8p4MCy8vvIJV47</t>
+  </si>
+  <si>
+    <t>Fonseca, G. F., Michalski, A. C., Ferreira, A. S., Costa, V. A. B., Massaferri, R., Farinatti, P., &amp; Cunha, F. A. (2023). Is postexercise hypotension a method‐dependent phenomenon in chronic stroke? A crossover randomized controlled trial. In Clinical Physiology and Functional Imaging (Vol. 43, Issue 4, pp. 242–252). Wiley. https://doi.org/10.1111/cpf.12812</t>
+  </si>
+  <si>
+    <t>10.1016/j.msksp.2023.102788</t>
+  </si>
+  <si>
+    <t>Reis et al., 2023</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12QZWPpBy-m66z74Z90YZZKhFJjm6XaAG</t>
   </si>
 </sst>
 </file>
@@ -1673,7 +1682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1706,9 +1715,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2091,7 +2097,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -2173,13 +2179,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C160"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B136" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B158" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A154" sqref="A154"/>
+      <selection pane="bottomRight" activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2346,13 +2352,13 @@
     </row>
     <row r="15" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>491</v>
-      </c>
       <c r="C15" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -2456,13 +2462,13 @@
     </row>
     <row r="25" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="170" x14ac:dyDescent="0.2">
@@ -3798,24 +3804,24 @@
     </row>
     <row r="147" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B147" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="C147" s="9" t="s">
         <v>477</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="170" x14ac:dyDescent="0.2">
@@ -3831,23 +3837,23 @@
     </row>
     <row r="150" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B150" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="B150" s="10" t="s">
-        <v>497</v>
-      </c>
       <c r="C150" s="9" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A151" s="9" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A151" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="B151" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="B151" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="C151" s="9" t="s">
+      <c r="C151" s="6" t="s">
         <v>464</v>
       </c>
     </row>
@@ -3874,36 +3880,36 @@
       </c>
     </row>
     <row r="154" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A154" s="12" t="s">
-        <v>485</v>
+      <c r="A154" s="6" t="s">
+        <v>484</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="C154" s="13" t="s">
         <v>483</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="B155" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="B155" s="11" t="s">
-        <v>507</v>
-      </c>
       <c r="C155" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B156" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="C156" s="6" t="s">
         <v>486</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -3919,13 +3925,13 @@
     </row>
     <row r="158" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B158" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="B158" s="11" t="s">
-        <v>482</v>
-      </c>
       <c r="C158" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="136" x14ac:dyDescent="0.2">
@@ -3941,13 +3947,24 @@
     </row>
     <row r="160" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C160" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="B160" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>502</v>
+    </row>
+    <row r="161" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A161" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -4114,9 +4131,10 @@
     <hyperlink ref="B148" r:id="rId157" xr:uid="{590B5CF1-A8C0-034A-B17A-385DBDBD5428}"/>
     <hyperlink ref="B160" r:id="rId158" xr:uid="{E2B8EED8-4993-9E4B-A074-D76848FEEE76}"/>
     <hyperlink ref="B155" r:id="rId159" xr:uid="{5CE9128D-E20D-4D4A-9995-9B8805498EC4}"/>
+    <hyperlink ref="B161" r:id="rId160" xr:uid="{CE99D6B7-630A-0B42-95F4-67DA02F8B862}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId160"/>
+  <legacyDrawing r:id="rId161"/>
 </worksheet>
 </file>
 
@@ -4152,40 +4170,40 @@
     </row>
     <row r="2" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>469</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>472</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A820E42A-DAD9-1A4B-BE63-8E2D2BCD7F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0261F0F1-BEA8-944B-AF11-2DDBFB604897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="529">
   <si>
     <t>Doutorado</t>
   </si>
@@ -879,9 +879,6 @@
     <t>10.23736/s1973-9087.19.05687-9</t>
   </si>
   <si>
-    <t>Almeida, V. P., Ferreira, A. S., Guimarães, F. S., Papathanasiou, J., &amp; Lopes, A. J. (2020). Predictive models for the six-minute walk test considering the walking course and physical activity level. In European Journal of Physical and Rehabilitation Medicine (Vol. 55, Issue 6). Edizioni Minerva Medica. https://doi.org/10.23736/s1973-9087.19.05687-9</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1Wovfw89ThaU-JF0FQrgIhta3oAaae81B</t>
   </si>
   <si>
@@ -1167,9 +1164,6 @@
     <t>10.1016/j.jbmt.2021.06.020</t>
   </si>
   <si>
-    <t>na Junior, P. M., de Sá Ferreira, A., Telles, G., Lemos, T., &amp; Calazans Nogueira, L. A. (2021). Concurrent validation of the centre of pressure displacement analyzed by baropodometry in patients with chronic non-specific low back pain during functional tasks. In Journal of Bodywork and Movement Therapies (Vol. 28, pp. 489–495). Elsevier BV. https://doi.org/10.1016/j.jbmt.2021.06.020</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1U8d3WedLg4FjhwiP1AoyxQ0EdCgw947x</t>
   </si>
   <si>
@@ -1185,9 +1179,6 @@
     <t>10.1016/j.jbmt.2020.12.040</t>
   </si>
   <si>
-    <t>eddy, R. S., Meziat-Filho, N., Ferreira, A. S., Tedla, J. S., Kandakurti, P. K., &amp; Kakaraparthi, V. N. (2021). Comparison of neck extensor muscle endurance and cervical proprioception between asymptomatic individuals and patients with chronic neck pain. In Journal of Bodywork and Movement Therapies (Vol. 26, pp. 180–186). Elsevier BV. https://doi.org/10.1016/j.jbmt.2020.12.040</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1U8i_87kNtII3ylhFFLdlhhHgnhp3MEkF</t>
   </si>
   <si>
@@ -1221,9 +1212,6 @@
     <t>10.1016/j.sleep.2021.06.039</t>
   </si>
   <si>
-    <t>arella, N. C., Almeida, R. S., Nogueira, L. A. C., &amp; Ferreira, A. S. (2021). Cross-cultural adaptation of the Richards-Campbell Sleep Questionnaire for intensive care unit inpatients in Brazil: internal consistency, test-retest reliability, and measurement error. In Sleep Medicine (Vol. 85, pp. 38–44). Elsevier BV. https://doi.org/10.1016/j.sleep.2021.06.039</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1UgZifLx5VTnCGUssUVWH4OCnNFG7K0nj</t>
   </si>
   <si>
@@ -1419,12 +1407,6 @@
     <t>10.1016/j.jcm.2022.07.003</t>
   </si>
   <si>
-    <t>Xavier, D. D., Graf, R. M., &amp; Ferreira, A. S. (2022). Short-Term Changes in Posture and Pain of the Neck and Lower Back of Women Undergoing Lipoabdominoplasty: A Case Series Report. In Journal of Chiropractic Medicine. Elsevier BV. https://doi.org/10.1016/j.jcm.2022.07.003</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1TtwP-8FLJK5q6LvfHQah-ov4sgJ4Q9M4</t>
-  </si>
-  <si>
     <t>10.25110/arqsaude.v27i1.2023.9145</t>
   </si>
   <si>
@@ -1524,13 +1506,7 @@
     <t>https://drive.google.com/file/d/1f2oh3A4mRPKXhlmWbz5j4_ZN7LR5YCl8</t>
   </si>
   <si>
-    <t>10.5935/0103-507X.20230203-en</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/10BKSAAL7AvYtb4wF0TQir6lGIBC-Udqg</t>
-  </si>
-  <si>
-    <t>João Paulo Arruda de Oliveira, Andreia Cristina, Travassos Costa, Arthur de Sá Ferreira, Luis Felipe da Fonseca Reis , Factors associated with mortality in mechanically ventilated patients with severe acute respiratory syndrome due to COVID-19 evolution. Rev Bras Ter Intensiva. 2023;35(1):000-000</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/10HgUCvvJtaa8ClFeWpiRzn04g99PIg1r</t>
@@ -1606,10 +1582,88 @@
     <t>10.1016/j.msksp.2023.102788</t>
   </si>
   <si>
-    <t>Reis et al., 2023</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/12QZWPpBy-m66z74Z90YZZKhFJjm6XaAG</t>
+  </si>
+  <si>
+    <t>10.5935/2965-2774.20230203-em</t>
+  </si>
+  <si>
+    <t>de Oliveira, J. P. A., Costa, A. C. T., Lopes, A. J., Ferreira, A. de S., &amp; Reis, L. F. da F. (2023). Factors associated with mortality in mechanically ventilated patients with severe acute respiratory syndrome due to COVID-19 evolution. In Critical Care Science (Vol. 35, Issue 1). GN1 Sistemas e Publicacoes Ltd. https://doi.org/10.5935/2965-2774.20230203-en</t>
+  </si>
+  <si>
+    <t>Xavier, D. D., Graf, R. M., &amp; Ferreira, A. S. (2023). Short-Term Changes in Posture and Pain of the Neck and Lower Back of Women Undergoing Lipoabdominoplasty: A Case Series Report. In Journal of Chiropractic Medicine (Vol. 22, Issue 2, pp. 138–147). Elsevier BV. https://doi.org/10.1016/j.jcm.2022.07.003</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QB-2_4kFwdCM958nwTI_pGWvhgE8oqC5</t>
+  </si>
+  <si>
+    <t>Reis, F. J. J., Bittencourt, J. V., Calestini, L., de Sá Ferreira, A., Meziat-Filho, N., &amp; Nogueira, L. C. (2023). Exploratory analysis of 5 supervised machine learning models for predicting the efficacy of the endogenous pain inhibitory pathway in patients with musculoskeletal pain. In Musculoskeletal Science and Practice (p. 102788). Elsevier BV. https://doi.org/10.1016/j.msksp.2023.102788</t>
+  </si>
+  <si>
+    <t>10.1002/pri.2028</t>
+  </si>
+  <si>
+    <t>Rafagnin, C. Z., Ferreira, A. d. S., Telles, G. F., Lemos de Carvalho, T., Alexandre, D. J. d. A., &amp; Nogueira, L. A. C. (2023). Anterior component of Y-Balance test is correlated to ankle dorsiflexion range of motion in futsal players: A cross-sectional study. Physiotherapy Research International, e2028. https://doi.org/10.1002/pri.2028</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12YFd7RRjZeiBhgc1rjXBxEdb9Uw7LLBT</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12YVnyX2cXc6gY2U5oGJx9IVwvcsOc_aj</t>
+  </si>
+  <si>
+    <t>10.3390/healthcare11121809</t>
+  </si>
+  <si>
+    <t>10.590/1809-2950/66021032014</t>
+  </si>
+  <si>
+    <t>Ramos, R. de A., &amp; Ferreira, A. de S. (2014). Capacidade funcional de adultos com hipertensão avaliada pelo teste de caminhada de seis minutos: revisão sistemática . Fisioterapia E Pesquisa, 21(3), 257-263. https://doi.org/10.590/1809-2950/66021032014</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Q6FKTB0jn5zhcrvOIYGX1wVtp_E2_z5i</t>
+  </si>
+  <si>
+    <t>10.46979/rbn.v52i4.5546</t>
+  </si>
+  <si>
+    <t>Sá Ferreira, A., Orsini, M., Felício, L., Rodrigues, E., Souza, J., Leite, M., Oliveira, A., Nunes, M., Bastos, V., Teixeira, S., Nascimento, O., &amp; Freitas, M. (2017). AUGMENTED MOVEMENT STRATEGIES FOR POSTURAL CONTROL IN PATIENTS WITH SPINOCEREBELLAR ATAXIA TYPE 3: A CASECONTROL STUDY. Revista Brasileira de Neurologia, 52(4). doi:https://doi.org/10.46979/rbn.v52i4.5546</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XVADwZjTHn8yOHUWNUoBx8tlBWPwG_8t</t>
+  </si>
+  <si>
+    <t>Almeida, V. P., Ferreira, A. S., Guimarães, F. S., Papathanasiou, J., &amp; Lopes, A. J. (2019). Predictive models for the six-minute walk test considering the walking course and physical activity level. In European Journal of Physical and Rehabilitation Medicine (Vol. 55, Issue 6). Edizioni Minerva Medica. https://doi.org/10.23736/s1973-9087.19.05687-9</t>
+  </si>
+  <si>
+    <t>Pena Junior, P. M., de Sá Ferreira, A., Telles, G., Lemos, T., &amp; Calazans Nogueira, L. A. (2021). Concurrent validation of the centre of pressure displacement analyzed by baropodometry in patients with chronic non-specific low back pain during functional tasks. In Journal of Bodywork and Movement Therapies (Vol. 28, pp. 489–495). Elsevier BV. https://doi.org/10.1016/j.jbmt.2021.06.020</t>
+  </si>
+  <si>
+    <t>Reddy, R. S., Meziat-Filho, N., Ferreira, A. S., Tedla, J. S., Kandakurti, P. K., &amp; Kakaraparthi, V. N. (2021). Comparison of neck extensor muscle endurance and cervical proprioception between asymptomatic individuals and patients with chronic neck pain. In Journal of Bodywork and Movement Therapies (Vol. 26, pp. 180–186). Elsevier BV. https://doi.org/10.1016/j.jbmt.2020.12.040</t>
+  </si>
+  <si>
+    <t>Varella, N. C., Almeida, R. S., Nogueira, L. A. C., &amp; Ferreira, A. S. (2021). Cross-cultural adaptation of the Richards-Campbell Sleep Questionnaire for intensive care unit inpatients in Brazil: internal consistency, test-retest reliability, and measurement error. In Sleep Medicine (Vol. 85, pp. 38–44). Elsevier BV. https://doi.org/10.1016/j.sleep.2021.06.039</t>
+  </si>
+  <si>
+    <t>10.46979/rbn.v51i1.3091</t>
+  </si>
+  <si>
+    <t>Orsini, M., de Freitas, M., Leite, M., Bruno, C., Teixeira, S., Bastos, V., Ferreira, A., de Menezes, S., &amp; de Souza, J. (2015). Charcot-Marie-Tooth disease and rehabilitation: a perfect match. Revista Brasileira de Neurologia, 51(1). doi:https://doi.org/10.46979/rbn.v51i1.3091</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YQyiYOueAnjeC3wtsEWnarZMeNjYjKb3</t>
+  </si>
+  <si>
+    <t>Balata, M. R., Ferreira, A. S., da Silva Sousa, A., Meinertz, L. F., de Sá, L. M., Araujo, V. G., Papathanasiou, J., &amp; Lopes, A. J. (2023). Assessment of Functional Capacity in Patients with Nondialysis-Dependent Chronic Kidney Disease with the Glittre Activities of Daily Living Test. In Healthcare (Vol. 11, Issue 12, p. 1809). MDPI AG. https://doi.org/10.3390/healthcare11121809</t>
+  </si>
+  <si>
+    <t>10.1097/JOM.0000000000002918</t>
+  </si>
+  <si>
+    <t>Casagrande, C. M. Z., Farias, J. P., de Mello Meziat Filho, N. A., Nogueira, L. A. C., &amp; de Sá Ferreira, A. (2023). Better work ability is associated with lower levels of both occupational stress and occupational physical activity in professional drivers: A cross-sectional study. In Journal of Occupational &amp;amp; Environmental Medicine. Ovid Technologies (Wolters Kluwer Health). https://doi.org/10.1097/jom.0000000000002918</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12cUsM61XR4GP2HIBwKpNOn5nm-swuMQs</t>
   </si>
 </sst>
 </file>
@@ -1669,7 +1723,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1677,12 +1731,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1717,7 +1791,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2097,7 +2204,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -2179,13 +2286,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B158" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B164" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A161" sqref="A161"/>
+      <selection pane="bottomRight" activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2196,25 +2303,25 @@
     <col min="4" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:3" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2229,14 +2336,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:3" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="16" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2273,25 +2380,25 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:3" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:3" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="14" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2351,14 +2458,14 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>488</v>
+      <c r="A15" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -2372,18 +2479,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:3" ht="154" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>65</v>
       </c>
@@ -2405,7 +2512,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>70</v>
       </c>
@@ -2416,7 +2523,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>86</v>
       </c>
@@ -2461,24 +2568,24 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="A25" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="171" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="16" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2548,7 +2655,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>107</v>
       </c>
@@ -2581,14 +2688,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:3" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="16" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2713,1258 +2820,1324 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B49" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
+    <row r="50" spans="1:3" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B50" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C50" s="16" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B52" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+    <row r="53" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B53" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C53" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+    <row r="54" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B54" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
+    <row r="55" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B55" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
+    <row r="56" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B56" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C56" s="6" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A58" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B58" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C58" s="20" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
+    <row r="59" spans="1:3" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B60" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C60" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
+    <row r="61" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B62" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C62" s="6" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>212</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B73" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C73" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="s">
+    <row r="74" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B74" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C74" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="s">
+    <row r="75" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B75" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C75" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
+    <row r="76" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B76" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C76" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
+    <row r="77" spans="1:3" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B77" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C77" s="16" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A75" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B81" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C81" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A79" s="6" t="s">
+    <row r="82" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B82" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C82" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A80" s="6" t="s">
+    <row r="83" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B83" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C83" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A81" s="6" t="s">
+    <row r="84" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B84" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C84" s="6" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A82" s="6" t="s">
+    <row r="85" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B85" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C85" s="6" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A83" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A84" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A85" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="154" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B89" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="C89" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A87" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B87" s="7" t="s">
+    </row>
+    <row r="91" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A88" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="B88" s="7" t="s">
+    </row>
+    <row r="92" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A89" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="B89" s="7" t="s">
+    </row>
+    <row r="93" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A90" s="6" t="s">
+      <c r="B93" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B90" s="7" t="s">
+    </row>
+    <row r="94" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A91" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A92" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A93" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A94" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A97" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B98" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="C98" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A96" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="B96" s="7" t="s">
+    </row>
+    <row r="100" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>298</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A97" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A98" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A99" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A100" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A104" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B104" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="C104" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C105" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A102" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="B102" s="7" t="s">
+    </row>
+    <row r="106" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A106" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C102" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A103" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="B103" s="7" t="s">
+    </row>
+    <row r="107" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A107" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C107" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C103" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A104" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="B104" s="7" t="s">
+    </row>
+    <row r="108" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C104" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A105" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="B105" s="7" t="s">
+    </row>
+    <row r="109" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C109" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C105" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="204" x14ac:dyDescent="0.2">
-      <c r="A106" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="B106" s="7" t="s">
+    </row>
+    <row r="110" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C110" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C106" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A107" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="B107" s="7" t="s">
+    </row>
+    <row r="111" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A111" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C111" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C107" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A108" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="B108" s="7" t="s">
+    </row>
+    <row r="112" spans="1:3" ht="154" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="C112" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="C108" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A109" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="B109" s="7" t="s">
+    </row>
+    <row r="113" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A113" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C113" s="6" t="s">
         <v>337</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A110" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A111" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A112" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A113" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A117" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A118" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A119" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="C119" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A120" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C120" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C116" s="6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A117" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="B117" s="7" t="s">
+    </row>
+    <row r="121" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C117" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A118" s="6" t="s">
+    </row>
+    <row r="122" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A122" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C122" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="B118" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A119" s="6" t="s">
+    </row>
+    <row r="123" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A123" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C123" s="6" t="s">
         <v>366</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A120" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A121" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A122" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A123" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A125" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A126" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A127" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="B128" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="C128" s="16" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A129" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C129" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="C124" s="6" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A125" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="B125" s="7" t="s">
+    </row>
+    <row r="130" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A130" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C130" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C125" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A126" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="B126" s="7" t="s">
+    </row>
+    <row r="131" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+      <c r="A131" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C131" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A127" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="204" x14ac:dyDescent="0.2">
-      <c r="A128" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A129" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A130" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A131" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A133" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A134" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A135" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A136" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B136" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="C136" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A137" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C137" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="C132" s="6" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A133" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="B133" s="7" t="s">
+    </row>
+    <row r="138" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A138" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C138" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C133" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A134" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="B134" s="7" t="s">
+    </row>
+    <row r="139" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A139" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C139" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C134" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A135" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="B135" s="7" t="s">
+    </row>
+    <row r="140" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A140" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="C140" s="9" t="s">
         <v>415</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A136" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A137" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A138" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A139" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A140" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A143" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A144" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A145" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A146" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B146" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="C146" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A147" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C147" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="C142" s="6" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A143" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="B143" s="7" t="s">
+    </row>
+    <row r="148" spans="1:3" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="B148" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="C148" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="C143" s="6" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A144" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A145" s="6" t="s">
+    </row>
+    <row r="149" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A149" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A150" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A151" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A152" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A153" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A154" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B154" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="C145" s="6" t="s">
+      <c r="C154" s="6" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A146" s="9" t="s">
+    <row r="155" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A155" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A156" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A157" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="B146" s="10" t="s">
+      <c r="B157" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="C146" s="9" t="s">
+      <c r="C157" s="6" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A147" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="B147" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A148" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A149" s="6" t="s">
+    <row r="158" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A158" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B158" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="C149" s="6" t="s">
+      <c r="C158" s="6" t="s">
         <v>449</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A150" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A151" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A152" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A153" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A154" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="B154" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="C154" s="12" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A155" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="B155" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A156" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A157" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A158" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="B158" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>463</v>
+        <v>503</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>476</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A161" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A162" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A163" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A164" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A165" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="C165" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="B160" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A161" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="B161" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>508</v>
+    </row>
+    <row r="166" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A166" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="B167" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="C167" s="16" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -4016,125 +4189,131 @@
     <hyperlink ref="B45" r:id="rId42" xr:uid="{CE80C71A-29E1-7B4A-97D8-BFED3CE8CBCB}"/>
     <hyperlink ref="B46" r:id="rId43" xr:uid="{DD372FC9-E2C9-494A-A992-41B449FCBF60}"/>
     <hyperlink ref="B47" r:id="rId44" xr:uid="{6BDBC740-454D-E643-B675-C7A39ACF3EE9}"/>
-    <hyperlink ref="B48" r:id="rId45" xr:uid="{1CB10A6F-0220-FF4D-9CB0-8DF389D10A1C}"/>
-    <hyperlink ref="B49" r:id="rId46" xr:uid="{283AF92B-31DB-434B-BCDD-EF8795B26552}"/>
-    <hyperlink ref="B50" r:id="rId47" xr:uid="{611E1ECD-AFCF-4B48-BA5D-C2BF16D0FFB3}"/>
-    <hyperlink ref="B51" r:id="rId48" xr:uid="{9AD529EB-6D64-2A41-9458-EACF660D8470}"/>
-    <hyperlink ref="B52" r:id="rId49" xr:uid="{7B0A5145-756B-554C-A5EA-3AC6BF009DF8}"/>
-    <hyperlink ref="B53" r:id="rId50" xr:uid="{9410AAB9-9D80-244B-9D65-8AE548D5921E}"/>
-    <hyperlink ref="B54" r:id="rId51" xr:uid="{7811D0DA-ECAA-EC49-B06C-25979D4F8393}"/>
-    <hyperlink ref="B55" r:id="rId52" xr:uid="{7DAFEA67-E2CC-0A4D-86EE-6EB6EC8005FF}"/>
-    <hyperlink ref="B56" r:id="rId53" xr:uid="{23B1C06A-784A-9344-9843-3E9F894DEC72}"/>
-    <hyperlink ref="B57" r:id="rId54" xr:uid="{D52D8D34-B289-3945-B0A9-024E4A788FAF}"/>
-    <hyperlink ref="B58" r:id="rId55" xr:uid="{9DFAF0A7-73A9-7640-8118-5B6540D6BF17}"/>
-    <hyperlink ref="B59" r:id="rId56" xr:uid="{47378E8A-1A68-7D44-B42C-7A8E5B32638C}"/>
-    <hyperlink ref="B60" r:id="rId57" xr:uid="{2C7BB2DC-13AF-274D-9F46-42F9515C62F4}"/>
-    <hyperlink ref="B61" r:id="rId58" xr:uid="{6EE25FA5-6F0C-DB44-9D3C-9A02AE83759A}"/>
-    <hyperlink ref="B62" r:id="rId59" xr:uid="{DE92B86F-E8E4-BF4F-AFC6-60D6F5F852D5}"/>
-    <hyperlink ref="B63" r:id="rId60" xr:uid="{033BD293-121A-294B-8472-459A8117FC12}"/>
-    <hyperlink ref="B64" r:id="rId61" xr:uid="{DC7E7125-71D7-D844-8F25-D6ABC209B263}"/>
-    <hyperlink ref="B65" r:id="rId62" xr:uid="{B1E5E19E-76A8-7F43-9181-1F48D862CC6F}"/>
-    <hyperlink ref="B66" r:id="rId63" xr:uid="{303E647E-DED6-494D-8787-F447CCBB29FF}"/>
-    <hyperlink ref="B67" r:id="rId64" xr:uid="{DB73BFE9-7344-7D4F-9D80-C9E32EBEB036}"/>
-    <hyperlink ref="B68" r:id="rId65" xr:uid="{4CD282DC-1830-7144-A94A-3B6D51ACCE17}"/>
-    <hyperlink ref="B69" r:id="rId66" xr:uid="{E09B8C1B-C1FD-F341-A855-538C3F4613A6}"/>
-    <hyperlink ref="B70" r:id="rId67" xr:uid="{FAE28898-21C9-824F-9778-1B27BEC03FB8}"/>
-    <hyperlink ref="B71" r:id="rId68" xr:uid="{9E3BF8E7-3E3B-6A44-A1E1-0039910472A2}"/>
-    <hyperlink ref="B72" r:id="rId69" xr:uid="{822FBBE1-DFF2-6D43-B27E-B85D40270E1F}"/>
-    <hyperlink ref="B73" r:id="rId70" xr:uid="{DF6F1B04-F3BC-5E4E-9CD0-899C8EFD736D}"/>
-    <hyperlink ref="B74" r:id="rId71" xr:uid="{C1832584-1B0F-8245-B690-62188EEF00C1}"/>
-    <hyperlink ref="B75" r:id="rId72" xr:uid="{9965D2D0-1F02-414F-ACB1-7946DEA7806C}"/>
-    <hyperlink ref="B76" r:id="rId73" xr:uid="{209ACE43-022F-B04F-8AB8-7D0DB4248D6B}"/>
-    <hyperlink ref="B77" r:id="rId74" xr:uid="{8B6601DB-4544-CB4F-B567-1B6562FFFB60}"/>
-    <hyperlink ref="B78" r:id="rId75" xr:uid="{0F1C111B-6D8B-1742-A06F-26F370727148}"/>
-    <hyperlink ref="B79" r:id="rId76" xr:uid="{2208776B-00C7-8F4E-9ECD-96068502754D}"/>
-    <hyperlink ref="B80" r:id="rId77" xr:uid="{F69912D8-D931-9C44-8CE3-85ACC1B9E0A8}"/>
-    <hyperlink ref="B81" r:id="rId78" xr:uid="{F690AED2-EC91-5C48-AF2A-9AF02893572D}"/>
-    <hyperlink ref="B82" r:id="rId79" xr:uid="{81707B66-CDDC-1140-B016-F03324D51310}"/>
-    <hyperlink ref="B83" r:id="rId80" xr:uid="{965685DF-8BA5-6F46-8EA0-824420DCE2E5}"/>
-    <hyperlink ref="B84" r:id="rId81" xr:uid="{8569BBB5-F4F9-C543-B27D-08233BD58594}"/>
-    <hyperlink ref="B85" r:id="rId82" xr:uid="{22F14B03-864F-AD40-9EA3-5F662B4E73C2}"/>
-    <hyperlink ref="B86" r:id="rId83" xr:uid="{9AFF3044-5E62-9844-8970-EBAA426EBB68}"/>
-    <hyperlink ref="B87" r:id="rId84" xr:uid="{7773F181-2E31-5547-B72D-A08E5CCD661E}"/>
-    <hyperlink ref="B88" r:id="rId85" xr:uid="{EC9B85EE-E8FD-CB45-A984-5358E9D20888}"/>
-    <hyperlink ref="B89" r:id="rId86" xr:uid="{60E7D18E-BF52-AA40-985D-A0E21A01BD76}"/>
-    <hyperlink ref="B90" r:id="rId87" xr:uid="{71943C0E-24B6-9B46-9261-E1FEBE5CB2F8}"/>
-    <hyperlink ref="B91" r:id="rId88" xr:uid="{2D260DDD-A9BD-5748-A139-A43895586195}"/>
-    <hyperlink ref="B92" r:id="rId89" xr:uid="{75AC30E0-144B-9943-BBCB-3C6E7B2540CA}"/>
-    <hyperlink ref="B93" r:id="rId90" xr:uid="{25A95AF5-AEB2-2245-866B-0791B62856E2}"/>
-    <hyperlink ref="B94" r:id="rId91" xr:uid="{E6581C0C-D3EE-544D-8EC7-68089D171EA8}"/>
-    <hyperlink ref="B95" r:id="rId92" xr:uid="{53CD780C-45CD-1E43-BE82-ED3C45086641}"/>
-    <hyperlink ref="B96" r:id="rId93" xr:uid="{B133A311-05CC-974D-A860-E935B081C2FF}"/>
-    <hyperlink ref="B97" r:id="rId94" xr:uid="{10549033-6CA3-0247-BC0F-3DD4002E34D8}"/>
-    <hyperlink ref="B98" r:id="rId95" xr:uid="{9F645F73-6100-A74A-BC44-2ADDC943D3A7}"/>
-    <hyperlink ref="B99" r:id="rId96" xr:uid="{FA529BC8-E219-A24A-B673-08CA3FE2E75A}"/>
-    <hyperlink ref="B100" r:id="rId97" xr:uid="{ABF05830-D71B-7244-94AD-F8251A84FC3E}"/>
-    <hyperlink ref="B101" r:id="rId98" xr:uid="{1AED96E4-CA57-D649-87CC-B1BEC558EE73}"/>
-    <hyperlink ref="B102" r:id="rId99" xr:uid="{3C744DF8-6E2D-4C44-9ADB-BDBD35002650}"/>
-    <hyperlink ref="B103" r:id="rId100" xr:uid="{13B3C11A-1CD8-0440-8DF7-D68E5C09D8F5}"/>
-    <hyperlink ref="B104" r:id="rId101" xr:uid="{C54AF6C3-8B24-6541-A200-63C54D408DBF}"/>
-    <hyperlink ref="B105" r:id="rId102" xr:uid="{B994653E-7072-6E40-8554-7668AC47F7B2}"/>
-    <hyperlink ref="B106" r:id="rId103" xr:uid="{F3DAD8D6-EE7E-E548-9F3D-B6A3B3F2A833}"/>
-    <hyperlink ref="B107" r:id="rId104" xr:uid="{EF93AE0F-159B-A947-82B7-5574B9AF29DC}"/>
-    <hyperlink ref="B108" r:id="rId105" xr:uid="{D904C39F-0308-0641-91F5-F78A488C4C1A}"/>
-    <hyperlink ref="B109" r:id="rId106" xr:uid="{15D531E6-A54F-6841-9DA6-573BE475075B}"/>
-    <hyperlink ref="B110" r:id="rId107" xr:uid="{7AA82C20-0C14-9F4E-B83C-D521E844080A}"/>
-    <hyperlink ref="B111" r:id="rId108" xr:uid="{F1A72634-46FA-024A-A71C-2B8DE192CDFF}"/>
-    <hyperlink ref="B112" r:id="rId109" xr:uid="{F2F60944-4966-8B4E-8252-7C6D3F0B9ABF}"/>
-    <hyperlink ref="B113" r:id="rId110" xr:uid="{AC4EAE60-0667-CB4D-81D8-1E39C821E7BF}"/>
-    <hyperlink ref="B114" r:id="rId111" xr:uid="{1FBF34BF-8DAC-F643-96D8-26A7B6570AA8}"/>
-    <hyperlink ref="B115" r:id="rId112" xr:uid="{65325FBC-67A7-934A-90C3-F33809409884}"/>
-    <hyperlink ref="B116" r:id="rId113" xr:uid="{11CF3361-9DA3-A54A-8509-AC79661A1B37}"/>
-    <hyperlink ref="B117" r:id="rId114" xr:uid="{F0123FA7-3177-8B4C-B396-34B949CBC2DC}"/>
-    <hyperlink ref="B118" r:id="rId115" xr:uid="{274F0B3E-3D9E-3140-9246-1749E3F80EAA}"/>
-    <hyperlink ref="B119" r:id="rId116" xr:uid="{9E7F9EDA-086B-2040-8C97-1EFBB3933394}"/>
-    <hyperlink ref="B120" r:id="rId117" xr:uid="{35A78072-0421-EA40-BE85-72C3D6BD0CC5}"/>
-    <hyperlink ref="B121" r:id="rId118" xr:uid="{4DD6171E-FDFA-9743-B30C-74DB457BC313}"/>
-    <hyperlink ref="B122" r:id="rId119" xr:uid="{A1DD36E2-8457-274C-9792-41D6ECA7B522}"/>
-    <hyperlink ref="B123" r:id="rId120" xr:uid="{91F8CBFE-83DC-A345-A1FC-8065A824D963}"/>
-    <hyperlink ref="B124" r:id="rId121" xr:uid="{68E66FD9-85FF-394C-B863-6D0D49B95403}"/>
-    <hyperlink ref="B125" r:id="rId122" xr:uid="{B9B94F5D-2A1B-2845-BA71-F1130EED4078}"/>
-    <hyperlink ref="B126" r:id="rId123" xr:uid="{302CD03C-7953-F34D-8B36-E0E96BF749B1}"/>
-    <hyperlink ref="B127" r:id="rId124" xr:uid="{95BFFD72-F84A-C241-8B4F-AC4B1040789A}"/>
-    <hyperlink ref="B128" r:id="rId125" xr:uid="{285AC380-9DE1-4542-A9AE-77F75D5E56CC}"/>
-    <hyperlink ref="B129" r:id="rId126" xr:uid="{1CDA8C8F-BF66-A446-A398-54BDD4FDE32C}"/>
-    <hyperlink ref="B130" r:id="rId127" xr:uid="{122B6A7E-A543-E84C-86E7-9D3C788FE325}"/>
-    <hyperlink ref="B131" r:id="rId128" xr:uid="{3B7983EF-C641-2F4B-B187-11A0B536F14E}"/>
-    <hyperlink ref="B132" r:id="rId129" xr:uid="{27C38204-63B9-F54D-9DB5-6A5E66E38EF0}"/>
-    <hyperlink ref="B133" r:id="rId130" xr:uid="{8F8A80DD-B142-FD46-B097-4EACA13FCDC7}"/>
-    <hyperlink ref="B134" r:id="rId131" xr:uid="{56EE73D6-8A46-6C43-8BB7-9923EA57AD3A}"/>
-    <hyperlink ref="B135" r:id="rId132" xr:uid="{E988A0A8-D646-DA4F-967A-6212F7EFEC7F}"/>
-    <hyperlink ref="B136" r:id="rId133" xr:uid="{9D7DB2F4-B7AF-4546-9742-C213E3DD0F1B}"/>
-    <hyperlink ref="B137" r:id="rId134" xr:uid="{DD61809A-14A3-BD4E-9CB2-1A86EEC6CB21}"/>
-    <hyperlink ref="B138" r:id="rId135" xr:uid="{DAEF01F0-8893-804B-A409-61DFA2C0FFF3}"/>
-    <hyperlink ref="B139" r:id="rId136" xr:uid="{1E111863-9ADA-B446-9838-2A4D9BCFD88A}"/>
-    <hyperlink ref="B140" r:id="rId137" xr:uid="{2B38DB71-8BD1-4442-B5AF-F6B3E2FC7260}"/>
-    <hyperlink ref="B141" r:id="rId138" xr:uid="{1F511714-B159-6949-AA5B-0ABF3AC10B21}"/>
-    <hyperlink ref="B142" r:id="rId139" xr:uid="{6F05C1DE-E609-5F49-8925-DED45C0CA298}"/>
-    <hyperlink ref="B143" r:id="rId140" xr:uid="{B42F2141-A47F-C546-80CF-6A6E21568B28}"/>
-    <hyperlink ref="B144" r:id="rId141" xr:uid="{0578345A-2B35-DB46-A252-75D624E5335A}"/>
-    <hyperlink ref="B145" r:id="rId142" xr:uid="{388231C5-C849-004F-9F48-34C271CF034D}"/>
-    <hyperlink ref="B146" r:id="rId143" xr:uid="{495D9EE1-8177-2045-B949-9EB2159F336C}"/>
-    <hyperlink ref="B149" r:id="rId144" xr:uid="{98312511-DDA4-2D4B-A18F-0B6277CCE160}"/>
-    <hyperlink ref="B152" r:id="rId145" xr:uid="{9080FF6E-E32B-E346-9769-672E744AD1D3}"/>
-    <hyperlink ref="B153" r:id="rId146" xr:uid="{F06E1BB0-4C0A-A84A-A70F-1043B59098D7}"/>
-    <hyperlink ref="B157" r:id="rId147" xr:uid="{010AA221-1F56-BB49-B837-372725EB4330}"/>
-    <hyperlink ref="B159" r:id="rId148" xr:uid="{1E55B930-A384-3D47-8670-2F9757ACB2DB}"/>
-    <hyperlink ref="B151" r:id="rId149" xr:uid="{F05CFACE-9B72-6F4B-BFAA-7E923DC83332}"/>
-    <hyperlink ref="B147" r:id="rId150" xr:uid="{A7254027-5889-4548-9B4B-9A026B12D462}"/>
-    <hyperlink ref="B158" r:id="rId151" xr:uid="{34266ABF-78A0-0249-BF51-8E8E9B5C7251}"/>
-    <hyperlink ref="B154" r:id="rId152" xr:uid="{BFB314DB-A998-3646-B9D1-5669ECA7EC9E}"/>
-    <hyperlink ref="B156" r:id="rId153" xr:uid="{0CCC0DF9-29BA-C146-B5E0-FB0FE661B9E4}"/>
-    <hyperlink ref="B15" r:id="rId154" xr:uid="{2FF62FFA-848A-A645-AB49-FC1892DE3512}"/>
-    <hyperlink ref="B25" r:id="rId155" xr:uid="{1C220587-F46D-3349-8188-A608FFA78C9A}"/>
-    <hyperlink ref="B150" r:id="rId156" xr:uid="{B9B4CD15-627B-9A48-812C-4ED02D7E87C3}"/>
-    <hyperlink ref="B148" r:id="rId157" xr:uid="{590B5CF1-A8C0-034A-B17A-385DBDBD5428}"/>
-    <hyperlink ref="B160" r:id="rId158" xr:uid="{E2B8EED8-4993-9E4B-A074-D76848FEEE76}"/>
-    <hyperlink ref="B155" r:id="rId159" xr:uid="{5CE9128D-E20D-4D4A-9995-9B8805498EC4}"/>
-    <hyperlink ref="B161" r:id="rId160" xr:uid="{CE99D6B7-630A-0B42-95F4-67DA02F8B862}"/>
+    <hyperlink ref="B49" r:id="rId45" xr:uid="{1CB10A6F-0220-FF4D-9CB0-8DF389D10A1C}"/>
+    <hyperlink ref="B50" r:id="rId46" xr:uid="{283AF92B-31DB-434B-BCDD-EF8795B26552}"/>
+    <hyperlink ref="B51" r:id="rId47" xr:uid="{611E1ECD-AFCF-4B48-BA5D-C2BF16D0FFB3}"/>
+    <hyperlink ref="B52" r:id="rId48" xr:uid="{9AD529EB-6D64-2A41-9458-EACF660D8470}"/>
+    <hyperlink ref="B53" r:id="rId49" xr:uid="{7B0A5145-756B-554C-A5EA-3AC6BF009DF8}"/>
+    <hyperlink ref="B54" r:id="rId50" xr:uid="{9410AAB9-9D80-244B-9D65-8AE548D5921E}"/>
+    <hyperlink ref="B55" r:id="rId51" xr:uid="{7811D0DA-ECAA-EC49-B06C-25979D4F8393}"/>
+    <hyperlink ref="B56" r:id="rId52" xr:uid="{7DAFEA67-E2CC-0A4D-86EE-6EB6EC8005FF}"/>
+    <hyperlink ref="B57" r:id="rId53" xr:uid="{23B1C06A-784A-9344-9843-3E9F894DEC72}"/>
+    <hyperlink ref="B60" r:id="rId54" xr:uid="{9DFAF0A7-73A9-7640-8118-5B6540D6BF17}"/>
+    <hyperlink ref="B62" r:id="rId55" xr:uid="{47378E8A-1A68-7D44-B42C-7A8E5B32638C}"/>
+    <hyperlink ref="B63" r:id="rId56" xr:uid="{2C7BB2DC-13AF-274D-9F46-42F9515C62F4}"/>
+    <hyperlink ref="B64" r:id="rId57" xr:uid="{6EE25FA5-6F0C-DB44-9D3C-9A02AE83759A}"/>
+    <hyperlink ref="B65" r:id="rId58" xr:uid="{DE92B86F-E8E4-BF4F-AFC6-60D6F5F852D5}"/>
+    <hyperlink ref="B66" r:id="rId59" xr:uid="{033BD293-121A-294B-8472-459A8117FC12}"/>
+    <hyperlink ref="B67" r:id="rId60" xr:uid="{DC7E7125-71D7-D844-8F25-D6ABC209B263}"/>
+    <hyperlink ref="B68" r:id="rId61" xr:uid="{B1E5E19E-76A8-7F43-9181-1F48D862CC6F}"/>
+    <hyperlink ref="B69" r:id="rId62" xr:uid="{303E647E-DED6-494D-8787-F447CCBB29FF}"/>
+    <hyperlink ref="B70" r:id="rId63" xr:uid="{DB73BFE9-7344-7D4F-9D80-C9E32EBEB036}"/>
+    <hyperlink ref="B71" r:id="rId64" xr:uid="{4CD282DC-1830-7144-A94A-3B6D51ACCE17}"/>
+    <hyperlink ref="B72" r:id="rId65" xr:uid="{E09B8C1B-C1FD-F341-A855-538C3F4613A6}"/>
+    <hyperlink ref="B73" r:id="rId66" xr:uid="{FAE28898-21C9-824F-9778-1B27BEC03FB8}"/>
+    <hyperlink ref="B74" r:id="rId67" xr:uid="{9E3BF8E7-3E3B-6A44-A1E1-0039910472A2}"/>
+    <hyperlink ref="B75" r:id="rId68" xr:uid="{822FBBE1-DFF2-6D43-B27E-B85D40270E1F}"/>
+    <hyperlink ref="B76" r:id="rId69" xr:uid="{DF6F1B04-F3BC-5E4E-9CD0-899C8EFD736D}"/>
+    <hyperlink ref="B77" r:id="rId70" xr:uid="{C1832584-1B0F-8245-B690-62188EEF00C1}"/>
+    <hyperlink ref="B78" r:id="rId71" xr:uid="{9965D2D0-1F02-414F-ACB1-7946DEA7806C}"/>
+    <hyperlink ref="B79" r:id="rId72" xr:uid="{209ACE43-022F-B04F-8AB8-7D0DB4248D6B}"/>
+    <hyperlink ref="B80" r:id="rId73" xr:uid="{8B6601DB-4544-CB4F-B567-1B6562FFFB60}"/>
+    <hyperlink ref="B81" r:id="rId74" xr:uid="{0F1C111B-6D8B-1742-A06F-26F370727148}"/>
+    <hyperlink ref="B82" r:id="rId75" xr:uid="{2208776B-00C7-8F4E-9ECD-96068502754D}"/>
+    <hyperlink ref="B83" r:id="rId76" xr:uid="{F69912D8-D931-9C44-8CE3-85ACC1B9E0A8}"/>
+    <hyperlink ref="B84" r:id="rId77" xr:uid="{F690AED2-EC91-5C48-AF2A-9AF02893572D}"/>
+    <hyperlink ref="B85" r:id="rId78" xr:uid="{81707B66-CDDC-1140-B016-F03324D51310}"/>
+    <hyperlink ref="B86" r:id="rId79" xr:uid="{965685DF-8BA5-6F46-8EA0-824420DCE2E5}"/>
+    <hyperlink ref="B87" r:id="rId80" xr:uid="{8569BBB5-F4F9-C543-B27D-08233BD58594}"/>
+    <hyperlink ref="B88" r:id="rId81" xr:uid="{22F14B03-864F-AD40-9EA3-5F662B4E73C2}"/>
+    <hyperlink ref="B89" r:id="rId82" xr:uid="{9AFF3044-5E62-9844-8970-EBAA426EBB68}"/>
+    <hyperlink ref="B90" r:id="rId83" xr:uid="{7773F181-2E31-5547-B72D-A08E5CCD661E}"/>
+    <hyperlink ref="B91" r:id="rId84" xr:uid="{EC9B85EE-E8FD-CB45-A984-5358E9D20888}"/>
+    <hyperlink ref="B92" r:id="rId85" xr:uid="{60E7D18E-BF52-AA40-985D-A0E21A01BD76}"/>
+    <hyperlink ref="B93" r:id="rId86" xr:uid="{71943C0E-24B6-9B46-9261-E1FEBE5CB2F8}"/>
+    <hyperlink ref="B94" r:id="rId87" xr:uid="{2D260DDD-A9BD-5748-A139-A43895586195}"/>
+    <hyperlink ref="B95" r:id="rId88" xr:uid="{75AC30E0-144B-9943-BBCB-3C6E7B2540CA}"/>
+    <hyperlink ref="B96" r:id="rId89" xr:uid="{25A95AF5-AEB2-2245-866B-0791B62856E2}"/>
+    <hyperlink ref="B97" r:id="rId90" xr:uid="{E6581C0C-D3EE-544D-8EC7-68089D171EA8}"/>
+    <hyperlink ref="B98" r:id="rId91" xr:uid="{53CD780C-45CD-1E43-BE82-ED3C45086641}"/>
+    <hyperlink ref="B99" r:id="rId92" xr:uid="{B133A311-05CC-974D-A860-E935B081C2FF}"/>
+    <hyperlink ref="B100" r:id="rId93" xr:uid="{10549033-6CA3-0247-BC0F-3DD4002E34D8}"/>
+    <hyperlink ref="B101" r:id="rId94" xr:uid="{9F645F73-6100-A74A-BC44-2ADDC943D3A7}"/>
+    <hyperlink ref="B102" r:id="rId95" xr:uid="{FA529BC8-E219-A24A-B673-08CA3FE2E75A}"/>
+    <hyperlink ref="B103" r:id="rId96" xr:uid="{ABF05830-D71B-7244-94AD-F8251A84FC3E}"/>
+    <hyperlink ref="B104" r:id="rId97" xr:uid="{1AED96E4-CA57-D649-87CC-B1BEC558EE73}"/>
+    <hyperlink ref="B105" r:id="rId98" xr:uid="{3C744DF8-6E2D-4C44-9ADB-BDBD35002650}"/>
+    <hyperlink ref="B106" r:id="rId99" xr:uid="{13B3C11A-1CD8-0440-8DF7-D68E5C09D8F5}"/>
+    <hyperlink ref="B107" r:id="rId100" xr:uid="{C54AF6C3-8B24-6541-A200-63C54D408DBF}"/>
+    <hyperlink ref="B108" r:id="rId101" xr:uid="{B994653E-7072-6E40-8554-7668AC47F7B2}"/>
+    <hyperlink ref="B109" r:id="rId102" xr:uid="{F3DAD8D6-EE7E-E548-9F3D-B6A3B3F2A833}"/>
+    <hyperlink ref="B110" r:id="rId103" xr:uid="{EF93AE0F-159B-A947-82B7-5574B9AF29DC}"/>
+    <hyperlink ref="B111" r:id="rId104" xr:uid="{D904C39F-0308-0641-91F5-F78A488C4C1A}"/>
+    <hyperlink ref="B112" r:id="rId105" xr:uid="{15D531E6-A54F-6841-9DA6-573BE475075B}"/>
+    <hyperlink ref="B113" r:id="rId106" xr:uid="{7AA82C20-0C14-9F4E-B83C-D521E844080A}"/>
+    <hyperlink ref="B114" r:id="rId107" xr:uid="{F1A72634-46FA-024A-A71C-2B8DE192CDFF}"/>
+    <hyperlink ref="B115" r:id="rId108" xr:uid="{F2F60944-4966-8B4E-8252-7C6D3F0B9ABF}"/>
+    <hyperlink ref="B116" r:id="rId109" xr:uid="{AC4EAE60-0667-CB4D-81D8-1E39C821E7BF}"/>
+    <hyperlink ref="B117" r:id="rId110" xr:uid="{1FBF34BF-8DAC-F643-96D8-26A7B6570AA8}"/>
+    <hyperlink ref="B118" r:id="rId111" xr:uid="{65325FBC-67A7-934A-90C3-F33809409884}"/>
+    <hyperlink ref="B119" r:id="rId112" xr:uid="{11CF3361-9DA3-A54A-8509-AC79661A1B37}"/>
+    <hyperlink ref="B120" r:id="rId113" xr:uid="{F0123FA7-3177-8B4C-B396-34B949CBC2DC}"/>
+    <hyperlink ref="B121" r:id="rId114" xr:uid="{274F0B3E-3D9E-3140-9246-1749E3F80EAA}"/>
+    <hyperlink ref="B122" r:id="rId115" xr:uid="{9E7F9EDA-086B-2040-8C97-1EFBB3933394}"/>
+    <hyperlink ref="B123" r:id="rId116" xr:uid="{35A78072-0421-EA40-BE85-72C3D6BD0CC5}"/>
+    <hyperlink ref="B124" r:id="rId117" xr:uid="{4DD6171E-FDFA-9743-B30C-74DB457BC313}"/>
+    <hyperlink ref="B125" r:id="rId118" xr:uid="{A1DD36E2-8457-274C-9792-41D6ECA7B522}"/>
+    <hyperlink ref="B126" r:id="rId119" xr:uid="{91F8CBFE-83DC-A345-A1FC-8065A824D963}"/>
+    <hyperlink ref="B127" r:id="rId120" xr:uid="{68E66FD9-85FF-394C-B863-6D0D49B95403}"/>
+    <hyperlink ref="B128" r:id="rId121" xr:uid="{B9B94F5D-2A1B-2845-BA71-F1130EED4078}"/>
+    <hyperlink ref="B129" r:id="rId122" xr:uid="{302CD03C-7953-F34D-8B36-E0E96BF749B1}"/>
+    <hyperlink ref="B130" r:id="rId123" xr:uid="{95BFFD72-F84A-C241-8B4F-AC4B1040789A}"/>
+    <hyperlink ref="B131" r:id="rId124" xr:uid="{285AC380-9DE1-4542-A9AE-77F75D5E56CC}"/>
+    <hyperlink ref="B132" r:id="rId125" xr:uid="{1CDA8C8F-BF66-A446-A398-54BDD4FDE32C}"/>
+    <hyperlink ref="B133" r:id="rId126" xr:uid="{122B6A7E-A543-E84C-86E7-9D3C788FE325}"/>
+    <hyperlink ref="B134" r:id="rId127" xr:uid="{3B7983EF-C641-2F4B-B187-11A0B536F14E}"/>
+    <hyperlink ref="B135" r:id="rId128" xr:uid="{27C38204-63B9-F54D-9DB5-6A5E66E38EF0}"/>
+    <hyperlink ref="B136" r:id="rId129" xr:uid="{8F8A80DD-B142-FD46-B097-4EACA13FCDC7}"/>
+    <hyperlink ref="B137" r:id="rId130" xr:uid="{56EE73D6-8A46-6C43-8BB7-9923EA57AD3A}"/>
+    <hyperlink ref="B138" r:id="rId131" xr:uid="{E988A0A8-D646-DA4F-967A-6212F7EFEC7F}"/>
+    <hyperlink ref="B139" r:id="rId132" xr:uid="{9D7DB2F4-B7AF-4546-9742-C213E3DD0F1B}"/>
+    <hyperlink ref="B140" r:id="rId133" xr:uid="{DD61809A-14A3-BD4E-9CB2-1A86EEC6CB21}"/>
+    <hyperlink ref="B141" r:id="rId134" xr:uid="{DAEF01F0-8893-804B-A409-61DFA2C0FFF3}"/>
+    <hyperlink ref="B142" r:id="rId135" xr:uid="{1E111863-9ADA-B446-9838-2A4D9BCFD88A}"/>
+    <hyperlink ref="B143" r:id="rId136" xr:uid="{2B38DB71-8BD1-4442-B5AF-F6B3E2FC7260}"/>
+    <hyperlink ref="B144" r:id="rId137" xr:uid="{1F511714-B159-6949-AA5B-0ABF3AC10B21}"/>
+    <hyperlink ref="B145" r:id="rId138" xr:uid="{6F05C1DE-E609-5F49-8925-DED45C0CA298}"/>
+    <hyperlink ref="B146" r:id="rId139" xr:uid="{B42F2141-A47F-C546-80CF-6A6E21568B28}"/>
+    <hyperlink ref="B147" r:id="rId140" xr:uid="{0578345A-2B35-DB46-A252-75D624E5335A}"/>
+    <hyperlink ref="B148" r:id="rId141" xr:uid="{388231C5-C849-004F-9F48-34C271CF034D}"/>
+    <hyperlink ref="B154" r:id="rId142" xr:uid="{98312511-DDA4-2D4B-A18F-0B6277CCE160}"/>
+    <hyperlink ref="B157" r:id="rId143" xr:uid="{9080FF6E-E32B-E346-9769-672E744AD1D3}"/>
+    <hyperlink ref="B158" r:id="rId144" xr:uid="{F06E1BB0-4C0A-A84A-A70F-1043B59098D7}"/>
+    <hyperlink ref="B162" r:id="rId145" xr:uid="{010AA221-1F56-BB49-B837-372725EB4330}"/>
+    <hyperlink ref="B166" r:id="rId146" xr:uid="{1E55B930-A384-3D47-8670-2F9757ACB2DB}"/>
+    <hyperlink ref="B156" r:id="rId147" xr:uid="{F05CFACE-9B72-6F4B-BFAA-7E923DC83332}"/>
+    <hyperlink ref="B151" r:id="rId148" xr:uid="{A7254027-5889-4548-9B4B-9A026B12D462}"/>
+    <hyperlink ref="B163" r:id="rId149" xr:uid="{34266ABF-78A0-0249-BF51-8E8E9B5C7251}"/>
+    <hyperlink ref="B159" r:id="rId150" xr:uid="{BFB314DB-A998-3646-B9D1-5669ECA7EC9E}"/>
+    <hyperlink ref="B161" r:id="rId151" xr:uid="{0CCC0DF9-29BA-C146-B5E0-FB0FE661B9E4}"/>
+    <hyperlink ref="B15" r:id="rId152" xr:uid="{2FF62FFA-848A-A645-AB49-FC1892DE3512}"/>
+    <hyperlink ref="B25" r:id="rId153" xr:uid="{1C220587-F46D-3349-8188-A608FFA78C9A}"/>
+    <hyperlink ref="B155" r:id="rId154" xr:uid="{B9B4CD15-627B-9A48-812C-4ED02D7E87C3}"/>
+    <hyperlink ref="B153" r:id="rId155" xr:uid="{590B5CF1-A8C0-034A-B17A-385DBDBD5428}"/>
+    <hyperlink ref="B150" r:id="rId156" xr:uid="{E2B8EED8-4993-9E4B-A074-D76848FEEE76}"/>
+    <hyperlink ref="B160" r:id="rId157" xr:uid="{5CE9128D-E20D-4D4A-9995-9B8805498EC4}"/>
+    <hyperlink ref="B165" r:id="rId158" xr:uid="{CE99D6B7-630A-0B42-95F4-67DA02F8B862}"/>
+    <hyperlink ref="B167" r:id="rId159" xr:uid="{6F1EF0D9-D9FA-9947-A58F-67AE523C5636}"/>
+    <hyperlink ref="B164" r:id="rId160" xr:uid="{60B461CC-202F-4645-A6EE-84DD7A4E20A4}"/>
+    <hyperlink ref="B149" r:id="rId161" xr:uid="{4E82F5F7-B059-6F46-A45C-139D7CA42EB6}"/>
+    <hyperlink ref="B48" r:id="rId162" xr:uid="{D6B66670-B6C0-6C43-98C5-8D0F470708B9}"/>
+    <hyperlink ref="B61" r:id="rId163" xr:uid="{822BD45A-CF86-0841-A114-292B33F8DEA2}"/>
+    <hyperlink ref="B58" r:id="rId164" xr:uid="{4515DFC6-A7A3-1644-AB12-4F6210C92028}"/>
+    <hyperlink ref="B59" r:id="rId165" xr:uid="{A0E4E9C4-5C98-4044-9311-9DFDCBFE9BCD}"/>
+    <hyperlink ref="B152" r:id="rId166" xr:uid="{7CA3AACC-A3E8-5443-BA17-4E3CE8D05980}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId161"/>
+  <legacyDrawing r:id="rId167"/>
 </worksheet>
 </file>
 
@@ -4170,40 +4349,40 @@
     </row>
     <row r="2" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0261F0F1-BEA8-944B-AF11-2DDBFB604897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E464AF3-9373-0645-97C9-2F49B108E2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -1539,9 +1539,6 @@
     <t>10.1002/pri.2005</t>
   </si>
   <si>
-    <t>Deucher, R. A. de O., Reis, L. F. da F., Papathanasiou, J. V., Azevedo, B. L. P. A., Oliveira, J. G. M., da Silva, M. M., de Sales, R. C., dos Santos, B. P., Ferreira, A. de S., &amp; Lopes, A. J. (2023). Estimating cardiopulmonary fitness with a new sampling technology in patients with rheumatoid arthritis‐associated interstitial lung disease. In Physiotherapy Research International. Wiley. https://doi.org/10.1002/pri.2005</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/13-bZ06Gr4CrfvPgYwq0VAKnD62IXexQf</t>
   </si>
   <si>
@@ -1664,6 +1661,9 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/12cUsM61XR4GP2HIBwKpNOn5nm-swuMQs</t>
+  </si>
+  <si>
+    <t>Deucher, R. A. de O., Reis, L. F. da F., Papathanasiou, J. V., Azevedo, B. L. P. A., Oliveira, J. G. M., da Silva, M. M., de Sales, R. C., dos Santos, B. P., Ferreira, A. de S., &amp; Lopes, A. J. (2023). Estimating cardiopulmonary fitness with a new sampling technology in patients with rheumatoid arthritis‐associated interstitial lung disease. In Physiotherapy Research International (Vol. 28, Issue 3). Wiley. https://doi.org/10.1002/pri.2005</t>
   </si>
 </sst>
 </file>
@@ -1756,7 +1756,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1812,12 +1812,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1825,6 +1819,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2204,7 +2201,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -2458,7 +2455,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="6" t="s">
         <v>481</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -2568,7 +2565,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -2822,13 +2819,13 @@
     </row>
     <row r="48" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>514</v>
-      </c>
       <c r="C48" s="18" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="136" x14ac:dyDescent="0.2">
@@ -2931,25 +2928,25 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="103" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="B59" s="17" t="s">
         <v>523</v>
       </c>
-      <c r="B59" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>522</v>
+      <c r="C59" s="20" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -2965,13 +2962,13 @@
     </row>
     <row r="61" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>517</v>
-      </c>
       <c r="C61" s="18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="136" x14ac:dyDescent="0.2">
@@ -3273,7 +3270,7 @@
     </row>
     <row r="89" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>267</v>
@@ -3625,7 +3622,7 @@
     </row>
     <row r="121" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>362</v>
@@ -3647,7 +3644,7 @@
     </row>
     <row r="123" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>367</v>
@@ -3691,7 +3688,7 @@
     </row>
     <row r="127" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>378</v>
@@ -3932,25 +3929,25 @@
       </c>
     </row>
     <row r="149" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A149" s="19" t="s">
-        <v>525</v>
+      <c r="A149" s="6" t="s">
+        <v>524</v>
       </c>
       <c r="B149" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C149" s="6" t="s">
         <v>510</v>
-      </c>
-      <c r="C149" s="19" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="C150" s="6" t="s">
         <v>492</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="153" x14ac:dyDescent="0.2">
@@ -3966,24 +3963,24 @@
     </row>
     <row r="152" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="B152" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="B152" s="10" t="s">
-        <v>528</v>
-      </c>
       <c r="C152" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="170" x14ac:dyDescent="0.2">
@@ -3997,20 +3994,20 @@
         <v>443</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A155" s="9" t="s">
+    <row r="155" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A155" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="B155" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="B155" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="C155" s="9" t="s">
+      <c r="C155" s="22" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B156" s="11" t="s">
         <v>459</v>
@@ -4043,24 +4040,24 @@
     </row>
     <row r="159" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B159" s="11" t="s">
         <v>476</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="B160" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="B160" s="11" t="s">
-        <v>498</v>
-      </c>
       <c r="C160" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -4098,24 +4095,24 @@
     </row>
     <row r="164" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A164" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B164" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="B164" s="10" t="s">
-        <v>509</v>
-      </c>
       <c r="C164" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="136" x14ac:dyDescent="0.2">
@@ -4131,10 +4128,10 @@
     </row>
     <row r="167" spans="1:3" ht="120" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="B167" s="21" t="s">
         <v>504</v>
-      </c>
-      <c r="B167" s="23" t="s">
-        <v>505</v>
       </c>
       <c r="C167" s="16" t="s">
         <v>442</v>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E464AF3-9373-0645-97C9-2F49B108E2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68830AAB-DB83-6647-B8E3-344966897F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -1326,12 +1326,6 @@
     <t>10.1080/10749357.2022.2130620</t>
   </si>
   <si>
-    <t>Oliveira, F. A. F., Martins, C. P., de Oliveira, L. A. S., Rodrigues, E. C., Ferreira, A. S., &amp; Lemos, T. (2022). Poststroke consequences upon optimization properties of postural sway during upright stance: a cross-sectional study. In Topics in Stroke Rehabilitation (pp. 1–9). Informa UK Limited. https://doi.org/10.1080/10749357.2022.2130620</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1SKTFwwtW_T4BmOW5wX-M0vRK2TzfRWy5</t>
-  </si>
-  <si>
     <t>10.23736/S1973-9087.21.06894-5</t>
   </si>
   <si>
@@ -1664,6 +1658,12 @@
   </si>
   <si>
     <t>Deucher, R. A. de O., Reis, L. F. da F., Papathanasiou, J. V., Azevedo, B. L. P. A., Oliveira, J. G. M., da Silva, M. M., de Sales, R. C., dos Santos, B. P., Ferreira, A. de S., &amp; Lopes, A. J. (2023). Estimating cardiopulmonary fitness with a new sampling technology in patients with rheumatoid arthritis‐associated interstitial lung disease. In Physiotherapy Research International (Vol. 28, Issue 3). Wiley. https://doi.org/10.1002/pri.2005</t>
+  </si>
+  <si>
+    <t>Oliveira, F. A. F., Martins, C. P., de Oliveira, L. A. S., Rodrigues, E. C., Ferreira, A. S., &amp; Lemos, T. (2022). Poststroke consequences upon optimization properties of postural sway during upright stance: a cross-sectional study. In Topics in Stroke Rehabilitation (Vol. 30, Issue 7, pp. 663–671). Informa UK Limited. https://doi.org/10.1080/10749357.2022.2130620</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/133wwfR0j4KY-vC697zS9iU4kkDn3BerB</t>
   </si>
 </sst>
 </file>
@@ -2201,7 +2201,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -2456,13 +2456,13 @@
     </row>
     <row r="15" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -2487,7 +2487,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>65</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>86</v>
       </c>
@@ -2566,13 +2566,13 @@
     </row>
     <row r="25" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="171" thickBot="1" x14ac:dyDescent="0.25">
@@ -2652,7 +2652,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>107</v>
       </c>
@@ -2819,13 +2819,13 @@
     </row>
     <row r="48" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="136" x14ac:dyDescent="0.2">
@@ -2940,13 +2940,13 @@
     </row>
     <row r="59" spans="1:3" ht="103" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -2962,13 +2962,13 @@
     </row>
     <row r="61" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="136" x14ac:dyDescent="0.2">
@@ -3270,7 +3270,7 @@
     </row>
     <row r="89" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>267</v>
@@ -3622,7 +3622,7 @@
     </row>
     <row r="121" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>362</v>
@@ -3644,7 +3644,7 @@
     </row>
     <row r="123" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>367</v>
@@ -3688,7 +3688,7 @@
     </row>
     <row r="127" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>378</v>
@@ -3829,312 +3829,312 @@
         <v>412</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A140" s="9" t="s">
+    <row r="140" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A140" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C140" s="6" t="s">
         <v>416</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C141" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="B141" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C142" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="B142" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C143" s="6" t="s">
         <v>425</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C144" s="6" t="s">
         <v>428</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C145" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="B145" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C146" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="B146" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A147" s="6" t="s">
+    </row>
+    <row r="147" spans="1:3" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="B147" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="C147" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="B147" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="B148" s="17" t="s">
+    </row>
+    <row r="148" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A148" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A149" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A150" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A151" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A152" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A153" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C153" s="6" t="s">
         <v>441</v>
-      </c>
-      <c r="C148" s="16" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A149" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A150" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A151" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A152" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="C152" s="9" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A153" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="B153" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A155" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A156" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="C156" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="B154" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A155" s="22" t="s">
+    </row>
+    <row r="157" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A157" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A158" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A159" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="B159" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="B155" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="C155" s="22" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A156" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A157" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A158" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A159" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>501</v>
+      <c r="C159" s="22" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A164" s="9" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="120" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="16" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B167" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -4274,40 +4274,40 @@
     <hyperlink ref="B137" r:id="rId130" xr:uid="{56EE73D6-8A46-6C43-8BB7-9923EA57AD3A}"/>
     <hyperlink ref="B138" r:id="rId131" xr:uid="{E988A0A8-D646-DA4F-967A-6212F7EFEC7F}"/>
     <hyperlink ref="B139" r:id="rId132" xr:uid="{9D7DB2F4-B7AF-4546-9742-C213E3DD0F1B}"/>
-    <hyperlink ref="B140" r:id="rId133" xr:uid="{DD61809A-14A3-BD4E-9CB2-1A86EEC6CB21}"/>
-    <hyperlink ref="B141" r:id="rId134" xr:uid="{DAEF01F0-8893-804B-A409-61DFA2C0FFF3}"/>
-    <hyperlink ref="B142" r:id="rId135" xr:uid="{1E111863-9ADA-B446-9838-2A4D9BCFD88A}"/>
-    <hyperlink ref="B143" r:id="rId136" xr:uid="{2B38DB71-8BD1-4442-B5AF-F6B3E2FC7260}"/>
-    <hyperlink ref="B144" r:id="rId137" xr:uid="{1F511714-B159-6949-AA5B-0ABF3AC10B21}"/>
-    <hyperlink ref="B145" r:id="rId138" xr:uid="{6F05C1DE-E609-5F49-8925-DED45C0CA298}"/>
-    <hyperlink ref="B146" r:id="rId139" xr:uid="{B42F2141-A47F-C546-80CF-6A6E21568B28}"/>
-    <hyperlink ref="B147" r:id="rId140" xr:uid="{0578345A-2B35-DB46-A252-75D624E5335A}"/>
-    <hyperlink ref="B148" r:id="rId141" xr:uid="{388231C5-C849-004F-9F48-34C271CF034D}"/>
-    <hyperlink ref="B154" r:id="rId142" xr:uid="{98312511-DDA4-2D4B-A18F-0B6277CCE160}"/>
-    <hyperlink ref="B157" r:id="rId143" xr:uid="{9080FF6E-E32B-E346-9769-672E744AD1D3}"/>
-    <hyperlink ref="B158" r:id="rId144" xr:uid="{F06E1BB0-4C0A-A84A-A70F-1043B59098D7}"/>
-    <hyperlink ref="B162" r:id="rId145" xr:uid="{010AA221-1F56-BB49-B837-372725EB4330}"/>
-    <hyperlink ref="B166" r:id="rId146" xr:uid="{1E55B930-A384-3D47-8670-2F9757ACB2DB}"/>
-    <hyperlink ref="B156" r:id="rId147" xr:uid="{F05CFACE-9B72-6F4B-BFAA-7E923DC83332}"/>
-    <hyperlink ref="B151" r:id="rId148" xr:uid="{A7254027-5889-4548-9B4B-9A026B12D462}"/>
-    <hyperlink ref="B163" r:id="rId149" xr:uid="{34266ABF-78A0-0249-BF51-8E8E9B5C7251}"/>
-    <hyperlink ref="B159" r:id="rId150" xr:uid="{BFB314DB-A998-3646-B9D1-5669ECA7EC9E}"/>
-    <hyperlink ref="B161" r:id="rId151" xr:uid="{0CCC0DF9-29BA-C146-B5E0-FB0FE661B9E4}"/>
-    <hyperlink ref="B15" r:id="rId152" xr:uid="{2FF62FFA-848A-A645-AB49-FC1892DE3512}"/>
-    <hyperlink ref="B25" r:id="rId153" xr:uid="{1C220587-F46D-3349-8188-A608FFA78C9A}"/>
-    <hyperlink ref="B155" r:id="rId154" xr:uid="{B9B4CD15-627B-9A48-812C-4ED02D7E87C3}"/>
-    <hyperlink ref="B153" r:id="rId155" xr:uid="{590B5CF1-A8C0-034A-B17A-385DBDBD5428}"/>
-    <hyperlink ref="B150" r:id="rId156" xr:uid="{E2B8EED8-4993-9E4B-A074-D76848FEEE76}"/>
-    <hyperlink ref="B160" r:id="rId157" xr:uid="{5CE9128D-E20D-4D4A-9995-9B8805498EC4}"/>
-    <hyperlink ref="B165" r:id="rId158" xr:uid="{CE99D6B7-630A-0B42-95F4-67DA02F8B862}"/>
-    <hyperlink ref="B167" r:id="rId159" xr:uid="{6F1EF0D9-D9FA-9947-A58F-67AE523C5636}"/>
-    <hyperlink ref="B164" r:id="rId160" xr:uid="{60B461CC-202F-4645-A6EE-84DD7A4E20A4}"/>
-    <hyperlink ref="B149" r:id="rId161" xr:uid="{4E82F5F7-B059-6F46-A45C-139D7CA42EB6}"/>
-    <hyperlink ref="B48" r:id="rId162" xr:uid="{D6B66670-B6C0-6C43-98C5-8D0F470708B9}"/>
-    <hyperlink ref="B61" r:id="rId163" xr:uid="{822BD45A-CF86-0841-A114-292B33F8DEA2}"/>
-    <hyperlink ref="B58" r:id="rId164" xr:uid="{4515DFC6-A7A3-1644-AB12-4F6210C92028}"/>
-    <hyperlink ref="B59" r:id="rId165" xr:uid="{A0E4E9C4-5C98-4044-9311-9DFDCBFE9BCD}"/>
-    <hyperlink ref="B152" r:id="rId166" xr:uid="{7CA3AACC-A3E8-5443-BA17-4E3CE8D05980}"/>
+    <hyperlink ref="B140" r:id="rId133" xr:uid="{DAEF01F0-8893-804B-A409-61DFA2C0FFF3}"/>
+    <hyperlink ref="B141" r:id="rId134" xr:uid="{1E111863-9ADA-B446-9838-2A4D9BCFD88A}"/>
+    <hyperlink ref="B142" r:id="rId135" xr:uid="{2B38DB71-8BD1-4442-B5AF-F6B3E2FC7260}"/>
+    <hyperlink ref="B143" r:id="rId136" xr:uid="{1F511714-B159-6949-AA5B-0ABF3AC10B21}"/>
+    <hyperlink ref="B144" r:id="rId137" xr:uid="{6F05C1DE-E609-5F49-8925-DED45C0CA298}"/>
+    <hyperlink ref="B145" r:id="rId138" xr:uid="{B42F2141-A47F-C546-80CF-6A6E21568B28}"/>
+    <hyperlink ref="B146" r:id="rId139" xr:uid="{0578345A-2B35-DB46-A252-75D624E5335A}"/>
+    <hyperlink ref="B147" r:id="rId140" xr:uid="{388231C5-C849-004F-9F48-34C271CF034D}"/>
+    <hyperlink ref="B153" r:id="rId141" xr:uid="{98312511-DDA4-2D4B-A18F-0B6277CCE160}"/>
+    <hyperlink ref="B156" r:id="rId142" xr:uid="{9080FF6E-E32B-E346-9769-672E744AD1D3}"/>
+    <hyperlink ref="B157" r:id="rId143" xr:uid="{F06E1BB0-4C0A-A84A-A70F-1043B59098D7}"/>
+    <hyperlink ref="B162" r:id="rId144" xr:uid="{010AA221-1F56-BB49-B837-372725EB4330}"/>
+    <hyperlink ref="B166" r:id="rId145" xr:uid="{1E55B930-A384-3D47-8670-2F9757ACB2DB}"/>
+    <hyperlink ref="B155" r:id="rId146" xr:uid="{F05CFACE-9B72-6F4B-BFAA-7E923DC83332}"/>
+    <hyperlink ref="B150" r:id="rId147" xr:uid="{A7254027-5889-4548-9B4B-9A026B12D462}"/>
+    <hyperlink ref="B163" r:id="rId148" xr:uid="{34266ABF-78A0-0249-BF51-8E8E9B5C7251}"/>
+    <hyperlink ref="B158" r:id="rId149" xr:uid="{BFB314DB-A998-3646-B9D1-5669ECA7EC9E}"/>
+    <hyperlink ref="B161" r:id="rId150" xr:uid="{0CCC0DF9-29BA-C146-B5E0-FB0FE661B9E4}"/>
+    <hyperlink ref="B15" r:id="rId151" xr:uid="{2FF62FFA-848A-A645-AB49-FC1892DE3512}"/>
+    <hyperlink ref="B25" r:id="rId152" xr:uid="{1C220587-F46D-3349-8188-A608FFA78C9A}"/>
+    <hyperlink ref="B154" r:id="rId153" xr:uid="{B9B4CD15-627B-9A48-812C-4ED02D7E87C3}"/>
+    <hyperlink ref="B152" r:id="rId154" xr:uid="{590B5CF1-A8C0-034A-B17A-385DBDBD5428}"/>
+    <hyperlink ref="B149" r:id="rId155" xr:uid="{E2B8EED8-4993-9E4B-A074-D76848FEEE76}"/>
+    <hyperlink ref="B160" r:id="rId156" xr:uid="{5CE9128D-E20D-4D4A-9995-9B8805498EC4}"/>
+    <hyperlink ref="B165" r:id="rId157" xr:uid="{CE99D6B7-630A-0B42-95F4-67DA02F8B862}"/>
+    <hyperlink ref="B167" r:id="rId158" xr:uid="{6F1EF0D9-D9FA-9947-A58F-67AE523C5636}"/>
+    <hyperlink ref="B164" r:id="rId159" xr:uid="{60B461CC-202F-4645-A6EE-84DD7A4E20A4}"/>
+    <hyperlink ref="B148" r:id="rId160" xr:uid="{4E82F5F7-B059-6F46-A45C-139D7CA42EB6}"/>
+    <hyperlink ref="B48" r:id="rId161" xr:uid="{D6B66670-B6C0-6C43-98C5-8D0F470708B9}"/>
+    <hyperlink ref="B61" r:id="rId162" xr:uid="{822BD45A-CF86-0841-A114-292B33F8DEA2}"/>
+    <hyperlink ref="B58" r:id="rId163" xr:uid="{4515DFC6-A7A3-1644-AB12-4F6210C92028}"/>
+    <hyperlink ref="B59" r:id="rId164" xr:uid="{A0E4E9C4-5C98-4044-9311-9DFDCBFE9BCD}"/>
+    <hyperlink ref="B151" r:id="rId165" xr:uid="{7CA3AACC-A3E8-5443-BA17-4E3CE8D05980}"/>
+    <hyperlink ref="B159" r:id="rId166" xr:uid="{24363297-2BAB-CC45-B447-B54BF7CF991A}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <legacyDrawing r:id="rId167"/>
@@ -4346,40 +4346,40 @@
     </row>
     <row r="2" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68830AAB-DB83-6647-B8E3-344966897F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEAD719-53B7-6048-AFAB-82148ED003EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="532">
   <si>
     <t>Doutorado</t>
   </si>
@@ -1664,6 +1664,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/133wwfR0j4KY-vC697zS9iU4kkDn3BerB</t>
+  </si>
+  <si>
+    <t>10.1186/s40945-023-00171-8</t>
+  </si>
+  <si>
+    <t>Bittencourt, J.V., Leivas, E.G., de Sá Ferreira, A. et al. Does the painDETECT questionnaire identify impaired conditioned pain modulation in people with musculoskeletal pain? – a diagnostic accuracy study. Arch Physiother 13, 17 (2023). https://doi.org/10.1186/s40945-023-00171-8</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1V4BNd6thMop8XnVxvOZkQxwSN7ZJz5T0</t>
   </si>
 </sst>
 </file>
@@ -2283,13 +2292,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C167"/>
+  <dimension ref="A1:C168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B164" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B165" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A167" sqref="A167"/>
+      <selection pane="bottomRight" activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2487,7 +2496,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>65</v>
       </c>
@@ -2520,7 +2529,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>86</v>
       </c>
@@ -2652,7 +2661,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>107</v>
       </c>
@@ -3950,190 +3959,201 @@
         <v>469</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A151" s="9" t="s">
+    <row r="151" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A151" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="C151" s="22" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A152" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B152" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="C152" s="9" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A152" s="6" t="s">
+    <row r="153" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A153" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B153" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="C153" s="6" t="s">
         <v>486</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A153" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A155" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B155" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="C154" s="6" t="s">
+      <c r="C155" s="6" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A155" s="6" t="s">
+    <row r="156" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A156" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="B156" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C156" s="6" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A156" s="6" t="s">
+    <row r="157" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A157" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B157" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="C157" s="6" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A157" s="6" t="s">
+    <row r="158" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A158" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B158" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C158" s="6" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A158" s="6" t="s">
+    <row r="159" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A159" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="B159" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C159" s="6" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A159" s="22" t="s">
+    <row r="160" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A160" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B160" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="C159" s="22" t="s">
+      <c r="C160" s="6" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A160" s="6" t="s">
+    <row r="161" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A161" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B161" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="C161" s="6" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A161" s="6" t="s">
+    <row r="162" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A162" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="B161" s="7" t="s">
+      <c r="B162" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="C162" s="6" t="s">
         <v>476</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A162" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A164" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="B163" s="11" t="s">
+      <c r="B164" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="C163" s="6" t="s">
+      <c r="C164" s="6" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A164" s="9" t="s">
+    <row r="165" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A165" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="B165" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="C164" s="9" t="s">
+      <c r="C165" s="9" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A165" s="6" t="s">
+    <row r="166" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A166" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="B165" s="11" t="s">
+      <c r="B166" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="C166" s="6" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A166" s="6" t="s">
+    <row r="167" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A167" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B166" s="7" t="s">
+      <c r="B167" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="C166" s="6" t="s">
+      <c r="C167" s="6" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="120" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="16" t="s">
+    <row r="168" spans="1:3" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="B167" s="21" t="s">
+      <c r="B168" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="C167" s="16" t="s">
+      <c r="C168" s="16" t="s">
         <v>440</v>
       </c>
     </row>
@@ -4282,35 +4302,36 @@
     <hyperlink ref="B145" r:id="rId138" xr:uid="{B42F2141-A47F-C546-80CF-6A6E21568B28}"/>
     <hyperlink ref="B146" r:id="rId139" xr:uid="{0578345A-2B35-DB46-A252-75D624E5335A}"/>
     <hyperlink ref="B147" r:id="rId140" xr:uid="{388231C5-C849-004F-9F48-34C271CF034D}"/>
-    <hyperlink ref="B153" r:id="rId141" xr:uid="{98312511-DDA4-2D4B-A18F-0B6277CCE160}"/>
-    <hyperlink ref="B156" r:id="rId142" xr:uid="{9080FF6E-E32B-E346-9769-672E744AD1D3}"/>
-    <hyperlink ref="B157" r:id="rId143" xr:uid="{F06E1BB0-4C0A-A84A-A70F-1043B59098D7}"/>
-    <hyperlink ref="B162" r:id="rId144" xr:uid="{010AA221-1F56-BB49-B837-372725EB4330}"/>
-    <hyperlink ref="B166" r:id="rId145" xr:uid="{1E55B930-A384-3D47-8670-2F9757ACB2DB}"/>
-    <hyperlink ref="B155" r:id="rId146" xr:uid="{F05CFACE-9B72-6F4B-BFAA-7E923DC83332}"/>
+    <hyperlink ref="B154" r:id="rId141" xr:uid="{98312511-DDA4-2D4B-A18F-0B6277CCE160}"/>
+    <hyperlink ref="B157" r:id="rId142" xr:uid="{9080FF6E-E32B-E346-9769-672E744AD1D3}"/>
+    <hyperlink ref="B158" r:id="rId143" xr:uid="{F06E1BB0-4C0A-A84A-A70F-1043B59098D7}"/>
+    <hyperlink ref="B163" r:id="rId144" xr:uid="{010AA221-1F56-BB49-B837-372725EB4330}"/>
+    <hyperlink ref="B167" r:id="rId145" xr:uid="{1E55B930-A384-3D47-8670-2F9757ACB2DB}"/>
+    <hyperlink ref="B156" r:id="rId146" xr:uid="{F05CFACE-9B72-6F4B-BFAA-7E923DC83332}"/>
     <hyperlink ref="B150" r:id="rId147" xr:uid="{A7254027-5889-4548-9B4B-9A026B12D462}"/>
-    <hyperlink ref="B163" r:id="rId148" xr:uid="{34266ABF-78A0-0249-BF51-8E8E9B5C7251}"/>
-    <hyperlink ref="B158" r:id="rId149" xr:uid="{BFB314DB-A998-3646-B9D1-5669ECA7EC9E}"/>
-    <hyperlink ref="B161" r:id="rId150" xr:uid="{0CCC0DF9-29BA-C146-B5E0-FB0FE661B9E4}"/>
+    <hyperlink ref="B164" r:id="rId148" xr:uid="{34266ABF-78A0-0249-BF51-8E8E9B5C7251}"/>
+    <hyperlink ref="B159" r:id="rId149" xr:uid="{BFB314DB-A998-3646-B9D1-5669ECA7EC9E}"/>
+    <hyperlink ref="B162" r:id="rId150" xr:uid="{0CCC0DF9-29BA-C146-B5E0-FB0FE661B9E4}"/>
     <hyperlink ref="B15" r:id="rId151" xr:uid="{2FF62FFA-848A-A645-AB49-FC1892DE3512}"/>
     <hyperlink ref="B25" r:id="rId152" xr:uid="{1C220587-F46D-3349-8188-A608FFA78C9A}"/>
-    <hyperlink ref="B154" r:id="rId153" xr:uid="{B9B4CD15-627B-9A48-812C-4ED02D7E87C3}"/>
-    <hyperlink ref="B152" r:id="rId154" xr:uid="{590B5CF1-A8C0-034A-B17A-385DBDBD5428}"/>
+    <hyperlink ref="B155" r:id="rId153" xr:uid="{B9B4CD15-627B-9A48-812C-4ED02D7E87C3}"/>
+    <hyperlink ref="B153" r:id="rId154" xr:uid="{590B5CF1-A8C0-034A-B17A-385DBDBD5428}"/>
     <hyperlink ref="B149" r:id="rId155" xr:uid="{E2B8EED8-4993-9E4B-A074-D76848FEEE76}"/>
-    <hyperlink ref="B160" r:id="rId156" xr:uid="{5CE9128D-E20D-4D4A-9995-9B8805498EC4}"/>
-    <hyperlink ref="B165" r:id="rId157" xr:uid="{CE99D6B7-630A-0B42-95F4-67DA02F8B862}"/>
-    <hyperlink ref="B167" r:id="rId158" xr:uid="{6F1EF0D9-D9FA-9947-A58F-67AE523C5636}"/>
-    <hyperlink ref="B164" r:id="rId159" xr:uid="{60B461CC-202F-4645-A6EE-84DD7A4E20A4}"/>
+    <hyperlink ref="B161" r:id="rId156" xr:uid="{5CE9128D-E20D-4D4A-9995-9B8805498EC4}"/>
+    <hyperlink ref="B166" r:id="rId157" xr:uid="{CE99D6B7-630A-0B42-95F4-67DA02F8B862}"/>
+    <hyperlink ref="B168" r:id="rId158" xr:uid="{6F1EF0D9-D9FA-9947-A58F-67AE523C5636}"/>
+    <hyperlink ref="B165" r:id="rId159" xr:uid="{60B461CC-202F-4645-A6EE-84DD7A4E20A4}"/>
     <hyperlink ref="B148" r:id="rId160" xr:uid="{4E82F5F7-B059-6F46-A45C-139D7CA42EB6}"/>
     <hyperlink ref="B48" r:id="rId161" xr:uid="{D6B66670-B6C0-6C43-98C5-8D0F470708B9}"/>
     <hyperlink ref="B61" r:id="rId162" xr:uid="{822BD45A-CF86-0841-A114-292B33F8DEA2}"/>
     <hyperlink ref="B58" r:id="rId163" xr:uid="{4515DFC6-A7A3-1644-AB12-4F6210C92028}"/>
     <hyperlink ref="B59" r:id="rId164" xr:uid="{A0E4E9C4-5C98-4044-9311-9DFDCBFE9BCD}"/>
-    <hyperlink ref="B151" r:id="rId165" xr:uid="{7CA3AACC-A3E8-5443-BA17-4E3CE8D05980}"/>
-    <hyperlink ref="B159" r:id="rId166" xr:uid="{24363297-2BAB-CC45-B447-B54BF7CF991A}"/>
+    <hyperlink ref="B152" r:id="rId165" xr:uid="{7CA3AACC-A3E8-5443-BA17-4E3CE8D05980}"/>
+    <hyperlink ref="B160" r:id="rId166" xr:uid="{24363297-2BAB-CC45-B447-B54BF7CF991A}"/>
+    <hyperlink ref="B151" r:id="rId167" xr:uid="{15F415A6-384B-374D-9390-278B58297F25}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId167"/>
+  <legacyDrawing r:id="rId168"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEAD719-53B7-6048-AFAB-82148ED003EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014A979B-3A3D-FE46-8483-E5C139739E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -1651,9 +1651,6 @@
     <t>10.1097/JOM.0000000000002918</t>
   </si>
   <si>
-    <t>Casagrande, C. M. Z., Farias, J. P., de Mello Meziat Filho, N. A., Nogueira, L. A. C., &amp; de Sá Ferreira, A. (2023). Better work ability is associated with lower levels of both occupational stress and occupational physical activity in professional drivers: A cross-sectional study. In Journal of Occupational &amp;amp; Environmental Medicine. Ovid Technologies (Wolters Kluwer Health). https://doi.org/10.1097/jom.0000000000002918</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/12cUsM61XR4GP2HIBwKpNOn5nm-swuMQs</t>
   </si>
   <si>
@@ -1673,6 +1670,10 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1V4BNd6thMop8XnVxvOZkQxwSN7ZJz5T0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casagrande, Cynthia Mara Zilli PhD; Farias, Jean Paulo PhD; Meziat-Filho, Ney PhD; Nogueira, Leandro Alberto Calazans PhD; Ferreira, Arthur Sá PhD. Better Work Ability Is Associated With Lower Levels of Both Occupational Stress and Occupational Physical Activity in Professional Drivers: A Cross-sectional Study. Journal of Occupational and Environmental Medicine 65(10):p 846-852, October 2023. | DOI: 10.1097/JOM.0000000000002918
+ </t>
   </si>
 </sst>
 </file>
@@ -2496,7 +2497,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>65</v>
       </c>
@@ -2529,7 +2530,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>86</v>
       </c>
@@ -2661,7 +2662,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>107</v>
       </c>
@@ -3960,24 +3961,24 @@
       </c>
     </row>
     <row r="151" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A151" s="22" t="s">
+      <c r="A151" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="B151" s="11" t="s">
         <v>530</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="C151" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+      <c r="A152" s="22" t="s">
         <v>531</v>
       </c>
-      <c r="C151" s="22" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A152" s="9" t="s">
+      <c r="B152" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="B152" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="C152" s="9" t="s">
+      <c r="C152" s="22" t="s">
         <v>523</v>
       </c>
     </row>
@@ -4005,7 +4006,7 @@
     </row>
     <row r="155" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B155" s="11" t="s">
         <v>485</v>
@@ -4060,10 +4061,10 @@
     </row>
     <row r="160" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B160" s="11" t="s">
         <v>527</v>
-      </c>
-      <c r="B160" s="11" t="s">
-        <v>528</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>415</v>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014A979B-3A3D-FE46-8483-E5C139739E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D356085B-8F53-EB41-B1DC-D95C23236AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="27600" windowHeight="17140" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
   <sheets>
     <sheet name="curriculo" sheetId="2" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="534">
   <si>
     <t>Doutorado</t>
   </si>
@@ -1594,9 +1594,6 @@
     <t>10.1002/pri.2028</t>
   </si>
   <si>
-    <t>Rafagnin, C. Z., Ferreira, A. d. S., Telles, G. F., Lemos de Carvalho, T., Alexandre, D. J. d. A., &amp; Nogueira, L. A. C. (2023). Anterior component of Y-Balance test is correlated to ankle dorsiflexion range of motion in futsal players: A cross-sectional study. Physiotherapy Research International, e2028. https://doi.org/10.1002/pri.2028</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/12YFd7RRjZeiBhgc1rjXBxEdb9Uw7LLBT</t>
   </si>
   <si>
@@ -1674,6 +1671,15 @@
   <si>
     <t xml:space="preserve">Casagrande, Cynthia Mara Zilli PhD; Farias, Jean Paulo PhD; Meziat-Filho, Ney PhD; Nogueira, Leandro Alberto Calazans PhD; Ferreira, Arthur Sá PhD. Better Work Ability Is Associated With Lower Levels of Both Occupational Stress and Occupational Physical Activity in Professional Drivers: A Cross-sectional Study. Journal of Occupational and Environmental Medicine 65(10):p 846-852, October 2023. | DOI: 10.1097/JOM.0000000000002918
  </t>
+  </si>
+  <si>
+    <t>Rafagnin, C. Z., Ferreira, A. d. S., Telles, G. F., Lemos de Carvalho, T., Alexandre, D. J. d. A., &amp; Nogueira, L. A. C. (2023). Anterior component of Y-Balance test is correlated to ankle dorsiflexion range of motion in futsal players: A cross-sectional study. Physiotherapy Research International, 28(4), e2028. https://doi.org/10.1002/pri.2028</t>
+  </si>
+  <si>
+    <t>10.3389/fresc.2023.1186499</t>
+  </si>
+  <si>
+    <t>Bezerra neto. HOSPITAL ADMISSION IS ASSOCIATED WITH DISABILITY AND LATE MUSCULOSKELETAL PAIN IN INDIVIDUALS WITH LONG COVID. Front. Rehabil. Sci. Sec. Pulmonary Rehabilitation, Volume 4 - 2023 | doi: 10.3389/fresc.2023.1186499</t>
   </si>
 </sst>
 </file>
@@ -1766,7 +1772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1829,9 +1835,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2184,7 +2187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AFE2F4-32B3-5A4F-B0D3-5766AC05F50D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2293,13 +2296,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C168"/>
+  <dimension ref="A1:C169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B165" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B166" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A168" sqref="A168"/>
+      <selection pane="bottomRight" activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2829,13 +2832,13 @@
     </row>
     <row r="48" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>511</v>
-      </c>
       <c r="C48" s="18" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="136" x14ac:dyDescent="0.2">
@@ -2950,13 +2953,13 @@
     </row>
     <row r="59" spans="1:3" ht="103" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="B59" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="B59" s="17" t="s">
-        <v>521</v>
-      </c>
       <c r="C59" s="20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -2972,13 +2975,13 @@
     </row>
     <row r="61" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>514</v>
-      </c>
       <c r="C61" s="18" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="136" x14ac:dyDescent="0.2">
@@ -3280,7 +3283,7 @@
     </row>
     <row r="89" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>267</v>
@@ -3632,7 +3635,7 @@
     </row>
     <row r="121" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>362</v>
@@ -3654,7 +3657,7 @@
     </row>
     <row r="123" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>367</v>
@@ -3698,7 +3701,7 @@
     </row>
     <row r="127" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>378</v>
@@ -3929,13 +3932,13 @@
     </row>
     <row r="148" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B148" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="C148" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -3949,212 +3952,221 @@
         <v>490</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="B150" s="10"/>
+      <c r="C150" s="9" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A151" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="B150" s="10" t="s">
+      <c r="B151" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="C150" s="9" t="s">
+      <c r="C151" s="9" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A151" s="6" t="s">
+    <row r="152" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A152" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="B152" s="11" t="s">
         <v>529</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="C152" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+      <c r="A153" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="C151" s="6" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="187" x14ac:dyDescent="0.2">
-      <c r="A152" s="22" t="s">
-        <v>531</v>
-      </c>
-      <c r="B152" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="C152" s="22" t="s">
+      <c r="B153" s="11" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A153" s="6" t="s">
+      <c r="C153" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A154" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B154" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="C154" s="6" t="s">
         <v>486</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A154" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="B155" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A156" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="B156" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C156" s="6" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A156" s="6" t="s">
+    <row r="157" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A157" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="B157" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="C157" s="6" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A157" s="6" t="s">
+    <row r="158" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A158" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B158" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C158" s="6" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A158" s="6" t="s">
+    <row r="159" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A159" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B159" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C159" s="6" t="s">
         <v>447</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A159" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A161" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B161" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="B160" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="C160" s="6" t="s">
+      <c r="C161" s="6" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A161" s="6" t="s">
+    <row r="162" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A162" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="B162" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="C162" s="6" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A162" s="6" t="s">
+    <row r="163" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A163" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="B163" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="C162" s="6" t="s">
+      <c r="C163" s="6" t="s">
         <v>476</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A163" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A165" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="B164" s="11" t="s">
+      <c r="B165" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="C165" s="6" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A165" s="9" t="s">
+    <row r="166" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A166" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B166" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="B165" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="C165" s="9" t="s">
+      <c r="C166" s="6" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A166" s="6" t="s">
+    <row r="167" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A167" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="B166" s="11" t="s">
+      <c r="B167" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="C166" s="6" t="s">
+      <c r="C167" s="6" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A167" s="6" t="s">
+    <row r="168" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A168" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B167" s="7" t="s">
+      <c r="B168" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="C168" s="6" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="120" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="16" t="s">
+    <row r="169" spans="1:3" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="B168" s="21" t="s">
+      <c r="B169" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="C168" s="16" t="s">
+      <c r="C169" s="16" t="s">
         <v>440</v>
       </c>
     </row>
@@ -4303,33 +4315,33 @@
     <hyperlink ref="B145" r:id="rId138" xr:uid="{B42F2141-A47F-C546-80CF-6A6E21568B28}"/>
     <hyperlink ref="B146" r:id="rId139" xr:uid="{0578345A-2B35-DB46-A252-75D624E5335A}"/>
     <hyperlink ref="B147" r:id="rId140" xr:uid="{388231C5-C849-004F-9F48-34C271CF034D}"/>
-    <hyperlink ref="B154" r:id="rId141" xr:uid="{98312511-DDA4-2D4B-A18F-0B6277CCE160}"/>
-    <hyperlink ref="B157" r:id="rId142" xr:uid="{9080FF6E-E32B-E346-9769-672E744AD1D3}"/>
-    <hyperlink ref="B158" r:id="rId143" xr:uid="{F06E1BB0-4C0A-A84A-A70F-1043B59098D7}"/>
-    <hyperlink ref="B163" r:id="rId144" xr:uid="{010AA221-1F56-BB49-B837-372725EB4330}"/>
-    <hyperlink ref="B167" r:id="rId145" xr:uid="{1E55B930-A384-3D47-8670-2F9757ACB2DB}"/>
-    <hyperlink ref="B156" r:id="rId146" xr:uid="{F05CFACE-9B72-6F4B-BFAA-7E923DC83332}"/>
-    <hyperlink ref="B150" r:id="rId147" xr:uid="{A7254027-5889-4548-9B4B-9A026B12D462}"/>
-    <hyperlink ref="B164" r:id="rId148" xr:uid="{34266ABF-78A0-0249-BF51-8E8E9B5C7251}"/>
-    <hyperlink ref="B159" r:id="rId149" xr:uid="{BFB314DB-A998-3646-B9D1-5669ECA7EC9E}"/>
-    <hyperlink ref="B162" r:id="rId150" xr:uid="{0CCC0DF9-29BA-C146-B5E0-FB0FE661B9E4}"/>
+    <hyperlink ref="B155" r:id="rId141" xr:uid="{98312511-DDA4-2D4B-A18F-0B6277CCE160}"/>
+    <hyperlink ref="B158" r:id="rId142" xr:uid="{9080FF6E-E32B-E346-9769-672E744AD1D3}"/>
+    <hyperlink ref="B159" r:id="rId143" xr:uid="{F06E1BB0-4C0A-A84A-A70F-1043B59098D7}"/>
+    <hyperlink ref="B164" r:id="rId144" xr:uid="{010AA221-1F56-BB49-B837-372725EB4330}"/>
+    <hyperlink ref="B168" r:id="rId145" xr:uid="{1E55B930-A384-3D47-8670-2F9757ACB2DB}"/>
+    <hyperlink ref="B157" r:id="rId146" xr:uid="{F05CFACE-9B72-6F4B-BFAA-7E923DC83332}"/>
+    <hyperlink ref="B151" r:id="rId147" xr:uid="{A7254027-5889-4548-9B4B-9A026B12D462}"/>
+    <hyperlink ref="B165" r:id="rId148" xr:uid="{34266ABF-78A0-0249-BF51-8E8E9B5C7251}"/>
+    <hyperlink ref="B160" r:id="rId149" xr:uid="{BFB314DB-A998-3646-B9D1-5669ECA7EC9E}"/>
+    <hyperlink ref="B163" r:id="rId150" xr:uid="{0CCC0DF9-29BA-C146-B5E0-FB0FE661B9E4}"/>
     <hyperlink ref="B15" r:id="rId151" xr:uid="{2FF62FFA-848A-A645-AB49-FC1892DE3512}"/>
     <hyperlink ref="B25" r:id="rId152" xr:uid="{1C220587-F46D-3349-8188-A608FFA78C9A}"/>
-    <hyperlink ref="B155" r:id="rId153" xr:uid="{B9B4CD15-627B-9A48-812C-4ED02D7E87C3}"/>
-    <hyperlink ref="B153" r:id="rId154" xr:uid="{590B5CF1-A8C0-034A-B17A-385DBDBD5428}"/>
+    <hyperlink ref="B156" r:id="rId153" xr:uid="{B9B4CD15-627B-9A48-812C-4ED02D7E87C3}"/>
+    <hyperlink ref="B154" r:id="rId154" xr:uid="{590B5CF1-A8C0-034A-B17A-385DBDBD5428}"/>
     <hyperlink ref="B149" r:id="rId155" xr:uid="{E2B8EED8-4993-9E4B-A074-D76848FEEE76}"/>
-    <hyperlink ref="B161" r:id="rId156" xr:uid="{5CE9128D-E20D-4D4A-9995-9B8805498EC4}"/>
-    <hyperlink ref="B166" r:id="rId157" xr:uid="{CE99D6B7-630A-0B42-95F4-67DA02F8B862}"/>
-    <hyperlink ref="B168" r:id="rId158" xr:uid="{6F1EF0D9-D9FA-9947-A58F-67AE523C5636}"/>
-    <hyperlink ref="B165" r:id="rId159" xr:uid="{60B461CC-202F-4645-A6EE-84DD7A4E20A4}"/>
+    <hyperlink ref="B162" r:id="rId156" xr:uid="{5CE9128D-E20D-4D4A-9995-9B8805498EC4}"/>
+    <hyperlink ref="B167" r:id="rId157" xr:uid="{CE99D6B7-630A-0B42-95F4-67DA02F8B862}"/>
+    <hyperlink ref="B169" r:id="rId158" xr:uid="{6F1EF0D9-D9FA-9947-A58F-67AE523C5636}"/>
+    <hyperlink ref="B166" r:id="rId159" xr:uid="{60B461CC-202F-4645-A6EE-84DD7A4E20A4}"/>
     <hyperlink ref="B148" r:id="rId160" xr:uid="{4E82F5F7-B059-6F46-A45C-139D7CA42EB6}"/>
     <hyperlink ref="B48" r:id="rId161" xr:uid="{D6B66670-B6C0-6C43-98C5-8D0F470708B9}"/>
     <hyperlink ref="B61" r:id="rId162" xr:uid="{822BD45A-CF86-0841-A114-292B33F8DEA2}"/>
     <hyperlink ref="B58" r:id="rId163" xr:uid="{4515DFC6-A7A3-1644-AB12-4F6210C92028}"/>
     <hyperlink ref="B59" r:id="rId164" xr:uid="{A0E4E9C4-5C98-4044-9311-9DFDCBFE9BCD}"/>
-    <hyperlink ref="B152" r:id="rId165" xr:uid="{7CA3AACC-A3E8-5443-BA17-4E3CE8D05980}"/>
-    <hyperlink ref="B160" r:id="rId166" xr:uid="{24363297-2BAB-CC45-B447-B54BF7CF991A}"/>
-    <hyperlink ref="B151" r:id="rId167" xr:uid="{15F415A6-384B-374D-9390-278B58297F25}"/>
+    <hyperlink ref="B153" r:id="rId165" xr:uid="{7CA3AACC-A3E8-5443-BA17-4E3CE8D05980}"/>
+    <hyperlink ref="B161" r:id="rId166" xr:uid="{24363297-2BAB-CC45-B447-B54BF7CF991A}"/>
+    <hyperlink ref="B152" r:id="rId167" xr:uid="{15F415A6-384B-374D-9390-278B58297F25}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <legacyDrawing r:id="rId168"/>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/Consultoria-Ciencia-com-R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D356085B-8F53-EB41-B1DC-D95C23236AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED6DAFA-7152-F146-B851-6B948ABE263C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="27600" windowHeight="17140" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
   <sheets>
     <sheet name="curriculo" sheetId="2" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="540">
   <si>
     <t>Doutorado</t>
   </si>
@@ -1680,6 +1680,24 @@
   </si>
   <si>
     <t>Bezerra neto. HOSPITAL ADMISSION IS ASSOCIATED WITH DISABILITY AND LATE MUSCULOSKELETAL PAIN IN INDIVIDUALS WITH LONG COVID. Front. Rehabil. Sci. Sec. Pulmonary Rehabilitation, Volume 4 - 2023 | doi: 10.3389/fresc.2023.1186499</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2023.100553</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Z9xqA31e-AEhAaoFVONtMg3haTJg95vz</t>
+  </si>
+  <si>
+    <t>Custódio, L. A., Marques, Y. A., de Toledo, A. M., de Sá Ferreira, A., van Tulder, M., da Silva, E. N., &amp; Carregaro, R. L. (2023). The care pathway of individuals with spinal disorders in a Health Care Network in the Federal District, Brazil: a retrospective study. In Brazilian Journal of Physical Therapy (p. 100553). Elsevier BV. https://doi.org/10.1016/j.bjpt.2023.100553</t>
+  </si>
+  <si>
+    <t>10.1080/15412555.2023.2253907</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZEbVz7QaUz6Ctb-iuzxjJrUkGyUSSfeD</t>
+  </si>
+  <si>
+    <t>Vanessa Joaquim Ribeiro Moço, Aline Almeida Gulart, Agnaldo José Lopes, Arthur de Sá Ferreira &amp; Luis Felipe da Fonseca Reis (2023) Minimal-Resource Home Exercise Program Improves Activities of Daily Living, Perceived Health Status, and Shortness of Breath in Individuals with COPD Stages GOLD II to IV, COPD: Journal of Chronic Obstructive Pulmonary Disease, 20:1, 298-306, DOI: 10.1080/15412555.2023.2253907</t>
   </si>
 </sst>
 </file>
@@ -2187,7 +2205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AFE2F4-32B3-5A4F-B0D3-5766AC05F50D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2296,13 +2314,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C169"/>
+  <dimension ref="A1:C171"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B166" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B168" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A169" sqref="A169"/>
+      <selection pane="bottomRight" activeCell="A171" sqref="A171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4016,157 +4034,179 @@
         <v>441</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A157" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="B157" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="C157" s="6" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A157" s="6" t="s">
+    <row r="158" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A158" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="B158" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C158" s="6" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A158" s="6" t="s">
+    <row r="159" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A159" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B159" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C159" s="6" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A159" s="6" t="s">
+    <row r="160" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A160" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B160" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C160" s="6" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A160" s="6" t="s">
+    <row r="161" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A161" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A162" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B162" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="C162" s="6" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A161" s="6" t="s">
+    <row r="163" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A163" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="B163" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="C163" s="6" t="s">
         <v>415</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A162" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B162" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A163" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A165" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A166" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="B166" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="C166" s="6" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A165" s="6" t="s">
+    <row r="167" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A167" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="B165" s="11" t="s">
+      <c r="B167" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="C167" s="6" t="s">
         <v>471</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A166" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="B166" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A167" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="B167" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A169" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A170" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B170" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="C170" s="6" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="120" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="16" t="s">
+    <row r="171" spans="1:3" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="B169" s="21" t="s">
+      <c r="B171" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="C169" s="16" t="s">
+      <c r="C171" s="16" t="s">
         <v>440</v>
       </c>
     </row>
@@ -4316,35 +4356,37 @@
     <hyperlink ref="B146" r:id="rId139" xr:uid="{0578345A-2B35-DB46-A252-75D624E5335A}"/>
     <hyperlink ref="B147" r:id="rId140" xr:uid="{388231C5-C849-004F-9F48-34C271CF034D}"/>
     <hyperlink ref="B155" r:id="rId141" xr:uid="{98312511-DDA4-2D4B-A18F-0B6277CCE160}"/>
-    <hyperlink ref="B158" r:id="rId142" xr:uid="{9080FF6E-E32B-E346-9769-672E744AD1D3}"/>
-    <hyperlink ref="B159" r:id="rId143" xr:uid="{F06E1BB0-4C0A-A84A-A70F-1043B59098D7}"/>
-    <hyperlink ref="B164" r:id="rId144" xr:uid="{010AA221-1F56-BB49-B837-372725EB4330}"/>
-    <hyperlink ref="B168" r:id="rId145" xr:uid="{1E55B930-A384-3D47-8670-2F9757ACB2DB}"/>
-    <hyperlink ref="B157" r:id="rId146" xr:uid="{F05CFACE-9B72-6F4B-BFAA-7E923DC83332}"/>
+    <hyperlink ref="B159" r:id="rId142" xr:uid="{9080FF6E-E32B-E346-9769-672E744AD1D3}"/>
+    <hyperlink ref="B160" r:id="rId143" xr:uid="{F06E1BB0-4C0A-A84A-A70F-1043B59098D7}"/>
+    <hyperlink ref="B166" r:id="rId144" xr:uid="{010AA221-1F56-BB49-B837-372725EB4330}"/>
+    <hyperlink ref="B170" r:id="rId145" xr:uid="{1E55B930-A384-3D47-8670-2F9757ACB2DB}"/>
+    <hyperlink ref="B158" r:id="rId146" xr:uid="{F05CFACE-9B72-6F4B-BFAA-7E923DC83332}"/>
     <hyperlink ref="B151" r:id="rId147" xr:uid="{A7254027-5889-4548-9B4B-9A026B12D462}"/>
-    <hyperlink ref="B165" r:id="rId148" xr:uid="{34266ABF-78A0-0249-BF51-8E8E9B5C7251}"/>
-    <hyperlink ref="B160" r:id="rId149" xr:uid="{BFB314DB-A998-3646-B9D1-5669ECA7EC9E}"/>
-    <hyperlink ref="B163" r:id="rId150" xr:uid="{0CCC0DF9-29BA-C146-B5E0-FB0FE661B9E4}"/>
+    <hyperlink ref="B167" r:id="rId148" xr:uid="{34266ABF-78A0-0249-BF51-8E8E9B5C7251}"/>
+    <hyperlink ref="B162" r:id="rId149" xr:uid="{BFB314DB-A998-3646-B9D1-5669ECA7EC9E}"/>
+    <hyperlink ref="B165" r:id="rId150" xr:uid="{0CCC0DF9-29BA-C146-B5E0-FB0FE661B9E4}"/>
     <hyperlink ref="B15" r:id="rId151" xr:uid="{2FF62FFA-848A-A645-AB49-FC1892DE3512}"/>
     <hyperlink ref="B25" r:id="rId152" xr:uid="{1C220587-F46D-3349-8188-A608FFA78C9A}"/>
-    <hyperlink ref="B156" r:id="rId153" xr:uid="{B9B4CD15-627B-9A48-812C-4ED02D7E87C3}"/>
+    <hyperlink ref="B157" r:id="rId153" xr:uid="{B9B4CD15-627B-9A48-812C-4ED02D7E87C3}"/>
     <hyperlink ref="B154" r:id="rId154" xr:uid="{590B5CF1-A8C0-034A-B17A-385DBDBD5428}"/>
     <hyperlink ref="B149" r:id="rId155" xr:uid="{E2B8EED8-4993-9E4B-A074-D76848FEEE76}"/>
-    <hyperlink ref="B162" r:id="rId156" xr:uid="{5CE9128D-E20D-4D4A-9995-9B8805498EC4}"/>
-    <hyperlink ref="B167" r:id="rId157" xr:uid="{CE99D6B7-630A-0B42-95F4-67DA02F8B862}"/>
-    <hyperlink ref="B169" r:id="rId158" xr:uid="{6F1EF0D9-D9FA-9947-A58F-67AE523C5636}"/>
-    <hyperlink ref="B166" r:id="rId159" xr:uid="{60B461CC-202F-4645-A6EE-84DD7A4E20A4}"/>
+    <hyperlink ref="B164" r:id="rId156" xr:uid="{5CE9128D-E20D-4D4A-9995-9B8805498EC4}"/>
+    <hyperlink ref="B169" r:id="rId157" xr:uid="{CE99D6B7-630A-0B42-95F4-67DA02F8B862}"/>
+    <hyperlink ref="B171" r:id="rId158" xr:uid="{6F1EF0D9-D9FA-9947-A58F-67AE523C5636}"/>
+    <hyperlink ref="B168" r:id="rId159" xr:uid="{60B461CC-202F-4645-A6EE-84DD7A4E20A4}"/>
     <hyperlink ref="B148" r:id="rId160" xr:uid="{4E82F5F7-B059-6F46-A45C-139D7CA42EB6}"/>
     <hyperlink ref="B48" r:id="rId161" xr:uid="{D6B66670-B6C0-6C43-98C5-8D0F470708B9}"/>
     <hyperlink ref="B61" r:id="rId162" xr:uid="{822BD45A-CF86-0841-A114-292B33F8DEA2}"/>
     <hyperlink ref="B58" r:id="rId163" xr:uid="{4515DFC6-A7A3-1644-AB12-4F6210C92028}"/>
     <hyperlink ref="B59" r:id="rId164" xr:uid="{A0E4E9C4-5C98-4044-9311-9DFDCBFE9BCD}"/>
     <hyperlink ref="B153" r:id="rId165" xr:uid="{7CA3AACC-A3E8-5443-BA17-4E3CE8D05980}"/>
-    <hyperlink ref="B161" r:id="rId166" xr:uid="{24363297-2BAB-CC45-B447-B54BF7CF991A}"/>
+    <hyperlink ref="B163" r:id="rId166" xr:uid="{24363297-2BAB-CC45-B447-B54BF7CF991A}"/>
     <hyperlink ref="B152" r:id="rId167" xr:uid="{15F415A6-384B-374D-9390-278B58297F25}"/>
+    <hyperlink ref="B156" r:id="rId168" xr:uid="{A836F43E-7BEF-9D42-A3B6-02508F69F61B}"/>
+    <hyperlink ref="B161" r:id="rId169" xr:uid="{3E0387C4-753B-084F-8B94-EAB77D64B5F5}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId168"/>
+  <legacyDrawing r:id="rId170"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/Consultoria-Ciencia-com-R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/Ciência com R Consultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED6DAFA-7152-F146-B851-6B948ABE263C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A4779D-1BD4-AE43-B97B-B8ACC3DA25FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="541">
   <si>
     <t>Doutorado</t>
   </si>
@@ -1679,9 +1679,6 @@
     <t>10.3389/fresc.2023.1186499</t>
   </si>
   <si>
-    <t>Bezerra neto. HOSPITAL ADMISSION IS ASSOCIATED WITH DISABILITY AND LATE MUSCULOSKELETAL PAIN IN INDIVIDUALS WITH LONG COVID. Front. Rehabil. Sci. Sec. Pulmonary Rehabilitation, Volume 4 - 2023 | doi: 10.3389/fresc.2023.1186499</t>
-  </si>
-  <si>
     <t>10.1016/j.bjpt.2023.100553</t>
   </si>
   <si>
@@ -1697,7 +1694,13 @@
     <t>https://drive.google.com/file/d/1ZEbVz7QaUz6Ctb-iuzxjJrUkGyUSSfeD</t>
   </si>
   <si>
-    <t>Vanessa Joaquim Ribeiro Moço, Aline Almeida Gulart, Agnaldo José Lopes, Arthur de Sá Ferreira &amp; Luis Felipe da Fonseca Reis (2023) Minimal-Resource Home Exercise Program Improves Activities of Daily Living, Perceived Health Status, and Shortness of Breath in Individuals with COPD Stages GOLD II to IV, COPD: Journal of Chronic Obstructive Pulmonary Disease, 20:1, 298-306, DOI: 10.1080/15412555.2023.2253907</t>
+    <t>Ribeiro Moço, V. J., Gulart, A. A., Lopes, A. J., de Sá Ferreira, A., &amp; da Fonseca Reis, L. F. (2023). Minimal-Resource Home Exercise Program Improves Activities of Daily Living, Perceived Health Status, and Shortness of Breath in Individuals with COPD Stages GOLD II to IV. In COPD: Journal of Chronic Obstructive Pulmonary Disease (Vol. 20, Issue 1, pp. 298–306). Informa UK Limited. https://doi.org/10.1080/15412555.2023.2253907</t>
+  </si>
+  <si>
+    <t>Neto RBD, Reis LFF, Ferreira AS, Alexandre DJA and Almeida RS (2023) Hospital admission is associated with disability and late musculoskeletal pain in individuals with long COVID. Front. Rehabil. Sci. 4:1186499. doi: 10.3389/fresc.2023.1186499</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/135IrDbHndMR9CPw7K_MVdXSXB27uw4K9</t>
   </si>
 </sst>
 </file>
@@ -3970,90 +3973,92 @@
         <v>490</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A151" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+      <c r="A152" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A153" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A154" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A155" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="C155" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="B150" s="10"/>
-      <c r="C150" s="9" t="s">
+    </row>
+    <row r="156" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A156" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A157" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="C157" s="6" t="s">
         <v>532</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A151" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A152" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="B152" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="187" x14ac:dyDescent="0.2">
-      <c r="A153" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="B153" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A154" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="B154" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A155" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A156" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A157" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="136" x14ac:dyDescent="0.2">
@@ -4089,15 +4094,15 @@
         <v>447</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="136" x14ac:dyDescent="0.2">
@@ -4355,20 +4360,20 @@
     <hyperlink ref="B145" r:id="rId138" xr:uid="{B42F2141-A47F-C546-80CF-6A6E21568B28}"/>
     <hyperlink ref="B146" r:id="rId139" xr:uid="{0578345A-2B35-DB46-A252-75D624E5335A}"/>
     <hyperlink ref="B147" r:id="rId140" xr:uid="{388231C5-C849-004F-9F48-34C271CF034D}"/>
-    <hyperlink ref="B155" r:id="rId141" xr:uid="{98312511-DDA4-2D4B-A18F-0B6277CCE160}"/>
+    <hyperlink ref="B154" r:id="rId141" xr:uid="{98312511-DDA4-2D4B-A18F-0B6277CCE160}"/>
     <hyperlink ref="B159" r:id="rId142" xr:uid="{9080FF6E-E32B-E346-9769-672E744AD1D3}"/>
     <hyperlink ref="B160" r:id="rId143" xr:uid="{F06E1BB0-4C0A-A84A-A70F-1043B59098D7}"/>
     <hyperlink ref="B166" r:id="rId144" xr:uid="{010AA221-1F56-BB49-B837-372725EB4330}"/>
     <hyperlink ref="B170" r:id="rId145" xr:uid="{1E55B930-A384-3D47-8670-2F9757ACB2DB}"/>
     <hyperlink ref="B158" r:id="rId146" xr:uid="{F05CFACE-9B72-6F4B-BFAA-7E923DC83332}"/>
-    <hyperlink ref="B151" r:id="rId147" xr:uid="{A7254027-5889-4548-9B4B-9A026B12D462}"/>
+    <hyperlink ref="B150" r:id="rId147" xr:uid="{A7254027-5889-4548-9B4B-9A026B12D462}"/>
     <hyperlink ref="B167" r:id="rId148" xr:uid="{34266ABF-78A0-0249-BF51-8E8E9B5C7251}"/>
     <hyperlink ref="B162" r:id="rId149" xr:uid="{BFB314DB-A998-3646-B9D1-5669ECA7EC9E}"/>
     <hyperlink ref="B165" r:id="rId150" xr:uid="{0CCC0DF9-29BA-C146-B5E0-FB0FE661B9E4}"/>
     <hyperlink ref="B15" r:id="rId151" xr:uid="{2FF62FFA-848A-A645-AB49-FC1892DE3512}"/>
     <hyperlink ref="B25" r:id="rId152" xr:uid="{1C220587-F46D-3349-8188-A608FFA78C9A}"/>
-    <hyperlink ref="B157" r:id="rId153" xr:uid="{B9B4CD15-627B-9A48-812C-4ED02D7E87C3}"/>
-    <hyperlink ref="B154" r:id="rId154" xr:uid="{590B5CF1-A8C0-034A-B17A-385DBDBD5428}"/>
+    <hyperlink ref="B156" r:id="rId153" xr:uid="{B9B4CD15-627B-9A48-812C-4ED02D7E87C3}"/>
+    <hyperlink ref="B153" r:id="rId154" xr:uid="{590B5CF1-A8C0-034A-B17A-385DBDBD5428}"/>
     <hyperlink ref="B149" r:id="rId155" xr:uid="{E2B8EED8-4993-9E4B-A074-D76848FEEE76}"/>
     <hyperlink ref="B164" r:id="rId156" xr:uid="{5CE9128D-E20D-4D4A-9995-9B8805498EC4}"/>
     <hyperlink ref="B169" r:id="rId157" xr:uid="{CE99D6B7-630A-0B42-95F4-67DA02F8B862}"/>
@@ -4379,14 +4384,15 @@
     <hyperlink ref="B61" r:id="rId162" xr:uid="{822BD45A-CF86-0841-A114-292B33F8DEA2}"/>
     <hyperlink ref="B58" r:id="rId163" xr:uid="{4515DFC6-A7A3-1644-AB12-4F6210C92028}"/>
     <hyperlink ref="B59" r:id="rId164" xr:uid="{A0E4E9C4-5C98-4044-9311-9DFDCBFE9BCD}"/>
-    <hyperlink ref="B153" r:id="rId165" xr:uid="{7CA3AACC-A3E8-5443-BA17-4E3CE8D05980}"/>
+    <hyperlink ref="B152" r:id="rId165" xr:uid="{7CA3AACC-A3E8-5443-BA17-4E3CE8D05980}"/>
     <hyperlink ref="B163" r:id="rId166" xr:uid="{24363297-2BAB-CC45-B447-B54BF7CF991A}"/>
-    <hyperlink ref="B152" r:id="rId167" xr:uid="{15F415A6-384B-374D-9390-278B58297F25}"/>
-    <hyperlink ref="B156" r:id="rId168" xr:uid="{A836F43E-7BEF-9D42-A3B6-02508F69F61B}"/>
+    <hyperlink ref="B151" r:id="rId167" xr:uid="{15F415A6-384B-374D-9390-278B58297F25}"/>
+    <hyperlink ref="B155" r:id="rId168" xr:uid="{A836F43E-7BEF-9D42-A3B6-02508F69F61B}"/>
     <hyperlink ref="B161" r:id="rId169" xr:uid="{3E0387C4-753B-084F-8B94-EAB77D64B5F5}"/>
+    <hyperlink ref="B157" r:id="rId170" xr:uid="{DCBD8E7E-15FD-E541-BF93-6B08A3B29FCB}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId170"/>
+  <legacyDrawing r:id="rId171"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/Ciência com R Consultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A4779D-1BD4-AE43-B97B-B8ACC3DA25FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBFC68E-0644-D44A-B257-C5BED24F6520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="544">
   <si>
     <t>Doutorado</t>
   </si>
@@ -1701,6 +1701,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/135IrDbHndMR9CPw7K_MVdXSXB27uw4K9</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2023.11.002</t>
+  </si>
+  <si>
+    <t>Vieira, J. E. de A., Ferreira, A. de S., Monnerat, L. B., Cal, M. S. da, Ghetti, A. T. A., Mafort, T. T., &amp; Lopes, A. J. (2024). Prediction models for physical function in COVID-19 survivors. In Journal of Bodywork and Movement Therapies (Vol. 37, pp. 70–75). Elsevier BV. https://doi.org/10.1016/j.jbmt.2023.11.002</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15LB7d-s3bpyEBDIFvuw4IDgMDMBGE1sW</t>
   </si>
 </sst>
 </file>
@@ -1793,7 +1802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1856,6 +1865,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2317,13 +2329,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C171"/>
+  <dimension ref="A1:C172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B168" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B169" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A171" sqref="A171"/>
+      <selection pane="bottomRight" activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4213,6 +4225,17 @@
       </c>
       <c r="C171" s="16" t="s">
         <v>440</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A172" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="C172" s="22" t="s">
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -4390,9 +4413,10 @@
     <hyperlink ref="B155" r:id="rId168" xr:uid="{A836F43E-7BEF-9D42-A3B6-02508F69F61B}"/>
     <hyperlink ref="B161" r:id="rId169" xr:uid="{3E0387C4-753B-084F-8B94-EAB77D64B5F5}"/>
     <hyperlink ref="B157" r:id="rId170" xr:uid="{DCBD8E7E-15FD-E541-BF93-6B08A3B29FCB}"/>
+    <hyperlink ref="B172" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId171"/>
+  <legacyDrawing r:id="rId172"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/Ciência com R Consultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBFC68E-0644-D44A-B257-C5BED24F6520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2A1217-59CA-784C-810B-4EFDEA15AA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="547">
   <si>
     <t>Doutorado</t>
   </si>
@@ -1710,6 +1710,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/15LB7d-s3bpyEBDIFvuw4IDgMDMBGE1sW</t>
+  </si>
+  <si>
+    <t>Ferreira, A. P. A., Maddaluno, M. L. M., Curi, A. C. C., &amp; Ferreira, A. de S. (2023). Interrater agreement and reliability of a palpation method for locating C1 transverse process in the cervical spine. In International Journal of Osteopathic Medicine (p. 100699). Elsevier BV. https://doi.org/10.1016/j.ijosm.2023.100699</t>
+  </si>
+  <si>
+    <t>10.1016/j.ijosm.2023.100699</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15SZDSzopPhSChYc4YanfdCRvSpmxfPZJ</t>
   </si>
 </sst>
 </file>
@@ -1802,7 +1811,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1865,9 +1874,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2329,13 +2335,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C172"/>
+  <dimension ref="A1:C173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B169" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B170" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A172" sqref="A172"/>
+      <selection pane="bottomRight" activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4073,168 +4079,179 @@
         <v>532</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A158" s="6" t="s">
+    <row r="158" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A158" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A159" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="B159" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C159" s="6" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A159" s="6" t="s">
+    <row r="160" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A160" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B160" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C160" s="6" t="s">
         <v>444</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A160" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A162" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="B161" s="7" t="s">
+      <c r="B162" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="C162" s="6" t="s">
         <v>536</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A162" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="B162" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A164" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="B163" s="11" t="s">
+      <c r="B164" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="C163" s="6" t="s">
+      <c r="C164" s="6" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A164" s="6" t="s">
+    <row r="165" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A165" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="B164" s="11" t="s">
+      <c r="B165" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="C165" s="6" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A165" s="6" t="s">
+    <row r="166" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A166" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="B165" s="7" t="s">
+      <c r="B166" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="C166" s="6" t="s">
         <v>476</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A166" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A168" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="B167" s="11" t="s">
+      <c r="B168" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="C168" s="6" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A168" s="6" t="s">
+    <row r="169" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A169" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="B168" s="11" t="s">
+      <c r="B169" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="C169" s="6" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A169" s="6" t="s">
+    <row r="170" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A170" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="B169" s="11" t="s">
+      <c r="B170" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="C169" s="6" t="s">
+      <c r="C170" s="6" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A170" s="6" t="s">
+    <row r="171" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A171" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B170" s="7" t="s">
+      <c r="B171" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="C170" s="6" t="s">
+      <c r="C171" s="6" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="120" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="16" t="s">
+    <row r="172" spans="1:3" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="B171" s="21" t="s">
+      <c r="B172" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="C171" s="16" t="s">
+      <c r="C172" s="16" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A172" s="22" t="s">
+    <row r="173" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A173" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B172" s="11" t="s">
+      <c r="B173" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="C172" s="22" t="s">
+      <c r="C173" s="6" t="s">
         <v>541</v>
       </c>
     </row>
@@ -4384,39 +4401,40 @@
     <hyperlink ref="B146" r:id="rId139" xr:uid="{0578345A-2B35-DB46-A252-75D624E5335A}"/>
     <hyperlink ref="B147" r:id="rId140" xr:uid="{388231C5-C849-004F-9F48-34C271CF034D}"/>
     <hyperlink ref="B154" r:id="rId141" xr:uid="{98312511-DDA4-2D4B-A18F-0B6277CCE160}"/>
-    <hyperlink ref="B159" r:id="rId142" xr:uid="{9080FF6E-E32B-E346-9769-672E744AD1D3}"/>
-    <hyperlink ref="B160" r:id="rId143" xr:uid="{F06E1BB0-4C0A-A84A-A70F-1043B59098D7}"/>
-    <hyperlink ref="B166" r:id="rId144" xr:uid="{010AA221-1F56-BB49-B837-372725EB4330}"/>
-    <hyperlink ref="B170" r:id="rId145" xr:uid="{1E55B930-A384-3D47-8670-2F9757ACB2DB}"/>
-    <hyperlink ref="B158" r:id="rId146" xr:uid="{F05CFACE-9B72-6F4B-BFAA-7E923DC83332}"/>
+    <hyperlink ref="B160" r:id="rId142" xr:uid="{9080FF6E-E32B-E346-9769-672E744AD1D3}"/>
+    <hyperlink ref="B161" r:id="rId143" xr:uid="{F06E1BB0-4C0A-A84A-A70F-1043B59098D7}"/>
+    <hyperlink ref="B167" r:id="rId144" xr:uid="{010AA221-1F56-BB49-B837-372725EB4330}"/>
+    <hyperlink ref="B171" r:id="rId145" xr:uid="{1E55B930-A384-3D47-8670-2F9757ACB2DB}"/>
+    <hyperlink ref="B159" r:id="rId146" xr:uid="{F05CFACE-9B72-6F4B-BFAA-7E923DC83332}"/>
     <hyperlink ref="B150" r:id="rId147" xr:uid="{A7254027-5889-4548-9B4B-9A026B12D462}"/>
-    <hyperlink ref="B167" r:id="rId148" xr:uid="{34266ABF-78A0-0249-BF51-8E8E9B5C7251}"/>
-    <hyperlink ref="B162" r:id="rId149" xr:uid="{BFB314DB-A998-3646-B9D1-5669ECA7EC9E}"/>
-    <hyperlink ref="B165" r:id="rId150" xr:uid="{0CCC0DF9-29BA-C146-B5E0-FB0FE661B9E4}"/>
+    <hyperlink ref="B168" r:id="rId148" xr:uid="{34266ABF-78A0-0249-BF51-8E8E9B5C7251}"/>
+    <hyperlink ref="B163" r:id="rId149" xr:uid="{BFB314DB-A998-3646-B9D1-5669ECA7EC9E}"/>
+    <hyperlink ref="B166" r:id="rId150" xr:uid="{0CCC0DF9-29BA-C146-B5E0-FB0FE661B9E4}"/>
     <hyperlink ref="B15" r:id="rId151" xr:uid="{2FF62FFA-848A-A645-AB49-FC1892DE3512}"/>
     <hyperlink ref="B25" r:id="rId152" xr:uid="{1C220587-F46D-3349-8188-A608FFA78C9A}"/>
     <hyperlink ref="B156" r:id="rId153" xr:uid="{B9B4CD15-627B-9A48-812C-4ED02D7E87C3}"/>
     <hyperlink ref="B153" r:id="rId154" xr:uid="{590B5CF1-A8C0-034A-B17A-385DBDBD5428}"/>
     <hyperlink ref="B149" r:id="rId155" xr:uid="{E2B8EED8-4993-9E4B-A074-D76848FEEE76}"/>
-    <hyperlink ref="B164" r:id="rId156" xr:uid="{5CE9128D-E20D-4D4A-9995-9B8805498EC4}"/>
-    <hyperlink ref="B169" r:id="rId157" xr:uid="{CE99D6B7-630A-0B42-95F4-67DA02F8B862}"/>
-    <hyperlink ref="B171" r:id="rId158" xr:uid="{6F1EF0D9-D9FA-9947-A58F-67AE523C5636}"/>
-    <hyperlink ref="B168" r:id="rId159" xr:uid="{60B461CC-202F-4645-A6EE-84DD7A4E20A4}"/>
+    <hyperlink ref="B165" r:id="rId156" xr:uid="{5CE9128D-E20D-4D4A-9995-9B8805498EC4}"/>
+    <hyperlink ref="B170" r:id="rId157" xr:uid="{CE99D6B7-630A-0B42-95F4-67DA02F8B862}"/>
+    <hyperlink ref="B172" r:id="rId158" xr:uid="{6F1EF0D9-D9FA-9947-A58F-67AE523C5636}"/>
+    <hyperlink ref="B169" r:id="rId159" xr:uid="{60B461CC-202F-4645-A6EE-84DD7A4E20A4}"/>
     <hyperlink ref="B148" r:id="rId160" xr:uid="{4E82F5F7-B059-6F46-A45C-139D7CA42EB6}"/>
     <hyperlink ref="B48" r:id="rId161" xr:uid="{D6B66670-B6C0-6C43-98C5-8D0F470708B9}"/>
     <hyperlink ref="B61" r:id="rId162" xr:uid="{822BD45A-CF86-0841-A114-292B33F8DEA2}"/>
     <hyperlink ref="B58" r:id="rId163" xr:uid="{4515DFC6-A7A3-1644-AB12-4F6210C92028}"/>
     <hyperlink ref="B59" r:id="rId164" xr:uid="{A0E4E9C4-5C98-4044-9311-9DFDCBFE9BCD}"/>
     <hyperlink ref="B152" r:id="rId165" xr:uid="{7CA3AACC-A3E8-5443-BA17-4E3CE8D05980}"/>
-    <hyperlink ref="B163" r:id="rId166" xr:uid="{24363297-2BAB-CC45-B447-B54BF7CF991A}"/>
+    <hyperlink ref="B164" r:id="rId166" xr:uid="{24363297-2BAB-CC45-B447-B54BF7CF991A}"/>
     <hyperlink ref="B151" r:id="rId167" xr:uid="{15F415A6-384B-374D-9390-278B58297F25}"/>
     <hyperlink ref="B155" r:id="rId168" xr:uid="{A836F43E-7BEF-9D42-A3B6-02508F69F61B}"/>
-    <hyperlink ref="B161" r:id="rId169" xr:uid="{3E0387C4-753B-084F-8B94-EAB77D64B5F5}"/>
+    <hyperlink ref="B162" r:id="rId169" xr:uid="{3E0387C4-753B-084F-8B94-EAB77D64B5F5}"/>
     <hyperlink ref="B157" r:id="rId170" xr:uid="{DCBD8E7E-15FD-E541-BF93-6B08A3B29FCB}"/>
-    <hyperlink ref="B172" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
+    <hyperlink ref="B173" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
+    <hyperlink ref="B158" r:id="rId172" xr:uid="{987C8D93-1A9E-2F41-BCB1-2BCD4D9BE0A5}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId172"/>
+  <legacyDrawing r:id="rId173"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/Ciência com R Consultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2A1217-59CA-784C-810B-4EFDEA15AA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C2A1F0-DF72-8A46-8795-E0D174EAA4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="27600" windowHeight="17140" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
   <sheets>
     <sheet name="curriculo" sheetId="2" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="560">
   <si>
     <t>Doutorado</t>
   </si>
@@ -1719,6 +1719,47 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/15SZDSzopPhSChYc4YanfdCRvSpmxfPZJ</t>
+  </si>
+  <si>
+    <t>Silva, A. L. dos S., Collange, L. A., &amp; Ferreira, A. de S. (2023). Hybrid maneuver for benign paroxysmal positional vertigo in individuals with limited neck mobility: Case series. In Journal of Bodywork and Movement Therapies. Elsevier BV. https://doi.org/10.1016/j.jbmt.2023.11.056</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2023.11.056</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15TKnHC2eBOiyYZKO3oHUGo3h9F4seto-</t>
+  </si>
+  <si>
+    <t>Danielle Terra Alvim, Sileyda Costa, Arthur de Sá Ferreira (2023). Basic Principles of Acupuncture in Rehabilitation. In: Jannis V. Papathanasiou Kiril P. Panayotov. Essentials of
+Physical and Rehabilitation Medicine for Undergraduate Medical Students.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TgBXa656QNhmDDDh76nFyuTNIyeCWXI-</t>
+  </si>
+  <si>
+    <t>Arthur de Sá Ferreira, Sileyda Christina Maria Costa (2023). Acupuntura como recurso da medicina tradicional chinesa para reabilitação. In: Práticas integrativas e complementares em saúde: conceitos, históricos, aplicações e formações (Vol. I).</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/158Dk-HeqxTmD0gI8_FfDxg7ryGph_VlT</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Tjgz6DW9JnLXuqey2Xy9-yuudnW6kpQQ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TmCbsLt4gmBS9Ge2gvTzWk5TISE_NAEk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1UVbWPhD1o18PlJbgdqC3qciZEjtDuvLe</t>
+  </si>
+  <si>
+    <t>Fernando Silva Guimarães, Jannis Papathanasiou, Arthur de Sá Ferreira and Agnaldo José Lopes (2023). Pulmonary Rehabilitation. In: Jannis V. Papathanasiou Kiril P. Panayotov. Essentials of Physical and Rehabilitation Medicine for Undergraduate Medical Students</t>
+  </si>
+  <si>
+    <t>Jannis Papathanasiou, Kiril Panayotov, Arthur de Sá Ferreira, Luis Felipe da Fonseca Reis and Agnaldo José Lopes (2023). Rehabilitation in COVID-19 and
+post-COVID-19 syndrome. In: Jannis V. Papathanasiou Kiril P. Panayotov. Essentials of Physical and Rehabilitation Medicine for Undergraduate Medical Students</t>
+  </si>
+  <si>
+    <t>Jannis Papathanasiou, Ivo Petrov, Arthur de Sá Ferreira and Agnaldo José Lopes  (2023). Cardiac Rehabilitation. In: Jannis V. Papathanasiou Kiril P. Panayotov. Essentials of Physical and Rehabilitation Medicine for Undergraduate Medical Students</t>
   </si>
 </sst>
 </file>
@@ -1870,10 +1911,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2226,7 +2267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AFE2F4-32B3-5A4F-B0D3-5766AC05F50D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2335,13 +2376,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C173"/>
+  <dimension ref="A1:C174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B170" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A173" sqref="A173"/>
+      <selection pane="bottomRight" activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2997,7 +3038,7 @@
       <c r="B59" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="21" t="s">
         <v>518</v>
       </c>
     </row>
@@ -3991,26 +4032,26 @@
         <v>490</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A150" s="9" t="s">
+    <row r="150" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A150" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A151" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="B150" s="10" t="s">
+      <c r="B151" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="C150" s="9" t="s">
+      <c r="C151" s="9" t="s">
         <v>469</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A151" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="187" x14ac:dyDescent="0.2">
@@ -4237,21 +4278,32 @@
       <c r="A172" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="B172" s="21" t="s">
+      <c r="B172" s="20" t="s">
         <v>502</v>
       </c>
       <c r="C172" s="16" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A174" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B173" s="11" t="s">
+      <c r="B174" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="C174" s="6" t="s">
         <v>541</v>
       </c>
     </row>
@@ -4406,7 +4458,7 @@
     <hyperlink ref="B167" r:id="rId144" xr:uid="{010AA221-1F56-BB49-B837-372725EB4330}"/>
     <hyperlink ref="B171" r:id="rId145" xr:uid="{1E55B930-A384-3D47-8670-2F9757ACB2DB}"/>
     <hyperlink ref="B159" r:id="rId146" xr:uid="{F05CFACE-9B72-6F4B-BFAA-7E923DC83332}"/>
-    <hyperlink ref="B150" r:id="rId147" xr:uid="{A7254027-5889-4548-9B4B-9A026B12D462}"/>
+    <hyperlink ref="B151" r:id="rId147" xr:uid="{A7254027-5889-4548-9B4B-9A026B12D462}"/>
     <hyperlink ref="B168" r:id="rId148" xr:uid="{34266ABF-78A0-0249-BF51-8E8E9B5C7251}"/>
     <hyperlink ref="B163" r:id="rId149" xr:uid="{BFB314DB-A998-3646-B9D1-5669ECA7EC9E}"/>
     <hyperlink ref="B166" r:id="rId150" xr:uid="{0CCC0DF9-29BA-C146-B5E0-FB0FE661B9E4}"/>
@@ -4426,27 +4478,28 @@
     <hyperlink ref="B59" r:id="rId164" xr:uid="{A0E4E9C4-5C98-4044-9311-9DFDCBFE9BCD}"/>
     <hyperlink ref="B152" r:id="rId165" xr:uid="{7CA3AACC-A3E8-5443-BA17-4E3CE8D05980}"/>
     <hyperlink ref="B164" r:id="rId166" xr:uid="{24363297-2BAB-CC45-B447-B54BF7CF991A}"/>
-    <hyperlink ref="B151" r:id="rId167" xr:uid="{15F415A6-384B-374D-9390-278B58297F25}"/>
+    <hyperlink ref="B150" r:id="rId167" xr:uid="{15F415A6-384B-374D-9390-278B58297F25}"/>
     <hyperlink ref="B155" r:id="rId168" xr:uid="{A836F43E-7BEF-9D42-A3B6-02508F69F61B}"/>
     <hyperlink ref="B162" r:id="rId169" xr:uid="{3E0387C4-753B-084F-8B94-EAB77D64B5F5}"/>
     <hyperlink ref="B157" r:id="rId170" xr:uid="{DCBD8E7E-15FD-E541-BF93-6B08A3B29FCB}"/>
-    <hyperlink ref="B173" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
+    <hyperlink ref="B174" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
     <hyperlink ref="B158" r:id="rId172" xr:uid="{987C8D93-1A9E-2F41-BCB1-2BCD4D9BE0A5}"/>
+    <hyperlink ref="B173" r:id="rId173" xr:uid="{2DD41C73-7758-4B42-885B-07F0429CE93C}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId173"/>
+  <legacyDrawing r:id="rId174"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC58054-A5C0-CE48-966A-D48A8C7C29B4}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4506,15 +4559,60 @@
         <v>465</v>
       </c>
     </row>
+    <row r="6" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>556</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{A00EC802-23BF-954B-A471-137E5FB799D0}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{CD2E113E-FC48-B54D-85C5-1929A41F75FB}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{0548F497-EAD4-794E-B050-A9FB79A11724}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{06F2D2AA-4155-FF45-9438-959247A730CF}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{B248040E-6B28-6F41-BF85-E0FDBF727D0D}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{5E7C50B0-6C08-704E-B61C-7F478413C309}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{B617B815-697C-2142-94CE-FCE4CF0CB1D3}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{F316E7F9-D9A1-9E49-B699-2AE8134C264F}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{AB1062CE-B96B-B940-913B-1992CA7BAEF1}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId5"/>
+  <legacyDrawing r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/Ciência com R Consultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C2A1F0-DF72-8A46-8795-E0D174EAA4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F991C43C-989F-0348-AFB7-F2FB0756FFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="27600" windowHeight="17140" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
   <sheets>
     <sheet name="curriculo" sheetId="2" r:id="rId1"/>
@@ -1852,7 +1852,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1915,6 +1915,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2267,7 +2270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AFE2F4-32B3-5A4F-B0D3-5766AC05F50D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2378,8 +2381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
   <dimension ref="A1:C174"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B170" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B171" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A174" sqref="A174"/>
@@ -4044,13 +4047,13 @@
       </c>
     </row>
     <row r="151" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A151" s="9" t="s">
+      <c r="A151" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="C151" s="22" t="s">
         <v>469</v>
       </c>
     </row>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/Ciência com R Consultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F991C43C-989F-0348-AFB7-F2FB0756FFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64B3268-6B72-8C43-AD91-F8207FF00CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -1712,13 +1712,7 @@
     <t>https://drive.google.com/file/d/15LB7d-s3bpyEBDIFvuw4IDgMDMBGE1sW</t>
   </si>
   <si>
-    <t>Ferreira, A. P. A., Maddaluno, M. L. M., Curi, A. C. C., &amp; Ferreira, A. de S. (2023). Interrater agreement and reliability of a palpation method for locating C1 transverse process in the cervical spine. In International Journal of Osteopathic Medicine (p. 100699). Elsevier BV. https://doi.org/10.1016/j.ijosm.2023.100699</t>
-  </si>
-  <si>
     <t>10.1016/j.ijosm.2023.100699</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/15SZDSzopPhSChYc4YanfdCRvSpmxfPZJ</t>
   </si>
   <si>
     <t>Silva, A. L. dos S., Collange, L. A., &amp; Ferreira, A. de S. (2023). Hybrid maneuver for benign paroxysmal positional vertigo in individuals with limited neck mobility: Case series. In Journal of Bodywork and Movement Therapies. Elsevier BV. https://doi.org/10.1016/j.jbmt.2023.11.056</t>
@@ -1760,6 +1754,12 @@
   </si>
   <si>
     <t>Jannis Papathanasiou, Ivo Petrov, Arthur de Sá Ferreira and Agnaldo José Lopes  (2023). Cardiac Rehabilitation. In: Jannis V. Papathanasiou Kiril P. Panayotov. Essentials of Physical and Rehabilitation Medicine for Undergraduate Medical Students</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15_H9g5YPnEMdNDoupPu7Vkf-FtTxSltq</t>
+  </si>
+  <si>
+    <t>Ferreira, A. P. A., Maddaluno, M. L. M., Curi, A. C. C., &amp; Ferreira, A. de S. (2024). Interrater agreement and reliability of a palpation method for locating C1 transverse process in the cervical spine. In International Journal of Osteopathic Medicine (Vol. 51, pp. 100699). Elsevier BV. https://doi.org/10.1016/j.ijosm.2023.100699</t>
   </si>
 </sst>
 </file>
@@ -1799,18 +1799,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1852,7 +1846,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1878,12 +1872,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1905,7 +1893,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1914,7 +1902,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2397,24 +2385,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="120" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2430,13 +2418,13 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="120" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2474,24 +2462,24 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="137" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="120" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2554,10 +2542,10 @@
       <c r="A15" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>478</v>
       </c>
     </row>
@@ -2573,13 +2561,13 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="154" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2664,21 +2652,21 @@
       <c r="A25" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="16" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="171" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="14" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2782,13 +2770,13 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="120" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="14" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2920,7 +2908,7 @@
       <c r="B48" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="16" t="s">
         <v>508</v>
       </c>
     </row>
@@ -2936,13 +2924,13 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="14" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3027,7 +3015,7 @@
       <c r="A58" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="17" t="s">
         <v>181</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -3035,13 +3023,13 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="14" t="s">
         <v>519</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="15" t="s">
         <v>520</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="19" t="s">
         <v>518</v>
       </c>
     </row>
@@ -3063,7 +3051,7 @@
       <c r="B61" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="16" t="s">
         <v>511</v>
       </c>
     </row>
@@ -3134,13 +3122,13 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="137" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="14" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3233,13 +3221,13 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="137" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="14" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3354,13 +3342,13 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="154" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="B88" s="17" t="s">
+      <c r="B88" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C88" s="14" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3464,13 +3452,13 @@
       </c>
     </row>
     <row r="98" spans="1:3" ht="137" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="B98" s="17" t="s">
+      <c r="B98" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="C98" s="14" t="s">
         <v>292</v>
       </c>
     </row>
@@ -3618,13 +3606,13 @@
       </c>
     </row>
     <row r="112" spans="1:3" ht="154" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="16" t="s">
+      <c r="A112" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="B112" s="17" t="s">
+      <c r="B112" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="C112" s="16" t="s">
+      <c r="C112" s="14" t="s">
         <v>334</v>
       </c>
     </row>
@@ -3794,13 +3782,13 @@
       </c>
     </row>
     <row r="128" spans="1:3" ht="137" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="16" t="s">
+      <c r="A128" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="B128" s="17" t="s">
+      <c r="B128" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="C128" s="16" t="s">
+      <c r="C128" s="14" t="s">
         <v>379</v>
       </c>
     </row>
@@ -4003,13 +3991,13 @@
       </c>
     </row>
     <row r="147" spans="1:3" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="16" t="s">
+      <c r="A147" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="B147" s="17" t="s">
+      <c r="B147" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="C147" s="16" t="s">
+      <c r="C147" s="14" t="s">
         <v>437</v>
       </c>
     </row>
@@ -4017,7 +4005,7 @@
       <c r="A148" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="9" t="s">
         <v>506</v>
       </c>
       <c r="C148" s="6" t="s">
@@ -4028,7 +4016,7 @@
       <c r="A149" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="9" t="s">
         <v>491</v>
       </c>
       <c r="C149" s="6" t="s">
@@ -4039,7 +4027,7 @@
       <c r="A150" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="9" t="s">
         <v>529</v>
       </c>
       <c r="C150" s="6" t="s">
@@ -4047,13 +4035,13 @@
       </c>
     </row>
     <row r="151" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A151" s="22" t="s">
+      <c r="A151" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="C151" s="22" t="s">
+      <c r="C151" s="6" t="s">
         <v>469</v>
       </c>
     </row>
@@ -4061,7 +4049,7 @@
       <c r="A152" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="9" t="s">
         <v>523</v>
       </c>
       <c r="C152" s="6" t="s">
@@ -4072,7 +4060,7 @@
       <c r="A153" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B153" s="9" t="s">
         <v>487</v>
       </c>
       <c r="C153" s="6" t="s">
@@ -4094,7 +4082,7 @@
       <c r="A155" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="B155" s="9" t="s">
         <v>534</v>
       </c>
       <c r="C155" s="6" t="s">
@@ -4105,7 +4093,7 @@
       <c r="A156" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="B156" s="9" t="s">
         <v>485</v>
       </c>
       <c r="C156" s="6" t="s">
@@ -4116,194 +4104,194 @@
       <c r="A157" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="B157" s="9" t="s">
         <v>540</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A158" s="9" t="s">
-        <v>544</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="C158" s="9" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A158" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>457</v>
+        <v>445</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>446</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
-        <v>448</v>
+        <v>538</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>449</v>
+        <v>537</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>537</v>
+        <v>500</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>474</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>536</v>
+        <v>499</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="B163" s="11" t="s">
-        <v>474</v>
+        <v>525</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>526</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="B164" s="11" t="s">
-        <v>526</v>
+        <v>494</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>495</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B165" s="11" t="s">
-        <v>495</v>
+        <v>477</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>475</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>452</v>
+        <v>472</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>473</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="B168" s="11" t="s">
-        <v>473</v>
+        <v>531</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>505</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="B169" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>498</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="B170" s="11" t="s">
-        <v>498</v>
+        <v>454</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>455</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A171" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="C171" s="6" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="120" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="16" t="s">
+    <row r="171" spans="1:3" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="14" t="s">
         <v>501</v>
       </c>
-      <c r="B172" s="20" t="s">
+      <c r="B171" s="18" t="s">
         <v>502</v>
       </c>
-      <c r="C172" s="16" t="s">
+      <c r="C171" s="14" t="s">
         <v>440</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A172" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="C172" s="20" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B173" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="B173" s="7" t="s">
-        <v>549</v>
-      </c>
       <c r="C173" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B174" s="11" t="s">
+      <c r="B174" s="9" t="s">
         <v>543</v>
       </c>
       <c r="C174" s="6" t="s">
@@ -4456,37 +4444,37 @@
     <hyperlink ref="B146" r:id="rId139" xr:uid="{0578345A-2B35-DB46-A252-75D624E5335A}"/>
     <hyperlink ref="B147" r:id="rId140" xr:uid="{388231C5-C849-004F-9F48-34C271CF034D}"/>
     <hyperlink ref="B154" r:id="rId141" xr:uid="{98312511-DDA4-2D4B-A18F-0B6277CCE160}"/>
-    <hyperlink ref="B160" r:id="rId142" xr:uid="{9080FF6E-E32B-E346-9769-672E744AD1D3}"/>
-    <hyperlink ref="B161" r:id="rId143" xr:uid="{F06E1BB0-4C0A-A84A-A70F-1043B59098D7}"/>
-    <hyperlink ref="B167" r:id="rId144" xr:uid="{010AA221-1F56-BB49-B837-372725EB4330}"/>
-    <hyperlink ref="B171" r:id="rId145" xr:uid="{1E55B930-A384-3D47-8670-2F9757ACB2DB}"/>
-    <hyperlink ref="B159" r:id="rId146" xr:uid="{F05CFACE-9B72-6F4B-BFAA-7E923DC83332}"/>
+    <hyperlink ref="B159" r:id="rId142" xr:uid="{9080FF6E-E32B-E346-9769-672E744AD1D3}"/>
+    <hyperlink ref="B160" r:id="rId143" xr:uid="{F06E1BB0-4C0A-A84A-A70F-1043B59098D7}"/>
+    <hyperlink ref="B166" r:id="rId144" xr:uid="{010AA221-1F56-BB49-B837-372725EB4330}"/>
+    <hyperlink ref="B170" r:id="rId145" xr:uid="{1E55B930-A384-3D47-8670-2F9757ACB2DB}"/>
+    <hyperlink ref="B158" r:id="rId146" xr:uid="{F05CFACE-9B72-6F4B-BFAA-7E923DC83332}"/>
     <hyperlink ref="B151" r:id="rId147" xr:uid="{A7254027-5889-4548-9B4B-9A026B12D462}"/>
-    <hyperlink ref="B168" r:id="rId148" xr:uid="{34266ABF-78A0-0249-BF51-8E8E9B5C7251}"/>
-    <hyperlink ref="B163" r:id="rId149" xr:uid="{BFB314DB-A998-3646-B9D1-5669ECA7EC9E}"/>
-    <hyperlink ref="B166" r:id="rId150" xr:uid="{0CCC0DF9-29BA-C146-B5E0-FB0FE661B9E4}"/>
+    <hyperlink ref="B167" r:id="rId148" xr:uid="{34266ABF-78A0-0249-BF51-8E8E9B5C7251}"/>
+    <hyperlink ref="B162" r:id="rId149" xr:uid="{BFB314DB-A998-3646-B9D1-5669ECA7EC9E}"/>
+    <hyperlink ref="B165" r:id="rId150" xr:uid="{0CCC0DF9-29BA-C146-B5E0-FB0FE661B9E4}"/>
     <hyperlink ref="B15" r:id="rId151" xr:uid="{2FF62FFA-848A-A645-AB49-FC1892DE3512}"/>
     <hyperlink ref="B25" r:id="rId152" xr:uid="{1C220587-F46D-3349-8188-A608FFA78C9A}"/>
     <hyperlink ref="B156" r:id="rId153" xr:uid="{B9B4CD15-627B-9A48-812C-4ED02D7E87C3}"/>
     <hyperlink ref="B153" r:id="rId154" xr:uid="{590B5CF1-A8C0-034A-B17A-385DBDBD5428}"/>
     <hyperlink ref="B149" r:id="rId155" xr:uid="{E2B8EED8-4993-9E4B-A074-D76848FEEE76}"/>
-    <hyperlink ref="B165" r:id="rId156" xr:uid="{5CE9128D-E20D-4D4A-9995-9B8805498EC4}"/>
-    <hyperlink ref="B170" r:id="rId157" xr:uid="{CE99D6B7-630A-0B42-95F4-67DA02F8B862}"/>
-    <hyperlink ref="B172" r:id="rId158" xr:uid="{6F1EF0D9-D9FA-9947-A58F-67AE523C5636}"/>
-    <hyperlink ref="B169" r:id="rId159" xr:uid="{60B461CC-202F-4645-A6EE-84DD7A4E20A4}"/>
+    <hyperlink ref="B164" r:id="rId156" xr:uid="{5CE9128D-E20D-4D4A-9995-9B8805498EC4}"/>
+    <hyperlink ref="B169" r:id="rId157" xr:uid="{CE99D6B7-630A-0B42-95F4-67DA02F8B862}"/>
+    <hyperlink ref="B171" r:id="rId158" xr:uid="{6F1EF0D9-D9FA-9947-A58F-67AE523C5636}"/>
+    <hyperlink ref="B168" r:id="rId159" xr:uid="{60B461CC-202F-4645-A6EE-84DD7A4E20A4}"/>
     <hyperlink ref="B148" r:id="rId160" xr:uid="{4E82F5F7-B059-6F46-A45C-139D7CA42EB6}"/>
     <hyperlink ref="B48" r:id="rId161" xr:uid="{D6B66670-B6C0-6C43-98C5-8D0F470708B9}"/>
     <hyperlink ref="B61" r:id="rId162" xr:uid="{822BD45A-CF86-0841-A114-292B33F8DEA2}"/>
     <hyperlink ref="B58" r:id="rId163" xr:uid="{4515DFC6-A7A3-1644-AB12-4F6210C92028}"/>
     <hyperlink ref="B59" r:id="rId164" xr:uid="{A0E4E9C4-5C98-4044-9311-9DFDCBFE9BCD}"/>
     <hyperlink ref="B152" r:id="rId165" xr:uid="{7CA3AACC-A3E8-5443-BA17-4E3CE8D05980}"/>
-    <hyperlink ref="B164" r:id="rId166" xr:uid="{24363297-2BAB-CC45-B447-B54BF7CF991A}"/>
+    <hyperlink ref="B163" r:id="rId166" xr:uid="{24363297-2BAB-CC45-B447-B54BF7CF991A}"/>
     <hyperlink ref="B150" r:id="rId167" xr:uid="{15F415A6-384B-374D-9390-278B58297F25}"/>
     <hyperlink ref="B155" r:id="rId168" xr:uid="{A836F43E-7BEF-9D42-A3B6-02508F69F61B}"/>
-    <hyperlink ref="B162" r:id="rId169" xr:uid="{3E0387C4-753B-084F-8B94-EAB77D64B5F5}"/>
+    <hyperlink ref="B161" r:id="rId169" xr:uid="{3E0387C4-753B-084F-8B94-EAB77D64B5F5}"/>
     <hyperlink ref="B157" r:id="rId170" xr:uid="{DCBD8E7E-15FD-E541-BF93-6B08A3B29FCB}"/>
     <hyperlink ref="B174" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
-    <hyperlink ref="B158" r:id="rId172" xr:uid="{987C8D93-1A9E-2F41-BCB1-2BCD4D9BE0A5}"/>
+    <hyperlink ref="B172" r:id="rId172" xr:uid="{987C8D93-1A9E-2F41-BCB1-2BCD4D9BE0A5}"/>
     <hyperlink ref="B173" r:id="rId173" xr:uid="{2DD41C73-7758-4B42-885B-07F0429CE93C}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4564,42 +4552,42 @@
     </row>
     <row r="6" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/Ciência com R Consultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64B3268-6B72-8C43-AD91-F8207FF00CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49981E2E-3963-6144-BF21-F8DA96BF053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="4" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
   <sheets>
     <sheet name="curriculo" sheetId="2" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="562">
   <si>
     <t>Doutorado</t>
   </si>
@@ -1760,6 +1760,12 @@
   </si>
   <si>
     <t>Ferreira, A. P. A., Maddaluno, M. L. M., Curi, A. C. C., &amp; Ferreira, A. de S. (2024). Interrater agreement and reliability of a palpation method for locating C1 transverse process in the cervical spine. In International Journal of Osteopathic Medicine (Vol. 51, pp. 100699). Elsevier BV. https://doi.org/10.1016/j.ijosm.2023.100699</t>
+  </si>
+  <si>
+    <t>Física Ambiental</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15bH50AetWXGIz2veF63w9US6E1GP-Leh</t>
   </si>
 </sst>
 </file>
@@ -1846,7 +1852,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1903,9 +1909,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2369,7 +2372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
   <dimension ref="A1:C174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B171" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4266,13 +4269,13 @@
       </c>
     </row>
     <row r="172" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A172" s="20" t="s">
+      <c r="A172" s="6" t="s">
         <v>559</v>
       </c>
       <c r="B172" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="C172" s="20" t="s">
+      <c r="C172" s="6" t="s">
         <v>544</v>
       </c>
     </row>
@@ -4609,9 +4612,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D49A42-744A-EE4A-B294-D2CA066FEF3F}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4665,12 +4668,21 @@
         <v>17</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{9AD72881-6A9A-484B-B50E-3A319D3A3009}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{0D5DFB21-CDB8-9246-84F1-F449719170FE}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{1242E38A-BBEE-CE4E-B8DA-41D77806E8FD}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{50E8287C-B0FB-054A-A8E3-FBAD7129557B}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{07CF2AC3-B5DE-C24C-9C9B-3C08EDB0EC9B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/Ciência com R Consultoria/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/Ciência com R Consultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49981E2E-3963-6144-BF21-F8DA96BF053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4459B160-AD64-AB46-B2FA-D5F6AC82A901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="4" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
   <sheets>
     <sheet name="curriculo" sheetId="2" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="565">
   <si>
     <t>Doutorado</t>
   </si>
@@ -1766,6 +1766,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/15bH50AetWXGIz2veF63w9US6E1GP-Leh</t>
+  </si>
+  <si>
+    <t>10.1097/TGR.0000000000000426</t>
+  </si>
+  <si>
+    <t>Santos, L. E., de Sá Ferreira, A., Vilella, R. C., &amp; Lunkes, L. C. (2024). The Importance of Physical Therapy in the Evaluation of Fall Prevention Programs in Older Adults. In Topics in Geriatric Rehabilitation (Vol. 40, Issue 1, pp. 83–92). Ovid Technologies (Wolters Kluwer Health). https://doi.org/10.1097/tgr.0000000000000426</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15czbmbGC_vQ1OlpD78ElseZHR3IjQjZ3</t>
   </si>
 </sst>
 </file>
@@ -1947,9 +1956,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1987,7 +1996,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2093,7 +2102,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2235,7 +2244,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2370,13 +2379,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C174"/>
+  <dimension ref="A1:C175"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B171" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A174" sqref="A174"/>
+      <selection pane="bottomRight" activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4279,25 +4288,36 @@
         <v>544</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A174" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B174" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="C174" s="6" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A174" s="6" t="s">
+    <row r="175" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A175" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B175" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C175" s="6" t="s">
         <v>541</v>
       </c>
     </row>
@@ -4476,12 +4496,13 @@
     <hyperlink ref="B155" r:id="rId168" xr:uid="{A836F43E-7BEF-9D42-A3B6-02508F69F61B}"/>
     <hyperlink ref="B161" r:id="rId169" xr:uid="{3E0387C4-753B-084F-8B94-EAB77D64B5F5}"/>
     <hyperlink ref="B157" r:id="rId170" xr:uid="{DCBD8E7E-15FD-E541-BF93-6B08A3B29FCB}"/>
-    <hyperlink ref="B174" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
+    <hyperlink ref="B175" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
     <hyperlink ref="B172" r:id="rId172" xr:uid="{987C8D93-1A9E-2F41-BCB1-2BCD4D9BE0A5}"/>
-    <hyperlink ref="B173" r:id="rId173" xr:uid="{2DD41C73-7758-4B42-885B-07F0429CE93C}"/>
+    <hyperlink ref="B174" r:id="rId173" xr:uid="{2DD41C73-7758-4B42-885B-07F0429CE93C}"/>
+    <hyperlink ref="B173" r:id="rId174" xr:uid="{F10562EB-0310-DF46-A34E-D06D1ED9BA78}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId174"/>
+  <legacyDrawing r:id="rId175"/>
 </worksheet>
 </file>
 
@@ -4614,7 +4635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D49A42-744A-EE4A-B294-D2CA066FEF3F}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/Ciência com R Consultoria/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/Ciência com R Consultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4459B160-AD64-AB46-B2FA-D5F6AC82A901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58237D26-A8A1-5C40-A7DA-09F1CE875A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="568">
   <si>
     <t>Doutorado</t>
   </si>
@@ -1775,6 +1775,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/15czbmbGC_vQ1OlpD78ElseZHR3IjQjZ3</t>
+  </si>
+  <si>
+    <t>Avila, L., da Silva, M. D., Neves, M. L., Abreu, A. R., Fiuza, C. R., Fukusawa, L., de Sá Ferreira, A., &amp; Meziat-Filho, N. (2023). Effectiveness of Cognitive Functional Therapy Versus Core Exercises and Manual Therapy in Patients With Chronic Low Back Pain After Spinal Surgery: Randomized Controlled Trial. In Physical Therapy (Vol. 104, Issue 1). Oxford University Press (OUP). https://doi.org/10.1093/ptj/pzad105</t>
+  </si>
+  <si>
+    <t>10.1093/ptj/pzad105</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15d-OPblHuqQcPlEKXVIwVcxAlGHWDhMK</t>
   </si>
 </sst>
 </file>
@@ -1861,7 +1870,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1920,6 +1929,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1956,9 +1971,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1996,7 +2011,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2102,7 +2117,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2244,7 +2259,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2379,13 +2394,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C175"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B171" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B173" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A175" sqref="A175"/>
+      <selection pane="bottomRight" activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4277,47 +4292,58 @@
         <v>440</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A172" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>544</v>
+    <row r="172" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A172" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="B172" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="C172" s="20" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A174" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B173" s="9" t="s">
+      <c r="B174" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="C174" s="6" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A174" s="6" t="s">
+    <row r="175" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A175" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B174" s="7" t="s">
+      <c r="B175" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C175" s="6" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A175" s="6" t="s">
+    <row r="176" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A176" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B175" s="9" t="s">
+      <c r="B176" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="C175" s="6" t="s">
+      <c r="C176" s="6" t="s">
         <v>541</v>
       </c>
     </row>
@@ -4496,13 +4522,14 @@
     <hyperlink ref="B155" r:id="rId168" xr:uid="{A836F43E-7BEF-9D42-A3B6-02508F69F61B}"/>
     <hyperlink ref="B161" r:id="rId169" xr:uid="{3E0387C4-753B-084F-8B94-EAB77D64B5F5}"/>
     <hyperlink ref="B157" r:id="rId170" xr:uid="{DCBD8E7E-15FD-E541-BF93-6B08A3B29FCB}"/>
-    <hyperlink ref="B175" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
-    <hyperlink ref="B172" r:id="rId172" xr:uid="{987C8D93-1A9E-2F41-BCB1-2BCD4D9BE0A5}"/>
-    <hyperlink ref="B174" r:id="rId173" xr:uid="{2DD41C73-7758-4B42-885B-07F0429CE93C}"/>
-    <hyperlink ref="B173" r:id="rId174" xr:uid="{F10562EB-0310-DF46-A34E-D06D1ED9BA78}"/>
+    <hyperlink ref="B176" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
+    <hyperlink ref="B173" r:id="rId172" xr:uid="{987C8D93-1A9E-2F41-BCB1-2BCD4D9BE0A5}"/>
+    <hyperlink ref="B175" r:id="rId173" xr:uid="{2DD41C73-7758-4B42-885B-07F0429CE93C}"/>
+    <hyperlink ref="B174" r:id="rId174" xr:uid="{F10562EB-0310-DF46-A34E-D06D1ED9BA78}"/>
+    <hyperlink ref="B172" r:id="rId175" xr:uid="{8A98A52A-A919-FF4D-9DE9-B9131F47D023}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId175"/>
+  <legacyDrawing r:id="rId176"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/Ciência com R Consultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58237D26-A8A1-5C40-A7DA-09F1CE875A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF1094C-171E-904E-8625-C6345EBC6E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="573">
   <si>
     <t>Doutorado</t>
   </si>
@@ -1784,6 +1784,21 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/15d-OPblHuqQcPlEKXVIwVcxAlGHWDhMK</t>
+  </si>
+  <si>
+    <t>UsIA</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YniosW3mfqnGNKlOKcJDg9LgNY2yIokg</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2024.02.032</t>
+  </si>
+  <si>
+    <t>Helen Cristian Banks, Thiago Lemos de Carvalho, Laura Alice Santos de Oliveira, Arthur Sá Ferreira, (2024) Short-term effects of pilates-based exercise on upper limb strength and function in people with Parkinson's disease, Journal of Bodywork and Movement Therapies, https://doi.org/10.1016/j.jbmt.2024.02.032.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZHYgZOk3quFRXi-OaYFgVXaGFwaG9vTl</t>
   </si>
 </sst>
 </file>
@@ -1823,7 +1838,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1833,6 +1848,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1870,7 +1891,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1929,10 +1950,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1971,9 +1995,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2011,7 +2035,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2117,7 +2141,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2259,7 +2283,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2394,13 +2418,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C176"/>
+  <dimension ref="A1:C177"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B173" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A176" sqref="A176"/>
+      <selection pane="bottomRight" activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4293,57 +4317,68 @@
       </c>
     </row>
     <row r="172" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A172" s="20" t="s">
+      <c r="A172" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="B172" s="21" t="s">
+      <c r="B172" s="20" t="s">
         <v>567</v>
       </c>
-      <c r="C172" s="20" t="s">
+      <c r="C172" s="6" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A173" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="B173" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>544</v>
+      <c r="A173" s="21" t="s">
+        <v>571</v>
+      </c>
+      <c r="B173" s="22" t="s">
+        <v>572</v>
+      </c>
+      <c r="C173" s="21" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A175" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B175" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C175" s="6" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A175" s="6" t="s">
+    <row r="176" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A176" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B175" s="7" t="s">
+      <c r="B176" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="C175" s="6" t="s">
+      <c r="C176" s="6" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A176" s="6" t="s">
+    <row r="177" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A177" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="B177" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="C177" s="6" t="s">
         <v>541</v>
       </c>
     </row>
@@ -4522,14 +4557,15 @@
     <hyperlink ref="B155" r:id="rId168" xr:uid="{A836F43E-7BEF-9D42-A3B6-02508F69F61B}"/>
     <hyperlink ref="B161" r:id="rId169" xr:uid="{3E0387C4-753B-084F-8B94-EAB77D64B5F5}"/>
     <hyperlink ref="B157" r:id="rId170" xr:uid="{DCBD8E7E-15FD-E541-BF93-6B08A3B29FCB}"/>
-    <hyperlink ref="B176" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
-    <hyperlink ref="B173" r:id="rId172" xr:uid="{987C8D93-1A9E-2F41-BCB1-2BCD4D9BE0A5}"/>
-    <hyperlink ref="B175" r:id="rId173" xr:uid="{2DD41C73-7758-4B42-885B-07F0429CE93C}"/>
-    <hyperlink ref="B174" r:id="rId174" xr:uid="{F10562EB-0310-DF46-A34E-D06D1ED9BA78}"/>
+    <hyperlink ref="B177" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
+    <hyperlink ref="B174" r:id="rId172" xr:uid="{987C8D93-1A9E-2F41-BCB1-2BCD4D9BE0A5}"/>
+    <hyperlink ref="B176" r:id="rId173" xr:uid="{2DD41C73-7758-4B42-885B-07F0429CE93C}"/>
+    <hyperlink ref="B175" r:id="rId174" xr:uid="{F10562EB-0310-DF46-A34E-D06D1ED9BA78}"/>
     <hyperlink ref="B172" r:id="rId175" xr:uid="{8A98A52A-A919-FF4D-9DE9-B9131F47D023}"/>
+    <hyperlink ref="B173" r:id="rId176" xr:uid="{6218FD34-82E7-2040-A7AF-0FC000086B8A}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId176"/>
+  <legacyDrawing r:id="rId177"/>
 </worksheet>
 </file>
 
@@ -4660,7 +4696,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D49A42-744A-EE4A-B294-D2CA066FEF3F}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4724,6 +4760,14 @@
         <v>561</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{9AD72881-6A9A-484B-B50E-3A319D3A3009}"/>
@@ -4731,6 +4775,7 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{1242E38A-BBEE-CE4E-B8DA-41D77806E8FD}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{50E8287C-B0FB-054A-A8E3-FBAD7129557B}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{07CF2AC3-B5DE-C24C-9C9B-3C08EDB0EC9B}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{7428485F-78DF-CC45-A80E-7888E5106270}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/Ciência com R Consultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF1094C-171E-904E-8625-C6345EBC6E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EB4171-8384-FC44-9BF7-FF5ED88043AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -1795,10 +1795,10 @@
     <t>10.1016/j.jbmt.2024.02.032</t>
   </si>
   <si>
-    <t>Helen Cristian Banks, Thiago Lemos de Carvalho, Laura Alice Santos de Oliveira, Arthur Sá Ferreira, (2024) Short-term effects of pilates-based exercise on upper limb strength and function in people with Parkinson's disease, Journal of Bodywork and Movement Therapies, https://doi.org/10.1016/j.jbmt.2024.02.032.</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1ZHYgZOk3quFRXi-OaYFgVXaGFwaG9vTl</t>
+  </si>
+  <si>
+    <t>Banks, H. C., Lemos de Carvalho, T., Santos de Oliveira, L. A., &amp; Ferreira, A. S. (2024). Short-term effects of pilates-based exercise on upper limb strength and function in people with Parkinson’s disease. In Journal of Bodywork and Movement Therapies (Vol. 39, pp. 237-242). Elsevier BV. https://doi.org/10.1016/j.jbmt.2024.02.032</t>
   </si>
 </sst>
 </file>
@@ -1838,7 +1838,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1848,12 +1848,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1891,7 +1885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1953,10 +1947,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4327,12 +4318,12 @@
         <v>566</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A173" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="B173" s="20" t="s">
         <v>571</v>
-      </c>
-      <c r="B173" s="22" t="s">
-        <v>572</v>
       </c>
       <c r="C173" s="21" t="s">
         <v>570</v>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Documents/Profissional/Softwares/R Markdown (site)/Ciência com R Consultoria/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/CienciaComRConsultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EB4171-8384-FC44-9BF7-FF5ED88043AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD77EDE-7BA7-C646-BFF5-88C8478B70CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="4" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
   <sheets>
     <sheet name="curriculo" sheetId="2" r:id="rId1"/>
     <sheet name="qualificacao-academica" sheetId="1" r:id="rId2"/>
     <sheet name="artigos-em-periodicos" sheetId="4" r:id="rId3"/>
     <sheet name="capitulos" sheetId="5" r:id="rId4"/>
-    <sheet name="aplicativos-com-registro" sheetId="3" r:id="rId5"/>
+    <sheet name="resumos-eventos" sheetId="7" r:id="rId5"/>
+    <sheet name="aplicativos-com-registro" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,8 +76,26 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={5F3E1215-D177-A746-AAAC-42C58D5DF4B2}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{5F3E1215-D177-A746-AAAC-42C58D5DF4B2}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    https://citation.crosscite.org</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="652">
   <si>
     <t>Doutorado</t>
   </si>
@@ -1786,9 +1805,6 @@
     <t>https://drive.google.com/file/d/15d-OPblHuqQcPlEKXVIwVcxAlGHWDhMK</t>
   </si>
   <si>
-    <t>UsIA</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1YniosW3mfqnGNKlOKcJDg9LgNY2yIokg</t>
   </si>
   <si>
@@ -1799,6 +1815,246 @@
   </si>
   <si>
     <t>Banks, H. C., Lemos de Carvalho, T., Santos de Oliveira, L. A., &amp; Ferreira, A. S. (2024). Short-term effects of pilates-based exercise on upper limb strength and function in people with Parkinson’s disease. In Journal of Bodywork and Movement Therapies (Vol. 39, pp. 237-242). Elsevier BV. https://doi.org/10.1016/j.jbmt.2024.02.032</t>
+  </si>
+  <si>
+    <t>10.3390/healthcare12070712</t>
+  </si>
+  <si>
+    <t>Al Yammahi, R. J., Alaparthi, G. K., de Sá Ferreira, A., Bairapareddy, K. C., &amp; Hegazy, F. A. (2024). Cardiopulmonary Response in Post-COVID-19 Individuals: A Cross-Sectional Study Comparing the Londrina Activities of Daily Living Protocol, 6-Minute Walk Test, and Glittre Activities of Daily Living Test. In Healthcare (Vol. 12, Issue 7, p. 712). MDPI AG. https://doi.org/10.3390/healthcare12070712</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lWJJiqatNsASswTy9mQU0w-isynOCtNL</t>
+  </si>
+  <si>
+    <t>10.1080/10803548.2024.2325819</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1F9Yo7xjv24ckPDdJ4c2sfkJeSjs4cEun</t>
+  </si>
+  <si>
+    <t>Farias, J. P., &amp; Ferreira, A. de S. (2024). Evidence map on burnout syndrome in higher education teachers and its relationship with ergonomic and biopsychosocial factors: a scoping review. In International Journal of Occupational Safety and Ergonomics (pp. 1–8). Informa UK Limited. https://doi.org/10.1080/10803548.2024.2325819</t>
+  </si>
+  <si>
+    <t>10.1590/S0104-12902024230197pt</t>
+  </si>
+  <si>
+    <t>Mocarzel, R., Kornin, A., Tesser, C., Ferreira, A. S. (2024). Quem pode atuar com acupuntura no Brasil? Saúde Soc. São Paulo, v.33, n.1, e230197pt, 2024 1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PhGJc2W4SbgfWXuBNqEKMxc1aw2Pwig1</t>
+  </si>
+  <si>
+    <t>10.17267/2238-2704rpf.2024.e5427</t>
+  </si>
+  <si>
+    <t>Leivas, E. G., Corrêa, L. A., Ferreira, A. de S., De Almeida, R. S., &amp; Nogueira, L. A. C. (2024). Falta de conhecimento sobre os fatores de risco não ocupacionais da dor lombar entre profissionais de saúde ocupacional brasileiros: um estudo observacional transversal. In Revista Pesquisa em Fisioterapia (Vol. 14, p. e5427). Escola Bahiana de Medicina e Saude Publica. https://doi.org/10.17267/2238-2704rpf.2024.e5427</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZzXJg-flM0OvPfcb2Ma6lF58FZo1BMXz</t>
+  </si>
+  <si>
+    <t>Ferreira AS; Silva CA; Silva JG. (2010) SCRIPT FOR KYNESIOLOGIC ELECTROMYOGRAM PROCESSING DURING SIT-TO-STAND MOVEMENT. Braz J Oral Sci. 9(2):142-332.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PspyyEx9eDFZwnae9oqBC8CF5JGMYV0d</t>
+  </si>
+  <si>
+    <t>Ferreira AS; Souza KCL; Silva JG. (2010) SCRIPT FOR ELECTROMYOGRAM PROCESSING WITH APPLICATION TO MUSCULAR ACTIVITY DURING POSTURAL CONTROL. Braz J Oral Sci. 9(2):142-332.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1i2zixY5lXsiPAaRuD04KOB6rw1hYgwi2</t>
+  </si>
+  <si>
+    <t>10.1016/j.jns.2015.08.685</t>
+  </si>
+  <si>
+    <t>Sá, M. R. C., Ribeiro, C. T., Fracho, F. G., Ferreira, A. S., Xavier, M., Guedes, V., Cunha, M. F., Custódio, R., Ferreira, A. C. A. F., &amp; Orsini, M. (2015). Age of independent sitting posture acquisition for children with myelomeningocele. In Journal of the Neurological Sciences (Vol. 357, p. e198). Elsevier BV. https://doi.org/10.1016/j.jns.2015.08.685</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bgLg8pDXcEYQ7pHEorjzHbiK369KFlq6</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aMAPw-2JE0_0lcRXflN8v1ke6j5QSykH</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aV4q3V_nsR8WBJ7z51C5UkhCNKlCgSqg</t>
+  </si>
+  <si>
+    <t>Souza, H. L. L. C.; Neto, A. E. S., ; Serejo, A. L. C.; Sertã, B. L.; Sá, A.; Guimarães, F. S.; Souza, L. C.; Lugon, J.R (2016). O NOVO ÍNDICE“TIE”: ANÁLISE DA REPRODUTIBILIDADE INTRA E INTEROBSERVADOR DE PACIENTES EM DESMAME PROLONGADO. ASSOBRAFIR Ciência. 2016 Jun;7(Supl 1):24-25.</t>
+  </si>
+  <si>
+    <t>Sant’ Anna Jr, M.; Carvalhal, R.; Oliveira, F.; Ferreira, A. S.; Zin, W. A.; Lugon, J. R.; Guimarães, F. S. (2016) INFLUÊNCIA DA FUNÇÃO RESPIRATÓRIA NA DISTÂNCIA PERCORRIDA NO TESTE DE CAMINHADA DE SEIS MINUTOS DE OBESOS MÓRBIDOS. ASSOBRAFIR Ciência. 2016 Jun;7(Supl 1):347-348.</t>
+  </si>
+  <si>
+    <t>de Araujo Ferreira, N., Lopes, A. J., de Sá Ferreira, A., Oliveira Dias, J., &amp; Silva Guimarães, F. (2017). Fatores determinantes do prognóstico funcional do paciente crítico sob intervenção fisioterapeutica. In Anais do Congresso Internacional de Qualidade em Serviços e Sistemas de Saúde. Congresso Internacional de Qualidade em Serviços e Sistemas de Saúde. Galoa. https://doi.org/10.17648/qualihosp-2017-69645</t>
+  </si>
+  <si>
+    <t>10.17648/qualihosp-2017-69645</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bZEW3zWoqcXqddWoKqAK74brHDOvgbzf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dYOAXc4f4uRldltbLDGGBo7RYTnrPkNx</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dWyrFF7Uuew1or0G9uVf3C_tVM0Uo-FZ</t>
+  </si>
+  <si>
+    <t>Letícia Amaral Corrêa. (2023, January). Reliability and concurrent validity of the PainMAP for Automated Quantification of Pain Drawings in Body Charts in Patients with Low Back Pain. Trabalho apresentado em Anais do XXIII Congresso Brasileiro de Fisioterapia.</t>
+  </si>
+  <si>
+    <t>Letícia Amaral Corrêa. (2023, January). Gait initiation in patients with plantar heel pain: a matched case-control study. Trabalho apresentado em Anais do XXIII Congresso Brasileiro de Fisioterapia.</t>
+  </si>
+  <si>
+    <t>Marcos Paulo Gonçalves dos Ssantos. (2023, January). Viabilidade e segurança de um programa de exercícios de equilíbrio estático e dinâmico para indivíduos com Ataxia Espinocerebelar. Trabalho apresentado em Anais do XXIII Congresso Brasileiro de Fisioterapia.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PuE88YOcjq5qPtKkBI2VGPPjQsVIgv6H</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iuZOuMRV57BNU0W0UxUNVNJPG2j_vlqU</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aLIi9ZpkZxnulgcRR3hGBlaIcSi50cMM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bhh9SzxL_JHYnhDVN2pftMQbWeKAaiQT</t>
+  </si>
+  <si>
+    <t>Oliveira, J. P. A.; Costa, A. C. T.; Lopes, A. J.; Ferreira, A. S.; Reis, L. F. F. (2022) Fatores associados à sobrevida em pacientes com síndrome do desconforto respiratório agudo por COVID-19 em uma coorte multicêntrica. Rev Bras Ter Intensiva. 2022;Supl. 1:S3</t>
+  </si>
+  <si>
+    <t>Oliveira, J. P. A.; Diniz, C. P.; Costa, A. C. T.; Lopes, A. J.; Ferreira, A. S.; Reis, L. F. F. (2022) FATORES ASSOCIADOS A MORTALIDADE EM PACIENTES VENTILADOS MECANICAMENTE COM SÍNDROME RESPIRATÓRIA AGUDA GRAVE POR EVOLUÇÃO DA COVID-19 EM UMA COORTE MULTICÊNTRICA RETROSPECTIVA. ASSOBRAFIR Ciência. 2022 Abr (Supl 1):27.</t>
+  </si>
+  <si>
+    <t>10.36660/ijcs.20220082</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Picv1RSaaOAL8KW-Vna_Yi3jabY9X-3m</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Pe_WTGdz5PfHW57fGtlDyoRLZr7AO96o</t>
+  </si>
+  <si>
+    <t>Parisotto, G.; Ferreira, A. S.; Reis, L. F. F.; Sant'Anna Junior, M.; Papathanasiou, J.; (2022) Associação entre Múltiplos Fatores de Risco Cardiovascular com Função Musculoesquelética Respiratória e Periférica em Pacientes Internados com Síndrome Coronariana Aguda: um Estudo Transversal. Int J Cardiovasc Sci. 2022;35(Supp A):107</t>
+  </si>
+  <si>
+    <t>Moraes, P. I.; Ferreira, A. S.; Lunkes, L. C. (2023) DOR CRÔNICA: INFLUÊNCIA DOS FATORES BIOPSICOSSOCAIS E SUA ASSOCIAÇÃO AO RISCO DE QUEDA NOS IDOSOS RESIDENTES EM LAVRAS- MG. Revista Científica Pro Homine, 6(1):20.</t>
+  </si>
+  <si>
+    <t>Neto, M.A.; Barra, L.; Castro, L.R.; Lunkes, L.; Ferreira, A. S.; Meziat-Filho, N (2023) VALORIZAÇÃO DO RIGOR METODOLÓGICO: PROTOCOLO DE UM ENSAIO CLÍNICO RANDOMIZADO PARA PACIENTES COM DOR LOMBAR CRÔNICA. Revista Científica Pro Homine, 6(1):19</t>
+  </si>
+  <si>
+    <t>UsIA | Ultrasound Image Analyzer</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/13tlXvVapOfUIO_-gDOw7S7HdA0yKUxX8</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aFgRRtdjynB5a-iNHPalyaFINUJ84eDu</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vA39xAQoS7oH1oACnLGq-yPoJa7o0fBU</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nTFKSbl_MKBZg6Z59hcaRPT1p6r700al</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bU5a1hxdrqz-13WnKNkOKO73jIWmUIxW</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/182kwgxKh5OwmChNMUYdoEOYxFiD-QZ5g</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SBNSOIxIb9uT53hgbGvZzdhxXQRY1tpn</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZWA3s76S-xiuopBo3KgLns_W99mLrAyM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DCbBRtNfwcM8ID2KzevhP8d8lVAKQVTJ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tlTSUjb0P0wX2ZoCidb24-PMZc_dyOhZ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Pgy0KpJFfB3NiKFszGf4hYDB1Iyvli6g</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lmQAtZ_kIknf1sTosSnJOjvFTvRtadqI</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100797</t>
+  </si>
+  <si>
+    <t>Antunes, J. E. M. C., de Carvalho, T. L., Ferreira, A. de S., &amp; dos Anjos, F. V. (2024). THE EFFECT OF DIFFERENT TYPES OF BIOFEEDBACK ON THE LEVEL OF MUSCLE ACTIVITY DURING STANDING BALANCE. In Brazilian Journal of Physical Therapy (Vol. 28, p. 100797). Elsevier BV. https://doi.org/10.1016/j.bjpt.2024.100797</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100816</t>
+  </si>
+  <si>
+    <t>Bittencourt, J. V., Leivas, E. G., Ferreira, A. de S., &amp; Nogueira, L. A. C. (2024). THE PAINDETECT QUESTIONNAIRE TRULY IDENTIFIED PRESERVED CONDITIONED PAIN MODULATION IN MOST PATIENTS WITH MUSCULOSKELETAL PAIN. In Brazilian Journal of Physical Therapy (Vol. 28, p. 100816). Elsevier BV. https://doi.org/10.1016/j.bjpt.2024.100816</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100690</t>
+  </si>
+  <si>
+    <t>Casagrande, C. M. Z., &amp; Ferreira, A. de S. (2024). WORK ABILITY PREDICTS OCCUPATIONAL HEALTH-RELATED ABSENTEEISM IN PROFESSIONAL DRIVERS: A 1-YEAR LONGITUDINAL STUDY. In Brazilian Journal of Physical Therapy (Vol. 28, p. 100690). Elsevier BV. https://doi.org/10.1016/j.bjpt.2024.100690</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100764</t>
+  </si>
+  <si>
+    <t>Correia, I. M. T., Ferreira, A. de S., Fernandez, J., Reis, F. J. J., Nogueira, L. A. C., &amp; Meziat-Filho, N. (2024). ASSOCIATION BETWEEN “TEXT NECK” AND NECK PAIN IN ADULTS: A LONGITUDINAL STUDY. In Brazilian Journal of Physical Therapy (Vol. 28, p. 100764). Elsevier BV. https://doi.org/10.1016/j.bjpt.2024.100764</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100986</t>
+  </si>
+  <si>
+    <t>Costa, S., &amp; Ferreira, A. de S. (2024). PRESCRIPTION OF ACUPUNCTURE POINTS BY PHYSICAL THERAPISTS FOR NECK PAIN: INTER-RATER AGREEMENT. In Brazilian Journal of Physical Therapy (Vol. 28, p. 100986). Elsevier BV. https://doi.org/10.1016/j.bjpt.2024.100986</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100783</t>
+  </si>
+  <si>
+    <t>Farias, J. P., &amp; Ferreira, A. de S. (2024). EFFECTIVENESS OF INTERVENTIONS FOR HIGHER EDUCATION TEACHERS WITH BURNOUT SYNDROME: A SYSTEMATIC REVIEW. In Brazilian Journal of Physical Therapy (Vol. 28, p. 100783). Elsevier BV. https://doi.org/10.1016/j.bjpt.2024.100783</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100784</t>
+  </si>
+  <si>
+    <t>Farias, J. P., &amp; Ferreira, A. de S. (2024). MAPPING EVIDENCE ON BURNOUT SYNDROME IN UNIVERSITY PROFESSORS AND ITS RELATIONSHIP WITH ERGONOMIC AND BIOPSYCHOSOCIAL FACTORS: A SCOPE REVIEW. In Brazilian Journal of Physical Therapy (Vol. 28, p. 100784). Elsevier BV. https://doi.org/10.1016/j.bjpt.2024.100784</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100978</t>
+  </si>
+  <si>
+    <t>John, R., de Carvalho, T. L., Ferreira, A. de S., Imbiriba, L. A., &amp; dos Anjos, F. V. (2024). THE EFFECT OF BIOFEEDBACK ON ANXIETY AND BALANCE CONFIDENCE DURING STANDING. In Brazilian Journal of Physical Therapy (Vol. 28, p. 100978). Elsevier BV. https://doi.org/10.1016/j.bjpt.2024.100978</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100975</t>
+  </si>
+  <si>
+    <t>Ribeiro, R. de S. T., dos Anjos, F. V., de Jesus, I. R. T., &amp; Ferreira, A. de S. (2024). IMMEDIATE EFFECTS OF SELF-MYOFASCIAL RELEASE ON NEUROMUSCULAR AND FUNCTIONAL PERFORMANCE OF PHYSICALLY ACTIVE HEALTHY ADULTS: A CROSSOVER STUDY. In Brazilian Journal of Physical Therapy (Vol. 28, p. 100975). Elsevier BV. https://doi.org/10.1016/j.bjpt.2024.100975</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100603</t>
+  </si>
+  <si>
+    <t>Sancho, A. G., &amp; Ferreira, A. de S. (2024). THE INTRODUCTION OF NEW TECHNOLOGIES APPLIED TO THE CITIZEN SCIENCE METHOD IN SCIENTIFIC PROJECTS IN HEALTH: AN INTEGRATIVE REVIEW. In Brazilian Journal of Physical Therapy (Vol. 28, p. 100603). Elsevier BV. https://doi.org/10.1016/j.bjpt.2024.100603</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100899</t>
+  </si>
+  <si>
+    <t>Schmitz, M. C., de Carvalho, T. L., Ferreira, A. de S., &amp; dos Anjos, F. V. (2024). THE EFFECT OF ILIOPSOAS MYOFASCIAL RELEASE ON POSTURAL balance in futsal athletes. In Brazilian Journal of Physical Therapy (Vol. 28, p. 100899). Elsevier BV. https://doi.org/10.1016/j.bjpt.2024.100899</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2024.100614</t>
+  </si>
+  <si>
+    <t>da Silva, A. C. S., Reis, L. F. da F., Lopes, A. J., &amp; Ferreira, A. de S. (2024). CLINICAL AND FUNCTIONAL EFFECTS OF SUPERVISED AND UNSUPERVISED CARDIOPULMONARY REHABILITATION IN POST-COVID-19 SYNDROME: STUDY PROTOCOL FOR A RANDOMIZED CONTROLLED CLINICAL TRIAL. In Brazilian Journal of Physical Therapy (Vol. 28, p. 100614). Elsevier BV. https://doi.org/10.1016/j.bjpt.2024.100614</t>
   </si>
 </sst>
 </file>
@@ -1838,7 +2094,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1848,6 +2104,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1947,7 +2209,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1986,9 +2248,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2026,7 +2288,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2132,7 +2394,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2274,7 +2536,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2291,6 +2553,14 @@
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2022-11-04T12:25:39.86" personId="{DF99B094-8537-A74A-821D-4A456C6826F4}" id="{B825695E-50C7-D542-A8C5-7120514BE701}">
+    <text>https://citation.crosscite.org</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2022-11-04T12:25:39.86" personId="{DF99B094-8537-A74A-821D-4A456C6826F4}" id="{5F3E1215-D177-A746-AAAC-42C58D5DF4B2}">
     <text>https://citation.crosscite.org</text>
   </threadedComment>
 </ThreadedComments>
@@ -2409,13 +2679,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C177"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B173" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B178" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A177" sqref="A177"/>
+      <selection pane="bottomRight" activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4309,67 +4579,111 @@
     </row>
     <row r="172" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="B172" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A173" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="B172" s="20" t="s">
+      <c r="B173" s="20" t="s">
         <v>567</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="C173" s="6" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A173" s="21" t="s">
-        <v>572</v>
-      </c>
-      <c r="B173" s="20" t="s">
+    <row r="174" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A174" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="C173" s="21" t="s">
+      <c r="B174" s="20" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A174" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="B174" s="9" t="s">
-        <v>558</v>
-      </c>
       <c r="C174" s="6" t="s">
-        <v>544</v>
+        <v>569</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A176" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A177" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A178" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A179" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B175" s="9" t="s">
+      <c r="B179" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="C175" s="6" t="s">
+      <c r="C179" s="6" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A176" s="6" t="s">
+    <row r="180" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A180" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B176" s="7" t="s">
+      <c r="B180" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="C180" s="6" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A177" s="6" t="s">
+    <row r="181" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A181" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B177" s="9" t="s">
+      <c r="B181" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="C177" s="6" t="s">
+      <c r="C181" s="6" t="s">
         <v>541</v>
       </c>
     </row>
@@ -4548,15 +4862,19 @@
     <hyperlink ref="B155" r:id="rId168" xr:uid="{A836F43E-7BEF-9D42-A3B6-02508F69F61B}"/>
     <hyperlink ref="B161" r:id="rId169" xr:uid="{3E0387C4-753B-084F-8B94-EAB77D64B5F5}"/>
     <hyperlink ref="B157" r:id="rId170" xr:uid="{DCBD8E7E-15FD-E541-BF93-6B08A3B29FCB}"/>
-    <hyperlink ref="B177" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
-    <hyperlink ref="B174" r:id="rId172" xr:uid="{987C8D93-1A9E-2F41-BCB1-2BCD4D9BE0A5}"/>
-    <hyperlink ref="B176" r:id="rId173" xr:uid="{2DD41C73-7758-4B42-885B-07F0429CE93C}"/>
-    <hyperlink ref="B175" r:id="rId174" xr:uid="{F10562EB-0310-DF46-A34E-D06D1ED9BA78}"/>
-    <hyperlink ref="B172" r:id="rId175" xr:uid="{8A98A52A-A919-FF4D-9DE9-B9131F47D023}"/>
-    <hyperlink ref="B173" r:id="rId176" xr:uid="{6218FD34-82E7-2040-A7AF-0FC000086B8A}"/>
+    <hyperlink ref="B181" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
+    <hyperlink ref="B176" r:id="rId172" xr:uid="{987C8D93-1A9E-2F41-BCB1-2BCD4D9BE0A5}"/>
+    <hyperlink ref="B180" r:id="rId173" xr:uid="{2DD41C73-7758-4B42-885B-07F0429CE93C}"/>
+    <hyperlink ref="B179" r:id="rId174" xr:uid="{F10562EB-0310-DF46-A34E-D06D1ED9BA78}"/>
+    <hyperlink ref="B173" r:id="rId175" xr:uid="{8A98A52A-A919-FF4D-9DE9-B9131F47D023}"/>
+    <hyperlink ref="B174" r:id="rId176" xr:uid="{6218FD34-82E7-2040-A7AF-0FC000086B8A}"/>
+    <hyperlink ref="B172" r:id="rId177" xr:uid="{85C85685-7EBF-7D48-938F-36594F45EEDA}"/>
+    <hyperlink ref="B175" r:id="rId178" xr:uid="{4FD6341B-0556-3B44-8E3C-810F5A767D1A}"/>
+    <hyperlink ref="B178" r:id="rId179" xr:uid="{D154EAD9-4FCA-F54D-8A01-654716B5FCF9}"/>
+    <hyperlink ref="B177" r:id="rId180" xr:uid="{FBB2040A-18B3-7E4C-AC4E-ABF880E20EF4}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId177"/>
+  <legacyDrawing r:id="rId181"/>
 </worksheet>
 </file>
 
@@ -4686,6 +5004,327 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12814D52-B4A6-0C42-8333-C9B66CE67680}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43" style="6" customWidth="1"/>
+    <col min="2" max="2" width="64.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="1:3" ht="171" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>650</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{0C9DF644-4D1C-6E4A-9F49-189CC05B8C64}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{026A37DE-594B-6144-902D-4A87A86F35C8}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{DC84DBAB-4128-6644-97B5-A07DCB7897F7}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{D4A2B828-C68B-264A-8913-339FA86EC3AF}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{204884FC-5368-214A-91C9-33284DD5E6E0}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{DF8A6DB3-A44A-3B42-9BFE-E7404D9F1B75}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{1906F7E8-CD92-E048-AA90-027231A2DE83}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{80B49CD8-723E-BD40-84EA-3EA903BA1095}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{17AE5B9B-F827-7B44-85A1-3616F49073F2}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{D055EF65-5445-9A47-903D-E099A0946BD8}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{ADB098A5-4FB4-DB4F-A0B5-D41365780894}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{C02A6B7D-03DD-EA4E-8CD1-C458329E60E1}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{4D5A6F2B-BBA3-A846-9BEA-D4CF59AE9B48}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{74BF8BA0-FBB0-DD45-B603-8A4CBD4A80F7}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{F7FC47DA-5895-104B-A5EE-00B31E2A89A2}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{1F02A75E-C900-9442-9EF1-1704884C6D0B}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{A4441F21-95D1-184B-A02A-069FE51B2013}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{98BDB524-F349-D847-B68E-37B85A9B22DE}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{2DA1627F-FD62-674A-8A06-5FFD02D47D60}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{E56AD9A2-9B59-4541-BA58-ABAA32758395}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{061A69C7-599C-6445-940A-D68363215851}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{63765BB2-AE73-E047-945D-65CEDE36E037}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{8F925C65-8395-7644-8632-4DFA77F7A323}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{42F105AF-5F8B-4A4F-9F1A-D7DCD4E2FA81}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{B92025E6-00CA-0E44-BA09-6154B4524AE5}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{E83AE0CD-055A-0F4E-8164-7813AB2D28A8}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId27"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D49A42-744A-EE4A-B294-D2CA066FEF3F}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -4753,10 +5392,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>568</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/CienciaComRConsultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD77EDE-7BA7-C646-BFF5-88C8478B70CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92D513B-E278-8A43-A19A-884114089C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="4" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="5" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
   <sheets>
     <sheet name="curriculo" sheetId="2" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="656">
   <si>
     <t>Doutorado</t>
   </si>
@@ -2055,6 +2055,18 @@
   </si>
   <si>
     <t>da Silva, A. C. S., Reis, L. F. da F., Lopes, A. J., &amp; Ferreira, A. de S. (2024). CLINICAL AND FUNCTIONAL EFFECTS OF SUPERVISED AND UNSUPERVISED CARDIOPULMONARY REHABILITATION IN POST-COVID-19 SYNDROME: STUDY PROTOCOL FOR A RANDOMIZED CONTROLLED CLINICAL TRIAL. In Brazilian Journal of Physical Therapy (Vol. 28, p. 100614). Elsevier BV. https://doi.org/10.1016/j.bjpt.2024.100614</t>
+  </si>
+  <si>
+    <t>https://ppgdl-unisuam.github.io/proteses/</t>
+  </si>
+  <si>
+    <t>https://ppgdl-unisuam.github.io/fisica-ambiental/</t>
+  </si>
+  <si>
+    <t>https://sciencer.shinyapps.io/UsIA/</t>
+  </si>
+  <si>
+    <t>Aplicativo</t>
   </si>
 </sst>
 </file>
@@ -4611,7 +4623,7 @@
       </c>
     </row>
     <row r="175" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A175" s="6" t="s">
+      <c r="A175" s="21" t="s">
         <v>577</v>
       </c>
       <c r="B175" s="9" t="s">
@@ -5007,11 +5019,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12814D52-B4A6-0C42-8333-C9B66CE67680}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5326,9 +5338,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D49A42-744A-EE4A-B294-D2CA066FEF3F}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5337,75 +5349,92 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="29.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>560</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>615</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>568</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{9AD72881-6A9A-484B-B50E-3A319D3A3009}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{0D5DFB21-CDB8-9246-84F1-F449719170FE}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{1242E38A-BBEE-CE4E-B8DA-41D77806E8FD}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{50E8287C-B0FB-054A-A8E3-FBAD7129557B}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{07CF2AC3-B5DE-C24C-9C9B-3C08EDB0EC9B}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{7428485F-78DF-CC45-A80E-7888E5106270}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{9AD72881-6A9A-484B-B50E-3A319D3A3009}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{0D5DFB21-CDB8-9246-84F1-F449719170FE}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{1242E38A-BBEE-CE4E-B8DA-41D77806E8FD}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{50E8287C-B0FB-054A-A8E3-FBAD7129557B}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{07CF2AC3-B5DE-C24C-9C9B-3C08EDB0EC9B}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{7428485F-78DF-CC45-A80E-7888E5106270}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{F3095D21-8822-F441-B312-204231A6E378}"/>
+    <hyperlink ref="B6" r:id="rId8" xr:uid="{5FB30252-5937-7948-B4BB-180736E156E6}"/>
+    <hyperlink ref="B7" r:id="rId9" xr:uid="{5F395E17-E4AF-054E-86DB-3A8C85147AFE}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/CienciaComRConsultoria/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/CienciaComRConsultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92D513B-E278-8A43-A19A-884114089C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80790A41-2729-DC44-BF90-EF5C2A8844E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="5" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="27600" windowHeight="17140" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
   <sheets>
     <sheet name="curriculo" sheetId="2" r:id="rId1"/>
@@ -1832,15 +1832,9 @@
     <t>https://drive.google.com/file/d/1F9Yo7xjv24ckPDdJ4c2sfkJeSjs4cEun</t>
   </si>
   <si>
-    <t>Farias, J. P., &amp; Ferreira, A. de S. (2024). Evidence map on burnout syndrome in higher education teachers and its relationship with ergonomic and biopsychosocial factors: a scoping review. In International Journal of Occupational Safety and Ergonomics (pp. 1–8). Informa UK Limited. https://doi.org/10.1080/10803548.2024.2325819</t>
-  </si>
-  <si>
     <t>10.1590/S0104-12902024230197pt</t>
   </si>
   <si>
-    <t>Mocarzel, R., Kornin, A., Tesser, C., Ferreira, A. S. (2024). Quem pode atuar com acupuntura no Brasil? Saúde Soc. São Paulo, v.33, n.1, e230197pt, 2024 1</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1PhGJc2W4SbgfWXuBNqEKMxc1aw2Pwig1</t>
   </si>
   <si>
@@ -2067,6 +2061,12 @@
   </si>
   <si>
     <t>Aplicativo</t>
+  </si>
+  <si>
+    <t>Mocarzel, R., Kornin, A., Tesser, C., &amp; Ferreira, A. de S. (2024). Quem pode atuar com acupuntura no Brasil? In Saúde e Sociedade (Vol. 33, Issue 2). FapUNIFESP (SciELO). https://doi.org/10.1590/s0104-12902024230197pt</t>
+  </si>
+  <si>
+    <t>Farias, J. P., &amp; Ferreira, A. de S. (2024). Evidence map on burnout syndrome in higher education teachers and its relationship with ergonomic and biopsychosocial factors: a scoping review. In International Journal of Occupational Safety and Ergonomics (Vol. 30, Issue 2, pp. 579–586). Informa UK Limited. https://doi.org/10.1080/10803548.2024.2325819</t>
   </si>
 </sst>
 </file>
@@ -2106,7 +2106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2116,12 +2116,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2221,7 +2215,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2260,9 +2254,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2300,7 +2294,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2406,7 +2400,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2548,7 +2542,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2582,7 +2576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AFE2F4-32B3-5A4F-B0D3-5766AC05F50D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4622,9 +4616,9 @@
         <v>569</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A175" s="21" t="s">
-        <v>577</v>
+        <v>655</v>
       </c>
       <c r="B175" s="9" t="s">
         <v>576</v>
@@ -4646,24 +4640,24 @@
     </row>
     <row r="177" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A178" s="21" t="s">
-        <v>579</v>
+        <v>654</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -5047,259 +5041,259 @@
     </row>
     <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3" ht="137" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="120" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:3" ht="171" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>597</v>
-      </c>
       <c r="C7" s="12" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="103" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="137" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="120" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -5340,7 +5334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D49A42-744A-EE4A-B294-D2CA066FEF3F}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5360,7 +5354,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -5396,7 +5390,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>17</v>
@@ -5407,7 +5401,7 @@
         <v>560</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>561</v>
@@ -5415,10 +5409,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>568</v>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/CienciaComRConsultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80790A41-2729-DC44-BF90-EF5C2A8844E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBECCCA-3E96-B247-87AA-1B456EB7664B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="500" windowWidth="27600" windowHeight="17140" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
   <sheets>
     <sheet name="curriculo" sheetId="2" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="659">
   <si>
     <t>Doutorado</t>
   </si>
@@ -2067,6 +2067,15 @@
   </si>
   <si>
     <t>Farias, J. P., &amp; Ferreira, A. de S. (2024). Evidence map on burnout syndrome in higher education teachers and its relationship with ergonomic and biopsychosocial factors: a scoping review. In International Journal of Occupational Safety and Ergonomics (Vol. 30, Issue 2, pp. 579–586). Informa UK Limited. https://doi.org/10.1080/10803548.2024.2325819</t>
+  </si>
+  <si>
+    <t>10.56984/8ZG5608SR5</t>
+  </si>
+  <si>
+    <t>Ali, N. M., Alaparthi, G. K., de Sá Ferreira, A., Arumugam, A., &amp; Bairapareddy, K. C. (2024). A national survey of physiotherapists’ assessment and management practices for patients with COVID-19 in acute and rehabilitation care in the United Arab Emirates. In Fizjoterapia Polska (Vol. 24, Issue 2, pp. 309–317). DJ Studio Dariusz Jasinski. https://doi.org/10.56984/8zg5608sr5</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RYrdVJDodlbSFJ6TXn7w-ZqwLOw4VL7s</t>
   </si>
 </sst>
 </file>
@@ -2153,7 +2162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2213,9 +2222,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2576,7 +2582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AFE2F4-32B3-5A4F-B0D3-5766AC05F50D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2685,13 +2691,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C182"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B178" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B179" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A181" sqref="A181"/>
+      <selection pane="bottomRight" activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4594,102 +4600,113 @@
         <v>572</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="B173" s="20" t="s">
+        <v>658</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A174" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="B173" s="20" t="s">
+      <c r="B174" s="20" t="s">
         <v>567</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="C174" s="6" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A174" s="6" t="s">
+    <row r="175" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A175" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="B174" s="20" t="s">
+      <c r="B175" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C175" s="6" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A175" s="21" t="s">
+    <row r="176" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A176" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="B175" s="9" t="s">
+      <c r="B176" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="C175" s="6" t="s">
+      <c r="C176" s="6" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A176" s="6" t="s">
+    <row r="177" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A177" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="B177" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="C177" s="6" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A177" s="6" t="s">
+    <row r="178" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A178" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="B177" s="9" t="s">
+      <c r="B178" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="C177" s="6" t="s">
+      <c r="C178" s="6" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A178" s="21" t="s">
+    <row r="179" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A179" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B179" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="C178" s="6" t="s">
+      <c r="C179" s="6" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A179" s="6" t="s">
+    <row r="180" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A180" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B179" s="9" t="s">
+      <c r="B180" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="C180" s="6" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A180" s="6" t="s">
+    <row r="181" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A181" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B180" s="7" t="s">
+      <c r="B181" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="C180" s="6" t="s">
+      <c r="C181" s="6" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A181" s="6" t="s">
+    <row r="182" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A182" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B182" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="C181" s="6" t="s">
+      <c r="C182" s="6" t="s">
         <v>541</v>
       </c>
     </row>
@@ -4868,19 +4885,20 @@
     <hyperlink ref="B155" r:id="rId168" xr:uid="{A836F43E-7BEF-9D42-A3B6-02508F69F61B}"/>
     <hyperlink ref="B161" r:id="rId169" xr:uid="{3E0387C4-753B-084F-8B94-EAB77D64B5F5}"/>
     <hyperlink ref="B157" r:id="rId170" xr:uid="{DCBD8E7E-15FD-E541-BF93-6B08A3B29FCB}"/>
-    <hyperlink ref="B181" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
-    <hyperlink ref="B176" r:id="rId172" xr:uid="{987C8D93-1A9E-2F41-BCB1-2BCD4D9BE0A5}"/>
-    <hyperlink ref="B180" r:id="rId173" xr:uid="{2DD41C73-7758-4B42-885B-07F0429CE93C}"/>
-    <hyperlink ref="B179" r:id="rId174" xr:uid="{F10562EB-0310-DF46-A34E-D06D1ED9BA78}"/>
-    <hyperlink ref="B173" r:id="rId175" xr:uid="{8A98A52A-A919-FF4D-9DE9-B9131F47D023}"/>
-    <hyperlink ref="B174" r:id="rId176" xr:uid="{6218FD34-82E7-2040-A7AF-0FC000086B8A}"/>
+    <hyperlink ref="B182" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
+    <hyperlink ref="B177" r:id="rId172" xr:uid="{987C8D93-1A9E-2F41-BCB1-2BCD4D9BE0A5}"/>
+    <hyperlink ref="B181" r:id="rId173" xr:uid="{2DD41C73-7758-4B42-885B-07F0429CE93C}"/>
+    <hyperlink ref="B180" r:id="rId174" xr:uid="{F10562EB-0310-DF46-A34E-D06D1ED9BA78}"/>
+    <hyperlink ref="B174" r:id="rId175" xr:uid="{8A98A52A-A919-FF4D-9DE9-B9131F47D023}"/>
+    <hyperlink ref="B175" r:id="rId176" xr:uid="{6218FD34-82E7-2040-A7AF-0FC000086B8A}"/>
     <hyperlink ref="B172" r:id="rId177" xr:uid="{85C85685-7EBF-7D48-938F-36594F45EEDA}"/>
-    <hyperlink ref="B175" r:id="rId178" xr:uid="{4FD6341B-0556-3B44-8E3C-810F5A767D1A}"/>
-    <hyperlink ref="B178" r:id="rId179" xr:uid="{D154EAD9-4FCA-F54D-8A01-654716B5FCF9}"/>
-    <hyperlink ref="B177" r:id="rId180" xr:uid="{FBB2040A-18B3-7E4C-AC4E-ABF880E20EF4}"/>
+    <hyperlink ref="B176" r:id="rId178" xr:uid="{4FD6341B-0556-3B44-8E3C-810F5A767D1A}"/>
+    <hyperlink ref="B179" r:id="rId179" xr:uid="{D154EAD9-4FCA-F54D-8A01-654716B5FCF9}"/>
+    <hyperlink ref="B178" r:id="rId180" xr:uid="{FBB2040A-18B3-7E4C-AC4E-ABF880E20EF4}"/>
+    <hyperlink ref="B173" r:id="rId181" xr:uid="{C69EE705-E244-0F4D-BD99-36D9896017C6}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId181"/>
+  <legacyDrawing r:id="rId182"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/CienciaComRConsultoria/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/CienciaComRConsultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBECCCA-3E96-B247-87AA-1B456EB7664B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E79B12-54E2-634D-9DBF-192241FCFBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="662">
   <si>
     <t>Doutorado</t>
   </si>
@@ -2076,6 +2076,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1RYrdVJDodlbSFJ6TXn7w-ZqwLOw4VL7s</t>
+  </si>
+  <si>
+    <t>10.12688/f1000research.152751.1</t>
+  </si>
+  <si>
+    <t>Kumar P, Ferreira AdS, Nogueira LAC et al. Influence of Kinesiophobia on muscle endurance in patients with chronic low back pain- A case-control study [version 1; peer review: awaiting peer review]. F1000Research 2024, 13:1016. https://doi.org/10.12688/f1000research.152751.1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1KmgdI1NUzLq6cuQ2VF3nZaOyQAUTVJF6</t>
   </si>
 </sst>
 </file>
@@ -2260,9 +2269,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2300,7 +2309,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2406,7 +2415,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2548,7 +2557,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2691,13 +2700,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C182"/>
+  <dimension ref="A1:C183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B179" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A182" sqref="A182"/>
+      <selection pane="bottomRight" activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4655,58 +4664,69 @@
         <v>544</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A179" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B179" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="C178" s="6" t="s">
+      <c r="C179" s="6" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A179" s="6" t="s">
+    <row r="180" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A180" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="B179" s="9" t="s">
+      <c r="B180" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="C180" s="6" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A180" s="6" t="s">
+    <row r="181" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A181" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="B181" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="C180" s="6" t="s">
+      <c r="C181" s="6" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A181" s="6" t="s">
+    <row r="182" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A182" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="B182" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="C181" s="6" t="s">
+      <c r="C182" s="6" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A182" s="6" t="s">
+    <row r="183" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A183" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B182" s="9" t="s">
+      <c r="B183" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="C182" s="6" t="s">
+      <c r="C183" s="6" t="s">
         <v>541</v>
       </c>
     </row>
@@ -4885,20 +4905,21 @@
     <hyperlink ref="B155" r:id="rId168" xr:uid="{A836F43E-7BEF-9D42-A3B6-02508F69F61B}"/>
     <hyperlink ref="B161" r:id="rId169" xr:uid="{3E0387C4-753B-084F-8B94-EAB77D64B5F5}"/>
     <hyperlink ref="B157" r:id="rId170" xr:uid="{DCBD8E7E-15FD-E541-BF93-6B08A3B29FCB}"/>
-    <hyperlink ref="B182" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
+    <hyperlink ref="B183" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
     <hyperlink ref="B177" r:id="rId172" xr:uid="{987C8D93-1A9E-2F41-BCB1-2BCD4D9BE0A5}"/>
-    <hyperlink ref="B181" r:id="rId173" xr:uid="{2DD41C73-7758-4B42-885B-07F0429CE93C}"/>
-    <hyperlink ref="B180" r:id="rId174" xr:uid="{F10562EB-0310-DF46-A34E-D06D1ED9BA78}"/>
+    <hyperlink ref="B182" r:id="rId173" xr:uid="{2DD41C73-7758-4B42-885B-07F0429CE93C}"/>
+    <hyperlink ref="B181" r:id="rId174" xr:uid="{F10562EB-0310-DF46-A34E-D06D1ED9BA78}"/>
     <hyperlink ref="B174" r:id="rId175" xr:uid="{8A98A52A-A919-FF4D-9DE9-B9131F47D023}"/>
     <hyperlink ref="B175" r:id="rId176" xr:uid="{6218FD34-82E7-2040-A7AF-0FC000086B8A}"/>
     <hyperlink ref="B172" r:id="rId177" xr:uid="{85C85685-7EBF-7D48-938F-36594F45EEDA}"/>
     <hyperlink ref="B176" r:id="rId178" xr:uid="{4FD6341B-0556-3B44-8E3C-810F5A767D1A}"/>
-    <hyperlink ref="B179" r:id="rId179" xr:uid="{D154EAD9-4FCA-F54D-8A01-654716B5FCF9}"/>
-    <hyperlink ref="B178" r:id="rId180" xr:uid="{FBB2040A-18B3-7E4C-AC4E-ABF880E20EF4}"/>
+    <hyperlink ref="B180" r:id="rId179" xr:uid="{D154EAD9-4FCA-F54D-8A01-654716B5FCF9}"/>
+    <hyperlink ref="B179" r:id="rId180" xr:uid="{FBB2040A-18B3-7E4C-AC4E-ABF880E20EF4}"/>
     <hyperlink ref="B173" r:id="rId181" xr:uid="{C69EE705-E244-0F4D-BD99-36D9896017C6}"/>
+    <hyperlink ref="B178" r:id="rId182" xr:uid="{AD85627C-75D8-544B-B091-1ECC810BAE64}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId182"/>
+  <legacyDrawing r:id="rId183"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/CienciaComRConsultoria/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/CienciaComRConsultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E79B12-54E2-634D-9DBF-192241FCFBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA85B08B-2601-4947-B9A4-BEFD36C6FCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="665">
   <si>
     <t>Doutorado</t>
   </si>
@@ -2085,6 +2085,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1KmgdI1NUzLq6cuQ2VF3nZaOyQAUTVJF6</t>
+  </si>
+  <si>
+    <t>10.62675/2965-2774.20240213-em</t>
+  </si>
+  <si>
+    <t>Reis, L.F.F., Oliveira, J.P.A., Ferreira, A.S., Lopes, A.J. (2024) Reply to: Factors associated with mortality in mechanically ventilated patients with severe acute respiratory syndrome due to COVID-19 evolution. Crit Care Sci. 2024;36:e20240213en. https://doi.org/10.62675/2965-2774.20240213-en</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aU6BT3JBtpc9tSXVWy_VP50e7RjCX_Uc</t>
   </si>
 </sst>
 </file>
@@ -2269,9 +2278,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2309,7 +2318,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2415,7 +2424,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2557,7 +2566,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2700,13 +2709,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C183"/>
+  <dimension ref="A1:C184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A183" sqref="A183"/>
+      <selection pane="bottomRight" activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4697,36 +4706,47 @@
         <v>577</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A182" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B182" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="C181" s="6" t="s">
+      <c r="C182" s="6" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A182" s="6" t="s">
+    <row r="183" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A183" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B182" s="7" t="s">
+      <c r="B183" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="C182" s="6" t="s">
+      <c r="C183" s="6" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A183" s="6" t="s">
+    <row r="184" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A184" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B183" s="9" t="s">
+      <c r="B184" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="C183" s="6" t="s">
+      <c r="C184" s="6" t="s">
         <v>541</v>
       </c>
     </row>
@@ -4905,10 +4925,10 @@
     <hyperlink ref="B155" r:id="rId168" xr:uid="{A836F43E-7BEF-9D42-A3B6-02508F69F61B}"/>
     <hyperlink ref="B161" r:id="rId169" xr:uid="{3E0387C4-753B-084F-8B94-EAB77D64B5F5}"/>
     <hyperlink ref="B157" r:id="rId170" xr:uid="{DCBD8E7E-15FD-E541-BF93-6B08A3B29FCB}"/>
-    <hyperlink ref="B183" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
+    <hyperlink ref="B184" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
     <hyperlink ref="B177" r:id="rId172" xr:uid="{987C8D93-1A9E-2F41-BCB1-2BCD4D9BE0A5}"/>
-    <hyperlink ref="B182" r:id="rId173" xr:uid="{2DD41C73-7758-4B42-885B-07F0429CE93C}"/>
-    <hyperlink ref="B181" r:id="rId174" xr:uid="{F10562EB-0310-DF46-A34E-D06D1ED9BA78}"/>
+    <hyperlink ref="B183" r:id="rId173" xr:uid="{2DD41C73-7758-4B42-885B-07F0429CE93C}"/>
+    <hyperlink ref="B182" r:id="rId174" xr:uid="{F10562EB-0310-DF46-A34E-D06D1ED9BA78}"/>
     <hyperlink ref="B174" r:id="rId175" xr:uid="{8A98A52A-A919-FF4D-9DE9-B9131F47D023}"/>
     <hyperlink ref="B175" r:id="rId176" xr:uid="{6218FD34-82E7-2040-A7AF-0FC000086B8A}"/>
     <hyperlink ref="B172" r:id="rId177" xr:uid="{85C85685-7EBF-7D48-938F-36594F45EEDA}"/>
@@ -4917,9 +4937,10 @@
     <hyperlink ref="B179" r:id="rId180" xr:uid="{FBB2040A-18B3-7E4C-AC4E-ABF880E20EF4}"/>
     <hyperlink ref="B173" r:id="rId181" xr:uid="{C69EE705-E244-0F4D-BD99-36D9896017C6}"/>
     <hyperlink ref="B178" r:id="rId182" xr:uid="{AD85627C-75D8-544B-B091-1ECC810BAE64}"/>
+    <hyperlink ref="B181" r:id="rId183" xr:uid="{87F8B8E2-9764-D140-B6BB-57C502799583}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId183"/>
+  <legacyDrawing r:id="rId184"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/CienciaComRConsultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA85B08B-2601-4947-B9A4-BEFD36C6FCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FFD721-9DB9-FC45-A432-41B3A0171F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="671">
   <si>
     <t>Doutorado</t>
   </si>
@@ -2094,6 +2094,24 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1aU6BT3JBtpc9tSXVWy_VP50e7RjCX_Uc</t>
+  </si>
+  <si>
+    <t>Cunha, J. de A., Silva, M. M., &amp; Sá Ferreira, A. (2024). Conhecimento sobre riscos ergonômicos e distúrbios musculosqueléticos relacionados ao trabalho em trabalhadores de instituição de ensino superior pública do Brasil. Trabalho &amp; Educação, 33(2), 11–26. https://doi.org/10.35699/2238-037X.2024.45438</t>
+  </si>
+  <si>
+    <t>10.35699/2238-037X.2024.45438</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yPfNgGH6wE1JmCAasTQg0gaZZZIBLmyy</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yv3t1n05GiJ74ixdg5Up7eEJ5Zz9LtiH</t>
+  </si>
+  <si>
+    <t>10.9771/cmbio.v23i2.57359</t>
+  </si>
+  <si>
+    <t>Vieira, L., de Sá Ferreira, A. ., Meziat Filho, N. A. ., Frare, J. C. ., Zaidan de Barros, P. ., &amp; Santos de Almeida, R. (2024). Body composition does not interfere with urinary incontinence in adult women with grade III obesity. Revista De Ciências Médicas E Biológicas, 23(2), 389–393. https://doi.org/10.9771/cmbio.v23i2.57359</t>
   </si>
 </sst>
 </file>
@@ -2709,13 +2727,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C184"/>
+  <dimension ref="A1:C186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B180" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B183" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A184" sqref="A184"/>
+      <selection pane="bottomRight" activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4651,107 +4669,129 @@
         <v>569</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A177" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="B177" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="C177" s="6" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A177" s="6" t="s">
+    <row r="178" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A178" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="B177" s="9" t="s">
+      <c r="B178" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="C177" s="6" t="s">
+      <c r="C178" s="6" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A178" s="6" t="s">
+    <row r="179" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A179" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="B178" s="7" t="s">
+      <c r="B179" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="C178" s="6" t="s">
+      <c r="C179" s="6" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A179" s="6" t="s">
+    <row r="180" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A180" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="B179" s="9" t="s">
+      <c r="B180" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="C180" s="6" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A180" s="6" t="s">
+    <row r="181" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A181" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="B181" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="C180" s="6" t="s">
+      <c r="C181" s="6" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A181" s="6" t="s">
+    <row r="182" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A182" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B182" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="C181" s="6" t="s">
+      <c r="C182" s="6" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A182" s="6" t="s">
+    <row r="183" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A183" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B182" s="9" t="s">
+      <c r="B183" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="C182" s="6" t="s">
+      <c r="C183" s="6" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A183" s="6" t="s">
+    <row r="184" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A184" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B184" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="C183" s="6" t="s">
+      <c r="C184" s="6" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A184" s="6" t="s">
+    <row r="185" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A185" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B185" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="C184" s="6" t="s">
+      <c r="C185" s="6" t="s">
         <v>541</v>
       </c>
     </row>
+    <row r="186" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A186" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>669</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C1:C185 C187:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -4925,22 +4965,24 @@
     <hyperlink ref="B155" r:id="rId168" xr:uid="{A836F43E-7BEF-9D42-A3B6-02508F69F61B}"/>
     <hyperlink ref="B161" r:id="rId169" xr:uid="{3E0387C4-753B-084F-8B94-EAB77D64B5F5}"/>
     <hyperlink ref="B157" r:id="rId170" xr:uid="{DCBD8E7E-15FD-E541-BF93-6B08A3B29FCB}"/>
-    <hyperlink ref="B184" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
-    <hyperlink ref="B177" r:id="rId172" xr:uid="{987C8D93-1A9E-2F41-BCB1-2BCD4D9BE0A5}"/>
-    <hyperlink ref="B183" r:id="rId173" xr:uid="{2DD41C73-7758-4B42-885B-07F0429CE93C}"/>
-    <hyperlink ref="B182" r:id="rId174" xr:uid="{F10562EB-0310-DF46-A34E-D06D1ED9BA78}"/>
+    <hyperlink ref="B185" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
+    <hyperlink ref="B178" r:id="rId172" xr:uid="{987C8D93-1A9E-2F41-BCB1-2BCD4D9BE0A5}"/>
+    <hyperlink ref="B184" r:id="rId173" xr:uid="{2DD41C73-7758-4B42-885B-07F0429CE93C}"/>
+    <hyperlink ref="B183" r:id="rId174" xr:uid="{F10562EB-0310-DF46-A34E-D06D1ED9BA78}"/>
     <hyperlink ref="B174" r:id="rId175" xr:uid="{8A98A52A-A919-FF4D-9DE9-B9131F47D023}"/>
     <hyperlink ref="B175" r:id="rId176" xr:uid="{6218FD34-82E7-2040-A7AF-0FC000086B8A}"/>
     <hyperlink ref="B172" r:id="rId177" xr:uid="{85C85685-7EBF-7D48-938F-36594F45EEDA}"/>
-    <hyperlink ref="B176" r:id="rId178" xr:uid="{4FD6341B-0556-3B44-8E3C-810F5A767D1A}"/>
-    <hyperlink ref="B180" r:id="rId179" xr:uid="{D154EAD9-4FCA-F54D-8A01-654716B5FCF9}"/>
-    <hyperlink ref="B179" r:id="rId180" xr:uid="{FBB2040A-18B3-7E4C-AC4E-ABF880E20EF4}"/>
+    <hyperlink ref="B177" r:id="rId178" xr:uid="{4FD6341B-0556-3B44-8E3C-810F5A767D1A}"/>
+    <hyperlink ref="B181" r:id="rId179" xr:uid="{D154EAD9-4FCA-F54D-8A01-654716B5FCF9}"/>
+    <hyperlink ref="B180" r:id="rId180" xr:uid="{FBB2040A-18B3-7E4C-AC4E-ABF880E20EF4}"/>
     <hyperlink ref="B173" r:id="rId181" xr:uid="{C69EE705-E244-0F4D-BD99-36D9896017C6}"/>
-    <hyperlink ref="B178" r:id="rId182" xr:uid="{AD85627C-75D8-544B-B091-1ECC810BAE64}"/>
-    <hyperlink ref="B181" r:id="rId183" xr:uid="{87F8B8E2-9764-D140-B6BB-57C502799583}"/>
+    <hyperlink ref="B179" r:id="rId182" xr:uid="{AD85627C-75D8-544B-B091-1ECC810BAE64}"/>
+    <hyperlink ref="B182" r:id="rId183" xr:uid="{87F8B8E2-9764-D140-B6BB-57C502799583}"/>
+    <hyperlink ref="B176" r:id="rId184" xr:uid="{2062A71F-134B-894B-8846-EBE07862159F}"/>
+    <hyperlink ref="B186" r:id="rId185" xr:uid="{160997CC-24EC-AF45-B4B5-A42D9DAF844A}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId184"/>
+  <legacyDrawing r:id="rId186"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/CienciaComRConsultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FFD721-9DB9-FC45-A432-41B3A0171F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68B3BA3-DA8C-444B-A6E4-5AB55EDC6FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="674">
   <si>
     <t>Doutorado</t>
   </si>
@@ -2112,6 +2112,15 @@
   </si>
   <si>
     <t>Vieira, L., de Sá Ferreira, A. ., Meziat Filho, N. A. ., Frare, J. C. ., Zaidan de Barros, P. ., &amp; Santos de Almeida, R. (2024). Body composition does not interfere with urinary incontinence in adult women with grade III obesity. Revista De Ciências Médicas E Biológicas, 23(2), 389–393. https://doi.org/10.9771/cmbio.v23i2.57359</t>
+  </si>
+  <si>
+    <t>10.3390/jcm13216626</t>
+  </si>
+  <si>
+    <t>Bastos, J.R.M.; Ferreira, A.S.; Lopes, A.J.; Pinto, T.P.; Rodrigues, E.; dos Anjos, F.V. The Tinetti Balance Test Is an Effective Predictor of Functional Decline in Non-Hospitalized Post-COVID-19 Individuals: A Cross-Sectional Study. J.Clin.Med.2024,13,6626. https:// doi.org/10.3390/jcm13216626</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14mFSshI2VowAwHsipS70IppZBE4Ds64m</t>
   </si>
 </sst>
 </file>
@@ -2727,13 +2736,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C186"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B183" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A186" sqref="A186"/>
+      <selection pane="bottomRight" activeCell="A187" sqref="A187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4671,127 +4680,138 @@
     </row>
     <row r="176" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="B176" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A177" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="B176" s="7" t="s">
+      <c r="B177" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="C177" s="6" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A177" s="6" t="s">
+    <row r="178" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A178" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="B177" s="9" t="s">
+      <c r="B178" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="C177" s="6" t="s">
+      <c r="C178" s="6" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A178" s="6" t="s">
+    <row r="179" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A179" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B179" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="C178" s="6" t="s">
+      <c r="C179" s="6" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A179" s="6" t="s">
+    <row r="180" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A180" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B180" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="C180" s="6" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A180" s="6" t="s">
+    <row r="181" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A181" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="B181" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="C180" s="6" t="s">
+      <c r="C181" s="6" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A181" s="6" t="s">
+    <row r="182" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A182" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B182" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="C181" s="6" t="s">
+      <c r="C182" s="6" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A182" s="6" t="s">
+    <row r="183" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A183" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="B182" s="9" t="s">
+      <c r="B183" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="C182" s="6" t="s">
+      <c r="C183" s="6" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A183" s="6" t="s">
+    <row r="184" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A184" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B183" s="9" t="s">
+      <c r="B184" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="C183" s="6" t="s">
+      <c r="C184" s="6" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A184" s="6" t="s">
+    <row r="185" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A185" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="B185" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="C184" s="6" t="s">
+      <c r="C185" s="6" t="s">
         <v>546</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A185" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="B185" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A187" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B187" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="C186" s="6" t="s">
+      <c r="C187" s="6" t="s">
         <v>669</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C185 C187:C1048576">
+  <conditionalFormatting sqref="C188:C1048576 C1:C186">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -4965,24 +4985,25 @@
     <hyperlink ref="B155" r:id="rId168" xr:uid="{A836F43E-7BEF-9D42-A3B6-02508F69F61B}"/>
     <hyperlink ref="B161" r:id="rId169" xr:uid="{3E0387C4-753B-084F-8B94-EAB77D64B5F5}"/>
     <hyperlink ref="B157" r:id="rId170" xr:uid="{DCBD8E7E-15FD-E541-BF93-6B08A3B29FCB}"/>
-    <hyperlink ref="B185" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
-    <hyperlink ref="B178" r:id="rId172" xr:uid="{987C8D93-1A9E-2F41-BCB1-2BCD4D9BE0A5}"/>
-    <hyperlink ref="B184" r:id="rId173" xr:uid="{2DD41C73-7758-4B42-885B-07F0429CE93C}"/>
-    <hyperlink ref="B183" r:id="rId174" xr:uid="{F10562EB-0310-DF46-A34E-D06D1ED9BA78}"/>
+    <hyperlink ref="B186" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
+    <hyperlink ref="B179" r:id="rId172" xr:uid="{987C8D93-1A9E-2F41-BCB1-2BCD4D9BE0A5}"/>
+    <hyperlink ref="B185" r:id="rId173" xr:uid="{2DD41C73-7758-4B42-885B-07F0429CE93C}"/>
+    <hyperlink ref="B184" r:id="rId174" xr:uid="{F10562EB-0310-DF46-A34E-D06D1ED9BA78}"/>
     <hyperlink ref="B174" r:id="rId175" xr:uid="{8A98A52A-A919-FF4D-9DE9-B9131F47D023}"/>
     <hyperlink ref="B175" r:id="rId176" xr:uid="{6218FD34-82E7-2040-A7AF-0FC000086B8A}"/>
     <hyperlink ref="B172" r:id="rId177" xr:uid="{85C85685-7EBF-7D48-938F-36594F45EEDA}"/>
-    <hyperlink ref="B177" r:id="rId178" xr:uid="{4FD6341B-0556-3B44-8E3C-810F5A767D1A}"/>
-    <hyperlink ref="B181" r:id="rId179" xr:uid="{D154EAD9-4FCA-F54D-8A01-654716B5FCF9}"/>
-    <hyperlink ref="B180" r:id="rId180" xr:uid="{FBB2040A-18B3-7E4C-AC4E-ABF880E20EF4}"/>
+    <hyperlink ref="B178" r:id="rId178" xr:uid="{4FD6341B-0556-3B44-8E3C-810F5A767D1A}"/>
+    <hyperlink ref="B182" r:id="rId179" xr:uid="{D154EAD9-4FCA-F54D-8A01-654716B5FCF9}"/>
+    <hyperlink ref="B181" r:id="rId180" xr:uid="{FBB2040A-18B3-7E4C-AC4E-ABF880E20EF4}"/>
     <hyperlink ref="B173" r:id="rId181" xr:uid="{C69EE705-E244-0F4D-BD99-36D9896017C6}"/>
-    <hyperlink ref="B179" r:id="rId182" xr:uid="{AD85627C-75D8-544B-B091-1ECC810BAE64}"/>
-    <hyperlink ref="B182" r:id="rId183" xr:uid="{87F8B8E2-9764-D140-B6BB-57C502799583}"/>
-    <hyperlink ref="B176" r:id="rId184" xr:uid="{2062A71F-134B-894B-8846-EBE07862159F}"/>
-    <hyperlink ref="B186" r:id="rId185" xr:uid="{160997CC-24EC-AF45-B4B5-A42D9DAF844A}"/>
+    <hyperlink ref="B180" r:id="rId182" xr:uid="{AD85627C-75D8-544B-B091-1ECC810BAE64}"/>
+    <hyperlink ref="B183" r:id="rId183" xr:uid="{87F8B8E2-9764-D140-B6BB-57C502799583}"/>
+    <hyperlink ref="B177" r:id="rId184" xr:uid="{2062A71F-134B-894B-8846-EBE07862159F}"/>
+    <hyperlink ref="B187" r:id="rId185" xr:uid="{160997CC-24EC-AF45-B4B5-A42D9DAF844A}"/>
+    <hyperlink ref="B176" r:id="rId186" xr:uid="{25DD0A18-959B-A34B-8A93-D3FEF3FB97F9}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId186"/>
+  <legacyDrawing r:id="rId187"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/CienciaComRConsultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68B3BA3-DA8C-444B-A6E4-5AB55EDC6FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A310E9B1-F220-C04B-B9F9-1FD72F6D2965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="677">
   <si>
     <t>Doutorado</t>
   </si>
@@ -2121,6 +2121,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/14mFSshI2VowAwHsipS70IppZBE4Ds64m</t>
+  </si>
+  <si>
+    <t>Resende, P.A., Tavares Correia, I.M., de Sá Ferreira, A., Meziat-Filho, N., Lunkes, L.C., NECK PAIN AND TEXT NECK USING HILL'S CRITERIA OF CAUSATION: A SCOPING REVIEW, Journal of Bodywork &amp; Movement Therapies, https://doi.org/10.1016/j.jbmt.2024.12.016.</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2024.12.016</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16joRcN3v6pjkbd3HaEb_U1D1oAbuvWe0</t>
   </si>
 </sst>
 </file>
@@ -2736,13 +2745,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C187"/>
+  <dimension ref="A1:C188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B183" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B184" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A187" sqref="A187"/>
+      <selection pane="bottomRight" activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2940,7 +2949,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>65</v>
       </c>
@@ -2973,7 +2982,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>86</v>
       </c>
@@ -3105,7 +3114,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>107</v>
       </c>
@@ -4766,52 +4775,63 @@
         <v>662</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A185" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B185" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="C184" s="6" t="s">
+      <c r="C185" s="6" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A185" s="6" t="s">
+    <row r="186" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A186" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B186" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="C185" s="6" t="s">
+      <c r="C186" s="6" t="s">
         <v>546</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A186" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A188" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="B187" s="7" t="s">
+      <c r="B188" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="C187" s="6" t="s">
+      <c r="C188" s="6" t="s">
         <v>669</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C188:C1048576 C1:C186">
+  <conditionalFormatting sqref="C189:C1048576 C1:C187">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -4985,10 +5005,10 @@
     <hyperlink ref="B155" r:id="rId168" xr:uid="{A836F43E-7BEF-9D42-A3B6-02508F69F61B}"/>
     <hyperlink ref="B161" r:id="rId169" xr:uid="{3E0387C4-753B-084F-8B94-EAB77D64B5F5}"/>
     <hyperlink ref="B157" r:id="rId170" xr:uid="{DCBD8E7E-15FD-E541-BF93-6B08A3B29FCB}"/>
-    <hyperlink ref="B186" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
+    <hyperlink ref="B187" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
     <hyperlink ref="B179" r:id="rId172" xr:uid="{987C8D93-1A9E-2F41-BCB1-2BCD4D9BE0A5}"/>
-    <hyperlink ref="B185" r:id="rId173" xr:uid="{2DD41C73-7758-4B42-885B-07F0429CE93C}"/>
-    <hyperlink ref="B184" r:id="rId174" xr:uid="{F10562EB-0310-DF46-A34E-D06D1ED9BA78}"/>
+    <hyperlink ref="B186" r:id="rId173" xr:uid="{2DD41C73-7758-4B42-885B-07F0429CE93C}"/>
+    <hyperlink ref="B185" r:id="rId174" xr:uid="{F10562EB-0310-DF46-A34E-D06D1ED9BA78}"/>
     <hyperlink ref="B174" r:id="rId175" xr:uid="{8A98A52A-A919-FF4D-9DE9-B9131F47D023}"/>
     <hyperlink ref="B175" r:id="rId176" xr:uid="{6218FD34-82E7-2040-A7AF-0FC000086B8A}"/>
     <hyperlink ref="B172" r:id="rId177" xr:uid="{85C85685-7EBF-7D48-938F-36594F45EEDA}"/>
@@ -4999,11 +5019,12 @@
     <hyperlink ref="B180" r:id="rId182" xr:uid="{AD85627C-75D8-544B-B091-1ECC810BAE64}"/>
     <hyperlink ref="B183" r:id="rId183" xr:uid="{87F8B8E2-9764-D140-B6BB-57C502799583}"/>
     <hyperlink ref="B177" r:id="rId184" xr:uid="{2062A71F-134B-894B-8846-EBE07862159F}"/>
-    <hyperlink ref="B187" r:id="rId185" xr:uid="{160997CC-24EC-AF45-B4B5-A42D9DAF844A}"/>
+    <hyperlink ref="B188" r:id="rId185" xr:uid="{160997CC-24EC-AF45-B4B5-A42D9DAF844A}"/>
     <hyperlink ref="B176" r:id="rId186" xr:uid="{25DD0A18-959B-A34B-8A93-D3FEF3FB97F9}"/>
+    <hyperlink ref="B184" r:id="rId187" xr:uid="{64C46B2C-8A5D-524F-806D-4211DE21A30C}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId187"/>
+  <legacyDrawing r:id="rId188"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/CienciaComRConsultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FFD721-9DB9-FC45-A432-41B3A0171F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3564ACC-DC81-8643-A26C-99D8FE654693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="677">
   <si>
     <t>Doutorado</t>
   </si>
@@ -2112,6 +2112,24 @@
   </si>
   <si>
     <t>Vieira, L., de Sá Ferreira, A. ., Meziat Filho, N. A. ., Frare, J. C. ., Zaidan de Barros, P. ., &amp; Santos de Almeida, R. (2024). Body composition does not interfere with urinary incontinence in adult women with grade III obesity. Revista De Ciências Médicas E Biológicas, 23(2), 389–393. https://doi.org/10.9771/cmbio.v23i2.57359</t>
+  </si>
+  <si>
+    <t>10.3390/jcm13216626</t>
+  </si>
+  <si>
+    <t>Bastos, J.R.M.; Ferreira, A.S.; Lopes, A.J.; Pinto, T.P.; Rodrigues, E.; dos Anjos, F.V. The Tinetti Balance Test Is an Effective Predictor of Functional Decline in Non-Hospitalized Post-COVID-19 Individuals: A Cross-Sectional Study. J.Clin.Med.2024,13,6626. https:// doi.org/10.3390/jcm13216626</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14mFSshI2VowAwHsipS70IppZBE4Ds64m</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2024.12.016</t>
+  </si>
+  <si>
+    <t>Resende, P. A., Tavares Correia, I. M., de Sá Ferreira, A., Meziat-Filho, N., &amp; Lunkes, L. C. (2024). NECK PAIN AND TEXT NECK USING HILL’S CRITERIA OF CAUSATION: A SCOPING REVIEW. In Journal of Bodywork and Movement Therapies. Elsevier BV. https://doi.org/10.1016/j.jbmt.2024.12.016</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1A2SnqSYMEohq4Y68BbvLOJW7D8MRTvMg</t>
   </si>
 </sst>
 </file>
@@ -2727,13 +2745,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C186"/>
+  <dimension ref="A1:C188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B183" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B184" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A186" sqref="A186"/>
+      <selection pane="bottomRight" activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2931,7 +2949,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>65</v>
       </c>
@@ -2964,7 +2982,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>86</v>
       </c>
@@ -3096,7 +3114,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>107</v>
       </c>
@@ -4671,127 +4689,149 @@
     </row>
     <row r="176" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="B176" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A177" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="B176" s="7" t="s">
+      <c r="B177" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="C177" s="6" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A177" s="6" t="s">
+    <row r="178" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A178" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="B177" s="9" t="s">
+      <c r="B178" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="C177" s="6" t="s">
+      <c r="C178" s="6" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A178" s="6" t="s">
+    <row r="179" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A179" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B179" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="C178" s="6" t="s">
+      <c r="C179" s="6" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A179" s="6" t="s">
+    <row r="180" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A180" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B180" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="C180" s="6" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A180" s="6" t="s">
+    <row r="181" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A181" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="B181" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="C180" s="6" t="s">
+      <c r="C181" s="6" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A181" s="6" t="s">
+    <row r="182" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A182" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B182" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="C181" s="6" t="s">
+      <c r="C182" s="6" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A182" s="6" t="s">
+    <row r="183" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A183" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="B182" s="9" t="s">
+      <c r="B183" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="C182" s="6" t="s">
+      <c r="C183" s="6" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A183" s="6" t="s">
+    <row r="184" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A184" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B183" s="9" t="s">
+      <c r="B184" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="C183" s="6" t="s">
+      <c r="C184" s="6" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A184" s="6" t="s">
+    <row r="185" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A185" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="B185" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="C184" s="6" t="s">
+      <c r="C185" s="6" t="s">
         <v>546</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A185" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="B185" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="14" t="s">
         <v>670</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B187" s="15" t="s">
         <v>668</v>
       </c>
-      <c r="C186" s="6" t="s">
+      <c r="C187" s="14" t="s">
         <v>669</v>
       </c>
     </row>
+    <row r="188" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A188" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>674</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C185 C187:C1048576">
+  <conditionalFormatting sqref="C1:C186 C188:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -4965,24 +5005,26 @@
     <hyperlink ref="B155" r:id="rId168" xr:uid="{A836F43E-7BEF-9D42-A3B6-02508F69F61B}"/>
     <hyperlink ref="B161" r:id="rId169" xr:uid="{3E0387C4-753B-084F-8B94-EAB77D64B5F5}"/>
     <hyperlink ref="B157" r:id="rId170" xr:uid="{DCBD8E7E-15FD-E541-BF93-6B08A3B29FCB}"/>
-    <hyperlink ref="B185" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
-    <hyperlink ref="B178" r:id="rId172" xr:uid="{987C8D93-1A9E-2F41-BCB1-2BCD4D9BE0A5}"/>
-    <hyperlink ref="B184" r:id="rId173" xr:uid="{2DD41C73-7758-4B42-885B-07F0429CE93C}"/>
-    <hyperlink ref="B183" r:id="rId174" xr:uid="{F10562EB-0310-DF46-A34E-D06D1ED9BA78}"/>
+    <hyperlink ref="B186" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
+    <hyperlink ref="B179" r:id="rId172" xr:uid="{987C8D93-1A9E-2F41-BCB1-2BCD4D9BE0A5}"/>
+    <hyperlink ref="B185" r:id="rId173" xr:uid="{2DD41C73-7758-4B42-885B-07F0429CE93C}"/>
+    <hyperlink ref="B184" r:id="rId174" xr:uid="{F10562EB-0310-DF46-A34E-D06D1ED9BA78}"/>
     <hyperlink ref="B174" r:id="rId175" xr:uid="{8A98A52A-A919-FF4D-9DE9-B9131F47D023}"/>
     <hyperlink ref="B175" r:id="rId176" xr:uid="{6218FD34-82E7-2040-A7AF-0FC000086B8A}"/>
     <hyperlink ref="B172" r:id="rId177" xr:uid="{85C85685-7EBF-7D48-938F-36594F45EEDA}"/>
-    <hyperlink ref="B177" r:id="rId178" xr:uid="{4FD6341B-0556-3B44-8E3C-810F5A767D1A}"/>
-    <hyperlink ref="B181" r:id="rId179" xr:uid="{D154EAD9-4FCA-F54D-8A01-654716B5FCF9}"/>
-    <hyperlink ref="B180" r:id="rId180" xr:uid="{FBB2040A-18B3-7E4C-AC4E-ABF880E20EF4}"/>
+    <hyperlink ref="B178" r:id="rId178" xr:uid="{4FD6341B-0556-3B44-8E3C-810F5A767D1A}"/>
+    <hyperlink ref="B182" r:id="rId179" xr:uid="{D154EAD9-4FCA-F54D-8A01-654716B5FCF9}"/>
+    <hyperlink ref="B181" r:id="rId180" xr:uid="{FBB2040A-18B3-7E4C-AC4E-ABF880E20EF4}"/>
     <hyperlink ref="B173" r:id="rId181" xr:uid="{C69EE705-E244-0F4D-BD99-36D9896017C6}"/>
-    <hyperlink ref="B179" r:id="rId182" xr:uid="{AD85627C-75D8-544B-B091-1ECC810BAE64}"/>
-    <hyperlink ref="B182" r:id="rId183" xr:uid="{87F8B8E2-9764-D140-B6BB-57C502799583}"/>
-    <hyperlink ref="B176" r:id="rId184" xr:uid="{2062A71F-134B-894B-8846-EBE07862159F}"/>
-    <hyperlink ref="B186" r:id="rId185" xr:uid="{160997CC-24EC-AF45-B4B5-A42D9DAF844A}"/>
+    <hyperlink ref="B180" r:id="rId182" xr:uid="{AD85627C-75D8-544B-B091-1ECC810BAE64}"/>
+    <hyperlink ref="B183" r:id="rId183" xr:uid="{87F8B8E2-9764-D140-B6BB-57C502799583}"/>
+    <hyperlink ref="B177" r:id="rId184" xr:uid="{2062A71F-134B-894B-8846-EBE07862159F}"/>
+    <hyperlink ref="B187" r:id="rId185" xr:uid="{160997CC-24EC-AF45-B4B5-A42D9DAF844A}"/>
+    <hyperlink ref="B176" r:id="rId186" xr:uid="{25DD0A18-959B-A34B-8A93-D3FEF3FB97F9}"/>
+    <hyperlink ref="B188" r:id="rId187" xr:uid="{BA3D02D1-77B0-BE46-B252-C3907725109A}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId186"/>
+  <legacyDrawing r:id="rId188"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/CienciaComRConsultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3564ACC-DC81-8643-A26C-99D8FE654693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1E2A19-37B6-E945-B051-3226C1C191C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="4" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
   <sheets>
     <sheet name="curriculo" sheetId="2" r:id="rId1"/>
     <sheet name="qualificacao-academica" sheetId="1" r:id="rId2"/>
     <sheet name="artigos-em-periodicos" sheetId="4" r:id="rId3"/>
-    <sheet name="capitulos" sheetId="5" r:id="rId4"/>
-    <sheet name="resumos-eventos" sheetId="7" r:id="rId5"/>
-    <sheet name="aplicativos-com-registro" sheetId="3" r:id="rId6"/>
+    <sheet name="livros" sheetId="8" r:id="rId4"/>
+    <sheet name="capitulos" sheetId="5" r:id="rId5"/>
+    <sheet name="resumos-eventos" sheetId="7" r:id="rId6"/>
+    <sheet name="aplicativos-com-registro" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,6 +62,24 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={E76DC940-7465-414B-ABA4-1EA4A93B2F2D}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E76DC940-7465-414B-ABA4-1EA4A93B2F2D}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    https://citation.crosscite.org</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={B825695E-50C7-D542-A8C5-7120514BE701}</author>
   </authors>
   <commentList>
@@ -76,7 +95,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={5F3E1215-D177-A746-AAAC-42C58D5DF4B2}</author>
@@ -95,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="686">
   <si>
     <t>Doutorado</t>
   </si>
@@ -2130,13 +2149,40 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1A2SnqSYMEohq4Y68BbvLOJW7D8MRTvMg</t>
+  </si>
+  <si>
+    <t>10.47879/ed.ep.2024745p106</t>
+  </si>
+  <si>
+    <t>Tavares, E. M. ., Luna, L. de O. ., Cezário, B. S. ., Guedes, A. L. A. ., &amp; Ferreira, A. de S. . (2024). CIDADES INTELIGENTES: UMA REVISÃO DA RELAÇÃO ENTRE A TECNOLOGIA E A MOBILIDADE URBANA SUSTENTÁVEL. Epitaya E-Books, 1(92), 106-114. https://doi.org/10.47879/ed.ep.2024745p106</t>
+  </si>
+  <si>
+    <t>10.47879/ed.ep.2024745p135</t>
+  </si>
+  <si>
+    <t>Luna, L. de O. ., Tavares, E. M. ., Cezário, B. S. ., Guedes , A. L. A. ., &amp; Ferreira, A. de S. . (2024). A IMPORTÂNCIA DE MEDIDAS PROTETIVAS NA FLORESTA AMAZÔNICA PARA A PRESERVAÇÃO DA BIODIVERSIDADE - ODS 15. Epitaya E-Books, 1(92), 135-148. https://doi.org/10.47879/ed.ep.2024745p135</t>
+  </si>
+  <si>
+    <t>10.47879/ed.ep.2024745</t>
+  </si>
+  <si>
+    <t>Vigário , P. dos S. ., &amp; Ferreira, A. de S. . (2024). DESENVOLVIMENTO LOCAL E OS DESAFIOS PARA O ALCANCE DO DESENVOLVIMENTO SUSTENTÁVEL SOB O PRISMA DA AGENDA 2030. Epitaya E-Books, 1(92), 01-158. https://doi.org/10.47879/ed.ep.2024745</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CR7Yh49PI9zM7KCC_IkpspvNH60HoY8P</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CV8RxSRsG1iLynPu5pCVdqJTHVufObF6</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CXmf3n7qbtJxLCOLNjyEdsAQCzcHZasT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2167,6 +2213,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2618,13 +2670,21 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2022-11-04T12:25:39.86" personId="{DF99B094-8537-A74A-821D-4A456C6826F4}" id="{E76DC940-7465-414B-ABA4-1EA4A93B2F2D}">
+    <text>https://citation.crosscite.org</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2022-11-04T12:25:39.86" personId="{DF99B094-8537-A74A-821D-4A456C6826F4}" id="{B825695E-50C7-D542-A8C5-7120514BE701}">
     <text>https://citation.crosscite.org</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2022-11-04T12:25:39.86" personId="{DF99B094-8537-A74A-821D-4A456C6826F4}" id="{5F3E1215-D177-A746-AAAC-42C58D5DF4B2}">
     <text>https://citation.crosscite.org</text>
@@ -2747,7 +2807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
   <dimension ref="A1:C188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B184" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2949,7 +3009,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>65</v>
       </c>
@@ -2982,7 +3042,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>86</v>
       </c>
@@ -3114,7 +3174,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>107</v>
       </c>
@@ -5029,14 +5089,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC58054-A5C0-CE48-966A-D48A8C7C29B4}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE4DD07-1D2F-4849-A579-59C2F2CCD7DE}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5058,6 +5118,56 @@
         <v>21</v>
       </c>
     </row>
+    <row r="2" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>681</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{A14EBD9A-F7A3-2249-972A-30351CA7CBFB}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC58054-A5C0-CE48-966A-D48A8C7C29B4}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43" style="6" customWidth="1"/>
+    <col min="2" max="2" width="64.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>459</v>
@@ -5134,6 +5244,28 @@
       </c>
       <c r="B10" s="7" t="s">
         <v>554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -5147,13 +5279,15 @@
     <hyperlink ref="B8" r:id="rId7" xr:uid="{B617B815-697C-2142-94CE-FCE4CF0CB1D3}"/>
     <hyperlink ref="B9" r:id="rId8" xr:uid="{F316E7F9-D9A1-9E49-B699-2AE8134C264F}"/>
     <hyperlink ref="B10" r:id="rId9" xr:uid="{AB1062CE-B96B-B940-913B-1992CA7BAEF1}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{E4331655-7424-5D46-B483-22A040111B0F}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{95B52DC5-E944-E048-BE20-DB2FD31282B3}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId10"/>
+  <legacyDrawing r:id="rId12"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12814D52-B4A6-0C42-8333-C9B66CE67680}">
   <dimension ref="A1:C27"/>
   <sheetViews>
@@ -5474,7 +5608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D49A42-744A-EE4A-B294-D2CA066FEF3F}">
   <dimension ref="A1:C7"/>
   <sheetViews>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/CienciaComRConsultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1E2A19-37B6-E945-B051-3226C1C191C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A2B94E-7ABA-634B-A18B-71F4AF408E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="4" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="3" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
   <sheets>
     <sheet name="curriculo" sheetId="2" r:id="rId1"/>
     <sheet name="qualificacao-academica" sheetId="1" r:id="rId2"/>
     <sheet name="artigos-em-periodicos" sheetId="4" r:id="rId3"/>
-    <sheet name="livros" sheetId="8" r:id="rId4"/>
-    <sheet name="capitulos" sheetId="5" r:id="rId5"/>
-    <sheet name="resumos-eventos" sheetId="7" r:id="rId6"/>
-    <sheet name="aplicativos-com-registro" sheetId="3" r:id="rId7"/>
+    <sheet name="preprints" sheetId="9" r:id="rId4"/>
+    <sheet name="livros" sheetId="8" r:id="rId5"/>
+    <sheet name="capitulos" sheetId="5" r:id="rId6"/>
+    <sheet name="resumos-eventos" sheetId="7" r:id="rId7"/>
+    <sheet name="aplicativos-com-registro" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,6 +63,24 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={199B09B0-BE4F-A04C-A467-5B2D0DA10316}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{199B09B0-BE4F-A04C-A467-5B2D0DA10316}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    https://citation.crosscite.org</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={E76DC940-7465-414B-ABA4-1EA4A93B2F2D}</author>
   </authors>
   <commentList>
@@ -77,7 +96,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={B825695E-50C7-D542-A8C5-7120514BE701}</author>
@@ -95,7 +114,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={5F3E1215-D177-A746-AAAC-42C58D5DF4B2}</author>
@@ -114,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="692">
   <si>
     <t>Doutorado</t>
   </si>
@@ -2176,13 +2195,31 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1CXmf3n7qbtJxLCOLNjyEdsAQCzcHZasT</t>
+  </si>
+  <si>
+    <t>10.1101/2024.02.19.24301010</t>
+  </si>
+  <si>
+    <t>Karla Menezes, Marco Aurelio B. Lima, Denise R. Xerez, João R. L. Menezes, Gustavo S. Holanda, Adriana D. Silva, Eliel S. Leite, Olavo B. Franco, Marcos A. Nascimento, Marco Aurélio Alves Moura de Faria, Cíntia F. Santana, Livia V. Abreu, Renata C. L. Lichtenberger, Maurilio Rosa, Aurélio V. Graça-Souza, Bruno A. Côrtes, Álvaro U. C. Jorge, Ana Cristina Franzoi, Paulo R. Louzada, Arthur S. Ferreira, Rose M. Frajtag, Tatiana Coelho-Sampaio. RETURN OF VOLUNTARY MOTOR CONTRACTION AFTER COMPLETE SPINAL CORD INJURY: A PILOT HUMAN STUDY ON POLYLAMININ. medRxiv 2024.02.19.24301010; doi: https://doi.org/10.1101/2024.02.19.24301010</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1flwZO2pxoa59JLRP3B7mqTUsBl2S_fVh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fvu2ceA87SMq9efmBVLxzO42CIZsIEME</t>
+  </si>
+  <si>
+    <t>10.20944/preprints202305.1684.v1</t>
+  </si>
+  <si>
+    <t>Alaparthi, G. K., Gatty, A. P., Isa, H., Hassan, L., Khalid, N., Osman, A., Mahmoud, S., Tamim, M., Bairapareddy, K. C., &amp; De Sa Ferreira, A. (2023). Reference Values for the Grocery Shelving Test among United Arab Emirates Population: A Cross Sectional Study. Preprints. https://doi.org/10.20944/preprints202305.1684.v1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2219,6 +2256,13 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2268,7 +2312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2330,12 +2374,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2670,7 +2733,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2022-11-04T12:25:39.86" personId="{DF99B094-8537-A74A-821D-4A456C6826F4}" id="{E76DC940-7465-414B-ABA4-1EA4A93B2F2D}">
+  <threadedComment ref="A1" dT="2022-11-04T12:25:39.86" personId="{DF99B094-8537-A74A-821D-4A456C6826F4}" id="{199B09B0-BE4F-A04C-A467-5B2D0DA10316}">
     <text>https://citation.crosscite.org</text>
   </threadedComment>
 </ThreadedComments>
@@ -2678,13 +2741,21 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2022-11-04T12:25:39.86" personId="{DF99B094-8537-A74A-821D-4A456C6826F4}" id="{E76DC940-7465-414B-ABA4-1EA4A93B2F2D}">
+    <text>https://citation.crosscite.org</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2022-11-04T12:25:39.86" personId="{DF99B094-8537-A74A-821D-4A456C6826F4}" id="{B825695E-50C7-D542-A8C5-7120514BE701}">
     <text>https://citation.crosscite.org</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2022-11-04T12:25:39.86" personId="{DF99B094-8537-A74A-821D-4A456C6826F4}" id="{5F3E1215-D177-A746-AAAC-42C58D5DF4B2}">
     <text>https://citation.crosscite.org</text>
@@ -4892,7 +4963,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C186 C188:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{B79F2BA8-3E3E-3D4D-9EDE-43EBA11C9407}"/>
@@ -5089,6 +5160,71 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA81A273-40D1-C043-B92A-150693AC55EB}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43" style="6" customWidth="1"/>
+    <col min="2" max="2" width="64.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>689</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="256" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>686</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{A525A133-A91A-094B-A311-07999BE7BA06}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{F68E2C01-575E-D647-9241-3152E6DBDCE5}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE4DD07-1D2F-4849-A579-59C2F2CCD7DE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -5138,11 +5274,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC58054-A5C0-CE48-966A-D48A8C7C29B4}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5287,7 +5423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12814D52-B4A6-0C42-8333-C9B66CE67680}">
   <dimension ref="A1:C27"/>
   <sheetViews>
@@ -5608,7 +5744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D49A42-744A-EE4A-B294-D2CA066FEF3F}">
   <dimension ref="A1:C7"/>
   <sheetViews>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/CienciaComRConsultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A2B94E-7ABA-634B-A18B-71F4AF408E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3B7C31-985C-6548-8A9B-4190CF0B4322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="3" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
   <sheets>
     <sheet name="curriculo" sheetId="2" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="707">
   <si>
     <t>Doutorado</t>
   </si>
@@ -2213,13 +2213,58 @@
   </si>
   <si>
     <t>Alaparthi, G. K., Gatty, A. P., Isa, H., Hassan, L., Khalid, N., Osman, A., Mahmoud, S., Tamim, M., Bairapareddy, K. C., &amp; De Sa Ferreira, A. (2023). Reference Values for the Grocery Shelving Test among United Arab Emirates Population: A Cross Sectional Study. Preprints. https://doi.org/10.20944/preprints202305.1684.v1</t>
+  </si>
+  <si>
+    <t>10.1177/10538127241298551</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ikDGAi0pQbPFjecmxEqZzKFrRy3kOeK3</t>
+  </si>
+  <si>
+    <t>Reis F da S, Reis LF da F, Ferreira I da N, et al. Functional Capacity Incorporating Dynamic Ventilation in Systemic Sclerosis: Agreement Analysis  Between Performance on the 6-Minute Walk Test and Glittre–ADL Test. Journal of Back and Musculoskeletal Rehabilitation. 2025;0(0). doi:10.1177/10538127241298551</t>
+  </si>
+  <si>
+    <t>10.1080/00015385.2025.2453799</t>
+  </si>
+  <si>
+    <t>Arthur Sá Ferreira &amp; Gabriel Parisotto (30 Jan 2025): Rethinking methodologies in nocturnal blood pressure dipping research: insights from Lopez et al., Acta Cardiologica, DOI: 10.1080/00015385.2025.2453799</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wQ80XvPhxmb6_anD2KgQdRsXd1uajQRV</t>
+  </si>
+  <si>
+    <t>10.1093/ptj/pzae162</t>
+  </si>
+  <si>
+    <t>Avila, L., da Silva, M. D., Neves, M. L., Abreu, A. R., Fiuza, C. R., Fukusawa, L., de Sá Ferreira, A., &amp; Meziat-Filho, N. (2024). Author Response to Kumar et al. In Physical Therapy (Vol. 105, Issue 1). Oxford University Press (OUP). https://doi.org/10.1093/ptj/pzae162</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_GO9jadg8RJUdy1FSjlYD_3MRH0KhjPA</t>
+  </si>
+  <si>
+    <t>Alaparthi GK, Moustafa IM, Lopes AJ, Ferreira AdeS (2025) Pulmonary function, body posture and balance in young adults with asthma: A cross-sectional study. PLoS ONE 20(3): e0316663. https://doi.org/10.1371/ journal.pone.0316663</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0316663</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1KidISFNglPndZ4bD4L6aLH11L8SzWAcK/view</t>
+  </si>
+  <si>
+    <t>10.20944/preprints202502.1932.v1</t>
+  </si>
+  <si>
+    <t>Monteiro, E. R., Paulo H. Marchetti and Jefferson da Silva Novaes. 2025 "Effect of Manual Massage, Foam Rolling, and Strength Training on Cardiovascular Responses in Adults: A Scoping Review" Preprints. https://doi.org/10.20944/preprints202502.1932.v1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1AVxRJdOHcm9NcB-h45vsOxj5ery7nog_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2252,12 +2297,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -2265,7 +2304,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2275,6 +2314,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2374,13 +2419,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2876,13 +2921,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C188"/>
+  <dimension ref="A1:C192"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B184" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B187" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A188" sqref="A188"/>
+      <selection pane="bottomRight" activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4950,15 +4995,59 @@
         <v>669</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A189" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A190" s="22" t="s">
+        <v>696</v>
+      </c>
+      <c r="B190" s="23" t="s">
+        <v>697</v>
+      </c>
+      <c r="C190" s="22" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A191" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="B188" s="9" t="s">
+      <c r="B191" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="C188" s="6" t="s">
+      <c r="C191" s="6" t="s">
         <v>674</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A192" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="B192" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="C192" s="22" t="s">
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -5152,18 +5241,22 @@
     <hyperlink ref="B177" r:id="rId184" xr:uid="{2062A71F-134B-894B-8846-EBE07862159F}"/>
     <hyperlink ref="B187" r:id="rId185" xr:uid="{160997CC-24EC-AF45-B4B5-A42D9DAF844A}"/>
     <hyperlink ref="B176" r:id="rId186" xr:uid="{25DD0A18-959B-A34B-8A93-D3FEF3FB97F9}"/>
-    <hyperlink ref="B188" r:id="rId187" xr:uid="{BA3D02D1-77B0-BE46-B252-C3907725109A}"/>
+    <hyperlink ref="B191" r:id="rId187" xr:uid="{BA3D02D1-77B0-BE46-B252-C3907725109A}"/>
+    <hyperlink ref="B192" r:id="rId188" xr:uid="{80CA59D1-9BA2-8346-91A8-5971988A89C5}"/>
+    <hyperlink ref="B190" r:id="rId189" xr:uid="{21B013FC-291F-B645-B9CB-D55C82E0FF3C}"/>
+    <hyperlink ref="B188" r:id="rId190" xr:uid="{E1387560-3B21-8744-8282-FA62172ADD59}"/>
+    <hyperlink ref="B189" r:id="rId191" xr:uid="{33E26B4B-696D-C148-833C-5E1DE66A42D2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId188"/>
+  <legacyDrawing r:id="rId192"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA81A273-40D1-C043-B92A-150693AC55EB}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5193,10 +5286,10 @@
       <c r="A2" s="21" t="s">
         <v>691</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="15" t="s">
         <v>689</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="14" t="s">
         <v>690</v>
       </c>
     </row>
@@ -5209,6 +5302,17 @@
       </c>
       <c r="C3" s="12" t="s">
         <v>686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -5218,9 +5322,10 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{A525A133-A91A-094B-A311-07999BE7BA06}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{F68E2C01-575E-D647-9241-3152E6DBDCE5}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{CA1C0CE0-5F21-B843-BBE3-91B53DFACE57}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/CienciaComRConsultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3B7C31-985C-6548-8A9B-4190CF0B4322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E714CE-AB73-B74F-8AE4-B002B3D125EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="713">
   <si>
     <t>Doutorado</t>
   </si>
@@ -2221,9 +2221,6 @@
     <t>https://drive.google.com/file/d/1ikDGAi0pQbPFjecmxEqZzKFrRy3kOeK3</t>
   </si>
   <si>
-    <t>Reis F da S, Reis LF da F, Ferreira I da N, et al. Functional Capacity Incorporating Dynamic Ventilation in Systemic Sclerosis: Agreement Analysis  Between Performance on the 6-Minute Walk Test and Glittre–ADL Test. Journal of Back and Musculoskeletal Rehabilitation. 2025;0(0). doi:10.1177/10538127241298551</t>
-  </si>
-  <si>
     <t>10.1080/00015385.2025.2453799</t>
   </si>
   <si>
@@ -2258,6 +2255,27 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1AVxRJdOHcm9NcB-h45vsOxj5ery7nog_</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2025.03.023</t>
+  </si>
+  <si>
+    <t>Monteiro, E. R., de Oliveira Muniz Cunha, J. C., de Souza Horsth, T., de Araujo Barros, I., de Souza, R. C., de Andrade, W. C. R., Corrêa Neto, V. G., de Sá Ferreira, A., &amp; de Jesus, I. R. T. (2025). Effect of cervical manipulation on blood pressure and heart rate variability responses in adults: a scoping review. In Journal of Bodywork and Movement Therapies. Elsevier BV. https://doi.org/10.1016/j.jbmt.2025.03.023</t>
+  </si>
+  <si>
+    <t>Reis, F. da S., Reis, L. F. da F., Ferreira, I. da N., Farias, I. de O., Pessoa, L. F., Costa, L. R. da, Olímpio Júnior, H., Ferreira, A. de S., &amp; Lopes, A. J. (2025). Functional Capacity Incorporating Dynamic Ventilation in Systemic Sclerosis: Agreement Analysis Between Performance on the 6-Minute Walk Test and Glittre–ADL Test. In Journal of Back and Musculoskeletal Rehabilitation (Vol. 38, Issue 2, pp. 294–303). SAGE Publications. https://doi.org/10.1177/10538127241298551</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lKjWHlGjOn1nFGbb3wWQrR4N3FRwypul</t>
+  </si>
+  <si>
+    <t>10.47066/2966-4837.2024.0008en</t>
+  </si>
+  <si>
+    <t>Parisotto, G., SantAnna, M., Junior, Papathanasiou, J., Reis, L. F. da F., &amp; Ferreira, A. de S. (2024). Association between functional impairments at hospital discharge and short-term barriers to cardiac rehabilitation in acute coronary syndrome: a longitudinal study. In Brazilian Journal of Respiratory, Cardiovascular and Critical Care Physiotherapy (Vol. 15, p. e00472024). Associacao Brasileira de Fisioterapia Cardiorrespiratoria e Fisioterapia em Terapia Intensiva. https://doi.org/10.47066/2966-4837.2024.0008en</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16NMU50SXslb3fvtDKOJ7Vz0GpAp_wsv0</t>
   </si>
 </sst>
 </file>
@@ -2921,13 +2939,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:C194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B187" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B191" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A192" sqref="A192"/>
+      <selection pane="bottomRight" activeCell="A194" sqref="A194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4940,118 +4958,140 @@
         <v>577</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" ht="204" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A184" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="B183" s="9" t="s">
+      <c r="B184" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="C183" s="6" t="s">
+      <c r="C184" s="6" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A184" s="6" t="s">
+    <row r="185" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A185" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B185" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="C184" s="6" t="s">
+      <c r="C185" s="6" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A185" s="6" t="s">
+    <row r="186" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A186" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B186" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="C185" s="6" t="s">
+      <c r="C186" s="6" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A186" s="6" t="s">
+    <row r="187" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A187" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B186" s="9" t="s">
+      <c r="B187" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="C186" s="6" t="s">
+      <c r="C187" s="6" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="120" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="14" t="s">
+    <row r="188" spans="1:3" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="14" t="s">
         <v>670</v>
       </c>
-      <c r="B187" s="15" t="s">
+      <c r="B188" s="15" t="s">
         <v>668</v>
       </c>
-      <c r="C187" s="14" t="s">
+      <c r="C188" s="14" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A188" s="6" t="s">
+    <row r="189" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A189" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="B189" s="7" t="s">
         <v>699</v>
       </c>
-      <c r="B188" s="7" t="s">
+      <c r="C189" s="6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A190" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="C188" s="6" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A189" s="6" t="s">
+      <c r="B190" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="C190" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="B189" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A190" s="22" t="s">
+    </row>
+    <row r="191" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A191" s="22" t="s">
+        <v>695</v>
+      </c>
+      <c r="B191" s="23" t="s">
         <v>696</v>
       </c>
-      <c r="B190" s="23" t="s">
-        <v>697</v>
-      </c>
-      <c r="C190" s="22" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A191" s="6" t="s">
+      <c r="C191" s="22" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A192" s="22" t="s">
+        <v>707</v>
+      </c>
+      <c r="B192" s="23" t="s">
+        <v>709</v>
+      </c>
+      <c r="C192" s="22" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A193" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="B191" s="9" t="s">
+      <c r="B193" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="C191" s="6" t="s">
+      <c r="C193" s="6" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A192" s="22" t="s">
-        <v>694</v>
-      </c>
-      <c r="B192" s="23" t="s">
+    <row r="194" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+      <c r="A194" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="B194" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="C192" s="22" t="s">
+      <c r="C194" s="6" t="s">
         <v>692</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C186 C188:C1048576">
+  <conditionalFormatting sqref="C189:C1048576 C1:C187">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -5225,10 +5265,10 @@
     <hyperlink ref="B155" r:id="rId168" xr:uid="{A836F43E-7BEF-9D42-A3B6-02508F69F61B}"/>
     <hyperlink ref="B161" r:id="rId169" xr:uid="{3E0387C4-753B-084F-8B94-EAB77D64B5F5}"/>
     <hyperlink ref="B157" r:id="rId170" xr:uid="{DCBD8E7E-15FD-E541-BF93-6B08A3B29FCB}"/>
-    <hyperlink ref="B186" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
+    <hyperlink ref="B187" r:id="rId171" xr:uid="{E7FEFAB9-52AD-2742-81A7-3694CAB84F24}"/>
     <hyperlink ref="B179" r:id="rId172" xr:uid="{987C8D93-1A9E-2F41-BCB1-2BCD4D9BE0A5}"/>
-    <hyperlink ref="B185" r:id="rId173" xr:uid="{2DD41C73-7758-4B42-885B-07F0429CE93C}"/>
-    <hyperlink ref="B184" r:id="rId174" xr:uid="{F10562EB-0310-DF46-A34E-D06D1ED9BA78}"/>
+    <hyperlink ref="B186" r:id="rId173" xr:uid="{2DD41C73-7758-4B42-885B-07F0429CE93C}"/>
+    <hyperlink ref="B185" r:id="rId174" xr:uid="{F10562EB-0310-DF46-A34E-D06D1ED9BA78}"/>
     <hyperlink ref="B174" r:id="rId175" xr:uid="{8A98A52A-A919-FF4D-9DE9-B9131F47D023}"/>
     <hyperlink ref="B175" r:id="rId176" xr:uid="{6218FD34-82E7-2040-A7AF-0FC000086B8A}"/>
     <hyperlink ref="B172" r:id="rId177" xr:uid="{85C85685-7EBF-7D48-938F-36594F45EEDA}"/>
@@ -5237,18 +5277,20 @@
     <hyperlink ref="B181" r:id="rId180" xr:uid="{FBB2040A-18B3-7E4C-AC4E-ABF880E20EF4}"/>
     <hyperlink ref="B173" r:id="rId181" xr:uid="{C69EE705-E244-0F4D-BD99-36D9896017C6}"/>
     <hyperlink ref="B180" r:id="rId182" xr:uid="{AD85627C-75D8-544B-B091-1ECC810BAE64}"/>
-    <hyperlink ref="B183" r:id="rId183" xr:uid="{87F8B8E2-9764-D140-B6BB-57C502799583}"/>
+    <hyperlink ref="B184" r:id="rId183" xr:uid="{87F8B8E2-9764-D140-B6BB-57C502799583}"/>
     <hyperlink ref="B177" r:id="rId184" xr:uid="{2062A71F-134B-894B-8846-EBE07862159F}"/>
-    <hyperlink ref="B187" r:id="rId185" xr:uid="{160997CC-24EC-AF45-B4B5-A42D9DAF844A}"/>
+    <hyperlink ref="B188" r:id="rId185" xr:uid="{160997CC-24EC-AF45-B4B5-A42D9DAF844A}"/>
     <hyperlink ref="B176" r:id="rId186" xr:uid="{25DD0A18-959B-A34B-8A93-D3FEF3FB97F9}"/>
-    <hyperlink ref="B191" r:id="rId187" xr:uid="{BA3D02D1-77B0-BE46-B252-C3907725109A}"/>
-    <hyperlink ref="B192" r:id="rId188" xr:uid="{80CA59D1-9BA2-8346-91A8-5971988A89C5}"/>
-    <hyperlink ref="B190" r:id="rId189" xr:uid="{21B013FC-291F-B645-B9CB-D55C82E0FF3C}"/>
-    <hyperlink ref="B188" r:id="rId190" xr:uid="{E1387560-3B21-8744-8282-FA62172ADD59}"/>
-    <hyperlink ref="B189" r:id="rId191" xr:uid="{33E26B4B-696D-C148-833C-5E1DE66A42D2}"/>
+    <hyperlink ref="B193" r:id="rId187" xr:uid="{BA3D02D1-77B0-BE46-B252-C3907725109A}"/>
+    <hyperlink ref="B194" r:id="rId188" xr:uid="{80CA59D1-9BA2-8346-91A8-5971988A89C5}"/>
+    <hyperlink ref="B191" r:id="rId189" xr:uid="{21B013FC-291F-B645-B9CB-D55C82E0FF3C}"/>
+    <hyperlink ref="B189" r:id="rId190" xr:uid="{E1387560-3B21-8744-8282-FA62172ADD59}"/>
+    <hyperlink ref="B190" r:id="rId191" xr:uid="{33E26B4B-696D-C148-833C-5E1DE66A42D2}"/>
+    <hyperlink ref="B192" r:id="rId192" xr:uid="{BF1A3EB5-CF92-0841-BAA0-6FB9A8AA212D}"/>
+    <hyperlink ref="B183" r:id="rId193" xr:uid="{209E1586-B300-E449-AB0D-FB1B05BABBF3}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId192"/>
+  <legacyDrawing r:id="rId194"/>
 </worksheet>
 </file>
 
@@ -5306,13 +5348,13 @@
     </row>
     <row r="4" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>705</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>706</v>
-      </c>
       <c r="C4" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
   </sheetData>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/CienciaComRConsultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E714CE-AB73-B74F-8AE4-B002B3D125EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B3B3F2-516E-EE4D-90C2-92F4C4DBBC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="7" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
   <sheets>
     <sheet name="curriculo" sheetId="2" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="731">
   <si>
     <t>Doutorado</t>
   </si>
@@ -2276,6 +2276,60 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/16NMU50SXslb3fvtDKOJ7Vz0GpAp_wsv0</t>
+  </si>
+  <si>
+    <t>10.3344/kjp.24332</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wXOxIEpBK2xJel4hEVpsMzD9QOG_-U42</t>
+  </si>
+  <si>
+    <t>10.1177/10538127251326152</t>
+  </si>
+  <si>
+    <t>Kandakurti, P. K., de Sá Ferreira, A., Calazans Nogueira, L. A., Arulsingh Daniel Ragland, W., &amp; Patil, S. S. (2025). Influence of kinesiophobia on lumbar position sense in patients with chronic low back pain—a case-control study. In Journal of Back and Musculoskeletal Rehabilitation. SAGE Publications. https://doi.org/10.1177/10538127251326152</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dENgyVBLDQaOKHVX2vBk5sfENI5C1psY</t>
+  </si>
+  <si>
+    <t>10.1007/978-3-031-25960-9_23-1</t>
+  </si>
+  <si>
+    <t>da Silva Júnior, R. C. V., de Sá Ferreira, A., Dusek, P. M., &amp; Bilotta, P. (2025). Data Systematization and Reporting for Sustainability and Climate Change Management in Higher Education Institutions. In University Initiatives on Climate Change Education and Research (pp. 1–20). Springer Nature Switzerland. https://doi.org/10.1007/978-3-031-25960-9_23-1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11O2vx3tVSqeKFF0AWLMTK7Xk59MaxtKt</t>
+  </si>
+  <si>
+    <t>PARISOTTO, G. ; SANTANNA JR, M. ; PAPATHANASIOU, J. ; REIS, L. F. F. ; Ferreira, Arthur S . Déficits funcionais associados a barreiras para reabilitação cardíaca após alta hospitalar na síndrome coronariana aguda: Um estudo longitudinal. In: 44o Congresso da SOCESP, 2024, São Paulo. Suplemento da Revista da SOCESP. São Paulo: SOCESP, 2024. v. 34. p. 253-253.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1EYHKHc2YJ2X6Wv8vG_4roEu9Amsph0DO</t>
+  </si>
+  <si>
+    <t>PARISOTTO, G. ; SANTANNA JR, M. ; PAPATHANASIOU, J. ; REIS, L. F. F. ; FERREIRA AS . Modelo preditivo de readmissão hospitalar baseado em déficits funcionais após alta hospitalar na síndrome coronariana aguda: estudo longitudinal. In: XXIX CONGRESSO BRASILEIRO DE MEDICINA INTENSIVA, 2024, São Paulo. Critical Care Sciences. São Paulo: Associação de Medicina Intensiva Brasileira and the Sociedade Portuguesa de Cuidados Intensivos, 2024. v. 36. p. S3-S3.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1i6vDDUprFzJC2qONq8TfAiAskcpqSpNq</t>
+  </si>
+  <si>
+    <t>PARISOTTO, G. ; SANTANNA JR, M. ; PAPATHANASIOU, J. ; REIS, L. F. F. ; FERREIRA, AS . Associação entre readmissão hospitalar e barreiras para reabilitação cardíaca após alta hospitalar na síndrome coronariana aguda: estudo transversal. In: XXIX CONGRESSO BRASILEIRO DE MEDICINA INTENSIVA, 2024, São Paulo. Critical Care Sciences. São Paulo: Associação de Medicina Intensiva Brasileira and the Sociedade Portuguesa de Cuidados Intensivos. v. 36. p. S43-S44.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZlT58SAe8g20kuCRTbRST0-Ht-byVMy7</t>
+  </si>
+  <si>
+    <t>Shanmugam S, Anjos FVD, Ferreira ADS, Muthukrishnan R, Kandakurti PK, Durairaj S.  Effectiveness of intramuscular electrical stimulation using conventional and inverse electrode placement methods on pressure pain threshold and electromyographic activity of the upper trapezius muscle with myofascial trigger points: a randomized clinical trial.  Korean J Pain 2025;38:187-197.  https://doi.org/10.3344/kjp.24332</t>
+  </si>
+  <si>
+    <t>RCTapp</t>
+  </si>
+  <si>
+    <t>https://sciencer.shinyapps.io/RCTapp/</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15XzqwqD4k5E9hqxYk0J6Sw68F0xxZqUq</t>
   </si>
 </sst>
 </file>
@@ -2939,13 +2993,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C194"/>
+  <dimension ref="A1:C196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B191" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B193" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A194" sqref="A194"/>
+      <selection pane="bottomRight" activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5057,37 +5111,59 @@
         <v>694</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A192" s="22" t="s">
+        <v>716</v>
+      </c>
+      <c r="B192" s="23" t="s">
+        <v>717</v>
+      </c>
+      <c r="C192" s="22" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A193" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="B192" s="23" t="s">
+      <c r="B193" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="C192" s="22" t="s">
+      <c r="C193" s="6" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A193" s="6" t="s">
+    <row r="194" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A194" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="B193" s="9" t="s">
+      <c r="B194" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="C193" s="6" t="s">
+      <c r="C194" s="6" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="187" x14ac:dyDescent="0.2">
-      <c r="A194" s="6" t="s">
+    <row r="195" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+      <c r="A195" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="B194" s="9" t="s">
+      <c r="B195" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="C194" s="6" t="s">
+      <c r="C195" s="6" t="s">
         <v>692</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A196" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -5281,16 +5357,18 @@
     <hyperlink ref="B177" r:id="rId184" xr:uid="{2062A71F-134B-894B-8846-EBE07862159F}"/>
     <hyperlink ref="B188" r:id="rId185" xr:uid="{160997CC-24EC-AF45-B4B5-A42D9DAF844A}"/>
     <hyperlink ref="B176" r:id="rId186" xr:uid="{25DD0A18-959B-A34B-8A93-D3FEF3FB97F9}"/>
-    <hyperlink ref="B193" r:id="rId187" xr:uid="{BA3D02D1-77B0-BE46-B252-C3907725109A}"/>
-    <hyperlink ref="B194" r:id="rId188" xr:uid="{80CA59D1-9BA2-8346-91A8-5971988A89C5}"/>
+    <hyperlink ref="B194" r:id="rId187" xr:uid="{BA3D02D1-77B0-BE46-B252-C3907725109A}"/>
+    <hyperlink ref="B195" r:id="rId188" xr:uid="{80CA59D1-9BA2-8346-91A8-5971988A89C5}"/>
     <hyperlink ref="B191" r:id="rId189" xr:uid="{21B013FC-291F-B645-B9CB-D55C82E0FF3C}"/>
     <hyperlink ref="B189" r:id="rId190" xr:uid="{E1387560-3B21-8744-8282-FA62172ADD59}"/>
     <hyperlink ref="B190" r:id="rId191" xr:uid="{33E26B4B-696D-C148-833C-5E1DE66A42D2}"/>
-    <hyperlink ref="B192" r:id="rId192" xr:uid="{BF1A3EB5-CF92-0841-BAA0-6FB9A8AA212D}"/>
+    <hyperlink ref="B193" r:id="rId192" xr:uid="{BF1A3EB5-CF92-0841-BAA0-6FB9A8AA212D}"/>
     <hyperlink ref="B183" r:id="rId193" xr:uid="{209E1586-B300-E449-AB0D-FB1B05BABBF3}"/>
+    <hyperlink ref="B196" r:id="rId194" xr:uid="{8990349C-86E1-C145-ACEC-0328F8EDB6A4}"/>
+    <hyperlink ref="B192" r:id="rId195" xr:uid="{CAEE1FFD-BED7-0840-8AD6-6D6AA939DF6A}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId194"/>
+  <legacyDrawing r:id="rId196"/>
 </worksheet>
 </file>
 
@@ -5423,13 +5501,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC58054-A5C0-CE48-966A-D48A8C7C29B4}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5551,6 +5629,17 @@
         <v>679</v>
       </c>
     </row>
+    <row r="13" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>718</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{A00EC802-23BF-954B-A471-137E5FB799D0}"/>
@@ -5564,21 +5653,22 @@
     <hyperlink ref="B10" r:id="rId9" xr:uid="{AB1062CE-B96B-B940-913B-1992CA7BAEF1}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{E4331655-7424-5D46-B483-22A040111B0F}"/>
     <hyperlink ref="B12" r:id="rId11" xr:uid="{95B52DC5-E944-E048-BE20-DB2FD31282B3}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{DF2AF64C-5EA7-074E-933C-C5F67F0CF295}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId12"/>
+  <legacyDrawing r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12814D52-B4A6-0C42-8333-C9B66CE67680}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5815,45 +5905,69 @@
     </row>
     <row r="24" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="187" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>645</v>
+        <v>723</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="187" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>647</v>
+        <v>725</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>646</v>
+        <v>726</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>648</v>
       </c>
     </row>
@@ -5881,25 +5995,28 @@
     <hyperlink ref="B21" r:id="rId20" xr:uid="{E56AD9A2-9B59-4541-BA58-ABAA32758395}"/>
     <hyperlink ref="B22" r:id="rId21" xr:uid="{061A69C7-599C-6445-940A-D68363215851}"/>
     <hyperlink ref="B23" r:id="rId22" xr:uid="{63765BB2-AE73-E047-945D-65CEDE36E037}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{8F925C65-8395-7644-8632-4DFA77F7A323}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{42F105AF-5F8B-4A4F-9F1A-D7DCD4E2FA81}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{B92025E6-00CA-0E44-BA09-6154B4524AE5}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{E83AE0CD-055A-0F4E-8164-7813AB2D28A8}"/>
+    <hyperlink ref="B27" r:id="rId23" xr:uid="{8F925C65-8395-7644-8632-4DFA77F7A323}"/>
+    <hyperlink ref="B28" r:id="rId24" xr:uid="{42F105AF-5F8B-4A4F-9F1A-D7DCD4E2FA81}"/>
+    <hyperlink ref="B29" r:id="rId25" xr:uid="{B92025E6-00CA-0E44-BA09-6154B4524AE5}"/>
+    <hyperlink ref="B30" r:id="rId26" xr:uid="{E83AE0CD-055A-0F4E-8164-7813AB2D28A8}"/>
+    <hyperlink ref="B24" r:id="rId27" xr:uid="{4761C4BD-2468-3A4A-B601-5BBB657E08CE}"/>
+    <hyperlink ref="B25" r:id="rId28" xr:uid="{B5FFDFB7-670F-4F41-B257-0469D79F1254}"/>
+    <hyperlink ref="B26" r:id="rId29" xr:uid="{D92487E8-EC35-3945-8B50-AC77100B7D2E}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId27"/>
+  <legacyDrawing r:id="rId30"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D49A42-744A-EE4A-B294-D2CA066FEF3F}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5979,6 +6096,17 @@
         <v>568</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>730</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{9AD72881-6A9A-484B-B50E-3A319D3A3009}"/>
@@ -5990,6 +6118,8 @@
     <hyperlink ref="B5" r:id="rId7" xr:uid="{F3095D21-8822-F441-B312-204231A6E378}"/>
     <hyperlink ref="B6" r:id="rId8" xr:uid="{5FB30252-5937-7948-B4BB-180736E156E6}"/>
     <hyperlink ref="B7" r:id="rId9" xr:uid="{5F395E17-E4AF-054E-86DB-3A8C85147AFE}"/>
+    <hyperlink ref="B8" r:id="rId10" xr:uid="{23DC5622-B004-494F-9DA9-EEC70BF2FA6F}"/>
+    <hyperlink ref="C8" r:id="rId11" xr:uid="{8A1A242A-CEB0-A741-A37D-476362C60252}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/CienciaComRConsultoria/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/CienciaComRConsultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B3B3F2-516E-EE4D-90C2-92F4C4DBBC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A7507C-5CEA-3E4D-93F7-4ADA52DE76EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="500" windowWidth="27600" windowHeight="17140" activeTab="7" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
+    <workbookView xWindow="1080" yWindow="680" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
   <sheets>
     <sheet name="curriculo" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="capitulos" sheetId="5" r:id="rId6"/>
     <sheet name="resumos-eventos" sheetId="7" r:id="rId7"/>
     <sheet name="aplicativos-com-registro" sheetId="3" r:id="rId8"/>
+    <sheet name="datasets" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -133,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="832">
   <si>
     <t>Doutorado</t>
   </si>
@@ -2224,9 +2225,6 @@
     <t>10.1080/00015385.2025.2453799</t>
   </si>
   <si>
-    <t>Arthur Sá Ferreira &amp; Gabriel Parisotto (30 Jan 2025): Rethinking methodologies in nocturnal blood pressure dipping research: insights from Lopez et al., Acta Cardiologica, DOI: 10.1080/00015385.2025.2453799</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1wQ80XvPhxmb6_anD2KgQdRsXd1uajQRV</t>
   </si>
   <si>
@@ -2287,9 +2285,6 @@
     <t>10.1177/10538127251326152</t>
   </si>
   <si>
-    <t>Kandakurti, P. K., de Sá Ferreira, A., Calazans Nogueira, L. A., Arulsingh Daniel Ragland, W., &amp; Patil, S. S. (2025). Influence of kinesiophobia on lumbar position sense in patients with chronic low back pain—a case-control study. In Journal of Back and Musculoskeletal Rehabilitation. SAGE Publications. https://doi.org/10.1177/10538127251326152</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1dENgyVBLDQaOKHVX2vBk5sfENI5C1psY</t>
   </si>
   <si>
@@ -2330,6 +2325,316 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/15XzqwqD4k5E9hqxYk0J6Sw68F0xxZqUq</t>
+  </si>
+  <si>
+    <t>Ferreira, A. L. N. V., &amp; de Sá Ferreira, A. . . (2025). Contribuições do POP à assistência de enfermagem ao tratamento da neoplasia de tireoide no quarto terapêutico. Revista JRG De Estudos Acadêmicos, 8(18), e082001. https://doi.org/10.55892/jrg.v8i18.2001</t>
+  </si>
+  <si>
+    <t>10.55892/jrg.v8i18.2001</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zGwS1WSCyn7uJ9HLDe0lFjEt8iUfIRLq</t>
+  </si>
+  <si>
+    <t>10.1080/21679169.2025.2497780</t>
+  </si>
+  <si>
+    <t>Reis, F. J. J., Neves, G. de A., Carvalho, M. B. L. de, Nogueira, L. C., Meziat-Filho, N., Medeiros, F. C., &amp; Sá Ferreira, A. de. (2025). Mapping global research on artificial intelligence in physical therapy: a bibliometric analysis from 1990 to 2023. In European Journal of Physiotherapy (pp. 1–11). Informa UK Limited. https://doi.org/10.1080/21679169.2025.2497780</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16_pb4XaR4vFWN-TrDv-0RuR5PQK3U0ZT</t>
+  </si>
+  <si>
+    <t>10.3390/healthcare13121371</t>
+  </si>
+  <si>
+    <t>Monteiro, E.R.; Aguilera, L.M.; Ruá-Alonso, M.; Araújo, G.d.S.; Corrêa Neto, V.G.; Bentes, C.M.; Vilaça-Alves, J.; Reis, V.M.; Ferreira, A.d.S.; Marchetti, P.H.; et al. Effect of Manual Massage, Foam Rolling, and Strength Training on Hemodynamic and Autonomic Responses in Adults: A Scoping Review. Healthcare 2025, 13, 1371. https://doi.org/10.3390/ healthcare13121371</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1t-IHy-BPkRmO5qmh4pf9piX8Jl81JlyF</t>
+  </si>
+  <si>
+    <t>10.55892/jrg.v8i18.2222</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FHgnWqMieSTLb3dnvlC7AepZdAAitsPQ</t>
+  </si>
+  <si>
+    <t>Ferreira, A. L. N. V.; Ferreira, A. de S. POP do “quarto terapêutico” proposto pela equipe profissional aos pacientes com neoplasia de tireoide com Iodoradioativo I-131. Revista JRG de Estudos Acadêmicos , Brasil, São Paulo, v. 8, n. 18, p. e082222, 2025. DOI: 10.55892/jrg.v8i18.2222.</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbmt.2025.06.027</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1njM3Ra3pWkpiMlkafGgIpLuaWQhpS-as</t>
+  </si>
+  <si>
+    <t>de Souza Horsth, T., de Araujo Barros, I., de Souza, R. C., de Sá Ferreira, A., &amp; de Almeida, R. S. (2025). Heart rate variability responses to instrument-assisted atlas (C1) chiropractic manipulation: A randomized placebo-controlled trial. Journal of Bodywork and Movement Therapies, 44, 784–788. https://doi.org/10.1016/j.jbmt.2025.06.027</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VVxbuxgjyjajGS9zBY3z1VS_rUvJ59pi</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101258</t>
+  </si>
+  <si>
+    <t>Correia, I. M. T., Ferreira, A. de S., Fernandez, J., Reis, F. J. J., Nogueira, L. A. C., &amp; Meziat-Filho, N. (2025). Cervical flexion posture during smartphone use was not a risk factor for neck pain, but low sleep quality and insufficient levels of physical activity were. A longitudinal investigation. Brazilian Journal of Physical Therapy (Vol. 29, Issue 6, pp. 101258). DOI: 10.1016/j.bjpt.2025.101258</t>
+  </si>
+  <si>
+    <t>Ferreira, A. S., &amp; Parisotto, G. (2025). Rethinking methodologies in nocturnal blood pressure dipping research: insights from Lopez et al. Acta Cardiologica, 80(5), 529–530. https://doi.org/10.1080/00015385.2025.2453799</t>
+  </si>
+  <si>
+    <t>Kandakurti, P. K., de Sá Ferreira, A., Calazans Nogueira, L. A., Arulsingh Daniel Ragland, W., &amp; Patil, S. S. (2025). Influence of kinesiophobia on lumbar position sense in patients with chronic low back pain—a case-control study. Journal of Back and Musculoskeletal Rehabilitation, 38(5), 1158–1164. https://doi.org/10.1177/10538127251326152</t>
+  </si>
+  <si>
+    <t>10.3389/fstro.2025.1682445</t>
+  </si>
+  <si>
+    <t>Cunha, F., Ferreira, A. de S., &amp; Midgley, A. W. (2025). Editorial: Evaluation of fitness in stroke survivors. Frontiers in Stroke, 4. https://doi.org/10.3389/fstro.2025.1682445</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1a8KLHIlypluQE3PB2SsoV1Mpj66Z4R3v/view</t>
+  </si>
+  <si>
+    <t>10.54033/cadpedv22n11-062</t>
+  </si>
+  <si>
+    <t>Nascimento, W. R. do, Vianna, M. de A., &amp; Ferreira, A. de S. (2025). Letramento digital e inclusão social: perspectivas para o desenvolvimento sociocultural de populações vulneráveis. Caderno Pedagógico, 22(11), e19624. https://doi.org/10.54033/cadpedv22n11-062</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15rqm1wZFSRH_QdLr9kaA0sCMweCsKhji</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dRbPHrxtwXU7gXgvrRbsi3FC43h9AJRF</t>
+  </si>
+  <si>
+    <t>10.3389/978-2-8325-6666-4</t>
+  </si>
+  <si>
+    <t>Cunha, F., Ferreira, A. S., Midgley, A. W., eds. (2025). Evaluation of fitness in stroke
+survivors. Lausanne: Frontiers Media SA. doi: 10.3389/978-2-8325-6666-4</t>
+  </si>
+  <si>
+    <t>10.36416/1806-3756/e20240312</t>
+  </si>
+  <si>
+    <t>Reis LFF, Penha C, Silva PCD, Mendonça AOMS, Silva ACS, Diniz CP, et al. Reference equation for measurement of the maximal dynamic inspiratory muscle pressure index (S-Index) in healthy Brazilian adults. J Bras Pneumol. 2025;51(6):e20240312. https://dx.doi.org/10.36416/1806-3756/e20240312</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zjLQOFNudw8OBWX1oLXiOxfTHfciy_dz</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rpz_ssjJA4eS3OTIoW1Wt_qFn3zHUDGM</t>
+  </si>
+  <si>
+    <t>10.1080/00015385.2025.2576437</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1O_ccxBv0Z9hJuGaY9fgljOmklsvfr4Uo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vu50Arn5m-Wb0SAxPlu1oS2R6xLJOPN2</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1AZnwlXDfU4G-HuSXVi_yyXgyjHIlW2gt</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fvt-d11hEkPdy3yGiljmxXfjkaguGq2K</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BpyUELgzCk-QoxBJ86JUDDVLBFh0lD6N</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1sb1fp26jGRnytTAIvl1GlU_kfN392e1k</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1csXSrpyta69AcKdWoqh5UxAMsVtu_Kar</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101522</t>
+  </si>
+  <si>
+    <t>de Andrade, W. C. R., Antunes, J. E. M. da C., Penna, E. R. de S., Ferreira, A. de S., de Carvalho, T. L., &amp; dos Anjos, F. V. (2025). THE EFFECT OF DIFFERENT BIOFEEDBACK TECHNIQUES ON THE LEVEL OF MUSCLE ACTIVATION AND POSTURAL BALANCE IN YOUNG ADULTS. Brazilian Journal of Physical Therapy, 29, 101522. https://doi.org/10.1016/j.bjpt.2025.101522</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101434</t>
+  </si>
+  <si>
+    <t>Andrelino, P. C. de L., Rodrigues, E., de Oliveira, L. A. S., &amp; Ferreira, A. de S. (2025). FUNCTIONALITY, WORK ABILITY, AND REHABILITATION BARRIERS IN YOUNG ADULTS POST-STROKE: A CROSS-SECTIONAL ANALYSIS. Brazilian Journal of Physical Therapy, 29, 101434. https://doi.org/10.1016/j.bjpt.2025.101434</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101316</t>
+  </si>
+  <si>
+    <t>Antunes, J. E. M. da C., de Andrade, W. C. R., Penna, E. R. de S., Ribeiro, R., de Carvalho, T. L., Ferreira, A. de S., &amp; dos Anjos, F. V. (2025). THE INFLUENCE OF VISUAL CONTRIBUTION ON MUSCLE ACTIVITY DURING VISUAL FEEDBACK TASKS WHILE STANDING. Brazilian Journal of Physical Therapy, 29, 101316. https://doi.org/10.1016/j.bjpt.2025.101316</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101299</t>
+  </si>
+  <si>
+    <t>De Araujo, Y. R. L., Lopes, A. J., Ferreira, A. de S., &amp; Reis, L. F. (2025). EVALUATION OF PREDICTIVE METHODS FOR RESPONSE TO POSITIVE END-EXPIRATORY PRESSURE (PEEP) IN INDIVIDUALS WITH ACUTE RESPIRATORY DISTRESS SYNDROME (ARDS). Brazilian Journal of Physical Therapy, 29, 101299. https://doi.org/10.1016/j.bjpt.2025.101299</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101423</t>
+  </si>
+  <si>
+    <t>Freitas, V. da S., Correa, L. A., de Almeida, R. S., &amp; Ferreira, A. de S. (2025). CROSS-CULTURAL ADAPTATION OF THE JOB SATISFACTION SCALE - VERSION FOR TEACHERS (ESL-VP): INTERNAL CONSISTENCY ANALYSIS. Brazilian Journal of Physical Therapy, 29, 101423. https://doi.org/10.1016/j.bjpt.2025.101423</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101525</t>
+  </si>
+  <si>
+    <t>Melo, I. B. de A. P., Ferreira, A. de S., Bastos, J. R. M., Pinto, T. P., Rodrigues, E., &amp; Vieira dos Anjos, F. (2025). DEPRESSION IS ASSOCIATED WITH POSTURAL BALANCE IN INDIVIDUALS WITH LONG COVID: A CROSS-SECTIONAL STUDY. Brazilian Journal of Physical Therapy, 29, 101525. https://doi.org/10.1016/j.bjpt.2025.101525</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101304</t>
+  </si>
+  <si>
+    <t>Ribeiro, R., dos Anjos, F. V., de Sá Ferreira, A., &amp; de Souza Penna, E. R. (2025). EVALUATION OF THE OPTIMIZATION OF POSTURAL BALANCE CONTROL DURING THE USE OF VISUAL BIOFEEDBACK. Brazilian Journal of Physical Therapy, 29, 101304. https://doi.org/10.1016/j.bjpt.2025.101304</t>
+  </si>
+  <si>
+    <t>10.21203/rs.3.rs-7551921/v1</t>
+  </si>
+  <si>
+    <t>Kandakurti, P. K., arulsingh,  watson, Ferreira, A. de S., &amp; Patil, S. S. (2025). C5-C6 And Thoracic Spine Mobilization With Postural Correction Exercise Compared With Conventional Therapy In Patients With Adhesive Capsulitis , A Two-Group, Parallel-Arm, Single-Blinded, Randomized Clinical Trial-  Study Protocol. Springer Science and Business Media LLC. https://doi.org/10.21203/rs.3.rs-7551921/v1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Qe0fmbNVeNdLeYBi2R4hFliysZwkRuJi</t>
+  </si>
+  <si>
+    <t>6MWT Calculator</t>
+  </si>
+  <si>
+    <t>https://6mwt.shinyapps.io/calculator/</t>
+  </si>
+  <si>
+    <t>Almeida, João Pedro; Vitória, Ingrid; Santos, Brenda; Ramathur, Igor; dos Anjos, Fabio; Lemos, Thiago; Ferreira, Arthur (2025), “Code for "Multivariable Prediction of Postural Sway: Development and Internal Validation of Mixed-Effects Models for COP Velocity and Sway Area"”, Mendeley Data, V1, doi: 10.17632/4n5n5pptsd.1</t>
+  </si>
+  <si>
+    <t>10.17632/4n5n5pptsd.1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17632/4n5n5pptsd.1</t>
+  </si>
+  <si>
+    <t>Abrahão, Pérsia; Meziat-Filho, Ney; Rodrigues, Erika; Pinto, Talita; Ferreira, Arthur (2025), “Dataset and code for "‘Seeing pain differently’: The impact of physiotherapists’ attitudes and treatment beliefs on postural assessment in neck pain—An eye-tracking study"”, Mendeley Data, V4, doi: 10.17632/7cbwm57pcd.4</t>
+  </si>
+  <si>
+    <t>https://doir.org/10.17632/7cbwm57pcd.4</t>
+  </si>
+  <si>
+    <t>10.17632/7cbwm57pcd.4</t>
+  </si>
+  <si>
+    <t>Alaparthi, Gopala; Moustafa, Ibrahim; Lopes, Agnaldo; Ferreira, Arthur (2024), “Data and code for "Pulmonary function, body posture and balance in young adults with asthma: A cross-sectional study"”, Mendeley Data, V1, doi: 10.17632/pt5scmp33z.1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17632/pt5scmp33z.1</t>
+  </si>
+  <si>
+    <t>10.17632/pt5scmp33z.1</t>
+  </si>
+  <si>
+    <t>Ferreira, Arthur; Ferreira, Ana Paula (2022), “Data for "Locating the Seventh Cervical Spinous Process: Accuracy of the Thorax-Rib Static Method and the Effects of Clinical Data on Its Performance"”, Mendeley Data, V2, doi: 10.17632/dxj78tyyhj.2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17632/dxj78tyyhj.2</t>
+  </si>
+  <si>
+    <t>10.17632/dxj78tyyhj.2</t>
+  </si>
+  <si>
+    <t>Ferreira, Arthur; Alvim, Danielle (2018), “Data for: Pragmatic combinations of acupuncture points for lateral epicondylalgia are unreliable in the physiotherapy setting”, Mendeley Data, V1, doi: 10.17632/6wyn9ktx7f.1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17632/6wyn9ktx7f.1</t>
+  </si>
+  <si>
+    <t>10.17632/6wyn9ktx7f.1</t>
+  </si>
+  <si>
+    <t>Saraiva, Nathália; Ferreira, Arthur; Papathanasiou, Jannis; Guimarães, Fernando; Lopes, Agnaldo (2021), “Dataset for "Kinematic evaluation of patients with chronic obstructive pulmonary disease during the 6-min walk test"”, Mendeley Data, V1, doi: 10.17632/5c97xjmcw2.1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17632/5c97xjmcw2.1</t>
+  </si>
+  <si>
+    <t>10.17632/5c97xjmcw2.1</t>
+  </si>
+  <si>
+    <t>Saraiva, Nathália; Guimarães, Fernando; Lopes, Agnaldo; Papathanasiou, Jannis; Ferreira, Arthur (2021), “Dataset for "Feasibility of whole-body gait kinematics to assess the validity of the six-minute walk test over a 10-m walkway in the elderly"”, Mendeley Data, V1, doi: 10.17632/47s5jdw7vn.1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17632/47s5jdw7vn.1</t>
+  </si>
+  <si>
+    <t>10.17632/47s5jdw7vn.1</t>
+  </si>
+  <si>
+    <t>Ferreira, Arthur (2021), “Dataset for "Accuracy and learning curves of inexperienced observers for manual segmentation of electromyograms"”, Mendeley Data, V1, doi: 10.17632/5hbfnnjfff.1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17632/5hbfnnjfff.1</t>
+  </si>
+  <si>
+    <t>10.17632/5hbfnnjfff.1</t>
+  </si>
+  <si>
+    <t>Menezes, Michele; Meziat-Filho, Ney; Araújo, Camila; Lemos, Thiago; Ferreira, Arthur (2021), “Data for "Agreement and predictive power of six fall risk assessment methods in community-dwelling older adults"”, Mendeley Data, V3, doi: 10.17632/3d4vr4dwjs.3</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17632/3d4vr4dwjs.3</t>
+  </si>
+  <si>
+    <t>10.17632/3d4vr4dwjs.3</t>
+  </si>
+  <si>
+    <t>Ferreira, Arthur; Porto, Carla (2021), “Dataset for "Optimization of postural stability after repeated motor tasks with visual feedback in the upright stance"”, Mendeley Data, V1, doi: 10.17632/tb5fmh8znj.1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17632/tb5fmh8znj.1</t>
+  </si>
+  <si>
+    <t>10.17632/tb5fmh8znj.1</t>
+  </si>
+  <si>
+    <t>Aprigio, Patricia; Ramathur, Igor; Porto, Carla; Lemos, Thiago; Ferreira, Arthur (2021), “Dataset for "Lower limb muscle fatigability is not associated with changes in movement strategies for balance control in the upright stance"”, Mendeley Data, V4, doi: 10.17632/xbgx8gbyms.4</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17632/xbgx8gbyms.4</t>
+  </si>
+  <si>
+    <t>10.17632/xbgx8gbyms.4</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1V_jmg_0gKdNeYPZbQnbJiDksrv0IElW5</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0336898</t>
+  </si>
+  <si>
+    <t>Amaravadi, S. K., Ferreira, A. de S., &amp; Vigário, P. dos S. (2025). Comparative effects of combined aerobic and resistance training versus high-intensity interval training on insulin resistance, glycaemic control, body composition and quality of life in type 2 diabetes: A 12-week randomised controlled trial. PLOS One, 20(12), e0336898. https://doi.org/10.1371/journal.pone.0336898</t>
+  </si>
+  <si>
+    <t>Parisotto, G., Sant’Anna Junior, M., Papathanasiou, J., Reis, L. F. da F., &amp; Ferreira, A. de S. (2025). Functional determinants and perceived barriers to cardiac rehabilitation as predictors of short-term hospital readmission in acute coronary syndrome: an observational longitudinal cohort study. Acta Cardiologica, 80(10), 1102–1111. https://doi.org/10.1080/00015385.2025.2576437</t>
+  </si>
+  <si>
+    <t>10.1016/j.jmpt.2025.09.002</t>
+  </si>
+  <si>
+    <t>Silva, M. de C., Ferreira, A. de S., Baldon, R. de M., Lins, C., de Andrade, G. M., Pereira, G. B. B. de C., Silva, N. C., &amp; Felício, L. R. (2025). Immediate Effects of Manual Therapy Techniques on Ankle Dorsiflexion: A Randomized Clinical Trial. Journal of Manipulative and Physiological Therapeutics, 48(1–5), 166–176. https://doi.org/10.1016/j.jmpt.2025.09.002</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/140oAvxklgHeDka3R3ncA31m0yQV4dZdl</t>
+  </si>
+  <si>
+    <t>10.1016/j.bjpt.2025.101560</t>
+  </si>
+  <si>
+    <t>Barros, I. de A., Ferreira, A. de S., Horsth, T. de S., Holmes, T. de J., dos Santos, A. A., &amp; Lunkes, L. C. (2026). Type of health locus of control predicting pain, function, and global perceived effect in patients with chronic low back pain receiving active versus passive interventions: an observational study. Brazilian Journal of Physical Therapy, 30(2), 101560. https://doi.org/10.1016/j.bjpt.2025.101560</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17NgHRwXmGu7oX_85QgcOU0A2eqpZHTMY</t>
   </si>
 </sst>
 </file>
@@ -2396,7 +2701,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2424,12 +2729,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2500,12 +2814,31 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2993,13 +3326,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C196"/>
+  <dimension ref="A1:C209"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B193" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B206" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A196" sqref="A196"/>
+      <selection pane="bottomRight" activeCell="A209" sqref="A209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3197,7 +3530,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>65</v>
       </c>
@@ -3230,7 +3563,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>86</v>
       </c>
@@ -3362,7 +3695,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>107</v>
       </c>
@@ -5014,13 +5347,13 @@
     </row>
     <row r="183" spans="1:3" ht="204" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="B183" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="B183" s="9" t="s">
-        <v>712</v>
-      </c>
       <c r="C183" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="136" x14ac:dyDescent="0.2">
@@ -5080,95 +5413,238 @@
     </row>
     <row r="189" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="B189" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="B189" s="7" t="s">
-        <v>699</v>
-      </c>
       <c r="C189" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="C190" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="B190" s="7" t="s">
-        <v>702</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A191" s="22" t="s">
+    </row>
+    <row r="191" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A191" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A192" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A193" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="B193" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="B191" s="23" t="s">
-        <v>696</v>
-      </c>
-      <c r="C191" s="22" t="s">
+      <c r="C193" s="6" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A192" s="22" t="s">
-        <v>716</v>
-      </c>
-      <c r="B192" s="23" t="s">
-        <v>717</v>
-      </c>
-      <c r="C192" s="22" t="s">
+    <row r="194" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A194" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A195" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A196" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A197" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A198" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="B198" s="9" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A193" s="6" t="s">
+      <c r="C198" s="6" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A199" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A200" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A201" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A202" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A203" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A204" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A205" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+      <c r="A206" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="B193" s="9" t="s">
-        <v>709</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A194" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="B194" s="9" t="s">
-        <v>676</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="187" x14ac:dyDescent="0.2">
-      <c r="A195" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="B195" s="9" t="s">
+      <c r="B206" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="C195" s="6" t="s">
+      <c r="C206" s="6" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A196" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="B196" s="7" t="s">
-        <v>714</v>
-      </c>
-      <c r="C196" s="6" t="s">
+    <row r="207" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A207" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="B207" s="7" t="s">
         <v>713</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A208" s="25" t="s">
+        <v>827</v>
+      </c>
+      <c r="B208" s="26" t="s">
+        <v>828</v>
+      </c>
+      <c r="C208" s="25" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A209" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>829</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C189:C1048576 C1:C187">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{B79F2BA8-3E3E-3D4D-9EDE-43EBA11C9407}"/>
@@ -5357,30 +5833,43 @@
     <hyperlink ref="B177" r:id="rId184" xr:uid="{2062A71F-134B-894B-8846-EBE07862159F}"/>
     <hyperlink ref="B188" r:id="rId185" xr:uid="{160997CC-24EC-AF45-B4B5-A42D9DAF844A}"/>
     <hyperlink ref="B176" r:id="rId186" xr:uid="{25DD0A18-959B-A34B-8A93-D3FEF3FB97F9}"/>
-    <hyperlink ref="B194" r:id="rId187" xr:uid="{BA3D02D1-77B0-BE46-B252-C3907725109A}"/>
-    <hyperlink ref="B195" r:id="rId188" xr:uid="{80CA59D1-9BA2-8346-91A8-5971988A89C5}"/>
-    <hyperlink ref="B191" r:id="rId189" xr:uid="{21B013FC-291F-B645-B9CB-D55C82E0FF3C}"/>
+    <hyperlink ref="B203" r:id="rId187" xr:uid="{BA3D02D1-77B0-BE46-B252-C3907725109A}"/>
+    <hyperlink ref="B206" r:id="rId188" xr:uid="{80CA59D1-9BA2-8346-91A8-5971988A89C5}"/>
+    <hyperlink ref="B193" r:id="rId189" xr:uid="{21B013FC-291F-B645-B9CB-D55C82E0FF3C}"/>
     <hyperlink ref="B189" r:id="rId190" xr:uid="{E1387560-3B21-8744-8282-FA62172ADD59}"/>
     <hyperlink ref="B190" r:id="rId191" xr:uid="{33E26B4B-696D-C148-833C-5E1DE66A42D2}"/>
-    <hyperlink ref="B193" r:id="rId192" xr:uid="{BF1A3EB5-CF92-0841-BAA0-6FB9A8AA212D}"/>
+    <hyperlink ref="B199" r:id="rId192" xr:uid="{BF1A3EB5-CF92-0841-BAA0-6FB9A8AA212D}"/>
     <hyperlink ref="B183" r:id="rId193" xr:uid="{209E1586-B300-E449-AB0D-FB1B05BABBF3}"/>
-    <hyperlink ref="B196" r:id="rId194" xr:uid="{8990349C-86E1-C145-ACEC-0328F8EDB6A4}"/>
-    <hyperlink ref="B192" r:id="rId195" xr:uid="{CAEE1FFD-BED7-0840-8AD6-6D6AA939DF6A}"/>
+    <hyperlink ref="B207" r:id="rId194" xr:uid="{8990349C-86E1-C145-ACEC-0328F8EDB6A4}"/>
+    <hyperlink ref="B198" r:id="rId195" xr:uid="{CAEE1FFD-BED7-0840-8AD6-6D6AA939DF6A}"/>
+    <hyperlink ref="B195" r:id="rId196" xr:uid="{879BD8A7-A4E9-7F46-AF9D-42802A14D7F7}"/>
+    <hyperlink ref="B205" r:id="rId197" xr:uid="{83E9DE22-AF97-714B-8BF6-AA73C186A029}"/>
+    <hyperlink ref="B200" r:id="rId198" xr:uid="{2A9ED378-ECB7-DD40-A541-1DB0EB570B82}"/>
+    <hyperlink ref="B196" r:id="rId199" xr:uid="{E12B1918-0DD5-1C45-AB82-8F12DD0D05A7}"/>
+    <hyperlink ref="B197" r:id="rId200" xr:uid="{E1812E39-EA9E-E44A-8BB6-09A1A913EB25}"/>
+    <hyperlink ref="B194" r:id="rId201" xr:uid="{979A7148-E019-F149-BD01-20370E536B16}"/>
+    <hyperlink ref="B192" r:id="rId202" xr:uid="{58CF6A54-41F2-F24B-9BF6-4B2316313DBF}"/>
+    <hyperlink ref="B201" r:id="rId203" xr:uid="{F3581400-AB2A-0749-A4E4-B5374523CB62}"/>
+    <hyperlink ref="B204" r:id="rId204" xr:uid="{98607997-8D86-1D49-89DC-A94D81C26DE4}"/>
+    <hyperlink ref="B202" r:id="rId205" xr:uid="{5A78EF2F-315D-0248-82E7-3837C642D8EE}"/>
+    <hyperlink ref="B191" r:id="rId206" xr:uid="{2CC9FDA5-1399-844B-A10A-621ACD4E3D83}"/>
+    <hyperlink ref="B208" r:id="rId207" xr:uid="{FAB36EE3-F2EB-2946-BC17-D6D53846E0A0}"/>
+    <hyperlink ref="B209" r:id="rId208" xr:uid="{DDB78A85-B6DB-7C44-8926-BCBA7584A870}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId196"/>
+  <legacyDrawing r:id="rId209"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA81A273-40D1-C043-B92A-150693AC55EB}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5426,32 +5915,44 @@
     </row>
     <row r="4" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>704</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>705</v>
-      </c>
       <c r="C4" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>784</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{A525A133-A91A-094B-A311-07999BE7BA06}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{F68E2C01-575E-D647-9241-3152E6DBDCE5}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{CA1C0CE0-5F21-B843-BBE3-91B53DFACE57}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{2C94C806-EACF-6D44-9C7E-30C52899A3FD}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE4DD07-1D2F-4849-A579-59C2F2CCD7DE}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5490,12 +5991,24 @@
         <v>681</v>
       </c>
     </row>
+    <row r="3" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>756</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{A14EBD9A-F7A3-2249-972A-30351CA7CBFB}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{F0FF63D1-F8E7-A84A-ADC9-D8854FA383F0}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5631,13 +6144,13 @@
     </row>
     <row r="13" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -5662,13 +6175,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12814D52-B4A6-0C42-8333-C9B66CE67680}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5905,26 +6418,26 @@
     </row>
     <row r="24" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="187" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="187" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="153" x14ac:dyDescent="0.2">
@@ -5960,18 +6473,98 @@
         <v>646</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:3" ht="154" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>649</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="15" t="s">
         <v>625</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="14" t="s">
         <v>648</v>
       </c>
     </row>
+    <row r="31" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A34" s="22" t="s">
+        <v>777</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>766</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>782</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="C31:C37">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{0C9DF644-4D1C-6E4A-9F49-189CC05B8C64}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{026A37DE-594B-6144-902D-4A87A86F35C8}"/>
@@ -6002,21 +6595,28 @@
     <hyperlink ref="B24" r:id="rId27" xr:uid="{4761C4BD-2468-3A4A-B601-5BBB657E08CE}"/>
     <hyperlink ref="B25" r:id="rId28" xr:uid="{B5FFDFB7-670F-4F41-B257-0469D79F1254}"/>
     <hyperlink ref="B26" r:id="rId29" xr:uid="{D92487E8-EC35-3945-8B50-AC77100B7D2E}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{629F987B-C185-D242-8EB3-99F1881F1F8A}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{A9CF2424-6E20-1B42-AD0A-958ACA584265}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{0447E7AD-98C5-F04A-9450-DB5DAC1B03B8}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{C4189625-2D70-A64F-9BCE-7BE024E2F7F4}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{6FD89FF4-84D7-7B46-A2F8-B99283CD6FAD}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{79F6BA98-6E46-1F41-87EB-2D95927B5F93}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{A64B8C7F-6072-0745-AC8B-77DC954C66C2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId30"/>
+  <legacyDrawing r:id="rId37"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D49A42-744A-EE4A-B294-D2CA066FEF3F}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6098,14 +6698,23 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>730</v>
-      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="C9" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6120,6 +6729,176 @@
     <hyperlink ref="B7" r:id="rId9" xr:uid="{5F395E17-E4AF-054E-86DB-3A8C85147AFE}"/>
     <hyperlink ref="B8" r:id="rId10" xr:uid="{23DC5622-B004-494F-9DA9-EEC70BF2FA6F}"/>
     <hyperlink ref="C8" r:id="rId11" xr:uid="{8A1A242A-CEB0-A741-A37D-476362C60252}"/>
+    <hyperlink ref="B9" r:id="rId12" xr:uid="{69A58E07-FF33-B141-8778-1C444CD7D4BE}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0BE297-3F1F-9046-AE65-D819483CE6C3}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="47.1640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="62" style="6" customWidth="1"/>
+    <col min="3" max="3" width="82.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>821</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{8833F9EE-3B22-0A40-871B-DF6E4616F950}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{77604C40-8FF3-924F-A74B-DDEFC95C7705}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{7D65D0DD-97E1-564B-B45F-458F0FF4D40B}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{09C8A4C5-5228-2548-8CFC-A16BB84CD650}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{3884700E-2558-FA40-85A6-09F52CA05DE6}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{1E02CA53-D2DA-2344-9A1F-3C15A0778C03}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{B9F377AF-72EC-4D49-B3D7-16A295BBE9A0}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{7366058C-31D2-4F4F-95E4-3FE12DF86887}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{62E421EC-53F5-F94C-B079-3B387210E243}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{49E80A69-7F68-B54C-900D-671048E17B75}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{B855EF76-0F04-D448-9BA9-664D3119583C}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/CienciaComRConsultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A7507C-5CEA-3E4D-93F7-4ADA52DE76EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2696018-3E2E-F241-B803-53096F17037D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="680" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="835">
   <si>
     <t>Doutorado</t>
   </si>
@@ -2635,6 +2635,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/17NgHRwXmGu7oX_85QgcOU0A2eqpZHTMY</t>
+  </si>
+  <si>
+    <t>10.3390/sym18010166</t>
+  </si>
+  <si>
+    <t>Ferreira AdS, dos Anjos FV. Applying Symmetry to Motor Control in Sports and Rehabilitation. Symmetry. 2026; 18(1):166. https://doi.org/10.3390/sym18010166</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DD3VosXjlccbBu3g8di-cFGKJCEdowrn</t>
   </si>
 </sst>
 </file>
@@ -3326,13 +3335,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C209"/>
+  <dimension ref="A1:C210"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B206" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B207" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A209" sqref="A209"/>
+      <selection pane="bottomRight" activeCell="A210" sqref="A210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3530,7 +3539,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>65</v>
       </c>
@@ -3563,7 +3572,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>86</v>
       </c>
@@ -3695,7 +3704,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>107</v>
       </c>
@@ -5640,6 +5649,17 @@
       </c>
       <c r="C209" s="6" t="s">
         <v>829</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A210" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>832</v>
       </c>
     </row>
   </sheetData>
@@ -5855,9 +5875,10 @@
     <hyperlink ref="B191" r:id="rId206" xr:uid="{2CC9FDA5-1399-844B-A10A-621ACD4E3D83}"/>
     <hyperlink ref="B208" r:id="rId207" xr:uid="{FAB36EE3-F2EB-2946-BC17-D6D53846E0A0}"/>
     <hyperlink ref="B209" r:id="rId208" xr:uid="{DDB78A85-B6DB-7C44-8926-BCBA7584A870}"/>
+    <hyperlink ref="B210" r:id="rId209" xr:uid="{5D951114-AC5B-764A-9248-B3AA437C0B38}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId209"/>
+  <legacyDrawing r:id="rId210"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/CienciaComRConsultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2696018-3E2E-F241-B803-53096F17037D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE93E9A-6B6E-3F49-AFA8-F6B9259955C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="680" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="841">
   <si>
     <t>Doutorado</t>
   </si>
@@ -2644,6 +2644,24 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1DD3VosXjlccbBu3g8di-cFGKJCEdowrn</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1sEMXcHD9S_QQV3IFETDPi-q6rhhpWaky</t>
+  </si>
+  <si>
+    <t>10.63231/2595-0118.202558-en</t>
+  </si>
+  <si>
+    <t>Bonfim, I. S., Nogeuria, L. A. C., Meziat-Filho, N. A., M., Ferreira, A. S., (2025). Factors associated with chronic musculoskeletal pain in individuals with long-COVID after hospital discharge: cross-sectional study. Brazilian Journal of Pain. 8, e202558. https://doi.org/10.63231/2595-0118.202558-en</t>
+  </si>
+  <si>
+    <t>Petrov, I., Stoichev, K., Aliman, O., Kashilska, Y., Gencheva, D., Goranov, G., Tsekoura, D., Parisotto, G., Ferreira, A. S., Lopes, A. J., Dzhafer, N., Bozov, H., Panayotov, K., &amp; Papathanasiou, J. (2025). Effects of differing nutritional supplementation combined with high-intensity aerobic interval training on functional exercise capacity, cardiac function, and quality of life in patients with heart failure and reduced ejection fraction: a randomized trial. American Journal of Physical Medicine &amp;amp; Rehabilitation. https://doi.org/10.1097/phm.0000000000002932</t>
+  </si>
+  <si>
+    <t>10.1097/phm.0000000000002932</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hBNi-HHumKXb5lKH2V9XVpq5MTBxyXOY</t>
   </si>
 </sst>
 </file>
@@ -3335,13 +3353,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C210"/>
+  <dimension ref="A1:C212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B207" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B209" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A210" sqref="A210"/>
+      <selection pane="bottomRight" activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5453,213 +5471,235 @@
         <v>823</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A193" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="B192" s="7" t="s">
+      <c r="B193" s="7" t="s">
         <v>751</v>
       </c>
-      <c r="C192" s="6" t="s">
+      <c r="C193" s="6" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A193" s="6" t="s">
+    <row r="194" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A194" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="B193" s="9" t="s">
+      <c r="B194" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="C193" s="6" t="s">
+      <c r="C194" s="6" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A194" s="6" t="s">
+    <row r="195" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A195" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="B194" s="9" t="s">
+      <c r="B195" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="C194" s="6" t="s">
+      <c r="C195" s="6" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A195" s="6" t="s">
+    <row r="196" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A196" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="B196" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="C195" s="6" t="s">
+      <c r="C196" s="6" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A196" s="6" t="s">
+    <row r="197" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A197" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="B196" s="9" t="s">
+      <c r="B197" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="C196" s="6" t="s">
+      <c r="C197" s="6" t="s">
         <v>738</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A197" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>742</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A199" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="B198" s="9" t="s">
+      <c r="B199" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="C198" s="6" t="s">
+      <c r="C199" s="6" t="s">
         <v>714</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A199" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>708</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A201" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="B200" s="9" t="s">
+      <c r="B201" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="C200" s="6" t="s">
+      <c r="C201" s="6" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A201" s="6" t="s">
+    <row r="202" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A202" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="B201" s="9" t="s">
+      <c r="B202" s="9" t="s">
         <v>754</v>
       </c>
-      <c r="C201" s="6" t="s">
+      <c r="C202" s="6" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A202" s="6" t="s">
+    <row r="203" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A203" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="B202" s="9" t="s">
+      <c r="B203" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="C202" s="6" t="s">
+      <c r="C203" s="6" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A203" s="6" t="s">
+    <row r="204" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A204" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="B203" s="9" t="s">
+      <c r="B204" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="C203" s="6" t="s">
+      <c r="C204" s="6" t="s">
         <v>674</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A204" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="B204" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A206" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="B205" s="9" t="s">
+      <c r="B206" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="C205" s="6" t="s">
+      <c r="C206" s="6" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="187" x14ac:dyDescent="0.2">
-      <c r="A206" s="6" t="s">
+    <row r="207" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+      <c r="A207" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="B206" s="9" t="s">
+      <c r="B207" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="C206" s="6" t="s">
+      <c r="C207" s="6" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A207" s="6" t="s">
+    <row r="208" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A208" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="B207" s="7" t="s">
+      <c r="B208" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="C207" s="6" t="s">
+      <c r="C208" s="6" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A208" s="25" t="s">
+    <row r="209" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A209" s="25" t="s">
         <v>827</v>
       </c>
-      <c r="B208" s="26" t="s">
+      <c r="B209" s="26" t="s">
         <v>828</v>
       </c>
-      <c r="C208" s="25" t="s">
+      <c r="C209" s="25" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A209" s="6" t="s">
+    <row r="210" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A210" s="6" t="s">
         <v>830</v>
       </c>
-      <c r="B209" s="7" t="s">
+      <c r="B210" s="7" t="s">
         <v>831</v>
       </c>
-      <c r="C209" s="6" t="s">
+      <c r="C210" s="6" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A210" s="6" t="s">
+    <row r="211" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A211" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="B210" s="7" t="s">
+      <c r="B211" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="C210" s="6" t="s">
+      <c r="C211" s="6" t="s">
         <v>832</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+      <c r="A212" s="22" t="s">
+        <v>838</v>
+      </c>
+      <c r="B212" s="23" t="s">
+        <v>840</v>
+      </c>
+      <c r="C212" s="22" t="s">
+        <v>839</v>
       </c>
     </row>
   </sheetData>
@@ -5853,32 +5893,34 @@
     <hyperlink ref="B177" r:id="rId184" xr:uid="{2062A71F-134B-894B-8846-EBE07862159F}"/>
     <hyperlink ref="B188" r:id="rId185" xr:uid="{160997CC-24EC-AF45-B4B5-A42D9DAF844A}"/>
     <hyperlink ref="B176" r:id="rId186" xr:uid="{25DD0A18-959B-A34B-8A93-D3FEF3FB97F9}"/>
-    <hyperlink ref="B203" r:id="rId187" xr:uid="{BA3D02D1-77B0-BE46-B252-C3907725109A}"/>
-    <hyperlink ref="B206" r:id="rId188" xr:uid="{80CA59D1-9BA2-8346-91A8-5971988A89C5}"/>
-    <hyperlink ref="B193" r:id="rId189" xr:uid="{21B013FC-291F-B645-B9CB-D55C82E0FF3C}"/>
+    <hyperlink ref="B204" r:id="rId187" xr:uid="{BA3D02D1-77B0-BE46-B252-C3907725109A}"/>
+    <hyperlink ref="B207" r:id="rId188" xr:uid="{80CA59D1-9BA2-8346-91A8-5971988A89C5}"/>
+    <hyperlink ref="B194" r:id="rId189" xr:uid="{21B013FC-291F-B645-B9CB-D55C82E0FF3C}"/>
     <hyperlink ref="B189" r:id="rId190" xr:uid="{E1387560-3B21-8744-8282-FA62172ADD59}"/>
     <hyperlink ref="B190" r:id="rId191" xr:uid="{33E26B4B-696D-C148-833C-5E1DE66A42D2}"/>
-    <hyperlink ref="B199" r:id="rId192" xr:uid="{BF1A3EB5-CF92-0841-BAA0-6FB9A8AA212D}"/>
+    <hyperlink ref="B200" r:id="rId192" xr:uid="{BF1A3EB5-CF92-0841-BAA0-6FB9A8AA212D}"/>
     <hyperlink ref="B183" r:id="rId193" xr:uid="{209E1586-B300-E449-AB0D-FB1B05BABBF3}"/>
-    <hyperlink ref="B207" r:id="rId194" xr:uid="{8990349C-86E1-C145-ACEC-0328F8EDB6A4}"/>
-    <hyperlink ref="B198" r:id="rId195" xr:uid="{CAEE1FFD-BED7-0840-8AD6-6D6AA939DF6A}"/>
-    <hyperlink ref="B195" r:id="rId196" xr:uid="{879BD8A7-A4E9-7F46-AF9D-42802A14D7F7}"/>
-    <hyperlink ref="B205" r:id="rId197" xr:uid="{83E9DE22-AF97-714B-8BF6-AA73C186A029}"/>
-    <hyperlink ref="B200" r:id="rId198" xr:uid="{2A9ED378-ECB7-DD40-A541-1DB0EB570B82}"/>
-    <hyperlink ref="B196" r:id="rId199" xr:uid="{E12B1918-0DD5-1C45-AB82-8F12DD0D05A7}"/>
-    <hyperlink ref="B197" r:id="rId200" xr:uid="{E1812E39-EA9E-E44A-8BB6-09A1A913EB25}"/>
-    <hyperlink ref="B194" r:id="rId201" xr:uid="{979A7148-E019-F149-BD01-20370E536B16}"/>
-    <hyperlink ref="B192" r:id="rId202" xr:uid="{58CF6A54-41F2-F24B-9BF6-4B2316313DBF}"/>
-    <hyperlink ref="B201" r:id="rId203" xr:uid="{F3581400-AB2A-0749-A4E4-B5374523CB62}"/>
-    <hyperlink ref="B204" r:id="rId204" xr:uid="{98607997-8D86-1D49-89DC-A94D81C26DE4}"/>
-    <hyperlink ref="B202" r:id="rId205" xr:uid="{5A78EF2F-315D-0248-82E7-3837C642D8EE}"/>
+    <hyperlink ref="B208" r:id="rId194" xr:uid="{8990349C-86E1-C145-ACEC-0328F8EDB6A4}"/>
+    <hyperlink ref="B199" r:id="rId195" xr:uid="{CAEE1FFD-BED7-0840-8AD6-6D6AA939DF6A}"/>
+    <hyperlink ref="B196" r:id="rId196" xr:uid="{879BD8A7-A4E9-7F46-AF9D-42802A14D7F7}"/>
+    <hyperlink ref="B206" r:id="rId197" xr:uid="{83E9DE22-AF97-714B-8BF6-AA73C186A029}"/>
+    <hyperlink ref="B201" r:id="rId198" xr:uid="{2A9ED378-ECB7-DD40-A541-1DB0EB570B82}"/>
+    <hyperlink ref="B197" r:id="rId199" xr:uid="{E12B1918-0DD5-1C45-AB82-8F12DD0D05A7}"/>
+    <hyperlink ref="B198" r:id="rId200" xr:uid="{E1812E39-EA9E-E44A-8BB6-09A1A913EB25}"/>
+    <hyperlink ref="B195" r:id="rId201" xr:uid="{979A7148-E019-F149-BD01-20370E536B16}"/>
+    <hyperlink ref="B193" r:id="rId202" xr:uid="{58CF6A54-41F2-F24B-9BF6-4B2316313DBF}"/>
+    <hyperlink ref="B202" r:id="rId203" xr:uid="{F3581400-AB2A-0749-A4E4-B5374523CB62}"/>
+    <hyperlink ref="B205" r:id="rId204" xr:uid="{98607997-8D86-1D49-89DC-A94D81C26DE4}"/>
+    <hyperlink ref="B203" r:id="rId205" xr:uid="{5A78EF2F-315D-0248-82E7-3837C642D8EE}"/>
     <hyperlink ref="B191" r:id="rId206" xr:uid="{2CC9FDA5-1399-844B-A10A-621ACD4E3D83}"/>
-    <hyperlink ref="B208" r:id="rId207" xr:uid="{FAB36EE3-F2EB-2946-BC17-D6D53846E0A0}"/>
-    <hyperlink ref="B209" r:id="rId208" xr:uid="{DDB78A85-B6DB-7C44-8926-BCBA7584A870}"/>
-    <hyperlink ref="B210" r:id="rId209" xr:uid="{5D951114-AC5B-764A-9248-B3AA437C0B38}"/>
+    <hyperlink ref="B209" r:id="rId207" xr:uid="{FAB36EE3-F2EB-2946-BC17-D6D53846E0A0}"/>
+    <hyperlink ref="B210" r:id="rId208" xr:uid="{DDB78A85-B6DB-7C44-8926-BCBA7584A870}"/>
+    <hyperlink ref="B211" r:id="rId209" xr:uid="{5D951114-AC5B-764A-9248-B3AA437C0B38}"/>
+    <hyperlink ref="B192" r:id="rId210" xr:uid="{F7EF741D-9590-8A41-A116-2F40CD601256}"/>
+    <hyperlink ref="B212" r:id="rId211" xr:uid="{9A85553B-9502-1A41-A6DA-49A2E77F4F92}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId210"/>
+  <legacyDrawing r:id="rId212"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/CienciaComRConsultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE93E9A-6B6E-3F49-AFA8-F6B9259955C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC74E413-00F7-1F46-837F-E2A1D31F1F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="680" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="844">
   <si>
     <t>Doutorado</t>
   </si>
@@ -2662,6 +2662,24 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1hBNi-HHumKXb5lKH2V9XVpq5MTBxyXOY</t>
+  </si>
+  <si>
+    <t>10.47066/2966-4837.e00072025en</t>
+  </si>
+  <si>
+    <t>Amaral J, Silva GRC, Thimoteo
+LM, Reis LFF, Silva CA, Ferreira AS.
+Explainable machine learning reveals key
+predictors of icu mortality in COVID-19:
+functional outcomes and physiotherapy
+interventions in cardiovascular patients.
+Brazilian Journal of Respiratory,
+Cardiovascular and Critical Care
+Physiotherapy. 2025;16:e00072025. https://
+doi.org/10.47066/2966-4837.e00072025en</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/152iJsD61rnmXBZdi5bMB2sPRc58FgVK0</t>
   </si>
 </sst>
 </file>
@@ -3353,13 +3371,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C212"/>
+  <dimension ref="A1:C213"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B209" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B210" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A212" sqref="A212"/>
+      <selection pane="bottomRight" activeCell="A213" sqref="A213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5460,245 +5478,256 @@
         <v>700</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A192" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="B191" s="7" t="s">
+      <c r="B192" s="7" t="s">
         <v>822</v>
       </c>
-      <c r="C191" s="6" t="s">
+      <c r="C192" s="6" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A192" s="6" t="s">
+    <row r="193" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A193" s="6" t="s">
         <v>837</v>
       </c>
-      <c r="B192" s="7" t="s">
+      <c r="B193" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="C192" s="6" t="s">
+      <c r="C193" s="6" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A193" s="6" t="s">
+    <row r="194" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A194" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="B193" s="7" t="s">
+      <c r="B194" s="7" t="s">
         <v>751</v>
       </c>
-      <c r="C193" s="6" t="s">
+      <c r="C194" s="6" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A194" s="6" t="s">
+    <row r="195" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A195" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="B194" s="9" t="s">
+      <c r="B195" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="C194" s="6" t="s">
+      <c r="C195" s="6" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A195" s="6" t="s">
+    <row r="196" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A196" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="B196" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="C195" s="6" t="s">
+      <c r="C196" s="6" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A196" s="6" t="s">
+    <row r="197" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A197" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="B196" s="9" t="s">
+      <c r="B197" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="C196" s="6" t="s">
+      <c r="C197" s="6" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A197" s="6" t="s">
+    <row r="198" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A198" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="B197" s="9" t="s">
+      <c r="B198" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="C197" s="6" t="s">
+      <c r="C198" s="6" t="s">
         <v>738</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A198" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="B198" s="9" t="s">
-        <v>742</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A200" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="B199" s="9" t="s">
+      <c r="B200" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="C199" s="6" t="s">
+      <c r="C200" s="6" t="s">
         <v>714</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A200" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="B200" s="9" t="s">
-        <v>708</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="153" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A202" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="B201" s="9" t="s">
+      <c r="B202" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="C201" s="6" t="s">
+      <c r="C202" s="6" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A202" s="6" t="s">
+    <row r="203" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A203" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="B202" s="9" t="s">
+      <c r="B203" s="9" t="s">
         <v>754</v>
       </c>
-      <c r="C202" s="6" t="s">
+      <c r="C203" s="6" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A203" s="6" t="s">
+    <row r="204" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A204" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="B203" s="9" t="s">
+      <c r="B204" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="C203" s="6" t="s">
+      <c r="C204" s="6" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A204" s="6" t="s">
+    <row r="205" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A205" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="B204" s="9" t="s">
+      <c r="B205" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="C204" s="6" t="s">
+      <c r="C205" s="6" t="s">
         <v>674</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A205" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="B205" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="C205" s="6" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A207" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="B206" s="9" t="s">
+      <c r="B207" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="C206" s="6" t="s">
+      <c r="C207" s="6" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="187" x14ac:dyDescent="0.2">
-      <c r="A207" s="6" t="s">
+    <row r="208" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+      <c r="A208" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="B207" s="9" t="s">
+      <c r="B208" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="C207" s="6" t="s">
+      <c r="C208" s="6" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A208" s="6" t="s">
+    <row r="209" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A209" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="B209" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="C208" s="6" t="s">
+      <c r="C209" s="6" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A209" s="25" t="s">
+    <row r="210" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A210" s="25" t="s">
         <v>827</v>
       </c>
-      <c r="B209" s="26" t="s">
+      <c r="B210" s="26" t="s">
         <v>828</v>
       </c>
-      <c r="C209" s="25" t="s">
+      <c r="C210" s="25" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A210" s="6" t="s">
+    <row r="211" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A211" s="6" t="s">
         <v>830</v>
       </c>
-      <c r="B210" s="7" t="s">
+      <c r="B211" s="7" t="s">
         <v>831</v>
       </c>
-      <c r="C210" s="6" t="s">
+      <c r="C211" s="6" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A211" s="6" t="s">
+    <row r="212" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A212" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="B211" s="7" t="s">
+      <c r="B212" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="C211" s="6" t="s">
+      <c r="C212" s="6" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="204" x14ac:dyDescent="0.2">
-      <c r="A212" s="22" t="s">
+    <row r="213" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+      <c r="A213" s="22" t="s">
         <v>838</v>
       </c>
-      <c r="B212" s="23" t="s">
+      <c r="B213" s="23" t="s">
         <v>840</v>
       </c>
-      <c r="C212" s="22" t="s">
+      <c r="C213" s="22" t="s">
         <v>839</v>
       </c>
     </row>
@@ -5893,34 +5922,35 @@
     <hyperlink ref="B177" r:id="rId184" xr:uid="{2062A71F-134B-894B-8846-EBE07862159F}"/>
     <hyperlink ref="B188" r:id="rId185" xr:uid="{160997CC-24EC-AF45-B4B5-A42D9DAF844A}"/>
     <hyperlink ref="B176" r:id="rId186" xr:uid="{25DD0A18-959B-A34B-8A93-D3FEF3FB97F9}"/>
-    <hyperlink ref="B204" r:id="rId187" xr:uid="{BA3D02D1-77B0-BE46-B252-C3907725109A}"/>
-    <hyperlink ref="B207" r:id="rId188" xr:uid="{80CA59D1-9BA2-8346-91A8-5971988A89C5}"/>
-    <hyperlink ref="B194" r:id="rId189" xr:uid="{21B013FC-291F-B645-B9CB-D55C82E0FF3C}"/>
+    <hyperlink ref="B205" r:id="rId187" xr:uid="{BA3D02D1-77B0-BE46-B252-C3907725109A}"/>
+    <hyperlink ref="B208" r:id="rId188" xr:uid="{80CA59D1-9BA2-8346-91A8-5971988A89C5}"/>
+    <hyperlink ref="B195" r:id="rId189" xr:uid="{21B013FC-291F-B645-B9CB-D55C82E0FF3C}"/>
     <hyperlink ref="B189" r:id="rId190" xr:uid="{E1387560-3B21-8744-8282-FA62172ADD59}"/>
     <hyperlink ref="B190" r:id="rId191" xr:uid="{33E26B4B-696D-C148-833C-5E1DE66A42D2}"/>
-    <hyperlink ref="B200" r:id="rId192" xr:uid="{BF1A3EB5-CF92-0841-BAA0-6FB9A8AA212D}"/>
+    <hyperlink ref="B201" r:id="rId192" xr:uid="{BF1A3EB5-CF92-0841-BAA0-6FB9A8AA212D}"/>
     <hyperlink ref="B183" r:id="rId193" xr:uid="{209E1586-B300-E449-AB0D-FB1B05BABBF3}"/>
-    <hyperlink ref="B208" r:id="rId194" xr:uid="{8990349C-86E1-C145-ACEC-0328F8EDB6A4}"/>
-    <hyperlink ref="B199" r:id="rId195" xr:uid="{CAEE1FFD-BED7-0840-8AD6-6D6AA939DF6A}"/>
-    <hyperlink ref="B196" r:id="rId196" xr:uid="{879BD8A7-A4E9-7F46-AF9D-42802A14D7F7}"/>
-    <hyperlink ref="B206" r:id="rId197" xr:uid="{83E9DE22-AF97-714B-8BF6-AA73C186A029}"/>
-    <hyperlink ref="B201" r:id="rId198" xr:uid="{2A9ED378-ECB7-DD40-A541-1DB0EB570B82}"/>
-    <hyperlink ref="B197" r:id="rId199" xr:uid="{E12B1918-0DD5-1C45-AB82-8F12DD0D05A7}"/>
-    <hyperlink ref="B198" r:id="rId200" xr:uid="{E1812E39-EA9E-E44A-8BB6-09A1A913EB25}"/>
-    <hyperlink ref="B195" r:id="rId201" xr:uid="{979A7148-E019-F149-BD01-20370E536B16}"/>
-    <hyperlink ref="B193" r:id="rId202" xr:uid="{58CF6A54-41F2-F24B-9BF6-4B2316313DBF}"/>
-    <hyperlink ref="B202" r:id="rId203" xr:uid="{F3581400-AB2A-0749-A4E4-B5374523CB62}"/>
-    <hyperlink ref="B205" r:id="rId204" xr:uid="{98607997-8D86-1D49-89DC-A94D81C26DE4}"/>
-    <hyperlink ref="B203" r:id="rId205" xr:uid="{5A78EF2F-315D-0248-82E7-3837C642D8EE}"/>
-    <hyperlink ref="B191" r:id="rId206" xr:uid="{2CC9FDA5-1399-844B-A10A-621ACD4E3D83}"/>
-    <hyperlink ref="B209" r:id="rId207" xr:uid="{FAB36EE3-F2EB-2946-BC17-D6D53846E0A0}"/>
-    <hyperlink ref="B210" r:id="rId208" xr:uid="{DDB78A85-B6DB-7C44-8926-BCBA7584A870}"/>
-    <hyperlink ref="B211" r:id="rId209" xr:uid="{5D951114-AC5B-764A-9248-B3AA437C0B38}"/>
-    <hyperlink ref="B192" r:id="rId210" xr:uid="{F7EF741D-9590-8A41-A116-2F40CD601256}"/>
-    <hyperlink ref="B212" r:id="rId211" xr:uid="{9A85553B-9502-1A41-A6DA-49A2E77F4F92}"/>
+    <hyperlink ref="B209" r:id="rId194" xr:uid="{8990349C-86E1-C145-ACEC-0328F8EDB6A4}"/>
+    <hyperlink ref="B200" r:id="rId195" xr:uid="{CAEE1FFD-BED7-0840-8AD6-6D6AA939DF6A}"/>
+    <hyperlink ref="B197" r:id="rId196" xr:uid="{879BD8A7-A4E9-7F46-AF9D-42802A14D7F7}"/>
+    <hyperlink ref="B207" r:id="rId197" xr:uid="{83E9DE22-AF97-714B-8BF6-AA73C186A029}"/>
+    <hyperlink ref="B202" r:id="rId198" xr:uid="{2A9ED378-ECB7-DD40-A541-1DB0EB570B82}"/>
+    <hyperlink ref="B198" r:id="rId199" xr:uid="{E12B1918-0DD5-1C45-AB82-8F12DD0D05A7}"/>
+    <hyperlink ref="B199" r:id="rId200" xr:uid="{E1812E39-EA9E-E44A-8BB6-09A1A913EB25}"/>
+    <hyperlink ref="B196" r:id="rId201" xr:uid="{979A7148-E019-F149-BD01-20370E536B16}"/>
+    <hyperlink ref="B194" r:id="rId202" xr:uid="{58CF6A54-41F2-F24B-9BF6-4B2316313DBF}"/>
+    <hyperlink ref="B203" r:id="rId203" xr:uid="{F3581400-AB2A-0749-A4E4-B5374523CB62}"/>
+    <hyperlink ref="B206" r:id="rId204" xr:uid="{98607997-8D86-1D49-89DC-A94D81C26DE4}"/>
+    <hyperlink ref="B204" r:id="rId205" xr:uid="{5A78EF2F-315D-0248-82E7-3837C642D8EE}"/>
+    <hyperlink ref="B192" r:id="rId206" xr:uid="{2CC9FDA5-1399-844B-A10A-621ACD4E3D83}"/>
+    <hyperlink ref="B210" r:id="rId207" xr:uid="{FAB36EE3-F2EB-2946-BC17-D6D53846E0A0}"/>
+    <hyperlink ref="B211" r:id="rId208" xr:uid="{DDB78A85-B6DB-7C44-8926-BCBA7584A870}"/>
+    <hyperlink ref="B212" r:id="rId209" xr:uid="{5D951114-AC5B-764A-9248-B3AA437C0B38}"/>
+    <hyperlink ref="B193" r:id="rId210" xr:uid="{F7EF741D-9590-8A41-A116-2F40CD601256}"/>
+    <hyperlink ref="B213" r:id="rId211" xr:uid="{9A85553B-9502-1A41-A6DA-49A2E77F4F92}"/>
+    <hyperlink ref="B191" r:id="rId212" xr:uid="{6819F61D-1714-FC42-8465-B1A65C9986CE}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId212"/>
+  <legacyDrawing r:id="rId213"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/CienciaComRConsultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC74E413-00F7-1F46-837F-E2A1D31F1F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAE8A35-86FD-6B43-AB9C-EDFF591C66A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="680" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="850">
   <si>
     <t>Doutorado</t>
   </si>
@@ -2680,6 +2680,24 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/152iJsD61rnmXBZdi5bMB2sPRc58FgVK0</t>
+  </si>
+  <si>
+    <t>10.21203/rs.3.rs-8627904/v1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1en_rwFj4ugpuYaNvKXSXJa11N_WTCpzv</t>
+  </si>
+  <si>
+    <t>Alexandre Gomes Sancho, Arthur Sá Ferreira. Validation of SAUDE: A Citizen Science App for Functional Balance Assessment in Older Adults, 09 February 2026, PREPRINT (Version 1) available at Research Square [https://doi.org/10.21203/rs.3.rs-8627904/v1]</t>
+  </si>
+  <si>
+    <t>10.1080/00015385.2026.2630134</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MAmQfzZPNcZT4dlfY3gCM44XnIk3vtQU</t>
+  </si>
+  <si>
+    <t>Ferreira, A. de S., &amp; Parisotto, G. (2026). Insights from Ungureanu et al.: interpreting AI-clinician disagreement in ECG diagnostics. Acta Cardiologica, 1–3. https://doi.org/10.1080/00015385.2026.2630134</t>
   </si>
 </sst>
 </file>
@@ -3371,13 +3389,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C213"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B210" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B211" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A213" sqref="A213"/>
+      <selection pane="bottomRight" activeCell="A214" sqref="A214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5720,14 +5738,25 @@
         <v>832</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A213" s="22" t="s">
+        <v>849</v>
+      </c>
+      <c r="B213" s="23" t="s">
+        <v>848</v>
+      </c>
+      <c r="C213" s="22" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+      <c r="A214" s="22" t="s">
         <v>838</v>
       </c>
-      <c r="B213" s="23" t="s">
+      <c r="B214" s="23" t="s">
         <v>840</v>
       </c>
-      <c r="C213" s="22" t="s">
+      <c r="C214" s="22" t="s">
         <v>839</v>
       </c>
     </row>
@@ -5946,23 +5975,24 @@
     <hyperlink ref="B211" r:id="rId208" xr:uid="{DDB78A85-B6DB-7C44-8926-BCBA7584A870}"/>
     <hyperlink ref="B212" r:id="rId209" xr:uid="{5D951114-AC5B-764A-9248-B3AA437C0B38}"/>
     <hyperlink ref="B193" r:id="rId210" xr:uid="{F7EF741D-9590-8A41-A116-2F40CD601256}"/>
-    <hyperlink ref="B213" r:id="rId211" xr:uid="{9A85553B-9502-1A41-A6DA-49A2E77F4F92}"/>
+    <hyperlink ref="B214" r:id="rId211" xr:uid="{9A85553B-9502-1A41-A6DA-49A2E77F4F92}"/>
     <hyperlink ref="B191" r:id="rId212" xr:uid="{6819F61D-1714-FC42-8465-B1A65C9986CE}"/>
+    <hyperlink ref="B213" r:id="rId213" xr:uid="{B7157666-F9CD-F34D-9B13-B1F2EB28E8E8}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId213"/>
+  <legacyDrawing r:id="rId214"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA81A273-40D1-C043-B92A-150693AC55EB}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6017,15 +6047,26 @@
         <v>702</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:3" s="14" customFormat="1" ht="154" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>785</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="15" t="s">
         <v>786</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="14" t="s">
         <v>784</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>844</v>
       </c>
     </row>
   </sheetData>
@@ -6037,9 +6078,10 @@
     <hyperlink ref="B2" r:id="rId2" xr:uid="{F68E2C01-575E-D647-9241-3152E6DBDCE5}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{CA1C0CE0-5F21-B843-BBE3-91B53DFACE57}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{2C94C806-EACF-6D44-9C7E-30C52899A3FD}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{263172B8-675C-694E-B35C-A9767EC0337B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/CienciaComRConsultoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAE8A35-86FD-6B43-AB9C-EDFF591C66A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91DB9B7-0450-2B40-B3A0-FDD0C938340D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="680" windowWidth="27600" windowHeight="17140" activeTab="2" xr2:uid="{F123CA71-A1F8-7C47-BA09-37F4DB1DDBA0}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="853">
   <si>
     <t>Doutorado</t>
   </si>
@@ -2698,6 +2698,15 @@
   </si>
   <si>
     <t>Ferreira, A. de S., &amp; Parisotto, G. (2026). Insights from Ungureanu et al.: interpreting AI-clinician disagreement in ECG diagnostics. Acta Cardiologica, 1–3. https://doi.org/10.1080/00015385.2026.2630134</t>
+  </si>
+  <si>
+    <t>Sancho, Alexandre Gomes1,2; Ferreira, Arthur de Sá1,*. Engaging citizen science: Exploring popular participation in scientific projects in rehabilitation. Aging Medicine and Healthcare 17(1):p 53-58, Jan–Mar 2026. | DOI: 10.4103/AMAH.AMH-2024-07-068</t>
+  </si>
+  <si>
+    <t>10.4103/AMAH.AMH-2024-07-068</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rwS6apoz_umZ361NzOLeCHaJ3FiT3Xsx</t>
   </si>
 </sst>
 </file>
@@ -3389,13 +3398,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A79BD8E-05FA-344E-9159-B54A3FCCEA30}">
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B211" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A214" sqref="A214"/>
+      <selection pane="bottomRight" activeCell="A215" sqref="A215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5758,6 +5767,17 @@
       </c>
       <c r="C214" s="22" t="s">
         <v>839</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A215" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>851</v>
       </c>
     </row>
   </sheetData>
@@ -5978,9 +5998,10 @@
     <hyperlink ref="B214" r:id="rId211" xr:uid="{9A85553B-9502-1A41-A6DA-49A2E77F4F92}"/>
     <hyperlink ref="B191" r:id="rId212" xr:uid="{6819F61D-1714-FC42-8465-B1A65C9986CE}"/>
     <hyperlink ref="B213" r:id="rId213" xr:uid="{B7157666-F9CD-F34D-9B13-B1F2EB28E8E8}"/>
+    <hyperlink ref="B215" r:id="rId214" xr:uid="{E83FAF4B-DB22-274F-BCA3-C58C755BD58D}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId214"/>
+  <legacyDrawing r:id="rId215"/>
 </worksheet>
 </file>
 
